--- a/backend/templates/168-18c-white.xlsx
+++ b/backend/templates/168-18c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{25895A48-EBAD-4CB3-838A-3B9021A2027B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98CA2F-CCF0-416E-8180-147129A88423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,7 +556,7 @@
   <numFmts count="3">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
-    <numFmt numFmtId="172" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1336,7 +1336,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="273">
+  <cellXfs count="274">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1646,6 +1646,121 @@
     <xf numFmtId="164" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1658,88 +1773,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1750,185 +1794,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1941,57 +1847,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2065,101 +2148,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2176,63 +2234,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="172" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2706,61 +2709,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="116" t="s">
+      <c r="A1" s="165" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="116"/>
-      <c r="C1" s="116"/>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
-      <c r="H1" s="116"/>
-      <c r="I1" s="116"/>
-      <c r="J1" s="116"/>
-      <c r="K1" s="116"/>
-      <c r="L1" s="116"/>
-      <c r="M1" s="116"/>
-      <c r="N1" s="117" t="s">
+      <c r="B1" s="165"/>
+      <c r="C1" s="165"/>
+      <c r="D1" s="165"/>
+      <c r="E1" s="165"/>
+      <c r="F1" s="165"/>
+      <c r="G1" s="165"/>
+      <c r="H1" s="165"/>
+      <c r="I1" s="165"/>
+      <c r="J1" s="165"/>
+      <c r="K1" s="165"/>
+      <c r="L1" s="165"/>
+      <c r="M1" s="165"/>
+      <c r="N1" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="117"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="118" t="s">
+      <c r="A2" s="167" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="118"/>
-      <c r="C2" s="118"/>
-      <c r="D2" s="118"/>
-      <c r="E2" s="118"/>
-      <c r="F2" s="118"/>
-      <c r="G2" s="118"/>
-      <c r="H2" s="118"/>
-      <c r="I2" s="118"/>
-      <c r="J2" s="118"/>
-      <c r="K2" s="118"/>
-      <c r="L2" s="118"/>
-      <c r="M2" s="118"/>
-      <c r="N2" s="120" t="s">
+      <c r="B2" s="167"/>
+      <c r="C2" s="167"/>
+      <c r="D2" s="167"/>
+      <c r="E2" s="167"/>
+      <c r="F2" s="167"/>
+      <c r="G2" s="167"/>
+      <c r="H2" s="167"/>
+      <c r="I2" s="167"/>
+      <c r="J2" s="167"/>
+      <c r="K2" s="167"/>
+      <c r="L2" s="167"/>
+      <c r="M2" s="167"/>
+      <c r="N2" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="120"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="119"/>
-      <c r="B3" s="119"/>
-      <c r="C3" s="119"/>
-      <c r="D3" s="119"/>
-      <c r="E3" s="119"/>
-      <c r="F3" s="119"/>
-      <c r="G3" s="119"/>
-      <c r="H3" s="119"/>
-      <c r="I3" s="119"/>
-      <c r="J3" s="119"/>
-      <c r="K3" s="119"/>
-      <c r="L3" s="119"/>
-      <c r="M3" s="119"/>
+      <c r="A3" s="168"/>
+      <c r="B3" s="168"/>
+      <c r="C3" s="168"/>
+      <c r="D3" s="168"/>
+      <c r="E3" s="168"/>
+      <c r="F3" s="168"/>
+      <c r="G3" s="168"/>
+      <c r="H3" s="168"/>
+      <c r="I3" s="168"/>
+      <c r="J3" s="168"/>
+      <c r="K3" s="168"/>
+      <c r="L3" s="168"/>
+      <c r="M3" s="168"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2770,607 +2773,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="121"/>
-      <c r="C4" s="122"/>
-      <c r="D4" s="123" t="s">
+      <c r="B4" s="133"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="135" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="124"/>
-      <c r="F4" s="121"/>
-      <c r="G4" s="181"/>
-      <c r="H4" s="123" t="s">
+      <c r="E4" s="148"/>
+      <c r="F4" s="133"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="124"/>
-      <c r="J4" s="121"/>
-      <c r="K4" s="122"/>
-      <c r="L4" s="123" t="s">
+      <c r="I4" s="148"/>
+      <c r="J4" s="133"/>
+      <c r="K4" s="134"/>
+      <c r="L4" s="135" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="171"/>
-      <c r="N4" s="121"/>
-      <c r="O4" s="172"/>
+      <c r="M4" s="136"/>
+      <c r="N4" s="133"/>
+      <c r="O4" s="137"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="173"/>
-      <c r="C5" s="174"/>
-      <c r="D5" s="175" t="s">
+      <c r="B5" s="138"/>
+      <c r="C5" s="139"/>
+      <c r="D5" s="140" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="176"/>
-      <c r="F5" s="173"/>
-      <c r="G5" s="182"/>
-      <c r="H5" s="183" t="s">
+      <c r="E5" s="141"/>
+      <c r="F5" s="138"/>
+      <c r="G5" s="149"/>
+      <c r="H5" s="150" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="184"/>
-      <c r="J5" s="177"/>
-      <c r="K5" s="178"/>
-      <c r="L5" s="175" t="s">
+      <c r="I5" s="151"/>
+      <c r="J5" s="142"/>
+      <c r="K5" s="143"/>
+      <c r="L5" s="140" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="179"/>
-      <c r="N5" s="173"/>
-      <c r="O5" s="180"/>
+      <c r="M5" s="144"/>
+      <c r="N5" s="138"/>
+      <c r="O5" s="145"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="159" t="s">
+      <c r="A6" s="152" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="160"/>
-      <c r="C6" s="160"/>
-      <c r="D6" s="160"/>
-      <c r="E6" s="160"/>
-      <c r="F6" s="160"/>
-      <c r="G6" s="166"/>
-      <c r="H6" s="167"/>
-      <c r="I6" s="168"/>
-      <c r="J6" s="160"/>
-      <c r="K6" s="160"/>
-      <c r="L6" s="160"/>
-      <c r="M6" s="166"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="169"/>
+      <c r="B6" s="153"/>
+      <c r="C6" s="153"/>
+      <c r="D6" s="153"/>
+      <c r="E6" s="153"/>
+      <c r="F6" s="153"/>
+      <c r="G6" s="159"/>
+      <c r="H6" s="160"/>
+      <c r="I6" s="161"/>
+      <c r="J6" s="153"/>
+      <c r="K6" s="153"/>
+      <c r="L6" s="153"/>
+      <c r="M6" s="159"/>
+      <c r="N6" s="160"/>
+      <c r="O6" s="162"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="164" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="165"/>
-      <c r="C7" s="165"/>
-      <c r="D7" s="161" t="s">
+      <c r="A7" s="157" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="158"/>
+      <c r="C7" s="158"/>
+      <c r="D7" s="154" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="162"/>
-      <c r="F7" s="163"/>
-      <c r="G7" s="161" t="s">
+      <c r="E7" s="155"/>
+      <c r="F7" s="156"/>
+      <c r="G7" s="154" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="162"/>
-      <c r="I7" s="163"/>
-      <c r="J7" s="165" t="s">
+      <c r="H7" s="155"/>
+      <c r="I7" s="156"/>
+      <c r="J7" s="158" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="165"/>
-      <c r="L7" s="165"/>
-      <c r="M7" s="161" t="s">
+      <c r="K7" s="158"/>
+      <c r="L7" s="158"/>
+      <c r="M7" s="154" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="162"/>
-      <c r="O7" s="170"/>
+      <c r="N7" s="155"/>
+      <c r="O7" s="163"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="96"/>
-      <c r="E8" s="97"/>
-      <c r="F8" s="105"/>
-      <c r="G8" s="99"/>
-      <c r="H8" s="100"/>
-      <c r="I8" s="101"/>
-      <c r="J8" s="102"/>
-      <c r="K8" s="103"/>
-      <c r="L8" s="104"/>
-      <c r="M8" s="96"/>
-      <c r="N8" s="97"/>
-      <c r="O8" s="98"/>
+      <c r="D8" s="127"/>
+      <c r="E8" s="128"/>
+      <c r="F8" s="146"/>
+      <c r="G8" s="121"/>
+      <c r="H8" s="122"/>
+      <c r="I8" s="123"/>
+      <c r="J8" s="124"/>
+      <c r="K8" s="125"/>
+      <c r="L8" s="126"/>
+      <c r="M8" s="127"/>
+      <c r="N8" s="128"/>
+      <c r="O8" s="129"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="106"/>
-      <c r="E9" s="107"/>
-      <c r="F9" s="108"/>
-      <c r="G9" s="113"/>
-      <c r="H9" s="114"/>
-      <c r="I9" s="115"/>
-      <c r="J9" s="109"/>
-      <c r="K9" s="110"/>
-      <c r="L9" s="111"/>
-      <c r="M9" s="106"/>
-      <c r="N9" s="107"/>
-      <c r="O9" s="112"/>
+      <c r="D9" s="118"/>
+      <c r="E9" s="119"/>
+      <c r="F9" s="164"/>
+      <c r="G9" s="130"/>
+      <c r="H9" s="131"/>
+      <c r="I9" s="132"/>
+      <c r="J9" s="115"/>
+      <c r="K9" s="116"/>
+      <c r="L9" s="117"/>
+      <c r="M9" s="118"/>
+      <c r="N9" s="119"/>
+      <c r="O9" s="120"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="96"/>
-      <c r="E10" s="97"/>
-      <c r="F10" s="105"/>
-      <c r="G10" s="99"/>
-      <c r="H10" s="100"/>
-      <c r="I10" s="101"/>
-      <c r="J10" s="102"/>
-      <c r="K10" s="103"/>
-      <c r="L10" s="104"/>
-      <c r="M10" s="96"/>
-      <c r="N10" s="97"/>
-      <c r="O10" s="98"/>
+      <c r="D10" s="127"/>
+      <c r="E10" s="128"/>
+      <c r="F10" s="146"/>
+      <c r="G10" s="121"/>
+      <c r="H10" s="122"/>
+      <c r="I10" s="123"/>
+      <c r="J10" s="124"/>
+      <c r="K10" s="125"/>
+      <c r="L10" s="126"/>
+      <c r="M10" s="127"/>
+      <c r="N10" s="128"/>
+      <c r="O10" s="129"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="96"/>
-      <c r="E11" s="97"/>
-      <c r="F11" s="105"/>
-      <c r="G11" s="99"/>
-      <c r="H11" s="100"/>
-      <c r="I11" s="101"/>
-      <c r="J11" s="102"/>
-      <c r="K11" s="103"/>
-      <c r="L11" s="104"/>
-      <c r="M11" s="96"/>
-      <c r="N11" s="97"/>
-      <c r="O11" s="98"/>
+      <c r="D11" s="127"/>
+      <c r="E11" s="128"/>
+      <c r="F11" s="146"/>
+      <c r="G11" s="121"/>
+      <c r="H11" s="122"/>
+      <c r="I11" s="123"/>
+      <c r="J11" s="124"/>
+      <c r="K11" s="125"/>
+      <c r="L11" s="126"/>
+      <c r="M11" s="127"/>
+      <c r="N11" s="128"/>
+      <c r="O11" s="129"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="106"/>
-      <c r="E12" s="107"/>
-      <c r="F12" s="108"/>
-      <c r="G12" s="113"/>
-      <c r="H12" s="114"/>
-      <c r="I12" s="115"/>
-      <c r="J12" s="109"/>
-      <c r="K12" s="110"/>
-      <c r="L12" s="111"/>
-      <c r="M12" s="106"/>
-      <c r="N12" s="107"/>
-      <c r="O12" s="112"/>
+      <c r="D12" s="118"/>
+      <c r="E12" s="119"/>
+      <c r="F12" s="164"/>
+      <c r="G12" s="130"/>
+      <c r="H12" s="131"/>
+      <c r="I12" s="132"/>
+      <c r="J12" s="115"/>
+      <c r="K12" s="116"/>
+      <c r="L12" s="117"/>
+      <c r="M12" s="118"/>
+      <c r="N12" s="119"/>
+      <c r="O12" s="120"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="96"/>
-      <c r="E13" s="97"/>
-      <c r="F13" s="105"/>
-      <c r="G13" s="99"/>
-      <c r="H13" s="100"/>
-      <c r="I13" s="101"/>
-      <c r="J13" s="102"/>
-      <c r="K13" s="103"/>
-      <c r="L13" s="104"/>
-      <c r="M13" s="96"/>
-      <c r="N13" s="97"/>
-      <c r="O13" s="98"/>
+      <c r="D13" s="127"/>
+      <c r="E13" s="128"/>
+      <c r="F13" s="146"/>
+      <c r="G13" s="121"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="123"/>
+      <c r="J13" s="124"/>
+      <c r="K13" s="125"/>
+      <c r="L13" s="126"/>
+      <c r="M13" s="127"/>
+      <c r="N13" s="128"/>
+      <c r="O13" s="129"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="105"/>
-      <c r="G14" s="99"/>
-      <c r="H14" s="100"/>
-      <c r="I14" s="101"/>
-      <c r="J14" s="102"/>
-      <c r="K14" s="103"/>
-      <c r="L14" s="104"/>
-      <c r="M14" s="96"/>
-      <c r="N14" s="97"/>
-      <c r="O14" s="98"/>
+      <c r="D14" s="127"/>
+      <c r="E14" s="128"/>
+      <c r="F14" s="146"/>
+      <c r="G14" s="121"/>
+      <c r="H14" s="122"/>
+      <c r="I14" s="123"/>
+      <c r="J14" s="124"/>
+      <c r="K14" s="125"/>
+      <c r="L14" s="126"/>
+      <c r="M14" s="127"/>
+      <c r="N14" s="128"/>
+      <c r="O14" s="129"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="96"/>
-      <c r="E15" s="97"/>
-      <c r="F15" s="105"/>
-      <c r="G15" s="99"/>
-      <c r="H15" s="100"/>
-      <c r="I15" s="101"/>
-      <c r="J15" s="102"/>
-      <c r="K15" s="103"/>
-      <c r="L15" s="104"/>
-      <c r="M15" s="96"/>
-      <c r="N15" s="97"/>
-      <c r="O15" s="98"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="128"/>
+      <c r="F15" s="146"/>
+      <c r="G15" s="121"/>
+      <c r="H15" s="122"/>
+      <c r="I15" s="123"/>
+      <c r="J15" s="124"/>
+      <c r="K15" s="125"/>
+      <c r="L15" s="126"/>
+      <c r="M15" s="127"/>
+      <c r="N15" s="128"/>
+      <c r="O15" s="129"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="106"/>
-      <c r="E16" s="107"/>
-      <c r="F16" s="108"/>
-      <c r="G16" s="113"/>
-      <c r="H16" s="114"/>
-      <c r="I16" s="115"/>
-      <c r="J16" s="109"/>
-      <c r="K16" s="110"/>
-      <c r="L16" s="111"/>
-      <c r="M16" s="106"/>
-      <c r="N16" s="107"/>
-      <c r="O16" s="112"/>
+      <c r="D16" s="118"/>
+      <c r="E16" s="119"/>
+      <c r="F16" s="164"/>
+      <c r="G16" s="130"/>
+      <c r="H16" s="131"/>
+      <c r="I16" s="132"/>
+      <c r="J16" s="115"/>
+      <c r="K16" s="116"/>
+      <c r="L16" s="117"/>
+      <c r="M16" s="118"/>
+      <c r="N16" s="119"/>
+      <c r="O16" s="120"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="96"/>
-      <c r="E17" s="97"/>
-      <c r="F17" s="105"/>
-      <c r="G17" s="99"/>
-      <c r="H17" s="100"/>
-      <c r="I17" s="101"/>
-      <c r="J17" s="102"/>
-      <c r="K17" s="103"/>
-      <c r="L17" s="104"/>
-      <c r="M17" s="96"/>
-      <c r="N17" s="97"/>
-      <c r="O17" s="98"/>
+      <c r="D17" s="127"/>
+      <c r="E17" s="128"/>
+      <c r="F17" s="146"/>
+      <c r="G17" s="121"/>
+      <c r="H17" s="122"/>
+      <c r="I17" s="123"/>
+      <c r="J17" s="124"/>
+      <c r="K17" s="125"/>
+      <c r="L17" s="126"/>
+      <c r="M17" s="127"/>
+      <c r="N17" s="128"/>
+      <c r="O17" s="129"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="96"/>
-      <c r="E18" s="97"/>
-      <c r="F18" s="105"/>
-      <c r="G18" s="99"/>
-      <c r="H18" s="100"/>
-      <c r="I18" s="101"/>
-      <c r="J18" s="102"/>
-      <c r="K18" s="103"/>
-      <c r="L18" s="104"/>
-      <c r="M18" s="96"/>
-      <c r="N18" s="97"/>
-      <c r="O18" s="98"/>
+      <c r="D18" s="127"/>
+      <c r="E18" s="128"/>
+      <c r="F18" s="146"/>
+      <c r="G18" s="121"/>
+      <c r="H18" s="122"/>
+      <c r="I18" s="123"/>
+      <c r="J18" s="124"/>
+      <c r="K18" s="125"/>
+      <c r="L18" s="126"/>
+      <c r="M18" s="127"/>
+      <c r="N18" s="128"/>
+      <c r="O18" s="129"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="106"/>
-      <c r="E19" s="107"/>
-      <c r="F19" s="108"/>
-      <c r="G19" s="113"/>
-      <c r="H19" s="114"/>
-      <c r="I19" s="115"/>
-      <c r="J19" s="109"/>
-      <c r="K19" s="110"/>
-      <c r="L19" s="111"/>
-      <c r="M19" s="106"/>
-      <c r="N19" s="107"/>
-      <c r="O19" s="112"/>
+      <c r="D19" s="118"/>
+      <c r="E19" s="119"/>
+      <c r="F19" s="164"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="131"/>
+      <c r="I19" s="132"/>
+      <c r="J19" s="115"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="117"/>
+      <c r="M19" s="118"/>
+      <c r="N19" s="119"/>
+      <c r="O19" s="120"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="96"/>
-      <c r="E20" s="97"/>
-      <c r="F20" s="105"/>
-      <c r="G20" s="99"/>
-      <c r="H20" s="100"/>
-      <c r="I20" s="101"/>
-      <c r="J20" s="102"/>
-      <c r="K20" s="103"/>
-      <c r="L20" s="104"/>
-      <c r="M20" s="96"/>
-      <c r="N20" s="97"/>
-      <c r="O20" s="98"/>
+      <c r="D20" s="127"/>
+      <c r="E20" s="128"/>
+      <c r="F20" s="146"/>
+      <c r="G20" s="121"/>
+      <c r="H20" s="122"/>
+      <c r="I20" s="123"/>
+      <c r="J20" s="124"/>
+      <c r="K20" s="125"/>
+      <c r="L20" s="126"/>
+      <c r="M20" s="127"/>
+      <c r="N20" s="128"/>
+      <c r="O20" s="129"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="96"/>
-      <c r="E21" s="97"/>
-      <c r="F21" s="105"/>
-      <c r="G21" s="99"/>
-      <c r="H21" s="100"/>
-      <c r="I21" s="101"/>
-      <c r="J21" s="102"/>
-      <c r="K21" s="103"/>
-      <c r="L21" s="104"/>
-      <c r="M21" s="96"/>
-      <c r="N21" s="97"/>
-      <c r="O21" s="98"/>
+      <c r="D21" s="127"/>
+      <c r="E21" s="128"/>
+      <c r="F21" s="146"/>
+      <c r="G21" s="121"/>
+      <c r="H21" s="122"/>
+      <c r="I21" s="123"/>
+      <c r="J21" s="124"/>
+      <c r="K21" s="125"/>
+      <c r="L21" s="126"/>
+      <c r="M21" s="127"/>
+      <c r="N21" s="128"/>
+      <c r="O21" s="129"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="106"/>
-      <c r="E22" s="107"/>
-      <c r="F22" s="108"/>
-      <c r="G22" s="113"/>
-      <c r="H22" s="114"/>
-      <c r="I22" s="115"/>
-      <c r="J22" s="109"/>
-      <c r="K22" s="110"/>
-      <c r="L22" s="111"/>
-      <c r="M22" s="106"/>
-      <c r="N22" s="107"/>
-      <c r="O22" s="112"/>
+      <c r="D22" s="118"/>
+      <c r="E22" s="119"/>
+      <c r="F22" s="164"/>
+      <c r="G22" s="130"/>
+      <c r="H22" s="131"/>
+      <c r="I22" s="132"/>
+      <c r="J22" s="115"/>
+      <c r="K22" s="116"/>
+      <c r="L22" s="117"/>
+      <c r="M22" s="118"/>
+      <c r="N22" s="119"/>
+      <c r="O22" s="120"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="96"/>
-      <c r="E23" s="97"/>
-      <c r="F23" s="105"/>
-      <c r="G23" s="99"/>
-      <c r="H23" s="100"/>
-      <c r="I23" s="101"/>
-      <c r="J23" s="102"/>
-      <c r="K23" s="103"/>
-      <c r="L23" s="104"/>
-      <c r="M23" s="96"/>
-      <c r="N23" s="97"/>
-      <c r="O23" s="98"/>
+      <c r="D23" s="127"/>
+      <c r="E23" s="128"/>
+      <c r="F23" s="146"/>
+      <c r="G23" s="121"/>
+      <c r="H23" s="122"/>
+      <c r="I23" s="123"/>
+      <c r="J23" s="124"/>
+      <c r="K23" s="125"/>
+      <c r="L23" s="126"/>
+      <c r="M23" s="127"/>
+      <c r="N23" s="128"/>
+      <c r="O23" s="129"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="96"/>
-      <c r="E24" s="97"/>
-      <c r="F24" s="105"/>
-      <c r="G24" s="99"/>
-      <c r="H24" s="100"/>
-      <c r="I24" s="101"/>
-      <c r="J24" s="102"/>
-      <c r="K24" s="103"/>
-      <c r="L24" s="104"/>
-      <c r="M24" s="96"/>
-      <c r="N24" s="97"/>
-      <c r="O24" s="98"/>
+      <c r="D24" s="127"/>
+      <c r="E24" s="128"/>
+      <c r="F24" s="146"/>
+      <c r="G24" s="121"/>
+      <c r="H24" s="122"/>
+      <c r="I24" s="123"/>
+      <c r="J24" s="124"/>
+      <c r="K24" s="125"/>
+      <c r="L24" s="126"/>
+      <c r="M24" s="127"/>
+      <c r="N24" s="128"/>
+      <c r="O24" s="129"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="106"/>
-      <c r="E25" s="107"/>
-      <c r="F25" s="108"/>
-      <c r="G25" s="113"/>
-      <c r="H25" s="114"/>
-      <c r="I25" s="115"/>
-      <c r="J25" s="109"/>
-      <c r="K25" s="110"/>
-      <c r="L25" s="111"/>
-      <c r="M25" s="106"/>
-      <c r="N25" s="107"/>
-      <c r="O25" s="112"/>
+      <c r="D25" s="118"/>
+      <c r="E25" s="119"/>
+      <c r="F25" s="164"/>
+      <c r="G25" s="130"/>
+      <c r="H25" s="131"/>
+      <c r="I25" s="132"/>
+      <c r="J25" s="115"/>
+      <c r="K25" s="116"/>
+      <c r="L25" s="117"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="119"/>
+      <c r="O25" s="120"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="96"/>
-      <c r="E26" s="97"/>
-      <c r="F26" s="105"/>
-      <c r="G26" s="99"/>
-      <c r="H26" s="100"/>
-      <c r="I26" s="101"/>
-      <c r="J26" s="102"/>
-      <c r="K26" s="103"/>
-      <c r="L26" s="104"/>
-      <c r="M26" s="96"/>
-      <c r="N26" s="97"/>
-      <c r="O26" s="98"/>
+      <c r="D26" s="127"/>
+      <c r="E26" s="128"/>
+      <c r="F26" s="146"/>
+      <c r="G26" s="121"/>
+      <c r="H26" s="122"/>
+      <c r="I26" s="123"/>
+      <c r="J26" s="124"/>
+      <c r="K26" s="125"/>
+      <c r="L26" s="126"/>
+      <c r="M26" s="127"/>
+      <c r="N26" s="128"/>
+      <c r="O26" s="129"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="96"/>
-      <c r="E27" s="97"/>
-      <c r="F27" s="105"/>
-      <c r="G27" s="99"/>
-      <c r="H27" s="100"/>
-      <c r="I27" s="101"/>
-      <c r="J27" s="102"/>
-      <c r="K27" s="103"/>
-      <c r="L27" s="104"/>
-      <c r="M27" s="96"/>
-      <c r="N27" s="97"/>
-      <c r="O27" s="98"/>
+      <c r="D27" s="127"/>
+      <c r="E27" s="128"/>
+      <c r="F27" s="146"/>
+      <c r="G27" s="121"/>
+      <c r="H27" s="122"/>
+      <c r="I27" s="123"/>
+      <c r="J27" s="124"/>
+      <c r="K27" s="125"/>
+      <c r="L27" s="126"/>
+      <c r="M27" s="127"/>
+      <c r="N27" s="128"/>
+      <c r="O27" s="129"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="96"/>
-      <c r="E28" s="97"/>
-      <c r="F28" s="105"/>
-      <c r="G28" s="99"/>
-      <c r="H28" s="100"/>
-      <c r="I28" s="101"/>
-      <c r="J28" s="102"/>
-      <c r="K28" s="103"/>
-      <c r="L28" s="104"/>
-      <c r="M28" s="96"/>
-      <c r="N28" s="97"/>
-      <c r="O28" s="98"/>
+      <c r="D28" s="127"/>
+      <c r="E28" s="128"/>
+      <c r="F28" s="146"/>
+      <c r="G28" s="121"/>
+      <c r="H28" s="122"/>
+      <c r="I28" s="123"/>
+      <c r="J28" s="124"/>
+      <c r="K28" s="125"/>
+      <c r="L28" s="126"/>
+      <c r="M28" s="127"/>
+      <c r="N28" s="128"/>
+      <c r="O28" s="129"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="106"/>
-      <c r="E29" s="107"/>
-      <c r="F29" s="108"/>
-      <c r="G29" s="113"/>
-      <c r="H29" s="114"/>
-      <c r="I29" s="115"/>
-      <c r="J29" s="109"/>
-      <c r="K29" s="110"/>
-      <c r="L29" s="111"/>
-      <c r="M29" s="106"/>
-      <c r="N29" s="107"/>
-      <c r="O29" s="112"/>
+      <c r="D29" s="118"/>
+      <c r="E29" s="119"/>
+      <c r="F29" s="164"/>
+      <c r="G29" s="130"/>
+      <c r="H29" s="131"/>
+      <c r="I29" s="132"/>
+      <c r="J29" s="115"/>
+      <c r="K29" s="116"/>
+      <c r="L29" s="117"/>
+      <c r="M29" s="118"/>
+      <c r="N29" s="119"/>
+      <c r="O29" s="120"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="96"/>
-      <c r="E30" s="97"/>
-      <c r="F30" s="105"/>
-      <c r="G30" s="99"/>
-      <c r="H30" s="100"/>
-      <c r="I30" s="101"/>
-      <c r="J30" s="102"/>
-      <c r="K30" s="103"/>
-      <c r="L30" s="104"/>
-      <c r="M30" s="96"/>
-      <c r="N30" s="97"/>
-      <c r="O30" s="98"/>
+      <c r="D30" s="127"/>
+      <c r="E30" s="128"/>
+      <c r="F30" s="146"/>
+      <c r="G30" s="121"/>
+      <c r="H30" s="122"/>
+      <c r="I30" s="123"/>
+      <c r="J30" s="124"/>
+      <c r="K30" s="125"/>
+      <c r="L30" s="126"/>
+      <c r="M30" s="127"/>
+      <c r="N30" s="128"/>
+      <c r="O30" s="129"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="96"/>
-      <c r="E31" s="97"/>
-      <c r="F31" s="105"/>
-      <c r="G31" s="99"/>
-      <c r="H31" s="100"/>
-      <c r="I31" s="101"/>
-      <c r="J31" s="102"/>
-      <c r="K31" s="103"/>
-      <c r="L31" s="104"/>
-      <c r="M31" s="96"/>
-      <c r="N31" s="97"/>
-      <c r="O31" s="98"/>
+      <c r="D31" s="127"/>
+      <c r="E31" s="128"/>
+      <c r="F31" s="146"/>
+      <c r="G31" s="121"/>
+      <c r="H31" s="122"/>
+      <c r="I31" s="123"/>
+      <c r="J31" s="124"/>
+      <c r="K31" s="125"/>
+      <c r="L31" s="126"/>
+      <c r="M31" s="127"/>
+      <c r="N31" s="128"/>
+      <c r="O31" s="129"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="106"/>
-      <c r="E32" s="107"/>
-      <c r="F32" s="108"/>
-      <c r="G32" s="113"/>
-      <c r="H32" s="114"/>
-      <c r="I32" s="115"/>
-      <c r="J32" s="109"/>
-      <c r="K32" s="110"/>
-      <c r="L32" s="111"/>
-      <c r="M32" s="106"/>
-      <c r="N32" s="107"/>
-      <c r="O32" s="112"/>
+      <c r="D32" s="118"/>
+      <c r="E32" s="119"/>
+      <c r="F32" s="164"/>
+      <c r="G32" s="130"/>
+      <c r="H32" s="131"/>
+      <c r="I32" s="132"/>
+      <c r="J32" s="115"/>
+      <c r="K32" s="116"/>
+      <c r="L32" s="117"/>
+      <c r="M32" s="118"/>
+      <c r="N32" s="119"/>
+      <c r="O32" s="120"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="96"/>
-      <c r="E33" s="97"/>
-      <c r="F33" s="105"/>
-      <c r="G33" s="99"/>
-      <c r="H33" s="100"/>
-      <c r="I33" s="101"/>
-      <c r="J33" s="102"/>
-      <c r="K33" s="103"/>
-      <c r="L33" s="104"/>
-      <c r="M33" s="96"/>
-      <c r="N33" s="97"/>
-      <c r="O33" s="98"/>
+      <c r="D33" s="127"/>
+      <c r="E33" s="128"/>
+      <c r="F33" s="146"/>
+      <c r="G33" s="121"/>
+      <c r="H33" s="122"/>
+      <c r="I33" s="123"/>
+      <c r="J33" s="124"/>
+      <c r="K33" s="125"/>
+      <c r="L33" s="126"/>
+      <c r="M33" s="127"/>
+      <c r="N33" s="128"/>
+      <c r="O33" s="129"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="96"/>
-      <c r="E34" s="97"/>
-      <c r="F34" s="105"/>
-      <c r="G34" s="99"/>
-      <c r="H34" s="100"/>
-      <c r="I34" s="101"/>
-      <c r="J34" s="102"/>
-      <c r="K34" s="103"/>
-      <c r="L34" s="104"/>
-      <c r="M34" s="96"/>
-      <c r="N34" s="97"/>
-      <c r="O34" s="98"/>
+      <c r="D34" s="127"/>
+      <c r="E34" s="128"/>
+      <c r="F34" s="146"/>
+      <c r="G34" s="121"/>
+      <c r="H34" s="122"/>
+      <c r="I34" s="123"/>
+      <c r="J34" s="124"/>
+      <c r="K34" s="125"/>
+      <c r="L34" s="126"/>
+      <c r="M34" s="127"/>
+      <c r="N34" s="128"/>
+      <c r="O34" s="129"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="106"/>
-      <c r="E35" s="107"/>
-      <c r="F35" s="108"/>
-      <c r="G35" s="113"/>
-      <c r="H35" s="114"/>
-      <c r="I35" s="115"/>
-      <c r="J35" s="109"/>
-      <c r="K35" s="110"/>
-      <c r="L35" s="111"/>
-      <c r="M35" s="106"/>
-      <c r="N35" s="107"/>
-      <c r="O35" s="112"/>
+      <c r="D35" s="118"/>
+      <c r="E35" s="119"/>
+      <c r="F35" s="164"/>
+      <c r="G35" s="130"/>
+      <c r="H35" s="131"/>
+      <c r="I35" s="132"/>
+      <c r="J35" s="115"/>
+      <c r="K35" s="116"/>
+      <c r="L35" s="117"/>
+      <c r="M35" s="118"/>
+      <c r="N35" s="119"/>
+      <c r="O35" s="120"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="96"/>
-      <c r="E36" s="97"/>
-      <c r="F36" s="105"/>
-      <c r="G36" s="99"/>
-      <c r="H36" s="100"/>
-      <c r="I36" s="101"/>
-      <c r="J36" s="102"/>
-      <c r="K36" s="103"/>
-      <c r="L36" s="104"/>
-      <c r="M36" s="96"/>
-      <c r="N36" s="97"/>
-      <c r="O36" s="98"/>
+      <c r="D36" s="127"/>
+      <c r="E36" s="128"/>
+      <c r="F36" s="146"/>
+      <c r="G36" s="121"/>
+      <c r="H36" s="122"/>
+      <c r="I36" s="123"/>
+      <c r="J36" s="124"/>
+      <c r="K36" s="125"/>
+      <c r="L36" s="126"/>
+      <c r="M36" s="127"/>
+      <c r="N36" s="128"/>
+      <c r="O36" s="129"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="156"/>
-      <c r="E37" s="157"/>
-      <c r="F37" s="158"/>
-      <c r="G37" s="185"/>
-      <c r="H37" s="186"/>
-      <c r="I37" s="187"/>
-      <c r="J37" s="188"/>
-      <c r="K37" s="189"/>
-      <c r="L37" s="190"/>
-      <c r="M37" s="156"/>
-      <c r="N37" s="157"/>
-      <c r="O37" s="191"/>
+      <c r="D37" s="106"/>
+      <c r="E37" s="107"/>
+      <c r="F37" s="200"/>
+      <c r="G37" s="100"/>
+      <c r="H37" s="101"/>
+      <c r="I37" s="102"/>
+      <c r="J37" s="103"/>
+      <c r="K37" s="104"/>
+      <c r="L37" s="105"/>
+      <c r="M37" s="106"/>
+      <c r="N37" s="107"/>
+      <c r="O37" s="108"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3378,30 +3381,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="126" t="e">
+      <c r="D38" s="170" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="127"/>
-      <c r="F38" s="128"/>
-      <c r="G38" s="135" t="e">
+      <c r="E38" s="171"/>
+      <c r="F38" s="172"/>
+      <c r="G38" s="179" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="136"/>
-      <c r="I38" s="137"/>
-      <c r="J38" s="138" t="e">
+      <c r="H38" s="180"/>
+      <c r="I38" s="181"/>
+      <c r="J38" s="182" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="139"/>
-      <c r="L38" s="140"/>
-      <c r="M38" s="126" t="e">
+      <c r="K38" s="183"/>
+      <c r="L38" s="184"/>
+      <c r="M38" s="170" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="127"/>
-      <c r="O38" s="141"/>
+      <c r="N38" s="171"/>
+      <c r="O38" s="185"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3409,30 +3412,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="129">
+      <c r="D39" s="173">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="130"/>
-      <c r="F39" s="131"/>
-      <c r="G39" s="142">
+      <c r="E39" s="174"/>
+      <c r="F39" s="175"/>
+      <c r="G39" s="186">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="143"/>
-      <c r="I39" s="144"/>
-      <c r="J39" s="145">
+      <c r="H39" s="187"/>
+      <c r="I39" s="188"/>
+      <c r="J39" s="189">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="146"/>
-      <c r="L39" s="147"/>
-      <c r="M39" s="129">
+      <c r="K39" s="190"/>
+      <c r="L39" s="191"/>
+      <c r="M39" s="173">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="130"/>
-      <c r="O39" s="148"/>
+      <c r="N39" s="174"/>
+      <c r="O39" s="192"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3440,60 +3443,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="132">
+      <c r="D40" s="176">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="133"/>
-      <c r="F40" s="134"/>
-      <c r="G40" s="149">
+      <c r="E40" s="177"/>
+      <c r="F40" s="178"/>
+      <c r="G40" s="193">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="150"/>
-      <c r="I40" s="151"/>
-      <c r="J40" s="152">
+      <c r="H40" s="194"/>
+      <c r="I40" s="195"/>
+      <c r="J40" s="196">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="153"/>
-      <c r="L40" s="154"/>
-      <c r="M40" s="132">
+      <c r="K40" s="197"/>
+      <c r="L40" s="198"/>
+      <c r="M40" s="176">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="133"/>
-      <c r="O40" s="155"/>
+      <c r="N40" s="177"/>
+      <c r="O40" s="199"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="192"/>
-      <c r="C41" s="192"/>
-      <c r="D41" s="193" t="s">
+      <c r="B41" s="109"/>
+      <c r="C41" s="109"/>
+      <c r="D41" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="193"/>
+      <c r="E41" s="110"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="194" t="s">
+      <c r="J41" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="194"/>
-      <c r="L41" s="195"/>
-      <c r="M41" s="195"/>
-      <c r="N41" s="195"/>
+      <c r="K41" s="111"/>
+      <c r="L41" s="112"/>
+      <c r="M41" s="112"/>
+      <c r="N41" s="112"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="196"/>
-      <c r="C42" s="196"/>
+      <c r="B42" s="113"/>
+      <c r="C42" s="113"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3502,38 +3505,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="197"/>
-      <c r="M42" s="197"/>
-      <c r="N42" s="197"/>
+      <c r="L42" s="114"/>
+      <c r="M42" s="114"/>
+      <c r="N42" s="114"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="198" t="s">
+      <c r="A43" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="198"/>
-      <c r="C43" s="198"/>
+      <c r="B43" s="98"/>
+      <c r="C43" s="98"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="198" t="s">
+      <c r="G43" s="98" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="198"/>
-      <c r="I43" s="198"/>
-      <c r="J43" s="198"/>
+      <c r="H43" s="98"/>
+      <c r="I43" s="98"/>
+      <c r="J43" s="98"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="198"/>
+      <c r="B44" s="98"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3544,10 +3547,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="199" t="s">
+      <c r="M44" s="99" t="s">
         <v>41</v>
       </c>
-      <c r="N44" s="199"/>
+      <c r="N44" s="99"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3563,72 +3566,184 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="125"/>
-      <c r="D75" s="125"/>
+      <c r="C75" s="97"/>
+      <c r="D75" s="97"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="125"/>
-      <c r="J75" s="125"/>
+      <c r="I75" s="97"/>
+      <c r="J75" s="97"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="125"/>
-      <c r="M75" s="125"/>
-      <c r="N75" s="125"/>
-      <c r="O75" s="125"/>
+      <c r="L75" s="97"/>
+      <c r="M75" s="97"/>
+      <c r="N75" s="97"/>
+      <c r="O75" s="97"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="125"/>
-      <c r="D76" s="125"/>
-      <c r="E76" s="125"/>
-      <c r="F76" s="125"/>
-      <c r="I76" s="125"/>
-      <c r="J76" s="125"/>
+      <c r="C76" s="97"/>
+      <c r="D76" s="97"/>
+      <c r="E76" s="97"/>
+      <c r="F76" s="97"/>
+      <c r="I76" s="97"/>
+      <c r="J76" s="97"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="125"/>
-      <c r="M76" s="125"/>
-      <c r="N76" s="125"/>
-      <c r="O76" s="125"/>
+      <c r="L76" s="97"/>
+      <c r="M76" s="97"/>
+      <c r="N76" s="97"/>
+      <c r="O76" s="97"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="125"/>
-      <c r="D77" s="125"/>
+      <c r="C77" s="97"/>
+      <c r="D77" s="97"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="125"/>
-      <c r="J77" s="125"/>
+      <c r="I77" s="97"/>
+      <c r="J77" s="97"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="125"/>
-      <c r="M77" s="125"/>
-      <c r="N77" s="125"/>
-      <c r="O77" s="125"/>
+      <c r="L77" s="97"/>
+      <c r="M77" s="97"/>
+      <c r="N77" s="97"/>
+      <c r="O77" s="97"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="125"/>
-      <c r="D78" s="125"/>
+      <c r="C78" s="97"/>
+      <c r="D78" s="97"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="180">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="G26:I26"/>
@@ -3653,140 +3768,28 @@
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="L76:O76"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
@@ -3837,61 +3840,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="117" t="s">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="117"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="120" t="s">
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="120"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -3901,130 +3904,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="235">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212">
+      <c r="F4" s="238"/>
+      <c r="G4" s="239">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="239"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="239">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213" t="s">
+      <c r="K4" s="239"/>
+      <c r="L4" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="214">
+      <c r="M4" s="241">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="208">
+      <c r="N4" s="235">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="201">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="200" t="s">
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="240">
+      <c r="F5" s="227"/>
+      <c r="G5" s="201">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="201"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="201">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="201"/>
+      <c r="L5" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="216">
+      <c r="M5" s="243">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="202"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="225"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="212"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="201" t="s">
+      <c r="A7" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="228" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202" t="s">
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="229" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="202" t="s">
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="229" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="203"/>
-      <c r="N7" s="203"/>
-      <c r="O7" s="205"/>
+      <c r="M7" s="230"/>
+      <c r="N7" s="230"/>
+      <c r="O7" s="232"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="219"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5118,27 +5121,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="232" t="e">
+      <c r="D39" s="219" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="235" t="e">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="222" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="236"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="237"/>
-      <c r="L39" s="235" t="e">
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="224"/>
+      <c r="L39" s="222" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="238"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="223"/>
+      <c r="O39" s="225"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5146,27 +5149,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="229" t="e">
+      <c r="D40" s="216" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="226" t="e">
+      <c r="E40" s="217"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="213" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="226" t="e">
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="213" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="239"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="226"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5174,57 +5177,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="220" t="e">
+      <c r="D41" s="207" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="242" t="e">
+      <c r="E41" s="208"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="203" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="243"/>
-      <c r="J41" s="243"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="242" t="e">
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="203" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="243"/>
-      <c r="N41" s="243"/>
-      <c r="O41" s="245"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="206"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="192"/>
-      <c r="C42" s="192"/>
-      <c r="D42" s="193" t="s">
+      <c r="B42" s="109"/>
+      <c r="C42" s="109"/>
+      <c r="D42" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="193"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="194" t="s">
+      <c r="J42" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="196"/>
-      <c r="C43" s="196"/>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5233,39 +5236,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="198" t="str">
+      <c r="G44" s="98" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5276,10 +5279,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="199" t="s">
+      <c r="M45" s="99" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="199"/>
+      <c r="N45" s="99"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5300,6 +5303,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="L43:N43"/>
@@ -5316,31 +5344,6 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:N42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
@@ -5382,61 +5385,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="117" t="s">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="117"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="120" t="s">
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="120"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5446,130 +5449,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="235">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212">
+      <c r="F4" s="238"/>
+      <c r="G4" s="239">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="239"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="239">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213" t="s">
+      <c r="K4" s="239"/>
+      <c r="L4" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="214">
+      <c r="M4" s="241">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="208">
+      <c r="N4" s="235">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="201">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="200" t="s">
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="240">
+      <c r="F5" s="227"/>
+      <c r="G5" s="201">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="201"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="201">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="201"/>
+      <c r="L5" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="216">
+      <c r="M5" s="243">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="202"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="223" t="s">
+      <c r="A6" s="210" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="224"/>
-      <c r="C6" s="224"/>
-      <c r="D6" s="224"/>
-      <c r="E6" s="224"/>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
-      <c r="H6" s="224"/>
-      <c r="I6" s="224"/>
-      <c r="J6" s="224"/>
-      <c r="K6" s="224"/>
-      <c r="L6" s="224"/>
-      <c r="M6" s="224"/>
-      <c r="N6" s="224"/>
-      <c r="O6" s="225"/>
+      <c r="B6" s="211"/>
+      <c r="C6" s="211"/>
+      <c r="D6" s="211"/>
+      <c r="E6" s="211"/>
+      <c r="F6" s="211"/>
+      <c r="G6" s="211"/>
+      <c r="H6" s="211"/>
+      <c r="I6" s="211"/>
+      <c r="J6" s="211"/>
+      <c r="K6" s="211"/>
+      <c r="L6" s="211"/>
+      <c r="M6" s="211"/>
+      <c r="N6" s="211"/>
+      <c r="O6" s="212"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="217" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="199"/>
-      <c r="C7" s="218"/>
-      <c r="D7" s="201" t="s">
+      <c r="A7" s="244" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="99"/>
+      <c r="C7" s="245"/>
+      <c r="D7" s="228" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="201"/>
-      <c r="F7" s="201"/>
-      <c r="G7" s="201"/>
-      <c r="H7" s="202" t="s">
+      <c r="E7" s="228"/>
+      <c r="F7" s="228"/>
+      <c r="G7" s="228"/>
+      <c r="H7" s="229" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="203"/>
-      <c r="J7" s="203"/>
-      <c r="K7" s="204"/>
-      <c r="L7" s="246" t="s">
+      <c r="I7" s="230"/>
+      <c r="J7" s="230"/>
+      <c r="K7" s="231"/>
+      <c r="L7" s="249" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="247"/>
-      <c r="N7" s="247"/>
-      <c r="O7" s="248"/>
+      <c r="M7" s="250"/>
+      <c r="N7" s="250"/>
+      <c r="O7" s="251"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="219"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -6666,27 +6669,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="232" t="e">
+      <c r="D39" s="219" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="233"/>
-      <c r="F39" s="233"/>
-      <c r="G39" s="234"/>
-      <c r="H39" s="235" t="e">
+      <c r="E39" s="220"/>
+      <c r="F39" s="220"/>
+      <c r="G39" s="221"/>
+      <c r="H39" s="222" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="236"/>
-      <c r="J39" s="236"/>
-      <c r="K39" s="237"/>
-      <c r="L39" s="235" t="e">
+      <c r="I39" s="223"/>
+      <c r="J39" s="223"/>
+      <c r="K39" s="224"/>
+      <c r="L39" s="222" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="238"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="223"/>
+      <c r="O39" s="225"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -6694,27 +6697,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="229" t="e">
+      <c r="D40" s="216" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="230"/>
-      <c r="F40" s="230"/>
-      <c r="G40" s="231"/>
-      <c r="H40" s="226" t="e">
+      <c r="E40" s="217"/>
+      <c r="F40" s="217"/>
+      <c r="G40" s="218"/>
+      <c r="H40" s="213" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="227"/>
-      <c r="J40" s="227"/>
-      <c r="K40" s="228"/>
-      <c r="L40" s="226" t="e">
+      <c r="I40" s="214"/>
+      <c r="J40" s="214"/>
+      <c r="K40" s="215"/>
+      <c r="L40" s="213" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="239"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="226"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -6722,57 +6725,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="220" t="e">
+      <c r="D41" s="207" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="221"/>
-      <c r="F41" s="221"/>
-      <c r="G41" s="222"/>
-      <c r="H41" s="242" t="e">
+      <c r="E41" s="208"/>
+      <c r="F41" s="208"/>
+      <c r="G41" s="209"/>
+      <c r="H41" s="203" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="243"/>
-      <c r="J41" s="243"/>
-      <c r="K41" s="244"/>
-      <c r="L41" s="242" t="e">
+      <c r="I41" s="204"/>
+      <c r="J41" s="204"/>
+      <c r="K41" s="205"/>
+      <c r="L41" s="203" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="243"/>
-      <c r="N41" s="243"/>
-      <c r="O41" s="245"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="206"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="193" t="s">
+      <c r="B42" s="247"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="193"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="194" t="s">
+      <c r="J42" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="250"/>
-      <c r="C43" s="250"/>
+      <c r="B43" s="248"/>
+      <c r="C43" s="248"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -6781,39 +6784,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="198" t="str">
+      <c r="G44" s="98" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -6824,25 +6827,31 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="199" t="s">
+      <c r="M45" s="99" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="199"/>
+      <c r="N45" s="99"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:O41"/>
@@ -6858,22 +6867,16 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
@@ -6915,61 +6918,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="206" t="s">
+      <c r="A1" s="233" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="206"/>
-      <c r="C1" s="206"/>
-      <c r="D1" s="206"/>
-      <c r="E1" s="206"/>
-      <c r="F1" s="206"/>
-      <c r="G1" s="206"/>
-      <c r="H1" s="206"/>
-      <c r="I1" s="206"/>
-      <c r="J1" s="206"/>
-      <c r="K1" s="206"/>
-      <c r="L1" s="206"/>
-      <c r="M1" s="206"/>
-      <c r="N1" s="117" t="s">
+      <c r="B1" s="233"/>
+      <c r="C1" s="233"/>
+      <c r="D1" s="233"/>
+      <c r="E1" s="233"/>
+      <c r="F1" s="233"/>
+      <c r="G1" s="233"/>
+      <c r="H1" s="233"/>
+      <c r="I1" s="233"/>
+      <c r="J1" s="233"/>
+      <c r="K1" s="233"/>
+      <c r="L1" s="233"/>
+      <c r="M1" s="233"/>
+      <c r="N1" s="166" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="117"/>
+      <c r="O1" s="166"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="207" t="s">
+      <c r="A2" s="234" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="207"/>
-      <c r="C2" s="207"/>
-      <c r="D2" s="207"/>
-      <c r="E2" s="207"/>
-      <c r="F2" s="207"/>
-      <c r="G2" s="207"/>
-      <c r="H2" s="207"/>
-      <c r="I2" s="207"/>
-      <c r="J2" s="207"/>
-      <c r="K2" s="207"/>
-      <c r="L2" s="207"/>
-      <c r="M2" s="207"/>
-      <c r="N2" s="120" t="s">
+      <c r="B2" s="234"/>
+      <c r="C2" s="234"/>
+      <c r="D2" s="234"/>
+      <c r="E2" s="234"/>
+      <c r="F2" s="234"/>
+      <c r="G2" s="234"/>
+      <c r="H2" s="234"/>
+      <c r="I2" s="234"/>
+      <c r="J2" s="234"/>
+      <c r="K2" s="234"/>
+      <c r="L2" s="234"/>
+      <c r="M2" s="234"/>
+      <c r="N2" s="169" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="120"/>
+      <c r="O2" s="169"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="207"/>
-      <c r="B3" s="207"/>
-      <c r="C3" s="207"/>
-      <c r="D3" s="207"/>
-      <c r="E3" s="207"/>
-      <c r="F3" s="207"/>
-      <c r="G3" s="207"/>
-      <c r="H3" s="207"/>
-      <c r="I3" s="207"/>
-      <c r="J3" s="207"/>
-      <c r="K3" s="207"/>
-      <c r="L3" s="207"/>
-      <c r="M3" s="207"/>
+      <c r="A3" s="234"/>
+      <c r="B3" s="234"/>
+      <c r="C3" s="234"/>
+      <c r="D3" s="234"/>
+      <c r="E3" s="234"/>
+      <c r="F3" s="234"/>
+      <c r="G3" s="234"/>
+      <c r="H3" s="234"/>
+      <c r="I3" s="234"/>
+      <c r="J3" s="234"/>
+      <c r="K3" s="234"/>
+      <c r="L3" s="234"/>
+      <c r="M3" s="234"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -6979,142 +6982,142 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="208">
+      <c r="B4" s="235">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="209"/>
-      <c r="D4" s="210"/>
-      <c r="E4" s="211" t="s">
+      <c r="C4" s="236"/>
+      <c r="D4" s="237"/>
+      <c r="E4" s="238" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="211"/>
-      <c r="G4" s="212">
+      <c r="F4" s="238"/>
+      <c r="G4" s="239">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="212"/>
+      <c r="H4" s="239"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="212">
+      <c r="J4" s="239">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="212"/>
-      <c r="L4" s="213" t="s">
+      <c r="K4" s="239"/>
+      <c r="L4" s="240" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="214">
+      <c r="M4" s="241">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="208">
+      <c r="N4" s="235">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="215"/>
+      <c r="O4" s="242"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="240">
+      <c r="B5" s="201">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="240"/>
-      <c r="D5" s="240"/>
-      <c r="E5" s="200" t="s">
+      <c r="C5" s="201"/>
+      <c r="D5" s="201"/>
+      <c r="E5" s="227" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="200"/>
-      <c r="G5" s="240">
+      <c r="F5" s="227"/>
+      <c r="G5" s="201">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="240"/>
+      <c r="H5" s="201"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="240">
+      <c r="J5" s="201">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="240"/>
-      <c r="L5" s="183" t="s">
+      <c r="K5" s="201"/>
+      <c r="L5" s="150" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="216">
+      <c r="M5" s="243">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="177">
+      <c r="N5" s="142">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="241"/>
+      <c r="O5" s="202"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="266" t="s">
+      <c r="A6" s="267" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="256"/>
-      <c r="C6" s="267"/>
-      <c r="D6" s="255"/>
-      <c r="E6" s="256"/>
-      <c r="F6" s="256"/>
-      <c r="G6" s="256"/>
-      <c r="H6" s="256"/>
-      <c r="I6" s="256"/>
-      <c r="J6" s="256"/>
-      <c r="K6" s="267"/>
-      <c r="L6" s="255"/>
-      <c r="M6" s="256"/>
-      <c r="N6" s="256"/>
-      <c r="O6" s="257"/>
+      <c r="B6" s="257"/>
+      <c r="C6" s="268"/>
+      <c r="D6" s="256"/>
+      <c r="E6" s="257"/>
+      <c r="F6" s="257"/>
+      <c r="G6" s="257"/>
+      <c r="H6" s="257"/>
+      <c r="I6" s="257"/>
+      <c r="J6" s="257"/>
+      <c r="K6" s="268"/>
+      <c r="L6" s="256"/>
+      <c r="M6" s="257"/>
+      <c r="N6" s="257"/>
+      <c r="O6" s="258"/>
     </row>
     <row r="7" spans="1:15" s="26" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="258" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="259"/>
-      <c r="C7" s="260"/>
-      <c r="D7" s="261" t="s">
+      <c r="A7" s="259" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="260"/>
+      <c r="C7" s="261"/>
+      <c r="D7" s="262" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="260"/>
-      <c r="F7" s="261" t="s">
+      <c r="E7" s="261"/>
+      <c r="F7" s="262" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="260"/>
-      <c r="H7" s="261" t="s">
+      <c r="G7" s="261"/>
+      <c r="H7" s="262" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="260"/>
-      <c r="J7" s="262" t="s">
+      <c r="I7" s="261"/>
+      <c r="J7" s="263" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="263"/>
-      <c r="L7" s="208" t="s">
+      <c r="K7" s="264"/>
+      <c r="L7" s="235" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="209"/>
-      <c r="N7" s="209"/>
-      <c r="O7" s="215"/>
+      <c r="M7" s="236"/>
+      <c r="N7" s="236"/>
+      <c r="O7" s="242"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="219"/>
-      <c r="B8" s="167"/>
-      <c r="C8" s="168"/>
-      <c r="D8" s="166"/>
-      <c r="E8" s="168"/>
-      <c r="F8" s="166"/>
-      <c r="G8" s="168"/>
-      <c r="H8" s="166"/>
-      <c r="I8" s="168"/>
-      <c r="J8" s="264"/>
-      <c r="K8" s="265"/>
+      <c r="A8" s="246"/>
+      <c r="B8" s="160"/>
+      <c r="C8" s="161"/>
+      <c r="D8" s="159"/>
+      <c r="E8" s="161"/>
+      <c r="F8" s="159"/>
+      <c r="G8" s="161"/>
+      <c r="H8" s="159"/>
+      <c r="I8" s="161"/>
+      <c r="J8" s="265"/>
+      <c r="K8" s="266"/>
       <c r="L8" s="49">
         <v>1</v>
       </c>
@@ -7141,14 +7144,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="251"/>
-      <c r="E9" s="252"/>
-      <c r="F9" s="251"/>
-      <c r="G9" s="252"/>
-      <c r="H9" s="251"/>
-      <c r="I9" s="252"/>
-      <c r="J9" s="253"/>
-      <c r="K9" s="254"/>
+      <c r="D9" s="269"/>
+      <c r="E9" s="270"/>
+      <c r="F9" s="269"/>
+      <c r="G9" s="270"/>
+      <c r="H9" s="269"/>
+      <c r="I9" s="270"/>
+      <c r="J9" s="271"/>
+      <c r="K9" s="272"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7170,14 +7173,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="102"/>
-      <c r="E10" s="104"/>
-      <c r="F10" s="102"/>
-      <c r="G10" s="104"/>
-      <c r="H10" s="102"/>
-      <c r="I10" s="104"/>
-      <c r="J10" s="96"/>
-      <c r="K10" s="105"/>
+      <c r="D10" s="124"/>
+      <c r="E10" s="126"/>
+      <c r="F10" s="124"/>
+      <c r="G10" s="126"/>
+      <c r="H10" s="124"/>
+      <c r="I10" s="126"/>
+      <c r="J10" s="127"/>
+      <c r="K10" s="146"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7199,14 +7202,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="102"/>
-      <c r="E11" s="104"/>
-      <c r="F11" s="102"/>
-      <c r="G11" s="104"/>
-      <c r="H11" s="102"/>
-      <c r="I11" s="104"/>
-      <c r="J11" s="96"/>
-      <c r="K11" s="105"/>
+      <c r="D11" s="124"/>
+      <c r="E11" s="126"/>
+      <c r="F11" s="124"/>
+      <c r="G11" s="126"/>
+      <c r="H11" s="124"/>
+      <c r="I11" s="126"/>
+      <c r="J11" s="127"/>
+      <c r="K11" s="146"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7228,14 +7231,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="102"/>
-      <c r="E12" s="104"/>
-      <c r="F12" s="102"/>
-      <c r="G12" s="104"/>
-      <c r="H12" s="102"/>
-      <c r="I12" s="104"/>
-      <c r="J12" s="96"/>
-      <c r="K12" s="105"/>
+      <c r="D12" s="124"/>
+      <c r="E12" s="126"/>
+      <c r="F12" s="124"/>
+      <c r="G12" s="126"/>
+      <c r="H12" s="124"/>
+      <c r="I12" s="126"/>
+      <c r="J12" s="127"/>
+      <c r="K12" s="146"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7257,14 +7260,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="102"/>
-      <c r="E13" s="104"/>
-      <c r="F13" s="102"/>
-      <c r="G13" s="104"/>
-      <c r="H13" s="102"/>
-      <c r="I13" s="104"/>
-      <c r="J13" s="96"/>
-      <c r="K13" s="105"/>
+      <c r="D13" s="124"/>
+      <c r="E13" s="126"/>
+      <c r="F13" s="124"/>
+      <c r="G13" s="126"/>
+      <c r="H13" s="124"/>
+      <c r="I13" s="126"/>
+      <c r="J13" s="127"/>
+      <c r="K13" s="146"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7286,14 +7289,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="102"/>
-      <c r="E14" s="104"/>
-      <c r="F14" s="102"/>
-      <c r="G14" s="104"/>
-      <c r="H14" s="102"/>
-      <c r="I14" s="104"/>
-      <c r="J14" s="96"/>
-      <c r="K14" s="105"/>
+      <c r="D14" s="124"/>
+      <c r="E14" s="126"/>
+      <c r="F14" s="124"/>
+      <c r="G14" s="126"/>
+      <c r="H14" s="124"/>
+      <c r="I14" s="126"/>
+      <c r="J14" s="127"/>
+      <c r="K14" s="146"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7315,14 +7318,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="102"/>
-      <c r="E15" s="104"/>
-      <c r="F15" s="102"/>
-      <c r="G15" s="104"/>
-      <c r="H15" s="102"/>
-      <c r="I15" s="104"/>
-      <c r="J15" s="96"/>
-      <c r="K15" s="105"/>
+      <c r="D15" s="124"/>
+      <c r="E15" s="126"/>
+      <c r="F15" s="124"/>
+      <c r="G15" s="126"/>
+      <c r="H15" s="124"/>
+      <c r="I15" s="126"/>
+      <c r="J15" s="127"/>
+      <c r="K15" s="146"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7344,14 +7347,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="102"/>
-      <c r="E16" s="104"/>
-      <c r="F16" s="102"/>
-      <c r="G16" s="104"/>
-      <c r="H16" s="102"/>
-      <c r="I16" s="104"/>
-      <c r="J16" s="96"/>
-      <c r="K16" s="105"/>
+      <c r="D16" s="124"/>
+      <c r="E16" s="126"/>
+      <c r="F16" s="124"/>
+      <c r="G16" s="126"/>
+      <c r="H16" s="124"/>
+      <c r="I16" s="126"/>
+      <c r="J16" s="127"/>
+      <c r="K16" s="146"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7373,14 +7376,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="102"/>
-      <c r="E17" s="104"/>
-      <c r="F17" s="102"/>
-      <c r="G17" s="104"/>
-      <c r="H17" s="102"/>
-      <c r="I17" s="104"/>
-      <c r="J17" s="96"/>
-      <c r="K17" s="105"/>
+      <c r="D17" s="124"/>
+      <c r="E17" s="126"/>
+      <c r="F17" s="124"/>
+      <c r="G17" s="126"/>
+      <c r="H17" s="124"/>
+      <c r="I17" s="126"/>
+      <c r="J17" s="127"/>
+      <c r="K17" s="146"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7402,14 +7405,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="102"/>
-      <c r="E18" s="104"/>
-      <c r="F18" s="102"/>
-      <c r="G18" s="104"/>
-      <c r="H18" s="102"/>
-      <c r="I18" s="104"/>
-      <c r="J18" s="96"/>
-      <c r="K18" s="105"/>
+      <c r="D18" s="124"/>
+      <c r="E18" s="126"/>
+      <c r="F18" s="124"/>
+      <c r="G18" s="126"/>
+      <c r="H18" s="124"/>
+      <c r="I18" s="126"/>
+      <c r="J18" s="127"/>
+      <c r="K18" s="146"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7431,14 +7434,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="102"/>
-      <c r="E19" s="104"/>
-      <c r="F19" s="102"/>
-      <c r="G19" s="104"/>
-      <c r="H19" s="102"/>
-      <c r="I19" s="104"/>
-      <c r="J19" s="96"/>
-      <c r="K19" s="105"/>
+      <c r="D19" s="124"/>
+      <c r="E19" s="126"/>
+      <c r="F19" s="124"/>
+      <c r="G19" s="126"/>
+      <c r="H19" s="124"/>
+      <c r="I19" s="126"/>
+      <c r="J19" s="127"/>
+      <c r="K19" s="146"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7460,14 +7463,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="102"/>
-      <c r="E20" s="104"/>
-      <c r="F20" s="102"/>
-      <c r="G20" s="104"/>
-      <c r="H20" s="102"/>
-      <c r="I20" s="104"/>
-      <c r="J20" s="96"/>
-      <c r="K20" s="105"/>
+      <c r="D20" s="124"/>
+      <c r="E20" s="126"/>
+      <c r="F20" s="124"/>
+      <c r="G20" s="126"/>
+      <c r="H20" s="124"/>
+      <c r="I20" s="126"/>
+      <c r="J20" s="127"/>
+      <c r="K20" s="146"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7489,14 +7492,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="102"/>
-      <c r="E21" s="104"/>
-      <c r="F21" s="102"/>
-      <c r="G21" s="104"/>
-      <c r="H21" s="102"/>
-      <c r="I21" s="104"/>
-      <c r="J21" s="96"/>
-      <c r="K21" s="105"/>
+      <c r="D21" s="124"/>
+      <c r="E21" s="126"/>
+      <c r="F21" s="124"/>
+      <c r="G21" s="126"/>
+      <c r="H21" s="124"/>
+      <c r="I21" s="126"/>
+      <c r="J21" s="127"/>
+      <c r="K21" s="146"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7518,14 +7521,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="102"/>
-      <c r="E22" s="104"/>
-      <c r="F22" s="102"/>
-      <c r="G22" s="104"/>
-      <c r="H22" s="102"/>
-      <c r="I22" s="104"/>
-      <c r="J22" s="96"/>
-      <c r="K22" s="105"/>
+      <c r="D22" s="124"/>
+      <c r="E22" s="126"/>
+      <c r="F22" s="124"/>
+      <c r="G22" s="126"/>
+      <c r="H22" s="124"/>
+      <c r="I22" s="126"/>
+      <c r="J22" s="127"/>
+      <c r="K22" s="146"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7547,14 +7550,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="102"/>
-      <c r="E23" s="104"/>
-      <c r="F23" s="102"/>
-      <c r="G23" s="104"/>
-      <c r="H23" s="102"/>
-      <c r="I23" s="104"/>
-      <c r="J23" s="96"/>
-      <c r="K23" s="105"/>
+      <c r="D23" s="124"/>
+      <c r="E23" s="126"/>
+      <c r="F23" s="124"/>
+      <c r="G23" s="126"/>
+      <c r="H23" s="124"/>
+      <c r="I23" s="126"/>
+      <c r="J23" s="127"/>
+      <c r="K23" s="146"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -7576,14 +7579,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="102"/>
-      <c r="E24" s="104"/>
-      <c r="F24" s="102"/>
-      <c r="G24" s="104"/>
-      <c r="H24" s="102"/>
-      <c r="I24" s="104"/>
-      <c r="J24" s="96"/>
-      <c r="K24" s="105"/>
+      <c r="D24" s="124"/>
+      <c r="E24" s="126"/>
+      <c r="F24" s="124"/>
+      <c r="G24" s="126"/>
+      <c r="H24" s="124"/>
+      <c r="I24" s="126"/>
+      <c r="J24" s="127"/>
+      <c r="K24" s="146"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -7605,14 +7608,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="102"/>
-      <c r="E25" s="104"/>
-      <c r="F25" s="102"/>
-      <c r="G25" s="104"/>
-      <c r="H25" s="102"/>
-      <c r="I25" s="104"/>
-      <c r="J25" s="96"/>
-      <c r="K25" s="105"/>
+      <c r="D25" s="124"/>
+      <c r="E25" s="126"/>
+      <c r="F25" s="124"/>
+      <c r="G25" s="126"/>
+      <c r="H25" s="124"/>
+      <c r="I25" s="126"/>
+      <c r="J25" s="127"/>
+      <c r="K25" s="146"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -7634,14 +7637,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="102"/>
-      <c r="E26" s="104"/>
-      <c r="F26" s="102"/>
-      <c r="G26" s="104"/>
-      <c r="H26" s="102"/>
-      <c r="I26" s="104"/>
-      <c r="J26" s="96"/>
-      <c r="K26" s="105"/>
+      <c r="D26" s="124"/>
+      <c r="E26" s="126"/>
+      <c r="F26" s="124"/>
+      <c r="G26" s="126"/>
+      <c r="H26" s="124"/>
+      <c r="I26" s="126"/>
+      <c r="J26" s="127"/>
+      <c r="K26" s="146"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -7663,14 +7666,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="102"/>
-      <c r="E27" s="104"/>
-      <c r="F27" s="102"/>
-      <c r="G27" s="104"/>
-      <c r="H27" s="102"/>
-      <c r="I27" s="104"/>
-      <c r="J27" s="96"/>
-      <c r="K27" s="105"/>
+      <c r="D27" s="124"/>
+      <c r="E27" s="126"/>
+      <c r="F27" s="124"/>
+      <c r="G27" s="126"/>
+      <c r="H27" s="124"/>
+      <c r="I27" s="126"/>
+      <c r="J27" s="127"/>
+      <c r="K27" s="146"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -7692,14 +7695,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="102"/>
-      <c r="E28" s="104"/>
-      <c r="F28" s="102"/>
-      <c r="G28" s="104"/>
-      <c r="H28" s="102"/>
-      <c r="I28" s="104"/>
-      <c r="J28" s="96"/>
-      <c r="K28" s="105"/>
+      <c r="D28" s="124"/>
+      <c r="E28" s="126"/>
+      <c r="F28" s="124"/>
+      <c r="G28" s="126"/>
+      <c r="H28" s="124"/>
+      <c r="I28" s="126"/>
+      <c r="J28" s="127"/>
+      <c r="K28" s="146"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -7721,14 +7724,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="102"/>
-      <c r="E29" s="104"/>
-      <c r="F29" s="102"/>
-      <c r="G29" s="104"/>
-      <c r="H29" s="102"/>
-      <c r="I29" s="104"/>
-      <c r="J29" s="96"/>
-      <c r="K29" s="105"/>
+      <c r="D29" s="124"/>
+      <c r="E29" s="126"/>
+      <c r="F29" s="124"/>
+      <c r="G29" s="126"/>
+      <c r="H29" s="124"/>
+      <c r="I29" s="126"/>
+      <c r="J29" s="127"/>
+      <c r="K29" s="146"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -7750,14 +7753,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="102"/>
-      <c r="E30" s="104"/>
-      <c r="F30" s="102"/>
-      <c r="G30" s="104"/>
-      <c r="H30" s="102"/>
-      <c r="I30" s="104"/>
-      <c r="J30" s="96"/>
-      <c r="K30" s="105"/>
+      <c r="D30" s="124"/>
+      <c r="E30" s="126"/>
+      <c r="F30" s="124"/>
+      <c r="G30" s="126"/>
+      <c r="H30" s="124"/>
+      <c r="I30" s="126"/>
+      <c r="J30" s="127"/>
+      <c r="K30" s="146"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -7779,14 +7782,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="102"/>
-      <c r="E31" s="104"/>
-      <c r="F31" s="102"/>
-      <c r="G31" s="104"/>
-      <c r="H31" s="102"/>
-      <c r="I31" s="104"/>
-      <c r="J31" s="96"/>
-      <c r="K31" s="105"/>
+      <c r="D31" s="124"/>
+      <c r="E31" s="126"/>
+      <c r="F31" s="124"/>
+      <c r="G31" s="126"/>
+      <c r="H31" s="124"/>
+      <c r="I31" s="126"/>
+      <c r="J31" s="127"/>
+      <c r="K31" s="146"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -7808,14 +7811,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="102"/>
-      <c r="E32" s="104"/>
-      <c r="F32" s="102"/>
-      <c r="G32" s="104"/>
-      <c r="H32" s="102"/>
-      <c r="I32" s="104"/>
-      <c r="J32" s="96"/>
-      <c r="K32" s="105"/>
+      <c r="D32" s="124"/>
+      <c r="E32" s="126"/>
+      <c r="F32" s="124"/>
+      <c r="G32" s="126"/>
+      <c r="H32" s="124"/>
+      <c r="I32" s="126"/>
+      <c r="J32" s="127"/>
+      <c r="K32" s="146"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -7837,14 +7840,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="102"/>
-      <c r="E33" s="104"/>
-      <c r="F33" s="102"/>
-      <c r="G33" s="104"/>
-      <c r="H33" s="102"/>
-      <c r="I33" s="104"/>
-      <c r="J33" s="96"/>
-      <c r="K33" s="105"/>
+      <c r="D33" s="124"/>
+      <c r="E33" s="126"/>
+      <c r="F33" s="124"/>
+      <c r="G33" s="126"/>
+      <c r="H33" s="124"/>
+      <c r="I33" s="126"/>
+      <c r="J33" s="127"/>
+      <c r="K33" s="146"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -7866,14 +7869,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="102"/>
-      <c r="E34" s="104"/>
-      <c r="F34" s="102"/>
-      <c r="G34" s="104"/>
-      <c r="H34" s="102"/>
-      <c r="I34" s="104"/>
-      <c r="J34" s="96"/>
-      <c r="K34" s="105"/>
+      <c r="D34" s="124"/>
+      <c r="E34" s="126"/>
+      <c r="F34" s="124"/>
+      <c r="G34" s="126"/>
+      <c r="H34" s="124"/>
+      <c r="I34" s="126"/>
+      <c r="J34" s="127"/>
+      <c r="K34" s="146"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -7895,14 +7898,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="102"/>
-      <c r="E35" s="104"/>
-      <c r="F35" s="102"/>
-      <c r="G35" s="104"/>
-      <c r="H35" s="102"/>
-      <c r="I35" s="104"/>
-      <c r="J35" s="96"/>
-      <c r="K35" s="105"/>
+      <c r="D35" s="124"/>
+      <c r="E35" s="126"/>
+      <c r="F35" s="124"/>
+      <c r="G35" s="126"/>
+      <c r="H35" s="124"/>
+      <c r="I35" s="126"/>
+      <c r="J35" s="127"/>
+      <c r="K35" s="146"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -7924,14 +7927,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="102"/>
-      <c r="E36" s="104"/>
-      <c r="F36" s="102"/>
-      <c r="G36" s="104"/>
-      <c r="H36" s="102"/>
-      <c r="I36" s="104"/>
-      <c r="J36" s="96"/>
-      <c r="K36" s="105"/>
+      <c r="D36" s="124"/>
+      <c r="E36" s="126"/>
+      <c r="F36" s="124"/>
+      <c r="G36" s="126"/>
+      <c r="H36" s="124"/>
+      <c r="I36" s="126"/>
+      <c r="J36" s="127"/>
+      <c r="K36" s="146"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -7953,14 +7956,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="102"/>
-      <c r="E37" s="104"/>
-      <c r="F37" s="102"/>
-      <c r="G37" s="104"/>
-      <c r="H37" s="102"/>
-      <c r="I37" s="104"/>
-      <c r="J37" s="96"/>
-      <c r="K37" s="105"/>
+      <c r="D37" s="124"/>
+      <c r="E37" s="126"/>
+      <c r="F37" s="124"/>
+      <c r="G37" s="126"/>
+      <c r="H37" s="124"/>
+      <c r="I37" s="126"/>
+      <c r="J37" s="127"/>
+      <c r="K37" s="146"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -7982,14 +7985,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="188"/>
-      <c r="E38" s="190"/>
-      <c r="F38" s="188"/>
-      <c r="G38" s="190"/>
-      <c r="H38" s="188"/>
-      <c r="I38" s="190"/>
-      <c r="J38" s="156"/>
-      <c r="K38" s="158"/>
+      <c r="D38" s="103"/>
+      <c r="E38" s="105"/>
+      <c r="F38" s="103"/>
+      <c r="G38" s="105"/>
+      <c r="H38" s="103"/>
+      <c r="I38" s="105"/>
+      <c r="J38" s="106"/>
+      <c r="K38" s="200"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8004,33 +8007,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="138" t="e">
+      <c r="D39" s="182" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="140"/>
-      <c r="F39" s="138" t="e">
+      <c r="E39" s="184"/>
+      <c r="F39" s="182" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="140"/>
-      <c r="H39" s="138" t="e">
+      <c r="G39" s="184"/>
+      <c r="H39" s="182" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="140"/>
-      <c r="J39" s="126" t="e">
+      <c r="I39" s="184"/>
+      <c r="J39" s="170" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="128"/>
-      <c r="L39" s="235" t="e">
+      <c r="K39" s="172"/>
+      <c r="L39" s="222" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="236"/>
-      <c r="N39" s="236"/>
-      <c r="O39" s="238"/>
+      <c r="M39" s="223"/>
+      <c r="N39" s="223"/>
+      <c r="O39" s="225"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8038,33 +8041,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="270">
+      <c r="D40" s="254">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="271"/>
-      <c r="F40" s="145">
+      <c r="E40" s="255"/>
+      <c r="F40" s="189">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="147"/>
-      <c r="H40" s="145">
+      <c r="G40" s="191"/>
+      <c r="H40" s="189">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="147"/>
-      <c r="J40" s="129">
+      <c r="I40" s="191"/>
+      <c r="J40" s="173">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="131"/>
-      <c r="L40" s="226" t="e">
+      <c r="K40" s="175"/>
+      <c r="L40" s="213" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="227"/>
-      <c r="N40" s="227"/>
-      <c r="O40" s="239"/>
+      <c r="M40" s="214"/>
+      <c r="N40" s="214"/>
+      <c r="O40" s="226"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8072,63 +8075,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="268">
+      <c r="D41" s="252">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="269"/>
-      <c r="F41" s="152">
+      <c r="E41" s="253"/>
+      <c r="F41" s="196">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="154"/>
-      <c r="H41" s="152">
+      <c r="G41" s="198"/>
+      <c r="H41" s="196">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="154"/>
-      <c r="J41" s="132">
+      <c r="I41" s="198"/>
+      <c r="J41" s="176">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="134"/>
-      <c r="L41" s="242" t="e">
+      <c r="K41" s="178"/>
+      <c r="L41" s="203" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="243"/>
-      <c r="N41" s="243"/>
-      <c r="O41" s="245"/>
+      <c r="M41" s="204"/>
+      <c r="N41" s="204"/>
+      <c r="O41" s="206"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="249"/>
-      <c r="C42" s="249"/>
-      <c r="D42" s="193" t="s">
+      <c r="B42" s="247"/>
+      <c r="C42" s="247"/>
+      <c r="D42" s="110" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="193"/>
+      <c r="E42" s="110"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="194" t="s">
+      <c r="J42" s="111" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="194"/>
-      <c r="L42" s="195"/>
-      <c r="M42" s="195"/>
-      <c r="N42" s="195"/>
+      <c r="K42" s="111"/>
+      <c r="L42" s="112"/>
+      <c r="M42" s="112"/>
+      <c r="N42" s="112"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="250"/>
-      <c r="C43" s="250"/>
+      <c r="B43" s="248"/>
+      <c r="C43" s="248"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8137,39 +8140,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="197"/>
-      <c r="M43" s="197"/>
-      <c r="N43" s="197"/>
+      <c r="L43" s="114"/>
+      <c r="M43" s="114"/>
+      <c r="N43" s="114"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="198" t="s">
+      <c r="A44" s="98" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="198"/>
-      <c r="C44" s="198"/>
+      <c r="B44" s="98"/>
+      <c r="C44" s="98"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="198" t="str">
+      <c r="G44" s="98" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="198"/>
-      <c r="I44" s="198"/>
-      <c r="J44" s="198"/>
+      <c r="H44" s="98"/>
+      <c r="I44" s="98"/>
+      <c r="J44" s="98"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="198" t="s">
+      <c r="A45" s="98" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="198"/>
+      <c r="B45" s="98"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8180,15 +8183,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="199" t="s">
+      <c r="M45" s="99" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="199"/>
+      <c r="N45" s="99"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="198"/>
-      <c r="B46" s="198"/>
+      <c r="A46" s="98"/>
+      <c r="B46" s="98"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8199,161 +8202,13 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="199"/>
-      <c r="N46" s="199"/>
+      <c r="M46" s="99"/>
+      <c r="N46" s="99"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="172">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="A46:B46"/>
@@ -8378,6 +8233,154 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="notBetween">
@@ -10082,7 +10085,7 @@
   <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AS32" sqref="AS32"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -10433,7 +10436,7 @@
         <f t="shared" ref="AP3:AP8" si="1">STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="272" t="e">
+      <c r="AQ3" s="96" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
@@ -10609,7 +10612,7 @@
         <f>STDEV(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ4" s="272" t="e">
+      <c r="AQ4" s="96" t="e">
         <f>(AO4-H4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10785,7 +10788,7 @@
         <f>STDEV(K5:AN5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ5" s="272" t="e">
+      <c r="AQ5" s="96" t="e">
         <f>(AO5-H5)/(3*AP5)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10961,7 +10964,7 @@
         <f>STDEV(K6:AN6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ6" s="272" t="e">
+      <c r="AQ6" s="96" t="e">
         <f>MIN((AO6-H6)/(3*AP6), (I6-AO6)/(3*AP6))</f>
         <v>#DIV/0!</v>
       </c>
@@ -11137,7 +11140,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="272" t="e">
+      <c r="AQ7" s="96" t="e">
         <f>(AO7-H7)/(3*AP7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11313,7 +11316,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ8" s="272" t="e">
+      <c r="AQ8" s="96" t="e">
         <f>(AO8-H8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11489,15 +11492,15 @@
         <f>STDEV(K9:AN9)</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="272" t="e">
+      <c r="AQ9" s="96" t="e">
         <f>MIN((AO9-H9)/(3*AP9), (I9-AO9)/(3*AP9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="76">
+      <c r="AR9" s="273">
         <f>MIN(K9:AN9)</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="76">
+      <c r="AS9" s="273">
         <f>MAX(K9:AN9)</f>
         <v>0</v>
       </c>
@@ -11665,7 +11668,7 @@
         <f>STDEV(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="272" t="e">
+      <c r="AQ10" s="96" t="e">
         <f>MIN((AO10-H10)/(3*AP10), (I10-AO10)/(3*AP10))</f>
         <v>#DIV/0!</v>
       </c>
@@ -11839,7 +11842,7 @@
         <f>STDEV(K11:AN11)</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="272" t="e">
+      <c r="AQ11" s="96" t="e">
         <f>(I11-AO11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12015,7 +12018,7 @@
         <f>STDEV(K12:AN12)</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="272" t="e">
+      <c r="AQ12" s="96" t="e">
         <f>MIN((AO12-H12)/(3*AP12), (I12-AO12)/(3*AP12))</f>
         <v>#DIV/0!</v>
       </c>
@@ -12191,7 +12194,7 @@
         <f>STDEV(K13:AN13)</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="272" t="e">
+      <c r="AQ13" s="96" t="e">
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
@@ -12367,7 +12370,7 @@
         <f t="shared" ref="AP14:AP17" si="6">STDEV(K14:AN14)</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="272" t="e">
+      <c r="AQ14" s="96" t="e">
         <f>MIN((AO14-H14)/(3*AP14),(I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
@@ -12543,7 +12546,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="272" t="e">
+      <c r="AQ15" s="96" t="e">
         <f t="shared" ref="AQ15:AQ16" si="9">MIN((AO15-H15)/(3*AP15),(I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
@@ -12719,7 +12722,7 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="272" t="e">
+      <c r="AQ16" s="96" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
@@ -12893,7 +12896,7 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ17" s="272" t="e">
+      <c r="AQ17" s="96" t="e">
         <f>(I17-AO17)/(3*AP17)</f>
         <v>#DIV/0!</v>
       </c>

--- a/backend/templates/168-18c-white.xlsx
+++ b/backend/templates/168-18c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7A98CA2F-CCF0-416E-8180-147129A88423}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B8662-5C69-4C7D-B5F7-48CA1F104CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1611,10 +1611,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1649,141 +1645,103 @@
     <xf numFmtId="166" fontId="16" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1794,6 +1752,151 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -1826,15 +1929,8 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1847,234 +1943,57 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2148,19 +2067,158 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -2175,67 +2233,9 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2698,7 +2698,7 @@
   <dimension ref="A1:O78"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15.75" customHeight="1"/>
@@ -2709,61 +2709,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="165" t="s">
+      <c r="A1" s="117" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="165"/>
-      <c r="C1" s="165"/>
-      <c r="D1" s="165"/>
-      <c r="E1" s="165"/>
-      <c r="F1" s="165"/>
-      <c r="G1" s="165"/>
-      <c r="H1" s="165"/>
-      <c r="I1" s="165"/>
-      <c r="J1" s="165"/>
-      <c r="K1" s="165"/>
-      <c r="L1" s="165"/>
-      <c r="M1" s="165"/>
-      <c r="N1" s="166" t="s">
+      <c r="B1" s="117"/>
+      <c r="C1" s="117"/>
+      <c r="D1" s="117"/>
+      <c r="E1" s="117"/>
+      <c r="F1" s="117"/>
+      <c r="G1" s="117"/>
+      <c r="H1" s="117"/>
+      <c r="I1" s="117"/>
+      <c r="J1" s="117"/>
+      <c r="K1" s="117"/>
+      <c r="L1" s="117"/>
+      <c r="M1" s="117"/>
+      <c r="N1" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="166"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="167" t="s">
+      <c r="A2" s="119" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="167"/>
-      <c r="C2" s="167"/>
-      <c r="D2" s="167"/>
-      <c r="E2" s="167"/>
-      <c r="F2" s="167"/>
-      <c r="G2" s="167"/>
-      <c r="H2" s="167"/>
-      <c r="I2" s="167"/>
-      <c r="J2" s="167"/>
-      <c r="K2" s="167"/>
-      <c r="L2" s="167"/>
-      <c r="M2" s="167"/>
-      <c r="N2" s="169" t="s">
+      <c r="B2" s="119"/>
+      <c r="C2" s="119"/>
+      <c r="D2" s="119"/>
+      <c r="E2" s="119"/>
+      <c r="F2" s="119"/>
+      <c r="G2" s="119"/>
+      <c r="H2" s="119"/>
+      <c r="I2" s="119"/>
+      <c r="J2" s="119"/>
+      <c r="K2" s="119"/>
+      <c r="L2" s="119"/>
+      <c r="M2" s="119"/>
+      <c r="N2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="169"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="168"/>
-      <c r="B3" s="168"/>
-      <c r="C3" s="168"/>
-      <c r="D3" s="168"/>
-      <c r="E3" s="168"/>
-      <c r="F3" s="168"/>
-      <c r="G3" s="168"/>
-      <c r="H3" s="168"/>
-      <c r="I3" s="168"/>
-      <c r="J3" s="168"/>
-      <c r="K3" s="168"/>
-      <c r="L3" s="168"/>
-      <c r="M3" s="168"/>
+      <c r="A3" s="120"/>
+      <c r="B3" s="120"/>
+      <c r="C3" s="120"/>
+      <c r="D3" s="120"/>
+      <c r="E3" s="120"/>
+      <c r="F3" s="120"/>
+      <c r="G3" s="120"/>
+      <c r="H3" s="120"/>
+      <c r="I3" s="120"/>
+      <c r="J3" s="120"/>
+      <c r="K3" s="120"/>
+      <c r="L3" s="120"/>
+      <c r="M3" s="120"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2773,607 +2773,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="133"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="135" t="s">
+      <c r="B4" s="122"/>
+      <c r="C4" s="123"/>
+      <c r="D4" s="124" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="148"/>
-      <c r="F4" s="133"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="135" t="s">
+      <c r="E4" s="125"/>
+      <c r="F4" s="122"/>
+      <c r="G4" s="182"/>
+      <c r="H4" s="124" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="148"/>
-      <c r="J4" s="133"/>
-      <c r="K4" s="134"/>
-      <c r="L4" s="135" t="s">
+      <c r="I4" s="125"/>
+      <c r="J4" s="122"/>
+      <c r="K4" s="123"/>
+      <c r="L4" s="124" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="136"/>
-      <c r="N4" s="133"/>
-      <c r="O4" s="137"/>
+      <c r="M4" s="172"/>
+      <c r="N4" s="122"/>
+      <c r="O4" s="173"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="138"/>
-      <c r="C5" s="139"/>
-      <c r="D5" s="140" t="s">
+      <c r="B5" s="174"/>
+      <c r="C5" s="175"/>
+      <c r="D5" s="176" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="141"/>
-      <c r="F5" s="138"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="150" t="s">
+      <c r="E5" s="177"/>
+      <c r="F5" s="174"/>
+      <c r="G5" s="183"/>
+      <c r="H5" s="184" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="151"/>
-      <c r="J5" s="142"/>
-      <c r="K5" s="143"/>
-      <c r="L5" s="140" t="s">
+      <c r="I5" s="185"/>
+      <c r="J5" s="178"/>
+      <c r="K5" s="179"/>
+      <c r="L5" s="176" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="144"/>
-      <c r="N5" s="138"/>
-      <c r="O5" s="145"/>
+      <c r="M5" s="180"/>
+      <c r="N5" s="174"/>
+      <c r="O5" s="181"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="152" t="s">
+      <c r="A6" s="160" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="153"/>
-      <c r="C6" s="153"/>
-      <c r="D6" s="153"/>
-      <c r="E6" s="153"/>
-      <c r="F6" s="153"/>
-      <c r="G6" s="159"/>
-      <c r="H6" s="160"/>
-      <c r="I6" s="161"/>
-      <c r="J6" s="153"/>
-      <c r="K6" s="153"/>
-      <c r="L6" s="153"/>
-      <c r="M6" s="159"/>
-      <c r="N6" s="160"/>
-      <c r="O6" s="162"/>
+      <c r="B6" s="161"/>
+      <c r="C6" s="161"/>
+      <c r="D6" s="161"/>
+      <c r="E6" s="161"/>
+      <c r="F6" s="161"/>
+      <c r="G6" s="167"/>
+      <c r="H6" s="168"/>
+      <c r="I6" s="169"/>
+      <c r="J6" s="161"/>
+      <c r="K6" s="161"/>
+      <c r="L6" s="161"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="168"/>
+      <c r="O6" s="170"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="157" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="158"/>
-      <c r="C7" s="158"/>
-      <c r="D7" s="154" t="s">
+      <c r="A7" s="165" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="166"/>
+      <c r="C7" s="166"/>
+      <c r="D7" s="162" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="155"/>
-      <c r="F7" s="156"/>
-      <c r="G7" s="154" t="s">
+      <c r="E7" s="163"/>
+      <c r="F7" s="164"/>
+      <c r="G7" s="162" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="155"/>
-      <c r="I7" s="156"/>
-      <c r="J7" s="158" t="s">
+      <c r="H7" s="163"/>
+      <c r="I7" s="164"/>
+      <c r="J7" s="166" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="158"/>
-      <c r="L7" s="158"/>
-      <c r="M7" s="154" t="s">
+      <c r="K7" s="166"/>
+      <c r="L7" s="166"/>
+      <c r="M7" s="162" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="155"/>
-      <c r="O7" s="163"/>
+      <c r="N7" s="163"/>
+      <c r="O7" s="171"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="127"/>
-      <c r="E8" s="128"/>
-      <c r="F8" s="146"/>
-      <c r="G8" s="121"/>
-      <c r="H8" s="122"/>
-      <c r="I8" s="123"/>
-      <c r="J8" s="124"/>
-      <c r="K8" s="125"/>
-      <c r="L8" s="126"/>
-      <c r="M8" s="127"/>
-      <c r="N8" s="128"/>
-      <c r="O8" s="129"/>
+      <c r="D8" s="97"/>
+      <c r="E8" s="98"/>
+      <c r="F8" s="106"/>
+      <c r="G8" s="100"/>
+      <c r="H8" s="101"/>
+      <c r="I8" s="102"/>
+      <c r="J8" s="103"/>
+      <c r="K8" s="104"/>
+      <c r="L8" s="105"/>
+      <c r="M8" s="97"/>
+      <c r="N8" s="98"/>
+      <c r="O8" s="99"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="118"/>
-      <c r="E9" s="119"/>
-      <c r="F9" s="164"/>
-      <c r="G9" s="130"/>
-      <c r="H9" s="131"/>
-      <c r="I9" s="132"/>
-      <c r="J9" s="115"/>
-      <c r="K9" s="116"/>
-      <c r="L9" s="117"/>
-      <c r="M9" s="118"/>
-      <c r="N9" s="119"/>
-      <c r="O9" s="120"/>
+      <c r="D9" s="107"/>
+      <c r="E9" s="108"/>
+      <c r="F9" s="109"/>
+      <c r="G9" s="114"/>
+      <c r="H9" s="115"/>
+      <c r="I9" s="116"/>
+      <c r="J9" s="110"/>
+      <c r="K9" s="111"/>
+      <c r="L9" s="112"/>
+      <c r="M9" s="107"/>
+      <c r="N9" s="108"/>
+      <c r="O9" s="113"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="127"/>
-      <c r="E10" s="128"/>
-      <c r="F10" s="146"/>
-      <c r="G10" s="121"/>
-      <c r="H10" s="122"/>
-      <c r="I10" s="123"/>
-      <c r="J10" s="124"/>
-      <c r="K10" s="125"/>
-      <c r="L10" s="126"/>
-      <c r="M10" s="127"/>
-      <c r="N10" s="128"/>
-      <c r="O10" s="129"/>
+      <c r="D10" s="97"/>
+      <c r="E10" s="98"/>
+      <c r="F10" s="106"/>
+      <c r="G10" s="100"/>
+      <c r="H10" s="101"/>
+      <c r="I10" s="102"/>
+      <c r="J10" s="103"/>
+      <c r="K10" s="104"/>
+      <c r="L10" s="105"/>
+      <c r="M10" s="97"/>
+      <c r="N10" s="98"/>
+      <c r="O10" s="99"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="127"/>
-      <c r="E11" s="128"/>
-      <c r="F11" s="146"/>
-      <c r="G11" s="121"/>
-      <c r="H11" s="122"/>
-      <c r="I11" s="123"/>
-      <c r="J11" s="124"/>
-      <c r="K11" s="125"/>
-      <c r="L11" s="126"/>
-      <c r="M11" s="127"/>
-      <c r="N11" s="128"/>
-      <c r="O11" s="129"/>
+      <c r="D11" s="97"/>
+      <c r="E11" s="98"/>
+      <c r="F11" s="106"/>
+      <c r="G11" s="100"/>
+      <c r="H11" s="101"/>
+      <c r="I11" s="102"/>
+      <c r="J11" s="103"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="105"/>
+      <c r="M11" s="97"/>
+      <c r="N11" s="98"/>
+      <c r="O11" s="99"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="118"/>
-      <c r="E12" s="119"/>
-      <c r="F12" s="164"/>
-      <c r="G12" s="130"/>
-      <c r="H12" s="131"/>
-      <c r="I12" s="132"/>
-      <c r="J12" s="115"/>
-      <c r="K12" s="116"/>
-      <c r="L12" s="117"/>
-      <c r="M12" s="118"/>
-      <c r="N12" s="119"/>
-      <c r="O12" s="120"/>
+      <c r="D12" s="107"/>
+      <c r="E12" s="108"/>
+      <c r="F12" s="109"/>
+      <c r="G12" s="114"/>
+      <c r="H12" s="115"/>
+      <c r="I12" s="116"/>
+      <c r="J12" s="110"/>
+      <c r="K12" s="111"/>
+      <c r="L12" s="112"/>
+      <c r="M12" s="107"/>
+      <c r="N12" s="108"/>
+      <c r="O12" s="113"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="127"/>
-      <c r="E13" s="128"/>
-      <c r="F13" s="146"/>
-      <c r="G13" s="121"/>
-      <c r="H13" s="122"/>
-      <c r="I13" s="123"/>
-      <c r="J13" s="124"/>
-      <c r="K13" s="125"/>
-      <c r="L13" s="126"/>
-      <c r="M13" s="127"/>
-      <c r="N13" s="128"/>
-      <c r="O13" s="129"/>
+      <c r="D13" s="97"/>
+      <c r="E13" s="98"/>
+      <c r="F13" s="106"/>
+      <c r="G13" s="100"/>
+      <c r="H13" s="101"/>
+      <c r="I13" s="102"/>
+      <c r="J13" s="103"/>
+      <c r="K13" s="104"/>
+      <c r="L13" s="105"/>
+      <c r="M13" s="97"/>
+      <c r="N13" s="98"/>
+      <c r="O13" s="99"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="128"/>
-      <c r="F14" s="146"/>
-      <c r="G14" s="121"/>
-      <c r="H14" s="122"/>
-      <c r="I14" s="123"/>
-      <c r="J14" s="124"/>
-      <c r="K14" s="125"/>
-      <c r="L14" s="126"/>
-      <c r="M14" s="127"/>
-      <c r="N14" s="128"/>
-      <c r="O14" s="129"/>
+      <c r="D14" s="97"/>
+      <c r="E14" s="98"/>
+      <c r="F14" s="106"/>
+      <c r="G14" s="100"/>
+      <c r="H14" s="101"/>
+      <c r="I14" s="102"/>
+      <c r="J14" s="103"/>
+      <c r="K14" s="104"/>
+      <c r="L14" s="105"/>
+      <c r="M14" s="97"/>
+      <c r="N14" s="98"/>
+      <c r="O14" s="99"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="127"/>
-      <c r="E15" s="128"/>
-      <c r="F15" s="146"/>
-      <c r="G15" s="121"/>
-      <c r="H15" s="122"/>
-      <c r="I15" s="123"/>
-      <c r="J15" s="124"/>
-      <c r="K15" s="125"/>
-      <c r="L15" s="126"/>
-      <c r="M15" s="127"/>
-      <c r="N15" s="128"/>
-      <c r="O15" s="129"/>
+      <c r="D15" s="97"/>
+      <c r="E15" s="98"/>
+      <c r="F15" s="106"/>
+      <c r="G15" s="100"/>
+      <c r="H15" s="101"/>
+      <c r="I15" s="102"/>
+      <c r="J15" s="103"/>
+      <c r="K15" s="104"/>
+      <c r="L15" s="105"/>
+      <c r="M15" s="97"/>
+      <c r="N15" s="98"/>
+      <c r="O15" s="99"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="118"/>
-      <c r="E16" s="119"/>
-      <c r="F16" s="164"/>
-      <c r="G16" s="130"/>
-      <c r="H16" s="131"/>
-      <c r="I16" s="132"/>
-      <c r="J16" s="115"/>
-      <c r="K16" s="116"/>
-      <c r="L16" s="117"/>
-      <c r="M16" s="118"/>
-      <c r="N16" s="119"/>
-      <c r="O16" s="120"/>
+      <c r="D16" s="107"/>
+      <c r="E16" s="108"/>
+      <c r="F16" s="109"/>
+      <c r="G16" s="114"/>
+      <c r="H16" s="115"/>
+      <c r="I16" s="116"/>
+      <c r="J16" s="110"/>
+      <c r="K16" s="111"/>
+      <c r="L16" s="112"/>
+      <c r="M16" s="107"/>
+      <c r="N16" s="108"/>
+      <c r="O16" s="113"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="127"/>
-      <c r="E17" s="128"/>
-      <c r="F17" s="146"/>
-      <c r="G17" s="121"/>
-      <c r="H17" s="122"/>
-      <c r="I17" s="123"/>
-      <c r="J17" s="124"/>
-      <c r="K17" s="125"/>
-      <c r="L17" s="126"/>
-      <c r="M17" s="127"/>
-      <c r="N17" s="128"/>
-      <c r="O17" s="129"/>
+      <c r="D17" s="97"/>
+      <c r="E17" s="98"/>
+      <c r="F17" s="106"/>
+      <c r="G17" s="100"/>
+      <c r="H17" s="101"/>
+      <c r="I17" s="102"/>
+      <c r="J17" s="103"/>
+      <c r="K17" s="104"/>
+      <c r="L17" s="105"/>
+      <c r="M17" s="97"/>
+      <c r="N17" s="98"/>
+      <c r="O17" s="99"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="127"/>
-      <c r="E18" s="128"/>
-      <c r="F18" s="146"/>
-      <c r="G18" s="121"/>
-      <c r="H18" s="122"/>
-      <c r="I18" s="123"/>
-      <c r="J18" s="124"/>
-      <c r="K18" s="125"/>
-      <c r="L18" s="126"/>
-      <c r="M18" s="127"/>
-      <c r="N18" s="128"/>
-      <c r="O18" s="129"/>
+      <c r="D18" s="97"/>
+      <c r="E18" s="98"/>
+      <c r="F18" s="106"/>
+      <c r="G18" s="100"/>
+      <c r="H18" s="101"/>
+      <c r="I18" s="102"/>
+      <c r="J18" s="103"/>
+      <c r="K18" s="104"/>
+      <c r="L18" s="105"/>
+      <c r="M18" s="97"/>
+      <c r="N18" s="98"/>
+      <c r="O18" s="99"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="118"/>
-      <c r="E19" s="119"/>
-      <c r="F19" s="164"/>
-      <c r="G19" s="130"/>
-      <c r="H19" s="131"/>
-      <c r="I19" s="132"/>
-      <c r="J19" s="115"/>
-      <c r="K19" s="116"/>
-      <c r="L19" s="117"/>
-      <c r="M19" s="118"/>
-      <c r="N19" s="119"/>
-      <c r="O19" s="120"/>
+      <c r="D19" s="107"/>
+      <c r="E19" s="108"/>
+      <c r="F19" s="109"/>
+      <c r="G19" s="114"/>
+      <c r="H19" s="115"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="110"/>
+      <c r="K19" s="111"/>
+      <c r="L19" s="112"/>
+      <c r="M19" s="107"/>
+      <c r="N19" s="108"/>
+      <c r="O19" s="113"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="127"/>
-      <c r="E20" s="128"/>
-      <c r="F20" s="146"/>
-      <c r="G20" s="121"/>
-      <c r="H20" s="122"/>
-      <c r="I20" s="123"/>
-      <c r="J20" s="124"/>
-      <c r="K20" s="125"/>
-      <c r="L20" s="126"/>
-      <c r="M20" s="127"/>
-      <c r="N20" s="128"/>
-      <c r="O20" s="129"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="F20" s="106"/>
+      <c r="G20" s="100"/>
+      <c r="H20" s="101"/>
+      <c r="I20" s="102"/>
+      <c r="J20" s="103"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="105"/>
+      <c r="M20" s="97"/>
+      <c r="N20" s="98"/>
+      <c r="O20" s="99"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="127"/>
-      <c r="E21" s="128"/>
-      <c r="F21" s="146"/>
-      <c r="G21" s="121"/>
-      <c r="H21" s="122"/>
-      <c r="I21" s="123"/>
-      <c r="J21" s="124"/>
-      <c r="K21" s="125"/>
-      <c r="L21" s="126"/>
-      <c r="M21" s="127"/>
-      <c r="N21" s="128"/>
-      <c r="O21" s="129"/>
+      <c r="D21" s="97"/>
+      <c r="E21" s="98"/>
+      <c r="F21" s="106"/>
+      <c r="G21" s="100"/>
+      <c r="H21" s="101"/>
+      <c r="I21" s="102"/>
+      <c r="J21" s="103"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="105"/>
+      <c r="M21" s="97"/>
+      <c r="N21" s="98"/>
+      <c r="O21" s="99"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="118"/>
-      <c r="E22" s="119"/>
-      <c r="F22" s="164"/>
-      <c r="G22" s="130"/>
-      <c r="H22" s="131"/>
-      <c r="I22" s="132"/>
-      <c r="J22" s="115"/>
-      <c r="K22" s="116"/>
-      <c r="L22" s="117"/>
-      <c r="M22" s="118"/>
-      <c r="N22" s="119"/>
-      <c r="O22" s="120"/>
+      <c r="D22" s="107"/>
+      <c r="E22" s="108"/>
+      <c r="F22" s="109"/>
+      <c r="G22" s="114"/>
+      <c r="H22" s="115"/>
+      <c r="I22" s="116"/>
+      <c r="J22" s="110"/>
+      <c r="K22" s="111"/>
+      <c r="L22" s="112"/>
+      <c r="M22" s="107"/>
+      <c r="N22" s="108"/>
+      <c r="O22" s="113"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="127"/>
-      <c r="E23" s="128"/>
-      <c r="F23" s="146"/>
-      <c r="G23" s="121"/>
-      <c r="H23" s="122"/>
-      <c r="I23" s="123"/>
-      <c r="J23" s="124"/>
-      <c r="K23" s="125"/>
-      <c r="L23" s="126"/>
-      <c r="M23" s="127"/>
-      <c r="N23" s="128"/>
-      <c r="O23" s="129"/>
+      <c r="D23" s="97"/>
+      <c r="E23" s="98"/>
+      <c r="F23" s="106"/>
+      <c r="G23" s="100"/>
+      <c r="H23" s="101"/>
+      <c r="I23" s="102"/>
+      <c r="J23" s="103"/>
+      <c r="K23" s="104"/>
+      <c r="L23" s="105"/>
+      <c r="M23" s="97"/>
+      <c r="N23" s="98"/>
+      <c r="O23" s="99"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="127"/>
-      <c r="E24" s="128"/>
-      <c r="F24" s="146"/>
-      <c r="G24" s="121"/>
-      <c r="H24" s="122"/>
-      <c r="I24" s="123"/>
-      <c r="J24" s="124"/>
-      <c r="K24" s="125"/>
-      <c r="L24" s="126"/>
-      <c r="M24" s="127"/>
-      <c r="N24" s="128"/>
-      <c r="O24" s="129"/>
+      <c r="D24" s="97"/>
+      <c r="E24" s="98"/>
+      <c r="F24" s="106"/>
+      <c r="G24" s="100"/>
+      <c r="H24" s="101"/>
+      <c r="I24" s="102"/>
+      <c r="J24" s="103"/>
+      <c r="K24" s="104"/>
+      <c r="L24" s="105"/>
+      <c r="M24" s="97"/>
+      <c r="N24" s="98"/>
+      <c r="O24" s="99"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="118"/>
-      <c r="E25" s="119"/>
-      <c r="F25" s="164"/>
-      <c r="G25" s="130"/>
-      <c r="H25" s="131"/>
-      <c r="I25" s="132"/>
-      <c r="J25" s="115"/>
-      <c r="K25" s="116"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="119"/>
-      <c r="O25" s="120"/>
+      <c r="D25" s="107"/>
+      <c r="E25" s="108"/>
+      <c r="F25" s="109"/>
+      <c r="G25" s="114"/>
+      <c r="H25" s="115"/>
+      <c r="I25" s="116"/>
+      <c r="J25" s="110"/>
+      <c r="K25" s="111"/>
+      <c r="L25" s="112"/>
+      <c r="M25" s="107"/>
+      <c r="N25" s="108"/>
+      <c r="O25" s="113"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="127"/>
-      <c r="E26" s="128"/>
-      <c r="F26" s="146"/>
-      <c r="G26" s="121"/>
-      <c r="H26" s="122"/>
-      <c r="I26" s="123"/>
-      <c r="J26" s="124"/>
-      <c r="K26" s="125"/>
-      <c r="L26" s="126"/>
-      <c r="M26" s="127"/>
-      <c r="N26" s="128"/>
-      <c r="O26" s="129"/>
+      <c r="D26" s="97"/>
+      <c r="E26" s="98"/>
+      <c r="F26" s="106"/>
+      <c r="G26" s="100"/>
+      <c r="H26" s="101"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="103"/>
+      <c r="K26" s="104"/>
+      <c r="L26" s="105"/>
+      <c r="M26" s="97"/>
+      <c r="N26" s="98"/>
+      <c r="O26" s="99"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="127"/>
-      <c r="E27" s="128"/>
-      <c r="F27" s="146"/>
-      <c r="G27" s="121"/>
-      <c r="H27" s="122"/>
-      <c r="I27" s="123"/>
-      <c r="J27" s="124"/>
-      <c r="K27" s="125"/>
-      <c r="L27" s="126"/>
-      <c r="M27" s="127"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="129"/>
+      <c r="D27" s="97"/>
+      <c r="E27" s="98"/>
+      <c r="F27" s="106"/>
+      <c r="G27" s="100"/>
+      <c r="H27" s="101"/>
+      <c r="I27" s="102"/>
+      <c r="J27" s="103"/>
+      <c r="K27" s="104"/>
+      <c r="L27" s="105"/>
+      <c r="M27" s="97"/>
+      <c r="N27" s="98"/>
+      <c r="O27" s="99"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="127"/>
-      <c r="E28" s="128"/>
-      <c r="F28" s="146"/>
-      <c r="G28" s="121"/>
-      <c r="H28" s="122"/>
-      <c r="I28" s="123"/>
-      <c r="J28" s="124"/>
-      <c r="K28" s="125"/>
-      <c r="L28" s="126"/>
-      <c r="M28" s="127"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="129"/>
+      <c r="D28" s="97"/>
+      <c r="E28" s="98"/>
+      <c r="F28" s="106"/>
+      <c r="G28" s="100"/>
+      <c r="H28" s="101"/>
+      <c r="I28" s="102"/>
+      <c r="J28" s="103"/>
+      <c r="K28" s="104"/>
+      <c r="L28" s="105"/>
+      <c r="M28" s="97"/>
+      <c r="N28" s="98"/>
+      <c r="O28" s="99"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="118"/>
-      <c r="E29" s="119"/>
-      <c r="F29" s="164"/>
-      <c r="G29" s="130"/>
-      <c r="H29" s="131"/>
-      <c r="I29" s="132"/>
-      <c r="J29" s="115"/>
-      <c r="K29" s="116"/>
-      <c r="L29" s="117"/>
-      <c r="M29" s="118"/>
-      <c r="N29" s="119"/>
-      <c r="O29" s="120"/>
+      <c r="D29" s="107"/>
+      <c r="E29" s="108"/>
+      <c r="F29" s="109"/>
+      <c r="G29" s="114"/>
+      <c r="H29" s="115"/>
+      <c r="I29" s="116"/>
+      <c r="J29" s="110"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="112"/>
+      <c r="M29" s="107"/>
+      <c r="N29" s="108"/>
+      <c r="O29" s="113"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="127"/>
-      <c r="E30" s="128"/>
-      <c r="F30" s="146"/>
-      <c r="G30" s="121"/>
-      <c r="H30" s="122"/>
-      <c r="I30" s="123"/>
-      <c r="J30" s="124"/>
-      <c r="K30" s="125"/>
-      <c r="L30" s="126"/>
-      <c r="M30" s="127"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="129"/>
+      <c r="D30" s="97"/>
+      <c r="E30" s="98"/>
+      <c r="F30" s="106"/>
+      <c r="G30" s="100"/>
+      <c r="H30" s="101"/>
+      <c r="I30" s="102"/>
+      <c r="J30" s="103"/>
+      <c r="K30" s="104"/>
+      <c r="L30" s="105"/>
+      <c r="M30" s="97"/>
+      <c r="N30" s="98"/>
+      <c r="O30" s="99"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="127"/>
-      <c r="E31" s="128"/>
-      <c r="F31" s="146"/>
-      <c r="G31" s="121"/>
-      <c r="H31" s="122"/>
-      <c r="I31" s="123"/>
-      <c r="J31" s="124"/>
-      <c r="K31" s="125"/>
-      <c r="L31" s="126"/>
-      <c r="M31" s="127"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="129"/>
+      <c r="D31" s="97"/>
+      <c r="E31" s="98"/>
+      <c r="F31" s="106"/>
+      <c r="G31" s="100"/>
+      <c r="H31" s="101"/>
+      <c r="I31" s="102"/>
+      <c r="J31" s="103"/>
+      <c r="K31" s="104"/>
+      <c r="L31" s="105"/>
+      <c r="M31" s="97"/>
+      <c r="N31" s="98"/>
+      <c r="O31" s="99"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="118"/>
-      <c r="E32" s="119"/>
-      <c r="F32" s="164"/>
-      <c r="G32" s="130"/>
-      <c r="H32" s="131"/>
-      <c r="I32" s="132"/>
-      <c r="J32" s="115"/>
-      <c r="K32" s="116"/>
-      <c r="L32" s="117"/>
-      <c r="M32" s="118"/>
-      <c r="N32" s="119"/>
-      <c r="O32" s="120"/>
+      <c r="D32" s="107"/>
+      <c r="E32" s="108"/>
+      <c r="F32" s="109"/>
+      <c r="G32" s="114"/>
+      <c r="H32" s="115"/>
+      <c r="I32" s="116"/>
+      <c r="J32" s="110"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="112"/>
+      <c r="M32" s="107"/>
+      <c r="N32" s="108"/>
+      <c r="O32" s="113"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="127"/>
-      <c r="E33" s="128"/>
-      <c r="F33" s="146"/>
-      <c r="G33" s="121"/>
-      <c r="H33" s="122"/>
-      <c r="I33" s="123"/>
-      <c r="J33" s="124"/>
-      <c r="K33" s="125"/>
-      <c r="L33" s="126"/>
-      <c r="M33" s="127"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="129"/>
+      <c r="D33" s="97"/>
+      <c r="E33" s="98"/>
+      <c r="F33" s="106"/>
+      <c r="G33" s="100"/>
+      <c r="H33" s="101"/>
+      <c r="I33" s="102"/>
+      <c r="J33" s="103"/>
+      <c r="K33" s="104"/>
+      <c r="L33" s="105"/>
+      <c r="M33" s="97"/>
+      <c r="N33" s="98"/>
+      <c r="O33" s="99"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="127"/>
-      <c r="E34" s="128"/>
-      <c r="F34" s="146"/>
-      <c r="G34" s="121"/>
-      <c r="H34" s="122"/>
-      <c r="I34" s="123"/>
-      <c r="J34" s="124"/>
-      <c r="K34" s="125"/>
-      <c r="L34" s="126"/>
-      <c r="M34" s="127"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="129"/>
+      <c r="D34" s="97"/>
+      <c r="E34" s="98"/>
+      <c r="F34" s="106"/>
+      <c r="G34" s="100"/>
+      <c r="H34" s="101"/>
+      <c r="I34" s="102"/>
+      <c r="J34" s="103"/>
+      <c r="K34" s="104"/>
+      <c r="L34" s="105"/>
+      <c r="M34" s="97"/>
+      <c r="N34" s="98"/>
+      <c r="O34" s="99"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="118"/>
-      <c r="E35" s="119"/>
-      <c r="F35" s="164"/>
-      <c r="G35" s="130"/>
-      <c r="H35" s="131"/>
-      <c r="I35" s="132"/>
-      <c r="J35" s="115"/>
-      <c r="K35" s="116"/>
-      <c r="L35" s="117"/>
-      <c r="M35" s="118"/>
-      <c r="N35" s="119"/>
-      <c r="O35" s="120"/>
+      <c r="D35" s="107"/>
+      <c r="E35" s="108"/>
+      <c r="F35" s="109"/>
+      <c r="G35" s="114"/>
+      <c r="H35" s="115"/>
+      <c r="I35" s="116"/>
+      <c r="J35" s="110"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="112"/>
+      <c r="M35" s="107"/>
+      <c r="N35" s="108"/>
+      <c r="O35" s="113"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="127"/>
-      <c r="E36" s="128"/>
-      <c r="F36" s="146"/>
-      <c r="G36" s="121"/>
-      <c r="H36" s="122"/>
-      <c r="I36" s="123"/>
-      <c r="J36" s="124"/>
-      <c r="K36" s="125"/>
-      <c r="L36" s="126"/>
-      <c r="M36" s="127"/>
-      <c r="N36" s="128"/>
-      <c r="O36" s="129"/>
+      <c r="D36" s="97"/>
+      <c r="E36" s="98"/>
+      <c r="F36" s="106"/>
+      <c r="G36" s="100"/>
+      <c r="H36" s="101"/>
+      <c r="I36" s="102"/>
+      <c r="J36" s="103"/>
+      <c r="K36" s="104"/>
+      <c r="L36" s="105"/>
+      <c r="M36" s="97"/>
+      <c r="N36" s="98"/>
+      <c r="O36" s="99"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="106"/>
-      <c r="E37" s="107"/>
-      <c r="F37" s="200"/>
-      <c r="G37" s="100"/>
-      <c r="H37" s="101"/>
-      <c r="I37" s="102"/>
-      <c r="J37" s="103"/>
-      <c r="K37" s="104"/>
-      <c r="L37" s="105"/>
-      <c r="M37" s="106"/>
-      <c r="N37" s="107"/>
-      <c r="O37" s="108"/>
+      <c r="D37" s="157"/>
+      <c r="E37" s="158"/>
+      <c r="F37" s="159"/>
+      <c r="G37" s="186"/>
+      <c r="H37" s="187"/>
+      <c r="I37" s="188"/>
+      <c r="J37" s="189"/>
+      <c r="K37" s="190"/>
+      <c r="L37" s="191"/>
+      <c r="M37" s="157"/>
+      <c r="N37" s="158"/>
+      <c r="O37" s="192"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3381,30 +3381,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="170" t="e">
+      <c r="D38" s="127" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="171"/>
-      <c r="F38" s="172"/>
-      <c r="G38" s="179" t="e">
+      <c r="E38" s="128"/>
+      <c r="F38" s="129"/>
+      <c r="G38" s="136" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="180"/>
-      <c r="I38" s="181"/>
-      <c r="J38" s="182" t="e">
+      <c r="H38" s="137"/>
+      <c r="I38" s="138"/>
+      <c r="J38" s="139" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="183"/>
-      <c r="L38" s="184"/>
-      <c r="M38" s="170" t="e">
+      <c r="K38" s="140"/>
+      <c r="L38" s="141"/>
+      <c r="M38" s="127" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="171"/>
-      <c r="O38" s="185"/>
+      <c r="N38" s="128"/>
+      <c r="O38" s="142"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3412,30 +3412,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="173">
+      <c r="D39" s="130">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="174"/>
-      <c r="F39" s="175"/>
-      <c r="G39" s="186">
+      <c r="E39" s="131"/>
+      <c r="F39" s="132"/>
+      <c r="G39" s="143">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="187"/>
-      <c r="I39" s="188"/>
-      <c r="J39" s="189">
+      <c r="H39" s="144"/>
+      <c r="I39" s="145"/>
+      <c r="J39" s="146">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="190"/>
-      <c r="L39" s="191"/>
-      <c r="M39" s="173">
+      <c r="K39" s="147"/>
+      <c r="L39" s="148"/>
+      <c r="M39" s="130">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="174"/>
-      <c r="O39" s="192"/>
+      <c r="N39" s="131"/>
+      <c r="O39" s="149"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3443,60 +3443,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="176">
+      <c r="D40" s="133">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="177"/>
-      <c r="F40" s="178"/>
-      <c r="G40" s="193">
+      <c r="E40" s="134"/>
+      <c r="F40" s="135"/>
+      <c r="G40" s="150">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="194"/>
-      <c r="I40" s="195"/>
-      <c r="J40" s="196">
+      <c r="H40" s="151"/>
+      <c r="I40" s="152"/>
+      <c r="J40" s="153">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="197"/>
-      <c r="L40" s="198"/>
-      <c r="M40" s="176">
+      <c r="K40" s="154"/>
+      <c r="L40" s="155"/>
+      <c r="M40" s="133">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="177"/>
-      <c r="O40" s="199"/>
+      <c r="N40" s="134"/>
+      <c r="O40" s="156"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="109"/>
-      <c r="C41" s="109"/>
-      <c r="D41" s="110" t="s">
+      <c r="B41" s="193"/>
+      <c r="C41" s="193"/>
+      <c r="D41" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="110"/>
+      <c r="E41" s="194"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="111" t="s">
+      <c r="J41" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="111"/>
-      <c r="L41" s="112"/>
-      <c r="M41" s="112"/>
-      <c r="N41" s="112"/>
+      <c r="K41" s="195"/>
+      <c r="L41" s="196"/>
+      <c r="M41" s="196"/>
+      <c r="N41" s="196"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="113"/>
-      <c r="C42" s="113"/>
+      <c r="B42" s="197"/>
+      <c r="C42" s="197"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3505,38 +3505,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="114"/>
-      <c r="M42" s="114"/>
-      <c r="N42" s="114"/>
+      <c r="L42" s="198"/>
+      <c r="M42" s="198"/>
+      <c r="N42" s="198"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="98" t="s">
+      <c r="A43" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="98"/>
-      <c r="C43" s="98"/>
+      <c r="B43" s="199"/>
+      <c r="C43" s="199"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="98" t="s">
+      <c r="G43" s="199" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="98"/>
-      <c r="I43" s="98"/>
-      <c r="J43" s="98"/>
+      <c r="H43" s="199"/>
+      <c r="I43" s="199"/>
+      <c r="J43" s="199"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="98"/>
+      <c r="B44" s="199"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3547,10 +3547,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="99" t="s">
+      <c r="M44" s="200" t="s">
         <v>41</v>
       </c>
-      <c r="N44" s="99"/>
+      <c r="N44" s="200"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3566,50 +3566,206 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="97"/>
-      <c r="D75" s="97"/>
+      <c r="C75" s="126"/>
+      <c r="D75" s="126"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="97"/>
-      <c r="J75" s="97"/>
+      <c r="I75" s="126"/>
+      <c r="J75" s="126"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="97"/>
-      <c r="M75" s="97"/>
-      <c r="N75" s="97"/>
-      <c r="O75" s="97"/>
+      <c r="L75" s="126"/>
+      <c r="M75" s="126"/>
+      <c r="N75" s="126"/>
+      <c r="O75" s="126"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="97"/>
-      <c r="D76" s="97"/>
-      <c r="E76" s="97"/>
-      <c r="F76" s="97"/>
-      <c r="I76" s="97"/>
-      <c r="J76" s="97"/>
+      <c r="C76" s="126"/>
+      <c r="D76" s="126"/>
+      <c r="E76" s="126"/>
+      <c r="F76" s="126"/>
+      <c r="I76" s="126"/>
+      <c r="J76" s="126"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="97"/>
-      <c r="M76" s="97"/>
-      <c r="N76" s="97"/>
-      <c r="O76" s="97"/>
+      <c r="L76" s="126"/>
+      <c r="M76" s="126"/>
+      <c r="N76" s="126"/>
+      <c r="O76" s="126"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="97"/>
-      <c r="D77" s="97"/>
+      <c r="C77" s="126"/>
+      <c r="D77" s="126"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="97"/>
-      <c r="J77" s="97"/>
+      <c r="I77" s="126"/>
+      <c r="J77" s="126"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="97"/>
-      <c r="M77" s="97"/>
-      <c r="N77" s="97"/>
-      <c r="O77" s="97"/>
+      <c r="L77" s="126"/>
+      <c r="M77" s="126"/>
+      <c r="N77" s="126"/>
+      <c r="O77" s="126"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="97"/>
-      <c r="D78" s="97"/>
+      <c r="C78" s="126"/>
+      <c r="D78" s="126"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="180">
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="L76:O76"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="J25:L25"/>
+    <mergeCell ref="M25:O25"/>
+    <mergeCell ref="G26:I26"/>
+    <mergeCell ref="J26:L26"/>
+    <mergeCell ref="M26:O26"/>
+    <mergeCell ref="G35:I35"/>
+    <mergeCell ref="J35:L35"/>
+    <mergeCell ref="M35:O35"/>
+    <mergeCell ref="G36:I36"/>
+    <mergeCell ref="J36:L36"/>
+    <mergeCell ref="M36:O36"/>
+    <mergeCell ref="J31:L31"/>
+    <mergeCell ref="M31:O31"/>
+    <mergeCell ref="J32:L32"/>
+    <mergeCell ref="M32:O32"/>
+    <mergeCell ref="J27:L27"/>
+    <mergeCell ref="M27:O27"/>
+    <mergeCell ref="J28:L28"/>
+    <mergeCell ref="M28:O28"/>
+    <mergeCell ref="J29:L29"/>
+    <mergeCell ref="M29:O29"/>
+    <mergeCell ref="J33:L33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="J34:L34"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
     <mergeCell ref="M34:O34"/>
     <mergeCell ref="G30:I30"/>
     <mergeCell ref="J30:L30"/>
@@ -3634,162 +3790,6 @@
     <mergeCell ref="J20:L20"/>
     <mergeCell ref="M20:O20"/>
     <mergeCell ref="J21:L21"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="J25:L25"/>
-    <mergeCell ref="M25:O25"/>
-    <mergeCell ref="G26:I26"/>
-    <mergeCell ref="J26:L26"/>
-    <mergeCell ref="M26:O26"/>
-    <mergeCell ref="G35:I35"/>
-    <mergeCell ref="J35:L35"/>
-    <mergeCell ref="M35:O35"/>
-    <mergeCell ref="G36:I36"/>
-    <mergeCell ref="J36:L36"/>
-    <mergeCell ref="M36:O36"/>
-    <mergeCell ref="J31:L31"/>
-    <mergeCell ref="M31:O31"/>
-    <mergeCell ref="J32:L32"/>
-    <mergeCell ref="M32:O32"/>
-    <mergeCell ref="J27:L27"/>
-    <mergeCell ref="M27:O27"/>
-    <mergeCell ref="J28:L28"/>
-    <mergeCell ref="M28:O28"/>
-    <mergeCell ref="J29:L29"/>
-    <mergeCell ref="M29:O29"/>
-    <mergeCell ref="J33:L33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="J34:L34"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="L76:O76"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
@@ -3829,7 +3829,7 @@
   <dimension ref="A1:O69"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScaleNormal="100" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -3840,61 +3840,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="166" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="166"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="169" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="169"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -3904,130 +3904,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="235">
+      <c r="B4" s="209">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="238" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="239">
+      <c r="F4" s="212"/>
+      <c r="G4" s="213">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="239"/>
+      <c r="H4" s="213"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="213">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240" t="s">
+      <c r="K4" s="213"/>
+      <c r="L4" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="241">
+      <c r="M4" s="215">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="235">
+      <c r="N4" s="209">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="216"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="201">
+      <c r="B5" s="241">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="227" t="s">
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="227"/>
-      <c r="G5" s="201">
+      <c r="F5" s="201"/>
+      <c r="G5" s="241">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="201"/>
+      <c r="H5" s="241"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="201">
+      <c r="J5" s="241">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="201"/>
-      <c r="L5" s="150" t="s">
+      <c r="K5" s="241"/>
+      <c r="L5" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="243">
+      <c r="M5" s="217">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="142">
+      <c r="N5" s="178">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="202"/>
+      <c r="O5" s="242"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="212"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="226"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="228" t="s">
+      <c r="A7" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="202" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="229" t="s">
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="230"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="229" t="s">
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="203" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="230"/>
-      <c r="N7" s="230"/>
-      <c r="O7" s="232"/>
+      <c r="M7" s="204"/>
+      <c r="N7" s="204"/>
+      <c r="O7" s="206"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="246"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5121,27 +5121,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="219" t="e">
+      <c r="D39" s="233" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="222" t="e">
+      <c r="E39" s="234"/>
+      <c r="F39" s="234"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="236" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="224"/>
-      <c r="L39" s="222" t="e">
+      <c r="I39" s="237"/>
+      <c r="J39" s="237"/>
+      <c r="K39" s="238"/>
+      <c r="L39" s="236" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="225"/>
+      <c r="M39" s="237"/>
+      <c r="N39" s="237"/>
+      <c r="O39" s="239"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5149,27 +5149,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="216" t="e">
+      <c r="D40" s="230" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="213" t="e">
+      <c r="E40" s="231"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="232"/>
+      <c r="H40" s="227" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="213" t="e">
+      <c r="I40" s="228"/>
+      <c r="J40" s="228"/>
+      <c r="K40" s="229"/>
+      <c r="L40" s="227" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="226"/>
+      <c r="M40" s="228"/>
+      <c r="N40" s="228"/>
+      <c r="O40" s="240"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5177,57 +5177,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="207" t="e">
+      <c r="D41" s="221" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="203" t="e">
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="243" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="203" t="e">
+      <c r="I41" s="244"/>
+      <c r="J41" s="244"/>
+      <c r="K41" s="245"/>
+      <c r="L41" s="243" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="206"/>
+      <c r="M41" s="244"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="246"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="109"/>
-      <c r="C42" s="109"/>
-      <c r="D42" s="110" t="s">
+      <c r="B42" s="193"/>
+      <c r="C42" s="193"/>
+      <c r="D42" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="194"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="111" t="s">
+      <c r="J42" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="111"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="113"/>
-      <c r="C43" s="113"/>
+      <c r="B43" s="197"/>
+      <c r="C43" s="197"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5236,39 +5236,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="199"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="98" t="str">
+      <c r="G44" s="199" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
+      <c r="H44" s="199"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="199"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="98"/>
+      <c r="B45" s="199"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5279,10 +5279,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="99" t="s">
+      <c r="M45" s="200" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="99"/>
+      <c r="N45" s="200"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5303,6 +5303,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="H41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="E5:F5"/>
     <mergeCell ref="D7:G7"/>
     <mergeCell ref="H7:K7"/>
@@ -5319,31 +5344,6 @@
     <mergeCell ref="N4:O4"/>
     <mergeCell ref="L5:M5"/>
     <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="L43:N43"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="H41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
@@ -5385,61 +5385,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="166" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="166"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="169" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="169"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5449,130 +5449,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="235">
+      <c r="B4" s="209">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="238" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="239">
+      <c r="F4" s="212"/>
+      <c r="G4" s="213">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="239"/>
+      <c r="H4" s="213"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="213">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240" t="s">
+      <c r="K4" s="213"/>
+      <c r="L4" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="241">
+      <c r="M4" s="215">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="235">
+      <c r="N4" s="209">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="216"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="201">
+      <c r="B5" s="241">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="227" t="s">
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="227"/>
-      <c r="G5" s="201">
+      <c r="F5" s="201"/>
+      <c r="G5" s="241">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="201"/>
+      <c r="H5" s="241"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="201">
+      <c r="J5" s="241">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="201"/>
-      <c r="L5" s="150" t="s">
+      <c r="K5" s="241"/>
+      <c r="L5" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="243">
+      <c r="M5" s="217">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="142">
+      <c r="N5" s="178">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="202"/>
+      <c r="O5" s="242"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="210" t="s">
+      <c r="A6" s="224" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="211"/>
-      <c r="C6" s="211"/>
-      <c r="D6" s="211"/>
-      <c r="E6" s="211"/>
-      <c r="F6" s="211"/>
-      <c r="G6" s="211"/>
-      <c r="H6" s="211"/>
-      <c r="I6" s="211"/>
-      <c r="J6" s="211"/>
-      <c r="K6" s="211"/>
-      <c r="L6" s="211"/>
-      <c r="M6" s="211"/>
-      <c r="N6" s="211"/>
-      <c r="O6" s="212"/>
+      <c r="B6" s="225"/>
+      <c r="C6" s="225"/>
+      <c r="D6" s="225"/>
+      <c r="E6" s="225"/>
+      <c r="F6" s="225"/>
+      <c r="G6" s="225"/>
+      <c r="H6" s="225"/>
+      <c r="I6" s="225"/>
+      <c r="J6" s="225"/>
+      <c r="K6" s="225"/>
+      <c r="L6" s="225"/>
+      <c r="M6" s="225"/>
+      <c r="N6" s="225"/>
+      <c r="O6" s="226"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="244" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="99"/>
-      <c r="C7" s="245"/>
-      <c r="D7" s="228" t="s">
+      <c r="A7" s="218" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="200"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="202" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="228"/>
-      <c r="F7" s="228"/>
-      <c r="G7" s="228"/>
-      <c r="H7" s="229" t="s">
+      <c r="E7" s="202"/>
+      <c r="F7" s="202"/>
+      <c r="G7" s="202"/>
+      <c r="H7" s="203" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="230"/>
-      <c r="J7" s="230"/>
-      <c r="K7" s="231"/>
-      <c r="L7" s="249" t="s">
+      <c r="I7" s="204"/>
+      <c r="J7" s="204"/>
+      <c r="K7" s="205"/>
+      <c r="L7" s="247" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="250"/>
-      <c r="N7" s="250"/>
-      <c r="O7" s="251"/>
+      <c r="M7" s="248"/>
+      <c r="N7" s="248"/>
+      <c r="O7" s="249"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="246"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -6669,27 +6669,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="219" t="e">
+      <c r="D39" s="233" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="220"/>
-      <c r="F39" s="220"/>
-      <c r="G39" s="221"/>
-      <c r="H39" s="222" t="e">
+      <c r="E39" s="234"/>
+      <c r="F39" s="234"/>
+      <c r="G39" s="235"/>
+      <c r="H39" s="236" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="223"/>
-      <c r="J39" s="223"/>
-      <c r="K39" s="224"/>
-      <c r="L39" s="222" t="e">
+      <c r="I39" s="237"/>
+      <c r="J39" s="237"/>
+      <c r="K39" s="238"/>
+      <c r="L39" s="236" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="225"/>
+      <c r="M39" s="237"/>
+      <c r="N39" s="237"/>
+      <c r="O39" s="239"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -6697,27 +6697,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="216" t="e">
+      <c r="D40" s="230" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="217"/>
-      <c r="F40" s="217"/>
-      <c r="G40" s="218"/>
-      <c r="H40" s="213" t="e">
+      <c r="E40" s="231"/>
+      <c r="F40" s="231"/>
+      <c r="G40" s="232"/>
+      <c r="H40" s="227" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="214"/>
-      <c r="J40" s="214"/>
-      <c r="K40" s="215"/>
-      <c r="L40" s="213" t="e">
+      <c r="I40" s="228"/>
+      <c r="J40" s="228"/>
+      <c r="K40" s="229"/>
+      <c r="L40" s="227" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="226"/>
+      <c r="M40" s="228"/>
+      <c r="N40" s="228"/>
+      <c r="O40" s="240"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -6725,57 +6725,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="207" t="e">
+      <c r="D41" s="221" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="208"/>
-      <c r="F41" s="208"/>
-      <c r="G41" s="209"/>
-      <c r="H41" s="203" t="e">
+      <c r="E41" s="222"/>
+      <c r="F41" s="222"/>
+      <c r="G41" s="223"/>
+      <c r="H41" s="243" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="204"/>
-      <c r="J41" s="204"/>
-      <c r="K41" s="205"/>
-      <c r="L41" s="203" t="e">
+      <c r="I41" s="244"/>
+      <c r="J41" s="244"/>
+      <c r="K41" s="245"/>
+      <c r="L41" s="243" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="206"/>
+      <c r="M41" s="244"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="246"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="247"/>
-      <c r="C42" s="247"/>
-      <c r="D42" s="110" t="s">
+      <c r="B42" s="250"/>
+      <c r="C42" s="250"/>
+      <c r="D42" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="194"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="111" t="s">
+      <c r="J42" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="111"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="248"/>
-      <c r="C43" s="248"/>
+      <c r="B43" s="251"/>
+      <c r="C43" s="251"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -6784,39 +6784,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="199"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="98" t="str">
+      <c r="G44" s="199" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
+      <c r="H44" s="199"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="199"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="98"/>
+      <c r="B45" s="199"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -6827,31 +6827,25 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="99" t="s">
+      <c r="M45" s="200" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="99"/>
+      <c r="N45" s="200"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:O41"/>
@@ -6867,16 +6861,22 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
@@ -6918,61 +6918,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="233" t="s">
+      <c r="A1" s="207" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="233"/>
-      <c r="C1" s="233"/>
-      <c r="D1" s="233"/>
-      <c r="E1" s="233"/>
-      <c r="F1" s="233"/>
-      <c r="G1" s="233"/>
-      <c r="H1" s="233"/>
-      <c r="I1" s="233"/>
-      <c r="J1" s="233"/>
-      <c r="K1" s="233"/>
-      <c r="L1" s="233"/>
-      <c r="M1" s="233"/>
-      <c r="N1" s="166" t="s">
+      <c r="B1" s="207"/>
+      <c r="C1" s="207"/>
+      <c r="D1" s="207"/>
+      <c r="E1" s="207"/>
+      <c r="F1" s="207"/>
+      <c r="G1" s="207"/>
+      <c r="H1" s="207"/>
+      <c r="I1" s="207"/>
+      <c r="J1" s="207"/>
+      <c r="K1" s="207"/>
+      <c r="L1" s="207"/>
+      <c r="M1" s="207"/>
+      <c r="N1" s="118" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="166"/>
+      <c r="O1" s="118"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="234" t="s">
+      <c r="A2" s="208" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="234"/>
-      <c r="C2" s="234"/>
-      <c r="D2" s="234"/>
-      <c r="E2" s="234"/>
-      <c r="F2" s="234"/>
-      <c r="G2" s="234"/>
-      <c r="H2" s="234"/>
-      <c r="I2" s="234"/>
-      <c r="J2" s="234"/>
-      <c r="K2" s="234"/>
-      <c r="L2" s="234"/>
-      <c r="M2" s="234"/>
-      <c r="N2" s="169" t="s">
+      <c r="B2" s="208"/>
+      <c r="C2" s="208"/>
+      <c r="D2" s="208"/>
+      <c r="E2" s="208"/>
+      <c r="F2" s="208"/>
+      <c r="G2" s="208"/>
+      <c r="H2" s="208"/>
+      <c r="I2" s="208"/>
+      <c r="J2" s="208"/>
+      <c r="K2" s="208"/>
+      <c r="L2" s="208"/>
+      <c r="M2" s="208"/>
+      <c r="N2" s="121" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="169"/>
+      <c r="O2" s="121"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="234"/>
-      <c r="B3" s="234"/>
-      <c r="C3" s="234"/>
-      <c r="D3" s="234"/>
-      <c r="E3" s="234"/>
-      <c r="F3" s="234"/>
-      <c r="G3" s="234"/>
-      <c r="H3" s="234"/>
-      <c r="I3" s="234"/>
-      <c r="J3" s="234"/>
-      <c r="K3" s="234"/>
-      <c r="L3" s="234"/>
-      <c r="M3" s="234"/>
+      <c r="A3" s="208"/>
+      <c r="B3" s="208"/>
+      <c r="C3" s="208"/>
+      <c r="D3" s="208"/>
+      <c r="E3" s="208"/>
+      <c r="F3" s="208"/>
+      <c r="G3" s="208"/>
+      <c r="H3" s="208"/>
+      <c r="I3" s="208"/>
+      <c r="J3" s="208"/>
+      <c r="K3" s="208"/>
+      <c r="L3" s="208"/>
+      <c r="M3" s="208"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -6982,81 +6982,81 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="235">
+      <c r="B4" s="209">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="236"/>
-      <c r="D4" s="237"/>
-      <c r="E4" s="238" t="s">
+      <c r="C4" s="210"/>
+      <c r="D4" s="211"/>
+      <c r="E4" s="212" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="238"/>
-      <c r="G4" s="239">
+      <c r="F4" s="212"/>
+      <c r="G4" s="213">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="239"/>
+      <c r="H4" s="213"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="239">
+      <c r="J4" s="213">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="239"/>
-      <c r="L4" s="240" t="s">
+      <c r="K4" s="213"/>
+      <c r="L4" s="214" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="241">
+      <c r="M4" s="215">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="235">
+      <c r="N4" s="209">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="242"/>
+      <c r="O4" s="216"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="201">
+      <c r="B5" s="241">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="201"/>
-      <c r="D5" s="201"/>
-      <c r="E5" s="227" t="s">
+      <c r="C5" s="241"/>
+      <c r="D5" s="241"/>
+      <c r="E5" s="201" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="227"/>
-      <c r="G5" s="201">
+      <c r="F5" s="201"/>
+      <c r="G5" s="241">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="201"/>
+      <c r="H5" s="241"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="201">
+      <c r="J5" s="241">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="201"/>
-      <c r="L5" s="150" t="s">
+      <c r="K5" s="241"/>
+      <c r="L5" s="184" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="243">
+      <c r="M5" s="217">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="142">
+      <c r="N5" s="178">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="202"/>
+      <c r="O5" s="242"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="267" t="s">
@@ -7099,23 +7099,23 @@
         <v>39</v>
       </c>
       <c r="K7" s="264"/>
-      <c r="L7" s="235" t="s">
+      <c r="L7" s="209" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="236"/>
-      <c r="N7" s="236"/>
-      <c r="O7" s="242"/>
+      <c r="M7" s="210"/>
+      <c r="N7" s="210"/>
+      <c r="O7" s="216"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="246"/>
-      <c r="B8" s="160"/>
-      <c r="C8" s="161"/>
-      <c r="D8" s="159"/>
-      <c r="E8" s="161"/>
-      <c r="F8" s="159"/>
-      <c r="G8" s="161"/>
-      <c r="H8" s="159"/>
-      <c r="I8" s="161"/>
+      <c r="A8" s="220"/>
+      <c r="B8" s="168"/>
+      <c r="C8" s="169"/>
+      <c r="D8" s="167"/>
+      <c r="E8" s="169"/>
+      <c r="F8" s="167"/>
+      <c r="G8" s="169"/>
+      <c r="H8" s="167"/>
+      <c r="I8" s="169"/>
       <c r="J8" s="265"/>
       <c r="K8" s="266"/>
       <c r="L8" s="49">
@@ -7144,14 +7144,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="269"/>
-      <c r="E9" s="270"/>
-      <c r="F9" s="269"/>
-      <c r="G9" s="270"/>
-      <c r="H9" s="269"/>
-      <c r="I9" s="270"/>
-      <c r="J9" s="271"/>
-      <c r="K9" s="272"/>
+      <c r="D9" s="252"/>
+      <c r="E9" s="253"/>
+      <c r="F9" s="252"/>
+      <c r="G9" s="253"/>
+      <c r="H9" s="252"/>
+      <c r="I9" s="253"/>
+      <c r="J9" s="254"/>
+      <c r="K9" s="255"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7173,14 +7173,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="124"/>
-      <c r="E10" s="126"/>
-      <c r="F10" s="124"/>
-      <c r="G10" s="126"/>
-      <c r="H10" s="124"/>
-      <c r="I10" s="126"/>
-      <c r="J10" s="127"/>
-      <c r="K10" s="146"/>
+      <c r="D10" s="103"/>
+      <c r="E10" s="105"/>
+      <c r="F10" s="103"/>
+      <c r="G10" s="105"/>
+      <c r="H10" s="103"/>
+      <c r="I10" s="105"/>
+      <c r="J10" s="97"/>
+      <c r="K10" s="106"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7202,14 +7202,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="124"/>
-      <c r="E11" s="126"/>
-      <c r="F11" s="124"/>
-      <c r="G11" s="126"/>
-      <c r="H11" s="124"/>
-      <c r="I11" s="126"/>
-      <c r="J11" s="127"/>
-      <c r="K11" s="146"/>
+      <c r="D11" s="103"/>
+      <c r="E11" s="105"/>
+      <c r="F11" s="103"/>
+      <c r="G11" s="105"/>
+      <c r="H11" s="103"/>
+      <c r="I11" s="105"/>
+      <c r="J11" s="97"/>
+      <c r="K11" s="106"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7231,14 +7231,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="124"/>
-      <c r="E12" s="126"/>
-      <c r="F12" s="124"/>
-      <c r="G12" s="126"/>
-      <c r="H12" s="124"/>
-      <c r="I12" s="126"/>
-      <c r="J12" s="127"/>
-      <c r="K12" s="146"/>
+      <c r="D12" s="103"/>
+      <c r="E12" s="105"/>
+      <c r="F12" s="103"/>
+      <c r="G12" s="105"/>
+      <c r="H12" s="103"/>
+      <c r="I12" s="105"/>
+      <c r="J12" s="97"/>
+      <c r="K12" s="106"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7260,14 +7260,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="124"/>
-      <c r="E13" s="126"/>
-      <c r="F13" s="124"/>
-      <c r="G13" s="126"/>
-      <c r="H13" s="124"/>
-      <c r="I13" s="126"/>
-      <c r="J13" s="127"/>
-      <c r="K13" s="146"/>
+      <c r="D13" s="103"/>
+      <c r="E13" s="105"/>
+      <c r="F13" s="103"/>
+      <c r="G13" s="105"/>
+      <c r="H13" s="103"/>
+      <c r="I13" s="105"/>
+      <c r="J13" s="97"/>
+      <c r="K13" s="106"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7289,14 +7289,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="124"/>
-      <c r="E14" s="126"/>
-      <c r="F14" s="124"/>
-      <c r="G14" s="126"/>
-      <c r="H14" s="124"/>
-      <c r="I14" s="126"/>
-      <c r="J14" s="127"/>
-      <c r="K14" s="146"/>
+      <c r="D14" s="103"/>
+      <c r="E14" s="105"/>
+      <c r="F14" s="103"/>
+      <c r="G14" s="105"/>
+      <c r="H14" s="103"/>
+      <c r="I14" s="105"/>
+      <c r="J14" s="97"/>
+      <c r="K14" s="106"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7318,14 +7318,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="124"/>
-      <c r="E15" s="126"/>
-      <c r="F15" s="124"/>
-      <c r="G15" s="126"/>
-      <c r="H15" s="124"/>
-      <c r="I15" s="126"/>
-      <c r="J15" s="127"/>
-      <c r="K15" s="146"/>
+      <c r="D15" s="103"/>
+      <c r="E15" s="105"/>
+      <c r="F15" s="103"/>
+      <c r="G15" s="105"/>
+      <c r="H15" s="103"/>
+      <c r="I15" s="105"/>
+      <c r="J15" s="97"/>
+      <c r="K15" s="106"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7347,14 +7347,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="124"/>
-      <c r="E16" s="126"/>
-      <c r="F16" s="124"/>
-      <c r="G16" s="126"/>
-      <c r="H16" s="124"/>
-      <c r="I16" s="126"/>
-      <c r="J16" s="127"/>
-      <c r="K16" s="146"/>
+      <c r="D16" s="103"/>
+      <c r="E16" s="105"/>
+      <c r="F16" s="103"/>
+      <c r="G16" s="105"/>
+      <c r="H16" s="103"/>
+      <c r="I16" s="105"/>
+      <c r="J16" s="97"/>
+      <c r="K16" s="106"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7376,14 +7376,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="124"/>
-      <c r="E17" s="126"/>
-      <c r="F17" s="124"/>
-      <c r="G17" s="126"/>
-      <c r="H17" s="124"/>
-      <c r="I17" s="126"/>
-      <c r="J17" s="127"/>
-      <c r="K17" s="146"/>
+      <c r="D17" s="103"/>
+      <c r="E17" s="105"/>
+      <c r="F17" s="103"/>
+      <c r="G17" s="105"/>
+      <c r="H17" s="103"/>
+      <c r="I17" s="105"/>
+      <c r="J17" s="97"/>
+      <c r="K17" s="106"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7405,14 +7405,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="124"/>
-      <c r="E18" s="126"/>
-      <c r="F18" s="124"/>
-      <c r="G18" s="126"/>
-      <c r="H18" s="124"/>
-      <c r="I18" s="126"/>
-      <c r="J18" s="127"/>
-      <c r="K18" s="146"/>
+      <c r="D18" s="103"/>
+      <c r="E18" s="105"/>
+      <c r="F18" s="103"/>
+      <c r="G18" s="105"/>
+      <c r="H18" s="103"/>
+      <c r="I18" s="105"/>
+      <c r="J18" s="97"/>
+      <c r="K18" s="106"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7434,14 +7434,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="124"/>
-      <c r="E19" s="126"/>
-      <c r="F19" s="124"/>
-      <c r="G19" s="126"/>
-      <c r="H19" s="124"/>
-      <c r="I19" s="126"/>
-      <c r="J19" s="127"/>
-      <c r="K19" s="146"/>
+      <c r="D19" s="103"/>
+      <c r="E19" s="105"/>
+      <c r="F19" s="103"/>
+      <c r="G19" s="105"/>
+      <c r="H19" s="103"/>
+      <c r="I19" s="105"/>
+      <c r="J19" s="97"/>
+      <c r="K19" s="106"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7463,14 +7463,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="124"/>
-      <c r="E20" s="126"/>
-      <c r="F20" s="124"/>
-      <c r="G20" s="126"/>
-      <c r="H20" s="124"/>
-      <c r="I20" s="126"/>
-      <c r="J20" s="127"/>
-      <c r="K20" s="146"/>
+      <c r="D20" s="103"/>
+      <c r="E20" s="105"/>
+      <c r="F20" s="103"/>
+      <c r="G20" s="105"/>
+      <c r="H20" s="103"/>
+      <c r="I20" s="105"/>
+      <c r="J20" s="97"/>
+      <c r="K20" s="106"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7492,14 +7492,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="124"/>
-      <c r="E21" s="126"/>
-      <c r="F21" s="124"/>
-      <c r="G21" s="126"/>
-      <c r="H21" s="124"/>
-      <c r="I21" s="126"/>
-      <c r="J21" s="127"/>
-      <c r="K21" s="146"/>
+      <c r="D21" s="103"/>
+      <c r="E21" s="105"/>
+      <c r="F21" s="103"/>
+      <c r="G21" s="105"/>
+      <c r="H21" s="103"/>
+      <c r="I21" s="105"/>
+      <c r="J21" s="97"/>
+      <c r="K21" s="106"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7521,14 +7521,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="124"/>
-      <c r="E22" s="126"/>
-      <c r="F22" s="124"/>
-      <c r="G22" s="126"/>
-      <c r="H22" s="124"/>
-      <c r="I22" s="126"/>
-      <c r="J22" s="127"/>
-      <c r="K22" s="146"/>
+      <c r="D22" s="103"/>
+      <c r="E22" s="105"/>
+      <c r="F22" s="103"/>
+      <c r="G22" s="105"/>
+      <c r="H22" s="103"/>
+      <c r="I22" s="105"/>
+      <c r="J22" s="97"/>
+      <c r="K22" s="106"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7550,14 +7550,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="124"/>
-      <c r="E23" s="126"/>
-      <c r="F23" s="124"/>
-      <c r="G23" s="126"/>
-      <c r="H23" s="124"/>
-      <c r="I23" s="126"/>
-      <c r="J23" s="127"/>
-      <c r="K23" s="146"/>
+      <c r="D23" s="103"/>
+      <c r="E23" s="105"/>
+      <c r="F23" s="103"/>
+      <c r="G23" s="105"/>
+      <c r="H23" s="103"/>
+      <c r="I23" s="105"/>
+      <c r="J23" s="97"/>
+      <c r="K23" s="106"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -7579,14 +7579,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="124"/>
-      <c r="E24" s="126"/>
-      <c r="F24" s="124"/>
-      <c r="G24" s="126"/>
-      <c r="H24" s="124"/>
-      <c r="I24" s="126"/>
-      <c r="J24" s="127"/>
-      <c r="K24" s="146"/>
+      <c r="D24" s="103"/>
+      <c r="E24" s="105"/>
+      <c r="F24" s="103"/>
+      <c r="G24" s="105"/>
+      <c r="H24" s="103"/>
+      <c r="I24" s="105"/>
+      <c r="J24" s="97"/>
+      <c r="K24" s="106"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -7608,14 +7608,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="124"/>
-      <c r="E25" s="126"/>
-      <c r="F25" s="124"/>
-      <c r="G25" s="126"/>
-      <c r="H25" s="124"/>
-      <c r="I25" s="126"/>
-      <c r="J25" s="127"/>
-      <c r="K25" s="146"/>
+      <c r="D25" s="103"/>
+      <c r="E25" s="105"/>
+      <c r="F25" s="103"/>
+      <c r="G25" s="105"/>
+      <c r="H25" s="103"/>
+      <c r="I25" s="105"/>
+      <c r="J25" s="97"/>
+      <c r="K25" s="106"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -7637,14 +7637,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="124"/>
-      <c r="E26" s="126"/>
-      <c r="F26" s="124"/>
-      <c r="G26" s="126"/>
-      <c r="H26" s="124"/>
-      <c r="I26" s="126"/>
-      <c r="J26" s="127"/>
-      <c r="K26" s="146"/>
+      <c r="D26" s="103"/>
+      <c r="E26" s="105"/>
+      <c r="F26" s="103"/>
+      <c r="G26" s="105"/>
+      <c r="H26" s="103"/>
+      <c r="I26" s="105"/>
+      <c r="J26" s="97"/>
+      <c r="K26" s="106"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -7666,14 +7666,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="124"/>
-      <c r="E27" s="126"/>
-      <c r="F27" s="124"/>
-      <c r="G27" s="126"/>
-      <c r="H27" s="124"/>
-      <c r="I27" s="126"/>
-      <c r="J27" s="127"/>
-      <c r="K27" s="146"/>
+      <c r="D27" s="103"/>
+      <c r="E27" s="105"/>
+      <c r="F27" s="103"/>
+      <c r="G27" s="105"/>
+      <c r="H27" s="103"/>
+      <c r="I27" s="105"/>
+      <c r="J27" s="97"/>
+      <c r="K27" s="106"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -7695,14 +7695,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="124"/>
-      <c r="E28" s="126"/>
-      <c r="F28" s="124"/>
-      <c r="G28" s="126"/>
-      <c r="H28" s="124"/>
-      <c r="I28" s="126"/>
-      <c r="J28" s="127"/>
-      <c r="K28" s="146"/>
+      <c r="D28" s="103"/>
+      <c r="E28" s="105"/>
+      <c r="F28" s="103"/>
+      <c r="G28" s="105"/>
+      <c r="H28" s="103"/>
+      <c r="I28" s="105"/>
+      <c r="J28" s="97"/>
+      <c r="K28" s="106"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -7724,14 +7724,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="124"/>
-      <c r="E29" s="126"/>
-      <c r="F29" s="124"/>
-      <c r="G29" s="126"/>
-      <c r="H29" s="124"/>
-      <c r="I29" s="126"/>
-      <c r="J29" s="127"/>
-      <c r="K29" s="146"/>
+      <c r="D29" s="103"/>
+      <c r="E29" s="105"/>
+      <c r="F29" s="103"/>
+      <c r="G29" s="105"/>
+      <c r="H29" s="103"/>
+      <c r="I29" s="105"/>
+      <c r="J29" s="97"/>
+      <c r="K29" s="106"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -7753,14 +7753,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="124"/>
-      <c r="E30" s="126"/>
-      <c r="F30" s="124"/>
-      <c r="G30" s="126"/>
-      <c r="H30" s="124"/>
-      <c r="I30" s="126"/>
-      <c r="J30" s="127"/>
-      <c r="K30" s="146"/>
+      <c r="D30" s="103"/>
+      <c r="E30" s="105"/>
+      <c r="F30" s="103"/>
+      <c r="G30" s="105"/>
+      <c r="H30" s="103"/>
+      <c r="I30" s="105"/>
+      <c r="J30" s="97"/>
+      <c r="K30" s="106"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -7782,14 +7782,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="124"/>
-      <c r="E31" s="126"/>
-      <c r="F31" s="124"/>
-      <c r="G31" s="126"/>
-      <c r="H31" s="124"/>
-      <c r="I31" s="126"/>
-      <c r="J31" s="127"/>
-      <c r="K31" s="146"/>
+      <c r="D31" s="103"/>
+      <c r="E31" s="105"/>
+      <c r="F31" s="103"/>
+      <c r="G31" s="105"/>
+      <c r="H31" s="103"/>
+      <c r="I31" s="105"/>
+      <c r="J31" s="97"/>
+      <c r="K31" s="106"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -7811,14 +7811,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="124"/>
-      <c r="E32" s="126"/>
-      <c r="F32" s="124"/>
-      <c r="G32" s="126"/>
-      <c r="H32" s="124"/>
-      <c r="I32" s="126"/>
-      <c r="J32" s="127"/>
-      <c r="K32" s="146"/>
+      <c r="D32" s="103"/>
+      <c r="E32" s="105"/>
+      <c r="F32" s="103"/>
+      <c r="G32" s="105"/>
+      <c r="H32" s="103"/>
+      <c r="I32" s="105"/>
+      <c r="J32" s="97"/>
+      <c r="K32" s="106"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -7840,14 +7840,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="124"/>
-      <c r="E33" s="126"/>
-      <c r="F33" s="124"/>
-      <c r="G33" s="126"/>
-      <c r="H33" s="124"/>
-      <c r="I33" s="126"/>
-      <c r="J33" s="127"/>
-      <c r="K33" s="146"/>
+      <c r="D33" s="103"/>
+      <c r="E33" s="105"/>
+      <c r="F33" s="103"/>
+      <c r="G33" s="105"/>
+      <c r="H33" s="103"/>
+      <c r="I33" s="105"/>
+      <c r="J33" s="97"/>
+      <c r="K33" s="106"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -7869,14 +7869,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="124"/>
-      <c r="E34" s="126"/>
-      <c r="F34" s="124"/>
-      <c r="G34" s="126"/>
-      <c r="H34" s="124"/>
-      <c r="I34" s="126"/>
-      <c r="J34" s="127"/>
-      <c r="K34" s="146"/>
+      <c r="D34" s="103"/>
+      <c r="E34" s="105"/>
+      <c r="F34" s="103"/>
+      <c r="G34" s="105"/>
+      <c r="H34" s="103"/>
+      <c r="I34" s="105"/>
+      <c r="J34" s="97"/>
+      <c r="K34" s="106"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -7898,14 +7898,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="124"/>
-      <c r="E35" s="126"/>
-      <c r="F35" s="124"/>
-      <c r="G35" s="126"/>
-      <c r="H35" s="124"/>
-      <c r="I35" s="126"/>
-      <c r="J35" s="127"/>
-      <c r="K35" s="146"/>
+      <c r="D35" s="103"/>
+      <c r="E35" s="105"/>
+      <c r="F35" s="103"/>
+      <c r="G35" s="105"/>
+      <c r="H35" s="103"/>
+      <c r="I35" s="105"/>
+      <c r="J35" s="97"/>
+      <c r="K35" s="106"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -7927,14 +7927,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="124"/>
-      <c r="E36" s="126"/>
-      <c r="F36" s="124"/>
-      <c r="G36" s="126"/>
-      <c r="H36" s="124"/>
-      <c r="I36" s="126"/>
-      <c r="J36" s="127"/>
-      <c r="K36" s="146"/>
+      <c r="D36" s="103"/>
+      <c r="E36" s="105"/>
+      <c r="F36" s="103"/>
+      <c r="G36" s="105"/>
+      <c r="H36" s="103"/>
+      <c r="I36" s="105"/>
+      <c r="J36" s="97"/>
+      <c r="K36" s="106"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -7956,14 +7956,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="124"/>
-      <c r="E37" s="126"/>
-      <c r="F37" s="124"/>
-      <c r="G37" s="126"/>
-      <c r="H37" s="124"/>
-      <c r="I37" s="126"/>
-      <c r="J37" s="127"/>
-      <c r="K37" s="146"/>
+      <c r="D37" s="103"/>
+      <c r="E37" s="105"/>
+      <c r="F37" s="103"/>
+      <c r="G37" s="105"/>
+      <c r="H37" s="103"/>
+      <c r="I37" s="105"/>
+      <c r="J37" s="97"/>
+      <c r="K37" s="106"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -7985,14 +7985,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="103"/>
-      <c r="E38" s="105"/>
-      <c r="F38" s="103"/>
-      <c r="G38" s="105"/>
-      <c r="H38" s="103"/>
-      <c r="I38" s="105"/>
-      <c r="J38" s="106"/>
-      <c r="K38" s="200"/>
+      <c r="D38" s="189"/>
+      <c r="E38" s="191"/>
+      <c r="F38" s="189"/>
+      <c r="G38" s="191"/>
+      <c r="H38" s="189"/>
+      <c r="I38" s="191"/>
+      <c r="J38" s="157"/>
+      <c r="K38" s="159"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8007,33 +8007,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="182" t="e">
+      <c r="D39" s="139" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="184"/>
-      <c r="F39" s="182" t="e">
+      <c r="E39" s="141"/>
+      <c r="F39" s="139" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="184"/>
-      <c r="H39" s="182" t="e">
+      <c r="G39" s="141"/>
+      <c r="H39" s="139" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="184"/>
-      <c r="J39" s="170" t="e">
+      <c r="I39" s="141"/>
+      <c r="J39" s="127" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="172"/>
-      <c r="L39" s="222" t="e">
+      <c r="K39" s="129"/>
+      <c r="L39" s="236" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="223"/>
-      <c r="N39" s="223"/>
-      <c r="O39" s="225"/>
+      <c r="M39" s="237"/>
+      <c r="N39" s="237"/>
+      <c r="O39" s="239"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8041,33 +8041,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="254">
+      <c r="D40" s="271">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="255"/>
-      <c r="F40" s="189">
+      <c r="E40" s="272"/>
+      <c r="F40" s="146">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="191"/>
-      <c r="H40" s="189">
+      <c r="G40" s="148"/>
+      <c r="H40" s="146">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="191"/>
-      <c r="J40" s="173">
+      <c r="I40" s="148"/>
+      <c r="J40" s="130">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="175"/>
-      <c r="L40" s="213" t="e">
+      <c r="K40" s="132"/>
+      <c r="L40" s="227" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="214"/>
-      <c r="N40" s="214"/>
-      <c r="O40" s="226"/>
+      <c r="M40" s="228"/>
+      <c r="N40" s="228"/>
+      <c r="O40" s="240"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8075,63 +8075,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="252">
+      <c r="D41" s="269">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="253"/>
-      <c r="F41" s="196">
+      <c r="E41" s="270"/>
+      <c r="F41" s="153">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="198"/>
-      <c r="H41" s="196">
+      <c r="G41" s="155"/>
+      <c r="H41" s="153">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="198"/>
-      <c r="J41" s="176">
+      <c r="I41" s="155"/>
+      <c r="J41" s="133">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="178"/>
-      <c r="L41" s="203" t="e">
+      <c r="K41" s="135"/>
+      <c r="L41" s="243" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="204"/>
-      <c r="N41" s="204"/>
-      <c r="O41" s="206"/>
+      <c r="M41" s="244"/>
+      <c r="N41" s="244"/>
+      <c r="O41" s="246"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="247"/>
-      <c r="C42" s="247"/>
-      <c r="D42" s="110" t="s">
+      <c r="B42" s="250"/>
+      <c r="C42" s="250"/>
+      <c r="D42" s="194" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="110"/>
+      <c r="E42" s="194"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="111" t="s">
+      <c r="J42" s="195" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="111"/>
-      <c r="L42" s="112"/>
-      <c r="M42" s="112"/>
-      <c r="N42" s="112"/>
+      <c r="K42" s="195"/>
+      <c r="L42" s="196"/>
+      <c r="M42" s="196"/>
+      <c r="N42" s="196"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="248"/>
-      <c r="C43" s="248"/>
+      <c r="B43" s="251"/>
+      <c r="C43" s="251"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8140,39 +8140,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="114"/>
-      <c r="M43" s="114"/>
-      <c r="N43" s="114"/>
+      <c r="L43" s="198"/>
+      <c r="M43" s="198"/>
+      <c r="N43" s="198"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="98" t="s">
+      <c r="A44" s="199" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="98"/>
-      <c r="C44" s="98"/>
+      <c r="B44" s="199"/>
+      <c r="C44" s="199"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="98" t="str">
+      <c r="G44" s="199" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="98"/>
-      <c r="I44" s="98"/>
-      <c r="J44" s="98"/>
+      <c r="H44" s="199"/>
+      <c r="I44" s="199"/>
+      <c r="J44" s="199"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="98" t="s">
+      <c r="A45" s="199" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="98"/>
+      <c r="B45" s="199"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8183,15 +8183,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="99" t="s">
+      <c r="M45" s="200" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="99"/>
+      <c r="N45" s="200"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="98"/>
-      <c r="B46" s="98"/>
+      <c r="A46" s="199"/>
+      <c r="B46" s="199"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8202,13 +8202,161 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="99"/>
-      <c r="N46" s="99"/>
+      <c r="M46" s="200"/>
+      <c r="N46" s="200"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="172">
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="A46:B46"/>
@@ -8233,154 +8381,6 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="notBetween">
@@ -8420,12 +8420,12 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="P14" sqref="P14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.85546875" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>
@@ -8522,7 +8522,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="56" customFormat="1">
-      <c r="A3" s="85"/>
+      <c r="A3" s="273"/>
       <c r="B3" s="84">
         <f>Page1!C8</f>
         <v>0</v>
@@ -8536,43 +8536,43 @@
         <f>Page1!D8</f>
         <v>0</v>
       </c>
-      <c r="F3" s="92" t="e">
+      <c r="F3" s="91" t="e">
         <f>Page3!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G3" s="92" t="e">
+      <c r="G3" s="91" t="e">
         <f>Page2!G9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H3" s="91" t="e">
+      <c r="H3" s="90" t="e">
         <f>Page3!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I3" s="91" t="e">
+      <c r="I3" s="90" t="e">
         <f>Page2!K9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J3" s="91" t="e">
+      <c r="J3" s="90" t="e">
         <f>Page2!O9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K3" s="93">
+      <c r="K3" s="92">
         <f>Page1!G8</f>
         <v>0</v>
       </c>
-      <c r="L3" s="91" t="e">
+      <c r="L3" s="90" t="e">
         <f>Page3!O9</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M3" s="86">
-        <v>0</v>
-      </c>
-      <c r="N3" s="86">
+      <c r="M3" s="85">
+        <v>0</v>
+      </c>
+      <c r="N3" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:14" s="56" customFormat="1">
-      <c r="A4" s="85"/>
+      <c r="A4" s="273"/>
       <c r="B4" s="84">
         <f>Page1!C9</f>
         <v>0</v>
@@ -8586,43 +8586,43 @@
         <f>Page1!D9</f>
         <v>0</v>
       </c>
-      <c r="F4" s="92" t="e">
+      <c r="F4" s="91" t="e">
         <f>Page3!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G4" s="92" t="e">
+      <c r="G4" s="91" t="e">
         <f>Page2!G10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H4" s="91" t="e">
+      <c r="H4" s="90" t="e">
         <f>Page3!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I4" s="91" t="e">
+      <c r="I4" s="90" t="e">
         <f>Page2!K10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J4" s="91" t="e">
+      <c r="J4" s="90" t="e">
         <f>Page2!O10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K4" s="93">
+      <c r="K4" s="92">
         <f>Page1!G9</f>
         <v>0</v>
       </c>
-      <c r="L4" s="91" t="e">
+      <c r="L4" s="90" t="e">
         <f>Page3!O10</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="86">
-        <v>0</v>
-      </c>
-      <c r="N4" s="86">
+      <c r="M4" s="85">
+        <v>0</v>
+      </c>
+      <c r="N4" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:14" s="56" customFormat="1">
-      <c r="A5" s="85"/>
+      <c r="A5" s="273"/>
       <c r="B5" s="84">
         <f>Page1!C10</f>
         <v>0</v>
@@ -8636,43 +8636,43 @@
         <f>Page1!D10</f>
         <v>0</v>
       </c>
-      <c r="F5" s="92" t="e">
+      <c r="F5" s="91" t="e">
         <f>Page3!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G5" s="92" t="e">
+      <c r="G5" s="91" t="e">
         <f>Page2!G11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H5" s="91" t="e">
+      <c r="H5" s="90" t="e">
         <f>Page3!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I5" s="91" t="e">
+      <c r="I5" s="90" t="e">
         <f>Page2!K11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J5" s="91" t="e">
+      <c r="J5" s="90" t="e">
         <f>Page2!O11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K5" s="93">
+      <c r="K5" s="92">
         <f>Page1!G10</f>
         <v>0</v>
       </c>
-      <c r="L5" s="91" t="e">
+      <c r="L5" s="90" t="e">
         <f>Page3!O11</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="86">
-        <v>0</v>
-      </c>
-      <c r="N5" s="86">
+      <c r="M5" s="85">
+        <v>0</v>
+      </c>
+      <c r="N5" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:14" s="56" customFormat="1">
-      <c r="A6" s="85"/>
+      <c r="A6" s="273"/>
       <c r="B6" s="84">
         <f>Page1!C11</f>
         <v>0</v>
@@ -8686,43 +8686,43 @@
         <f>Page1!D11</f>
         <v>0</v>
       </c>
-      <c r="F6" s="92" t="e">
+      <c r="F6" s="91" t="e">
         <f>Page3!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G6" s="92" t="e">
+      <c r="G6" s="91" t="e">
         <f>Page2!G12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H6" s="91" t="e">
+      <c r="H6" s="90" t="e">
         <f>Page3!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I6" s="91" t="e">
+      <c r="I6" s="90" t="e">
         <f>Page2!K12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J6" s="91" t="e">
+      <c r="J6" s="90" t="e">
         <f>Page2!O12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K6" s="93">
+      <c r="K6" s="92">
         <f>Page1!G11</f>
         <v>0</v>
       </c>
-      <c r="L6" s="91" t="e">
+      <c r="L6" s="90" t="e">
         <f>Page3!O12</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="86">
-        <v>0</v>
-      </c>
-      <c r="N6" s="86">
+      <c r="M6" s="85">
+        <v>0</v>
+      </c>
+      <c r="N6" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:14" s="56" customFormat="1">
-      <c r="A7" s="85"/>
+      <c r="A7" s="273"/>
       <c r="B7" s="84">
         <f>Page1!C12</f>
         <v>0</v>
@@ -8736,43 +8736,43 @@
         <f>Page1!D12</f>
         <v>0</v>
       </c>
-      <c r="F7" s="92" t="e">
+      <c r="F7" s="91" t="e">
         <f>Page3!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G7" s="92" t="e">
+      <c r="G7" s="91" t="e">
         <f>Page2!G13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H7" s="91" t="e">
+      <c r="H7" s="90" t="e">
         <f>Page3!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I7" s="91" t="e">
+      <c r="I7" s="90" t="e">
         <f>Page2!K13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J7" s="91" t="e">
+      <c r="J7" s="90" t="e">
         <f>Page2!O13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K7" s="93">
+      <c r="K7" s="92">
         <f>Page1!G12</f>
         <v>0</v>
       </c>
-      <c r="L7" s="91" t="e">
+      <c r="L7" s="90" t="e">
         <f>Page3!O13</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="86">
-        <v>0</v>
-      </c>
-      <c r="N7" s="86">
+      <c r="M7" s="85">
+        <v>0</v>
+      </c>
+      <c r="N7" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:14" s="56" customFormat="1">
-      <c r="A8" s="85"/>
+      <c r="A8" s="273"/>
       <c r="B8" s="84">
         <f>Page1!C13</f>
         <v>0</v>
@@ -8786,43 +8786,43 @@
         <f>Page1!D13</f>
         <v>0</v>
       </c>
-      <c r="F8" s="92" t="e">
+      <c r="F8" s="91" t="e">
         <f>Page3!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G8" s="92" t="e">
+      <c r="G8" s="91" t="e">
         <f>Page2!G14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H8" s="91" t="e">
+      <c r="H8" s="90" t="e">
         <f>Page3!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I8" s="91" t="e">
+      <c r="I8" s="90" t="e">
         <f>Page2!K14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J8" s="91" t="e">
+      <c r="J8" s="90" t="e">
         <f>Page2!O14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K8" s="93">
+      <c r="K8" s="92">
         <f>Page1!G13</f>
         <v>0</v>
       </c>
-      <c r="L8" s="91" t="e">
+      <c r="L8" s="90" t="e">
         <f>Page3!O14</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="86">
-        <v>0</v>
-      </c>
-      <c r="N8" s="86">
+      <c r="M8" s="85">
+        <v>0</v>
+      </c>
+      <c r="N8" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:14" s="56" customFormat="1">
-      <c r="A9" s="85"/>
+      <c r="A9" s="273"/>
       <c r="B9" s="84">
         <f>Page1!C14</f>
         <v>0</v>
@@ -8836,43 +8836,43 @@
         <f>Page1!D14</f>
         <v>0</v>
       </c>
-      <c r="F9" s="92" t="e">
+      <c r="F9" s="91" t="e">
         <f>Page3!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G9" s="92" t="e">
+      <c r="G9" s="91" t="e">
         <f>Page2!G15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H9" s="91" t="e">
+      <c r="H9" s="90" t="e">
         <f>Page3!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I9" s="91" t="e">
+      <c r="I9" s="90" t="e">
         <f>Page2!K15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J9" s="91" t="e">
+      <c r="J9" s="90" t="e">
         <f>Page2!O15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K9" s="93">
+      <c r="K9" s="92">
         <f>Page1!G14</f>
         <v>0</v>
       </c>
-      <c r="L9" s="91" t="e">
+      <c r="L9" s="90" t="e">
         <f>Page3!O15</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M9" s="86">
-        <v>0</v>
-      </c>
-      <c r="N9" s="86">
+      <c r="M9" s="85">
+        <v>0</v>
+      </c>
+      <c r="N9" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:14" s="56" customFormat="1">
-      <c r="A10" s="85"/>
+      <c r="A10" s="273"/>
       <c r="B10" s="84">
         <f>Page1!C15</f>
         <v>0</v>
@@ -8886,43 +8886,43 @@
         <f>Page1!D15</f>
         <v>0</v>
       </c>
-      <c r="F10" s="92" t="e">
+      <c r="F10" s="91" t="e">
         <f>Page3!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G10" s="92" t="e">
+      <c r="G10" s="91" t="e">
         <f>Page2!G16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H10" s="91" t="e">
+      <c r="H10" s="90" t="e">
         <f>Page3!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I10" s="91" t="e">
+      <c r="I10" s="90" t="e">
         <f>Page2!K16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J10" s="91" t="e">
+      <c r="J10" s="90" t="e">
         <f>Page2!O16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K10" s="93">
+      <c r="K10" s="92">
         <f>Page1!G15</f>
         <v>0</v>
       </c>
-      <c r="L10" s="91" t="e">
+      <c r="L10" s="90" t="e">
         <f>Page3!O16</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="86">
-        <v>0</v>
-      </c>
-      <c r="N10" s="86">
+      <c r="M10" s="85">
+        <v>0</v>
+      </c>
+      <c r="N10" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:14" s="56" customFormat="1">
-      <c r="A11" s="85"/>
+      <c r="A11" s="273"/>
       <c r="B11" s="84">
         <f>Page1!C16</f>
         <v>0</v>
@@ -8936,43 +8936,43 @@
         <f>Page1!D16</f>
         <v>0</v>
       </c>
-      <c r="F11" s="92" t="e">
+      <c r="F11" s="91" t="e">
         <f>Page3!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G11" s="92" t="e">
+      <c r="G11" s="91" t="e">
         <f>Page2!G17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H11" s="91" t="e">
+      <c r="H11" s="90" t="e">
         <f>Page3!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I11" s="91" t="e">
+      <c r="I11" s="90" t="e">
         <f>Page2!K17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J11" s="91" t="e">
+      <c r="J11" s="90" t="e">
         <f>Page2!O17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K11" s="93">
+      <c r="K11" s="92">
         <f>Page1!G16</f>
         <v>0</v>
       </c>
-      <c r="L11" s="91" t="e">
+      <c r="L11" s="90" t="e">
         <f>Page3!O17</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M11" s="86">
-        <v>0</v>
-      </c>
-      <c r="N11" s="86">
+      <c r="M11" s="85">
+        <v>0</v>
+      </c>
+      <c r="N11" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:14" s="56" customFormat="1">
-      <c r="A12" s="85"/>
+      <c r="A12" s="273"/>
       <c r="B12" s="84">
         <f>Page1!C17</f>
         <v>0</v>
@@ -8986,43 +8986,43 @@
         <f>Page1!D17</f>
         <v>0</v>
       </c>
-      <c r="F12" s="92" t="e">
+      <c r="F12" s="91" t="e">
         <f>Page3!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G12" s="92" t="e">
+      <c r="G12" s="91" t="e">
         <f>Page2!G18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H12" s="91" t="e">
+      <c r="H12" s="90" t="e">
         <f>Page3!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I12" s="91" t="e">
+      <c r="I12" s="90" t="e">
         <f>Page2!K18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J12" s="91" t="e">
+      <c r="J12" s="90" t="e">
         <f>Page2!O18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K12" s="93">
+      <c r="K12" s="92">
         <f>Page1!G17</f>
         <v>0</v>
       </c>
-      <c r="L12" s="91" t="e">
+      <c r="L12" s="90" t="e">
         <f>Page3!O18</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M12" s="86">
-        <v>0</v>
-      </c>
-      <c r="N12" s="86">
+      <c r="M12" s="85">
+        <v>0</v>
+      </c>
+      <c r="N12" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="13" spans="1:14" s="56" customFormat="1">
-      <c r="A13" s="85"/>
+      <c r="A13" s="273"/>
       <c r="B13" s="84">
         <f>Page1!C18</f>
         <v>0</v>
@@ -9036,43 +9036,43 @@
         <f>Page1!D18</f>
         <v>0</v>
       </c>
-      <c r="F13" s="92" t="e">
+      <c r="F13" s="91" t="e">
         <f>Page3!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G13" s="92" t="e">
+      <c r="G13" s="91" t="e">
         <f>Page2!G19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H13" s="91" t="e">
+      <c r="H13" s="90" t="e">
         <f>Page3!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I13" s="91" t="e">
+      <c r="I13" s="90" t="e">
         <f>Page2!K19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J13" s="91" t="e">
+      <c r="J13" s="90" t="e">
         <f>Page2!O19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K13" s="93">
+      <c r="K13" s="92">
         <f>Page1!G18</f>
         <v>0</v>
       </c>
-      <c r="L13" s="91" t="e">
+      <c r="L13" s="90" t="e">
         <f>Page3!O19</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M13" s="86">
-        <v>0</v>
-      </c>
-      <c r="N13" s="86">
+      <c r="M13" s="85">
+        <v>0</v>
+      </c>
+      <c r="N13" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="14" spans="1:14" s="56" customFormat="1">
-      <c r="A14" s="85"/>
+      <c r="A14" s="273"/>
       <c r="B14" s="84">
         <f>Page1!C19</f>
         <v>0</v>
@@ -9086,43 +9086,43 @@
         <f>Page1!D19</f>
         <v>0</v>
       </c>
-      <c r="F14" s="92" t="e">
+      <c r="F14" s="91" t="e">
         <f>Page3!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G14" s="92" t="e">
+      <c r="G14" s="91" t="e">
         <f>Page2!G20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H14" s="91" t="e">
+      <c r="H14" s="90" t="e">
         <f>Page3!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I14" s="91" t="e">
+      <c r="I14" s="90" t="e">
         <f>Page2!K20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J14" s="91" t="e">
+      <c r="J14" s="90" t="e">
         <f>Page2!O20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K14" s="93">
+      <c r="K14" s="92">
         <f>Page1!G19</f>
         <v>0</v>
       </c>
-      <c r="L14" s="91" t="e">
+      <c r="L14" s="90" t="e">
         <f>Page3!O20</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M14" s="86">
-        <v>0</v>
-      </c>
-      <c r="N14" s="86">
+      <c r="M14" s="85">
+        <v>0</v>
+      </c>
+      <c r="N14" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:14" s="56" customFormat="1">
-      <c r="A15" s="85"/>
+      <c r="A15" s="273"/>
       <c r="B15" s="84">
         <f>Page1!C20</f>
         <v>0</v>
@@ -9136,43 +9136,43 @@
         <f>Page1!D20</f>
         <v>0</v>
       </c>
-      <c r="F15" s="92" t="e">
+      <c r="F15" s="91" t="e">
         <f>Page3!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G15" s="92" t="e">
+      <c r="G15" s="91" t="e">
         <f>Page2!G21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H15" s="91" t="e">
+      <c r="H15" s="90" t="e">
         <f>Page3!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I15" s="91" t="e">
+      <c r="I15" s="90" t="e">
         <f>Page2!K21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J15" s="91" t="e">
+      <c r="J15" s="90" t="e">
         <f>Page2!O21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K15" s="93">
+      <c r="K15" s="92">
         <f>Page1!G20</f>
         <v>0</v>
       </c>
-      <c r="L15" s="91" t="e">
+      <c r="L15" s="90" t="e">
         <f>Page3!O21</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M15" s="86">
-        <v>0</v>
-      </c>
-      <c r="N15" s="86">
+      <c r="M15" s="85">
+        <v>0</v>
+      </c>
+      <c r="N15" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:14" s="56" customFormat="1">
-      <c r="A16" s="85"/>
+      <c r="A16" s="273"/>
       <c r="B16" s="84">
         <f>Page1!C21</f>
         <v>0</v>
@@ -9186,43 +9186,43 @@
         <f>Page1!D21</f>
         <v>0</v>
       </c>
-      <c r="F16" s="92" t="e">
+      <c r="F16" s="91" t="e">
         <f>Page3!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G16" s="92" t="e">
+      <c r="G16" s="91" t="e">
         <f>Page2!G22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H16" s="91" t="e">
+      <c r="H16" s="90" t="e">
         <f>Page3!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I16" s="91" t="e">
+      <c r="I16" s="90" t="e">
         <f>Page2!K22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J16" s="91" t="e">
+      <c r="J16" s="90" t="e">
         <f>Page2!O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K16" s="93">
+      <c r="K16" s="92">
         <f>Page1!G21</f>
         <v>0</v>
       </c>
-      <c r="L16" s="91" t="e">
+      <c r="L16" s="90" t="e">
         <f>Page3!O22</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M16" s="86">
-        <v>0</v>
-      </c>
-      <c r="N16" s="86">
+      <c r="M16" s="85">
+        <v>0</v>
+      </c>
+      <c r="N16" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:14" s="56" customFormat="1">
-      <c r="A17" s="85"/>
+      <c r="A17" s="273"/>
       <c r="B17" s="84">
         <f>Page1!C22</f>
         <v>0</v>
@@ -9236,43 +9236,43 @@
         <f>Page1!D22</f>
         <v>0</v>
       </c>
-      <c r="F17" s="92" t="e">
+      <c r="F17" s="91" t="e">
         <f>Page3!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G17" s="92" t="e">
+      <c r="G17" s="91" t="e">
         <f>Page2!G23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H17" s="91" t="e">
+      <c r="H17" s="90" t="e">
         <f>Page3!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I17" s="91" t="e">
+      <c r="I17" s="90" t="e">
         <f>Page2!K23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J17" s="91" t="e">
+      <c r="J17" s="90" t="e">
         <f>Page2!O23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K17" s="93">
+      <c r="K17" s="92">
         <f>Page1!G22</f>
         <v>0</v>
       </c>
-      <c r="L17" s="91" t="e">
+      <c r="L17" s="90" t="e">
         <f>Page3!O23</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="86">
-        <v>0</v>
-      </c>
-      <c r="N17" s="86">
+      <c r="M17" s="85">
+        <v>0</v>
+      </c>
+      <c r="N17" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:14" s="56" customFormat="1">
-      <c r="A18" s="85"/>
+      <c r="A18" s="273"/>
       <c r="B18" s="84">
         <f>Page1!C23</f>
         <v>0</v>
@@ -9286,43 +9286,43 @@
         <f>Page1!D23</f>
         <v>0</v>
       </c>
-      <c r="F18" s="92" t="e">
+      <c r="F18" s="91" t="e">
         <f>Page3!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G18" s="92" t="e">
+      <c r="G18" s="91" t="e">
         <f>Page2!G24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H18" s="91" t="e">
+      <c r="H18" s="90" t="e">
         <f>Page3!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I18" s="91" t="e">
+      <c r="I18" s="90" t="e">
         <f>Page2!K24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J18" s="91" t="e">
+      <c r="J18" s="90" t="e">
         <f>Page2!O24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K18" s="93">
+      <c r="K18" s="92">
         <f>Page1!G23</f>
         <v>0</v>
       </c>
-      <c r="L18" s="91" t="e">
+      <c r="L18" s="90" t="e">
         <f>Page3!O24</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M18" s="86">
-        <v>0</v>
-      </c>
-      <c r="N18" s="86">
+      <c r="M18" s="85">
+        <v>0</v>
+      </c>
+      <c r="N18" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="19" spans="1:14" s="56" customFormat="1">
-      <c r="A19" s="85"/>
+      <c r="A19" s="273"/>
       <c r="B19" s="84">
         <f>Page1!C24</f>
         <v>0</v>
@@ -9336,43 +9336,43 @@
         <f>Page1!D24</f>
         <v>0</v>
       </c>
-      <c r="F19" s="92" t="e">
+      <c r="F19" s="91" t="e">
         <f>Page3!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G19" s="92" t="e">
+      <c r="G19" s="91" t="e">
         <f>Page2!G25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H19" s="91" t="e">
+      <c r="H19" s="90" t="e">
         <f>Page3!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I19" s="91" t="e">
+      <c r="I19" s="90" t="e">
         <f>Page2!K25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J19" s="91" t="e">
+      <c r="J19" s="90" t="e">
         <f>Page2!O25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K19" s="93">
+      <c r="K19" s="92">
         <f>Page1!G24</f>
         <v>0</v>
       </c>
-      <c r="L19" s="91" t="e">
+      <c r="L19" s="90" t="e">
         <f>Page3!O25</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M19" s="86">
-        <v>0</v>
-      </c>
-      <c r="N19" s="86">
+      <c r="M19" s="85">
+        <v>0</v>
+      </c>
+      <c r="N19" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="20" spans="1:14" s="56" customFormat="1">
-      <c r="A20" s="85"/>
+      <c r="A20" s="273"/>
       <c r="B20" s="84">
         <f>Page1!C25</f>
         <v>0</v>
@@ -9386,43 +9386,43 @@
         <f>Page1!D25</f>
         <v>0</v>
       </c>
-      <c r="F20" s="92" t="e">
+      <c r="F20" s="91" t="e">
         <f>Page3!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G20" s="92" t="e">
+      <c r="G20" s="91" t="e">
         <f>Page2!G26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H20" s="91" t="e">
+      <c r="H20" s="90" t="e">
         <f>Page3!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I20" s="91" t="e">
+      <c r="I20" s="90" t="e">
         <f>Page2!K26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J20" s="91" t="e">
+      <c r="J20" s="90" t="e">
         <f>Page2!O26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K20" s="93">
+      <c r="K20" s="92">
         <f>Page1!G25</f>
         <v>0</v>
       </c>
-      <c r="L20" s="91" t="e">
+      <c r="L20" s="90" t="e">
         <f>Page3!O26</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M20" s="86">
-        <v>0</v>
-      </c>
-      <c r="N20" s="86">
+      <c r="M20" s="85">
+        <v>0</v>
+      </c>
+      <c r="N20" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:14" s="56" customFormat="1">
-      <c r="A21" s="85"/>
+      <c r="A21" s="273"/>
       <c r="B21" s="84">
         <f>Page1!C26</f>
         <v>0</v>
@@ -9436,43 +9436,43 @@
         <f>Page1!D26</f>
         <v>0</v>
       </c>
-      <c r="F21" s="92" t="e">
+      <c r="F21" s="91" t="e">
         <f>Page3!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G21" s="92" t="e">
+      <c r="G21" s="91" t="e">
         <f>Page2!G27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H21" s="91" t="e">
+      <c r="H21" s="90" t="e">
         <f>Page3!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I21" s="91" t="e">
+      <c r="I21" s="90" t="e">
         <f>Page2!K27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J21" s="91" t="e">
+      <c r="J21" s="90" t="e">
         <f>Page2!O27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K21" s="93">
+      <c r="K21" s="92">
         <f>Page1!G26</f>
         <v>0</v>
       </c>
-      <c r="L21" s="91" t="e">
+      <c r="L21" s="90" t="e">
         <f>Page3!O27</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M21" s="86">
-        <v>0</v>
-      </c>
-      <c r="N21" s="86">
+      <c r="M21" s="85">
+        <v>0</v>
+      </c>
+      <c r="N21" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:14" s="56" customFormat="1">
-      <c r="A22" s="85"/>
+      <c r="A22" s="273"/>
       <c r="B22" s="84">
         <f>Page1!C27</f>
         <v>0</v>
@@ -9486,43 +9486,43 @@
         <f>Page1!D27</f>
         <v>0</v>
       </c>
-      <c r="F22" s="92" t="e">
+      <c r="F22" s="91" t="e">
         <f>Page3!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G22" s="92" t="e">
+      <c r="G22" s="91" t="e">
         <f>Page2!G28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H22" s="91" t="e">
+      <c r="H22" s="90" t="e">
         <f>Page3!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I22" s="91" t="e">
+      <c r="I22" s="90" t="e">
         <f>Page2!K28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J22" s="91" t="e">
+      <c r="J22" s="90" t="e">
         <f>Page2!O28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K22" s="93">
+      <c r="K22" s="92">
         <f>Page1!G27</f>
         <v>0</v>
       </c>
-      <c r="L22" s="91" t="e">
+      <c r="L22" s="90" t="e">
         <f>Page3!O28</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M22" s="86">
-        <v>0</v>
-      </c>
-      <c r="N22" s="86">
+      <c r="M22" s="85">
+        <v>0</v>
+      </c>
+      <c r="N22" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:14" s="56" customFormat="1">
-      <c r="A23" s="85"/>
+      <c r="A23" s="273"/>
       <c r="B23" s="84">
         <f>Page1!C28</f>
         <v>0</v>
@@ -9536,43 +9536,43 @@
         <f>Page1!D28</f>
         <v>0</v>
       </c>
-      <c r="F23" s="92" t="e">
+      <c r="F23" s="91" t="e">
         <f>Page3!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G23" s="92" t="e">
+      <c r="G23" s="91" t="e">
         <f>Page2!G29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H23" s="91" t="e">
+      <c r="H23" s="90" t="e">
         <f>Page3!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I23" s="91" t="e">
+      <c r="I23" s="90" t="e">
         <f>Page2!K29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J23" s="91" t="e">
+      <c r="J23" s="90" t="e">
         <f>Page2!O29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K23" s="93">
+      <c r="K23" s="92">
         <f>Page1!G28</f>
         <v>0</v>
       </c>
-      <c r="L23" s="91" t="e">
+      <c r="L23" s="90" t="e">
         <f>Page3!O29</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M23" s="86">
-        <v>0</v>
-      </c>
-      <c r="N23" s="86">
+      <c r="M23" s="85">
+        <v>0</v>
+      </c>
+      <c r="N23" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:14" s="56" customFormat="1">
-      <c r="A24" s="85"/>
+      <c r="A24" s="273"/>
       <c r="B24" s="84">
         <f>Page1!C29</f>
         <v>0</v>
@@ -9586,43 +9586,43 @@
         <f>Page1!D29</f>
         <v>0</v>
       </c>
-      <c r="F24" s="92" t="e">
+      <c r="F24" s="91" t="e">
         <f>Page3!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G24" s="92" t="e">
+      <c r="G24" s="91" t="e">
         <f>Page2!G30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H24" s="91" t="e">
+      <c r="H24" s="90" t="e">
         <f>Page3!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I24" s="91" t="e">
+      <c r="I24" s="90" t="e">
         <f>Page2!K30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J24" s="91" t="e">
+      <c r="J24" s="90" t="e">
         <f>Page2!O30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K24" s="93">
+      <c r="K24" s="92">
         <f>Page1!G29</f>
         <v>0</v>
       </c>
-      <c r="L24" s="91" t="e">
+      <c r="L24" s="90" t="e">
         <f>Page3!O30</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M24" s="86">
-        <v>0</v>
-      </c>
-      <c r="N24" s="86">
+      <c r="M24" s="85">
+        <v>0</v>
+      </c>
+      <c r="N24" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="25" spans="1:14" s="56" customFormat="1">
-      <c r="A25" s="85"/>
+      <c r="A25" s="273"/>
       <c r="B25" s="84">
         <f>Page1!C30</f>
         <v>0</v>
@@ -9636,43 +9636,43 @@
         <f>Page1!D30</f>
         <v>0</v>
       </c>
-      <c r="F25" s="92" t="e">
+      <c r="F25" s="91" t="e">
         <f>Page3!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G25" s="92" t="e">
+      <c r="G25" s="91" t="e">
         <f>Page2!G31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H25" s="91" t="e">
+      <c r="H25" s="90" t="e">
         <f>Page3!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I25" s="91" t="e">
+      <c r="I25" s="90" t="e">
         <f>Page2!K31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J25" s="91" t="e">
+      <c r="J25" s="90" t="e">
         <f>Page2!O31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K25" s="93">
+      <c r="K25" s="92">
         <f>Page1!G30</f>
         <v>0</v>
       </c>
-      <c r="L25" s="91" t="e">
+      <c r="L25" s="90" t="e">
         <f>Page3!O31</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M25" s="86">
-        <v>0</v>
-      </c>
-      <c r="N25" s="86">
+      <c r="M25" s="85">
+        <v>0</v>
+      </c>
+      <c r="N25" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="26" spans="1:14" s="56" customFormat="1">
-      <c r="A26" s="85"/>
+      <c r="A26" s="273"/>
       <c r="B26" s="84">
         <f>Page1!C31</f>
         <v>0</v>
@@ -9686,43 +9686,43 @@
         <f>Page1!D31</f>
         <v>0</v>
       </c>
-      <c r="F26" s="92" t="e">
+      <c r="F26" s="91" t="e">
         <f>Page3!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G26" s="92" t="e">
+      <c r="G26" s="91" t="e">
         <f>Page2!G32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H26" s="91" t="e">
+      <c r="H26" s="90" t="e">
         <f>Page3!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I26" s="91" t="e">
+      <c r="I26" s="90" t="e">
         <f>Page2!K32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J26" s="91" t="e">
+      <c r="J26" s="90" t="e">
         <f>Page2!O32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K26" s="93">
+      <c r="K26" s="92">
         <f>Page1!G31</f>
         <v>0</v>
       </c>
-      <c r="L26" s="91" t="e">
+      <c r="L26" s="90" t="e">
         <f>Page3!O32</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M26" s="86">
-        <v>0</v>
-      </c>
-      <c r="N26" s="86">
+      <c r="M26" s="85">
+        <v>0</v>
+      </c>
+      <c r="N26" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:14" s="56" customFormat="1">
-      <c r="A27" s="85"/>
+      <c r="A27" s="273"/>
       <c r="B27" s="84">
         <f>Page1!C32</f>
         <v>0</v>
@@ -9736,43 +9736,43 @@
         <f>Page1!D32</f>
         <v>0</v>
       </c>
-      <c r="F27" s="92" t="e">
+      <c r="F27" s="91" t="e">
         <f>Page3!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G27" s="92" t="e">
+      <c r="G27" s="91" t="e">
         <f>Page2!G33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H27" s="91" t="e">
+      <c r="H27" s="90" t="e">
         <f>Page3!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I27" s="91" t="e">
+      <c r="I27" s="90" t="e">
         <f>Page2!K33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J27" s="91" t="e">
+      <c r="J27" s="90" t="e">
         <f>Page2!O33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K27" s="93">
+      <c r="K27" s="92">
         <f>Page1!G32</f>
         <v>0</v>
       </c>
-      <c r="L27" s="91" t="e">
+      <c r="L27" s="90" t="e">
         <f>Page3!O33</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M27" s="86">
-        <v>0</v>
-      </c>
-      <c r="N27" s="86">
+      <c r="M27" s="85">
+        <v>0</v>
+      </c>
+      <c r="N27" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:14" s="56" customFormat="1">
-      <c r="A28" s="85"/>
+      <c r="A28" s="273"/>
       <c r="B28" s="84">
         <f>Page1!C33</f>
         <v>0</v>
@@ -9786,43 +9786,43 @@
         <f>Page1!D33</f>
         <v>0</v>
       </c>
-      <c r="F28" s="92" t="e">
+      <c r="F28" s="91" t="e">
         <f>Page3!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G28" s="92" t="e">
+      <c r="G28" s="91" t="e">
         <f>Page2!G34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H28" s="91" t="e">
+      <c r="H28" s="90" t="e">
         <f>Page3!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I28" s="91" t="e">
+      <c r="I28" s="90" t="e">
         <f>Page2!K34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J28" s="91" t="e">
+      <c r="J28" s="90" t="e">
         <f>Page2!O34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K28" s="93">
+      <c r="K28" s="92">
         <f>Page1!G33</f>
         <v>0</v>
       </c>
-      <c r="L28" s="91" t="e">
+      <c r="L28" s="90" t="e">
         <f>Page3!O34</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M28" s="86">
-        <v>0</v>
-      </c>
-      <c r="N28" s="86">
+      <c r="M28" s="85">
+        <v>0</v>
+      </c>
+      <c r="N28" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:14" s="56" customFormat="1">
-      <c r="A29" s="85"/>
+      <c r="A29" s="273"/>
       <c r="B29" s="84">
         <f>Page1!C34</f>
         <v>0</v>
@@ -9836,43 +9836,43 @@
         <f>Page1!D34</f>
         <v>0</v>
       </c>
-      <c r="F29" s="92" t="e">
+      <c r="F29" s="91" t="e">
         <f>Page3!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G29" s="92" t="e">
+      <c r="G29" s="91" t="e">
         <f>Page2!G35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H29" s="91" t="e">
+      <c r="H29" s="90" t="e">
         <f>Page3!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I29" s="91" t="e">
+      <c r="I29" s="90" t="e">
         <f>Page2!K35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J29" s="91" t="e">
+      <c r="J29" s="90" t="e">
         <f>Page2!O35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K29" s="93">
+      <c r="K29" s="92">
         <f>Page1!G34</f>
         <v>0</v>
       </c>
-      <c r="L29" s="91" t="e">
+      <c r="L29" s="90" t="e">
         <f>Page3!O35</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M29" s="86">
-        <v>0</v>
-      </c>
-      <c r="N29" s="86">
+      <c r="M29" s="85">
+        <v>0</v>
+      </c>
+      <c r="N29" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:14" s="56" customFormat="1">
-      <c r="A30" s="85"/>
+      <c r="A30" s="273"/>
       <c r="B30" s="84">
         <f>Page1!C35</f>
         <v>0</v>
@@ -9886,43 +9886,43 @@
         <f>Page1!D35</f>
         <v>0</v>
       </c>
-      <c r="F30" s="92" t="e">
+      <c r="F30" s="91" t="e">
         <f>Page3!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G30" s="92" t="e">
+      <c r="G30" s="91" t="e">
         <f>Page2!G36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H30" s="91" t="e">
+      <c r="H30" s="90" t="e">
         <f>Page3!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I30" s="91" t="e">
+      <c r="I30" s="90" t="e">
         <f>Page2!K36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J30" s="91" t="e">
+      <c r="J30" s="90" t="e">
         <f>Page2!O36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K30" s="93">
+      <c r="K30" s="92">
         <f>Page1!G35</f>
         <v>0</v>
       </c>
-      <c r="L30" s="91" t="e">
+      <c r="L30" s="90" t="e">
         <f>Page3!O36</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M30" s="86">
-        <v>0</v>
-      </c>
-      <c r="N30" s="86">
+      <c r="M30" s="85">
+        <v>0</v>
+      </c>
+      <c r="N30" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1">
-      <c r="A31" s="85"/>
+      <c r="A31" s="273"/>
       <c r="B31" s="84">
         <f>Page1!C36</f>
         <v>0</v>
@@ -9936,43 +9936,43 @@
         <f>Page1!D36</f>
         <v>0</v>
       </c>
-      <c r="F31" s="92" t="e">
+      <c r="F31" s="91" t="e">
         <f>Page3!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G31" s="92" t="e">
+      <c r="G31" s="91" t="e">
         <f>Page2!G37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H31" s="91" t="e">
+      <c r="H31" s="90" t="e">
         <f>Page3!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I31" s="91" t="e">
+      <c r="I31" s="90" t="e">
         <f>Page2!K37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J31" s="91" t="e">
+      <c r="J31" s="90" t="e">
         <f>Page2!O37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K31" s="93">
+      <c r="K31" s="92">
         <f>Page1!G36</f>
         <v>0</v>
       </c>
-      <c r="L31" s="91" t="e">
+      <c r="L31" s="90" t="e">
         <f>Page3!O37</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M31" s="86">
-        <v>0</v>
-      </c>
-      <c r="N31" s="86">
+      <c r="M31" s="85">
+        <v>0</v>
+      </c>
+      <c r="N31" s="85">
         <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1">
-      <c r="A32" s="85"/>
+      <c r="A32" s="273"/>
       <c r="B32" s="84">
         <f>Page1!C37</f>
         <v>0</v>
@@ -9986,38 +9986,38 @@
         <f>Page1!D37</f>
         <v>0</v>
       </c>
-      <c r="F32" s="92" t="e">
+      <c r="F32" s="91" t="e">
         <f>Page3!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G32" s="92" t="e">
+      <c r="G32" s="91" t="e">
         <f>Page2!G38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H32" s="91" t="e">
+      <c r="H32" s="90" t="e">
         <f>Page3!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I32" s="91" t="e">
+      <c r="I32" s="90" t="e">
         <f>Page2!K38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="J32" s="91" t="e">
+      <c r="J32" s="90" t="e">
         <f>Page2!O38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K32" s="93">
+      <c r="K32" s="92">
         <f>Page1!G37</f>
         <v>0</v>
       </c>
-      <c r="L32" s="91" t="e">
+      <c r="L32" s="90" t="e">
         <f>Page3!O38</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M32" s="86">
-        <v>0</v>
-      </c>
-      <c r="N32" s="86">
+      <c r="M32" s="85">
+        <v>0</v>
+      </c>
+      <c r="N32" s="85">
         <v>0</v>
       </c>
     </row>
@@ -10308,123 +10308,123 @@
       <c r="J3" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K3" s="87" cm="1">
+      <c r="K3" s="86" cm="1">
         <f t="array" ref="K3">INDEX(Page1!$D$8:$D$37, COLUMN(K4)-10)</f>
         <v>0</v>
       </c>
-      <c r="L3" s="87" cm="1">
+      <c r="L3" s="86" cm="1">
         <f t="array" ref="L3">INDEX(Page1!$D$8:$D$37, COLUMN(L4)-10)</f>
         <v>0</v>
       </c>
-      <c r="M3" s="87" cm="1">
+      <c r="M3" s="86" cm="1">
         <f t="array" ref="M3">INDEX(Page1!$D$8:$D$37, COLUMN(M4)-10)</f>
         <v>0</v>
       </c>
-      <c r="N3" s="87" cm="1">
+      <c r="N3" s="86" cm="1">
         <f t="array" ref="N3">INDEX(Page1!$D$8:$D$37, COLUMN(N4)-10)</f>
         <v>0</v>
       </c>
-      <c r="O3" s="87" cm="1">
+      <c r="O3" s="86" cm="1">
         <f t="array" ref="O3">INDEX(Page1!$D$8:$D$37, COLUMN(O4)-10)</f>
         <v>0</v>
       </c>
-      <c r="P3" s="87" cm="1">
+      <c r="P3" s="86" cm="1">
         <f t="array" ref="P3">INDEX(Page1!$D$8:$D$37, COLUMN(P4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q3" s="87" cm="1">
+      <c r="Q3" s="86" cm="1">
         <f t="array" ref="Q3">INDEX(Page1!$D$8:$D$37, COLUMN(Q4)-10)</f>
         <v>0</v>
       </c>
-      <c r="R3" s="87" cm="1">
+      <c r="R3" s="86" cm="1">
         <f t="array" ref="R3">INDEX(Page1!$D$8:$D$37, COLUMN(R4)-10)</f>
         <v>0</v>
       </c>
-      <c r="S3" s="87" cm="1">
+      <c r="S3" s="86" cm="1">
         <f t="array" ref="S3">INDEX(Page1!$D$8:$D$37, COLUMN(S4)-10)</f>
         <v>0</v>
       </c>
-      <c r="T3" s="87" cm="1">
+      <c r="T3" s="86" cm="1">
         <f t="array" ref="T3">INDEX(Page1!$D$8:$D$37, COLUMN(T4)-10)</f>
         <v>0</v>
       </c>
-      <c r="U3" s="87" cm="1">
+      <c r="U3" s="86" cm="1">
         <f t="array" ref="U3">INDEX(Page1!$D$8:$D$37, COLUMN(U4)-10)</f>
         <v>0</v>
       </c>
-      <c r="V3" s="87" cm="1">
+      <c r="V3" s="86" cm="1">
         <f t="array" ref="V3">INDEX(Page1!$D$8:$D$37, COLUMN(V4)-10)</f>
         <v>0</v>
       </c>
-      <c r="W3" s="87" cm="1">
+      <c r="W3" s="86" cm="1">
         <f t="array" ref="W3">INDEX(Page1!$D$8:$D$37, COLUMN(W4)-10)</f>
         <v>0</v>
       </c>
-      <c r="X3" s="87" cm="1">
+      <c r="X3" s="86" cm="1">
         <f t="array" ref="X3">INDEX(Page1!$D$8:$D$37, COLUMN(X4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y3" s="87" cm="1">
+      <c r="Y3" s="86" cm="1">
         <f t="array" ref="Y3">INDEX(Page1!$D$8:$D$37, COLUMN(Y4)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z3" s="87" cm="1">
+      <c r="Z3" s="86" cm="1">
         <f t="array" ref="Z3">INDEX(Page1!$D$8:$D$37, COLUMN(Z4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA3" s="87" cm="1">
+      <c r="AA3" s="86" cm="1">
         <f t="array" ref="AA3">INDEX(Page1!$D$8:$D$37, COLUMN(AA4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB3" s="87" cm="1">
+      <c r="AB3" s="86" cm="1">
         <f t="array" ref="AB3">INDEX(Page1!$D$8:$D$37, COLUMN(AB4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC3" s="87" cm="1">
+      <c r="AC3" s="86" cm="1">
         <f t="array" ref="AC3">INDEX(Page1!$D$8:$D$37, COLUMN(AC4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD3" s="87" cm="1">
+      <c r="AD3" s="86" cm="1">
         <f t="array" ref="AD3">INDEX(Page1!$D$8:$D$37, COLUMN(AD4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE3" s="87" cm="1">
+      <c r="AE3" s="86" cm="1">
         <f t="array" ref="AE3">INDEX(Page1!$D$8:$D$37, COLUMN(AE4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF3" s="87" cm="1">
+      <c r="AF3" s="86" cm="1">
         <f t="array" ref="AF3">INDEX(Page1!$D$8:$D$37, COLUMN(AF4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG3" s="87" cm="1">
+      <c r="AG3" s="86" cm="1">
         <f t="array" ref="AG3">INDEX(Page1!$D$8:$D$37, COLUMN(AG4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH3" s="87" cm="1">
+      <c r="AH3" s="86" cm="1">
         <f t="array" ref="AH3">INDEX(Page1!$D$8:$D$37, COLUMN(AH4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI3" s="87" cm="1">
+      <c r="AI3" s="86" cm="1">
         <f t="array" ref="AI3">INDEX(Page1!$D$8:$D$37, COLUMN(AI4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ3" s="87" cm="1">
+      <c r="AJ3" s="86" cm="1">
         <f t="array" ref="AJ3">INDEX(Page1!$D$8:$D$37, COLUMN(AJ4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK3" s="87" cm="1">
+      <c r="AK3" s="86" cm="1">
         <f t="array" ref="AK3">INDEX(Page1!$D$8:$D$37, COLUMN(AK4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL3" s="87" cm="1">
+      <c r="AL3" s="86" cm="1">
         <f t="array" ref="AL3">INDEX(Page1!$D$8:$D$37, COLUMN(AL4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM3" s="87" cm="1">
+      <c r="AM3" s="86" cm="1">
         <f t="array" ref="AM3">INDEX(Page1!$D$8:$D$37, COLUMN(AM4)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN3" s="87" cm="1">
+      <c r="AN3" s="86" cm="1">
         <f t="array" ref="AN3">INDEX(Page1!$D$8:$D$37, COLUMN(AN4)-10)</f>
         <v>0</v>
       </c>
@@ -10436,7 +10436,7 @@
         <f t="shared" ref="AP3:AP8" si="1">STDEV(K3:AN3)</f>
         <v>0</v>
       </c>
-      <c r="AQ3" s="96" t="e">
+      <c r="AQ3" s="95" t="e">
         <f>MIN((AO3-H3)/(3*AP3), (I3-AO3)/(3*AP3))</f>
         <v>#DIV/0!</v>
       </c>
@@ -10484,123 +10484,123 @@
       <c r="J4" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K4" s="88" t="e" cm="1">
+      <c r="K4" s="87" t="e" cm="1">
         <f t="array" ref="K4">INDEX(Page2!$K$9:$K$38, COLUMN(K5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L4" s="88" t="e" cm="1">
+      <c r="L4" s="87" t="e" cm="1">
         <f t="array" ref="L4">INDEX(Page2!$K$9:$K$38, COLUMN(L5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M4" s="88" t="e" cm="1">
+      <c r="M4" s="87" t="e" cm="1">
         <f t="array" ref="M4">INDEX(Page2!$K$9:$K$38, COLUMN(M5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N4" s="88" t="e" cm="1">
+      <c r="N4" s="87" t="e" cm="1">
         <f t="array" ref="N4">INDEX(Page2!$K$9:$K$38, COLUMN(N5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O4" s="88" t="e" cm="1">
+      <c r="O4" s="87" t="e" cm="1">
         <f t="array" ref="O4">INDEX(Page2!$K$9:$K$38, COLUMN(O5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P4" s="88" t="e" cm="1">
+      <c r="P4" s="87" t="e" cm="1">
         <f t="array" ref="P4">INDEX(Page2!$K$9:$K$38, COLUMN(P5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q4" s="88" t="e" cm="1">
+      <c r="Q4" s="87" t="e" cm="1">
         <f t="array" ref="Q4">INDEX(Page2!$K$9:$K$38, COLUMN(Q5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R4" s="88" t="e" cm="1">
+      <c r="R4" s="87" t="e" cm="1">
         <f t="array" ref="R4">INDEX(Page2!$K$9:$K$38, COLUMN(R5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S4" s="88" t="e" cm="1">
+      <c r="S4" s="87" t="e" cm="1">
         <f t="array" ref="S4">INDEX(Page2!$K$9:$K$38, COLUMN(S5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T4" s="88" t="e" cm="1">
+      <c r="T4" s="87" t="e" cm="1">
         <f t="array" ref="T4">INDEX(Page2!$K$9:$K$38, COLUMN(T5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U4" s="88" t="e" cm="1">
+      <c r="U4" s="87" t="e" cm="1">
         <f t="array" ref="U4">INDEX(Page2!$K$9:$K$38, COLUMN(U5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V4" s="88" t="e" cm="1">
+      <c r="V4" s="87" t="e" cm="1">
         <f t="array" ref="V4">INDEX(Page2!$K$9:$K$38, COLUMN(V5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W4" s="88" t="e" cm="1">
+      <c r="W4" s="87" t="e" cm="1">
         <f t="array" ref="W4">INDEX(Page2!$K$9:$K$38, COLUMN(W5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X4" s="88" t="e" cm="1">
+      <c r="X4" s="87" t="e" cm="1">
         <f t="array" ref="X4">INDEX(Page2!$K$9:$K$38, COLUMN(X5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y4" s="88" t="e" cm="1">
+      <c r="Y4" s="87" t="e" cm="1">
         <f t="array" ref="Y4">INDEX(Page2!$K$9:$K$38, COLUMN(Y5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z4" s="88" t="e" cm="1">
+      <c r="Z4" s="87" t="e" cm="1">
         <f t="array" ref="Z4">INDEX(Page2!$K$9:$K$38, COLUMN(Z5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA4" s="88" t="e" cm="1">
+      <c r="AA4" s="87" t="e" cm="1">
         <f t="array" ref="AA4">INDEX(Page2!$K$9:$K$38, COLUMN(AA5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB4" s="88" t="e" cm="1">
+      <c r="AB4" s="87" t="e" cm="1">
         <f t="array" ref="AB4">INDEX(Page2!$K$9:$K$38, COLUMN(AB5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC4" s="88" t="e" cm="1">
+      <c r="AC4" s="87" t="e" cm="1">
         <f t="array" ref="AC4">INDEX(Page2!$K$9:$K$38, COLUMN(AC5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD4" s="88" t="e" cm="1">
+      <c r="AD4" s="87" t="e" cm="1">
         <f t="array" ref="AD4">INDEX(Page2!$K$9:$K$38, COLUMN(AD5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE4" s="88" t="e" cm="1">
+      <c r="AE4" s="87" t="e" cm="1">
         <f t="array" ref="AE4">INDEX(Page2!$K$9:$K$38, COLUMN(AE5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF4" s="88" t="e" cm="1">
+      <c r="AF4" s="87" t="e" cm="1">
         <f t="array" ref="AF4">INDEX(Page2!$K$9:$K$38, COLUMN(AF5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG4" s="88" t="e" cm="1">
+      <c r="AG4" s="87" t="e" cm="1">
         <f t="array" ref="AG4">INDEX(Page2!$K$9:$K$38, COLUMN(AG5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH4" s="88" t="e" cm="1">
+      <c r="AH4" s="87" t="e" cm="1">
         <f t="array" ref="AH4">INDEX(Page2!$K$9:$K$38, COLUMN(AH5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI4" s="88" t="e" cm="1">
+      <c r="AI4" s="87" t="e" cm="1">
         <f t="array" ref="AI4">INDEX(Page2!$K$9:$K$38, COLUMN(AI5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ4" s="88" t="e" cm="1">
+      <c r="AJ4" s="87" t="e" cm="1">
         <f t="array" ref="AJ4">INDEX(Page2!$K$9:$K$38, COLUMN(AJ5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK4" s="88" t="e" cm="1">
+      <c r="AK4" s="87" t="e" cm="1">
         <f t="array" ref="AK4">INDEX(Page2!$K$9:$K$38, COLUMN(AK5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL4" s="88" t="e" cm="1">
+      <c r="AL4" s="87" t="e" cm="1">
         <f t="array" ref="AL4">INDEX(Page2!$K$9:$K$38, COLUMN(AL5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM4" s="88" t="e" cm="1">
+      <c r="AM4" s="87" t="e" cm="1">
         <f t="array" ref="AM4">INDEX(Page2!$K$9:$K$38, COLUMN(AM5)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN4" s="88" t="e" cm="1">
+      <c r="AN4" s="87" t="e" cm="1">
         <f t="array" ref="AN4">INDEX(Page2!$K$9:$K$38, COLUMN(AN5)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10612,15 +10612,15 @@
         <f>STDEV(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ4" s="96" t="e">
+      <c r="AQ4" s="95" t="e">
         <f>(AO4-H4)/(3*AP4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR4" s="95" t="e">
+      <c r="AR4" s="94" t="e">
         <f>MIN(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS4" s="95" t="e">
+      <c r="AS4" s="94" t="e">
         <f>MAX(K4:AN4)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10660,123 +10660,123 @@
       <c r="J5" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K5" s="88" t="e" cm="1">
+      <c r="K5" s="87" t="e" cm="1">
         <f t="array" ref="K5">INDEX(Page3!$K$9:$K$38, COLUMN(K6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L5" s="88" t="e" cm="1">
+      <c r="L5" s="87" t="e" cm="1">
         <f t="array" ref="L5">INDEX(Page3!$K$9:$K$38, COLUMN(L6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M5" s="88" t="e" cm="1">
+      <c r="M5" s="87" t="e" cm="1">
         <f t="array" ref="M5">INDEX(Page3!$K$9:$K$38, COLUMN(M6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N5" s="88" t="e" cm="1">
+      <c r="N5" s="87" t="e" cm="1">
         <f t="array" ref="N5">INDEX(Page3!$K$9:$K$38, COLUMN(N6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O5" s="88" t="e" cm="1">
+      <c r="O5" s="87" t="e" cm="1">
         <f t="array" ref="O5">INDEX(Page3!$K$9:$K$38, COLUMN(O6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P5" s="88" t="e" cm="1">
+      <c r="P5" s="87" t="e" cm="1">
         <f t="array" ref="P5">INDEX(Page3!$K$9:$K$38, COLUMN(P6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q5" s="88" t="e" cm="1">
+      <c r="Q5" s="87" t="e" cm="1">
         <f t="array" ref="Q5">INDEX(Page3!$K$9:$K$38, COLUMN(Q6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R5" s="88" t="e" cm="1">
+      <c r="R5" s="87" t="e" cm="1">
         <f t="array" ref="R5">INDEX(Page3!$K$9:$K$38, COLUMN(R6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S5" s="88" t="e" cm="1">
+      <c r="S5" s="87" t="e" cm="1">
         <f t="array" ref="S5">INDEX(Page3!$K$9:$K$38, COLUMN(S6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T5" s="88" t="e" cm="1">
+      <c r="T5" s="87" t="e" cm="1">
         <f t="array" ref="T5">INDEX(Page3!$K$9:$K$38, COLUMN(T6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U5" s="88" t="e" cm="1">
+      <c r="U5" s="87" t="e" cm="1">
         <f t="array" ref="U5">INDEX(Page3!$K$9:$K$38, COLUMN(U6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V5" s="88" t="e" cm="1">
+      <c r="V5" s="87" t="e" cm="1">
         <f t="array" ref="V5">INDEX(Page3!$K$9:$K$38, COLUMN(V6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W5" s="88" t="e" cm="1">
+      <c r="W5" s="87" t="e" cm="1">
         <f t="array" ref="W5">INDEX(Page3!$K$9:$K$38, COLUMN(W6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X5" s="88" t="e" cm="1">
+      <c r="X5" s="87" t="e" cm="1">
         <f t="array" ref="X5">INDEX(Page3!$K$9:$K$38, COLUMN(X6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y5" s="88" t="e" cm="1">
+      <c r="Y5" s="87" t="e" cm="1">
         <f t="array" ref="Y5">INDEX(Page3!$K$9:$K$38, COLUMN(Y6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z5" s="88" t="e" cm="1">
+      <c r="Z5" s="87" t="e" cm="1">
         <f t="array" ref="Z5">INDEX(Page3!$K$9:$K$38, COLUMN(Z6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA5" s="88" t="e" cm="1">
+      <c r="AA5" s="87" t="e" cm="1">
         <f t="array" ref="AA5">INDEX(Page3!$K$9:$K$38, COLUMN(AA6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB5" s="88" t="e" cm="1">
+      <c r="AB5" s="87" t="e" cm="1">
         <f t="array" ref="AB5">INDEX(Page3!$K$9:$K$38, COLUMN(AB6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC5" s="88" t="e" cm="1">
+      <c r="AC5" s="87" t="e" cm="1">
         <f t="array" ref="AC5">INDEX(Page3!$K$9:$K$38, COLUMN(AC6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD5" s="88" t="e" cm="1">
+      <c r="AD5" s="87" t="e" cm="1">
         <f t="array" ref="AD5">INDEX(Page3!$K$9:$K$38, COLUMN(AD6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE5" s="88" t="e" cm="1">
+      <c r="AE5" s="87" t="e" cm="1">
         <f t="array" ref="AE5">INDEX(Page3!$K$9:$K$38, COLUMN(AE6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF5" s="88" t="e" cm="1">
+      <c r="AF5" s="87" t="e" cm="1">
         <f t="array" ref="AF5">INDEX(Page3!$K$9:$K$38, COLUMN(AF6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG5" s="88" t="e" cm="1">
+      <c r="AG5" s="87" t="e" cm="1">
         <f t="array" ref="AG5">INDEX(Page3!$K$9:$K$38, COLUMN(AG6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH5" s="88" t="e" cm="1">
+      <c r="AH5" s="87" t="e" cm="1">
         <f t="array" ref="AH5">INDEX(Page3!$K$9:$K$38, COLUMN(AH6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI5" s="88" t="e" cm="1">
+      <c r="AI5" s="87" t="e" cm="1">
         <f t="array" ref="AI5">INDEX(Page3!$K$9:$K$38, COLUMN(AI6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ5" s="88" t="e" cm="1">
+      <c r="AJ5" s="87" t="e" cm="1">
         <f t="array" ref="AJ5">INDEX(Page3!$K$9:$K$38, COLUMN(AJ6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK5" s="88" t="e" cm="1">
+      <c r="AK5" s="87" t="e" cm="1">
         <f t="array" ref="AK5">INDEX(Page3!$K$9:$K$38, COLUMN(AK6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL5" s="88" t="e" cm="1">
+      <c r="AL5" s="87" t="e" cm="1">
         <f t="array" ref="AL5">INDEX(Page3!$K$9:$K$38, COLUMN(AL6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM5" s="88" t="e" cm="1">
+      <c r="AM5" s="87" t="e" cm="1">
         <f t="array" ref="AM5">INDEX(Page3!$K$9:$K$38, COLUMN(AM6)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN5" s="88" t="e" cm="1">
+      <c r="AN5" s="87" t="e" cm="1">
         <f t="array" ref="AN5">INDEX(Page3!$K$9:$K$38, COLUMN(AN6)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10788,15 +10788,15 @@
         <f>STDEV(K5:AN5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ5" s="96" t="e">
+      <c r="AQ5" s="95" t="e">
         <f>(AO5-H5)/(3*AP5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR5" s="95" t="e">
+      <c r="AR5" s="94" t="e">
         <f>MIN(K5:AN5)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS5" s="95" t="e">
+      <c r="AS5" s="94" t="e">
         <f>MAX(K5:AN5)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10836,123 +10836,123 @@
       <c r="J6" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K6" s="88" t="e" cm="1">
+      <c r="K6" s="87" t="e" cm="1">
         <f t="array" ref="K6">INDEX(Page2!$O$9:$O$38, COLUMN(K7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L6" s="88" t="e" cm="1">
+      <c r="L6" s="87" t="e" cm="1">
         <f t="array" ref="L6">INDEX(Page2!$O$9:$O$38, COLUMN(L7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M6" s="88" t="e" cm="1">
+      <c r="M6" s="87" t="e" cm="1">
         <f t="array" ref="M6">INDEX(Page2!$O$9:$O$38, COLUMN(M7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N6" s="88" t="e" cm="1">
+      <c r="N6" s="87" t="e" cm="1">
         <f t="array" ref="N6">INDEX(Page2!$O$9:$O$38, COLUMN(N7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O6" s="88" t="e" cm="1">
+      <c r="O6" s="87" t="e" cm="1">
         <f t="array" ref="O6">INDEX(Page2!$O$9:$O$38, COLUMN(O7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P6" s="88" t="e" cm="1">
+      <c r="P6" s="87" t="e" cm="1">
         <f t="array" ref="P6">INDEX(Page2!$O$9:$O$38, COLUMN(P7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q6" s="88" t="e" cm="1">
+      <c r="Q6" s="87" t="e" cm="1">
         <f t="array" ref="Q6">INDEX(Page2!$O$9:$O$38, COLUMN(Q7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R6" s="88" t="e" cm="1">
+      <c r="R6" s="87" t="e" cm="1">
         <f t="array" ref="R6">INDEX(Page2!$O$9:$O$38, COLUMN(R7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S6" s="88" t="e" cm="1">
+      <c r="S6" s="87" t="e" cm="1">
         <f t="array" ref="S6">INDEX(Page2!$O$9:$O$38, COLUMN(S7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T6" s="88" t="e" cm="1">
+      <c r="T6" s="87" t="e" cm="1">
         <f t="array" ref="T6">INDEX(Page2!$O$9:$O$38, COLUMN(T7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U6" s="88" t="e" cm="1">
+      <c r="U6" s="87" t="e" cm="1">
         <f t="array" ref="U6">INDEX(Page2!$O$9:$O$38, COLUMN(U7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V6" s="88" t="e" cm="1">
+      <c r="V6" s="87" t="e" cm="1">
         <f t="array" ref="V6">INDEX(Page2!$O$9:$O$38, COLUMN(V7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W6" s="88" t="e" cm="1">
+      <c r="W6" s="87" t="e" cm="1">
         <f t="array" ref="W6">INDEX(Page2!$O$9:$O$38, COLUMN(W7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X6" s="88" t="e" cm="1">
+      <c r="X6" s="87" t="e" cm="1">
         <f t="array" ref="X6">INDEX(Page2!$O$9:$O$38, COLUMN(X7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y6" s="88" t="e" cm="1">
+      <c r="Y6" s="87" t="e" cm="1">
         <f t="array" ref="Y6">INDEX(Page2!$O$9:$O$38, COLUMN(Y7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z6" s="88" t="e" cm="1">
+      <c r="Z6" s="87" t="e" cm="1">
         <f t="array" ref="Z6">INDEX(Page2!$O$9:$O$38, COLUMN(Z7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA6" s="88" t="e" cm="1">
+      <c r="AA6" s="87" t="e" cm="1">
         <f t="array" ref="AA6">INDEX(Page2!$O$9:$O$38, COLUMN(AA7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB6" s="88" t="e" cm="1">
+      <c r="AB6" s="87" t="e" cm="1">
         <f t="array" ref="AB6">INDEX(Page2!$O$9:$O$38, COLUMN(AB7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC6" s="88" t="e" cm="1">
+      <c r="AC6" s="87" t="e" cm="1">
         <f t="array" ref="AC6">INDEX(Page2!$O$9:$O$38, COLUMN(AC7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD6" s="88" t="e" cm="1">
+      <c r="AD6" s="87" t="e" cm="1">
         <f t="array" ref="AD6">INDEX(Page2!$O$9:$O$38, COLUMN(AD7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE6" s="88" t="e" cm="1">
+      <c r="AE6" s="87" t="e" cm="1">
         <f t="array" ref="AE6">INDEX(Page2!$O$9:$O$38, COLUMN(AE7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF6" s="88" t="e" cm="1">
+      <c r="AF6" s="87" t="e" cm="1">
         <f t="array" ref="AF6">INDEX(Page2!$O$9:$O$38, COLUMN(AF7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG6" s="88" t="e" cm="1">
+      <c r="AG6" s="87" t="e" cm="1">
         <f t="array" ref="AG6">INDEX(Page2!$O$9:$O$38, COLUMN(AG7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH6" s="88" t="e" cm="1">
+      <c r="AH6" s="87" t="e" cm="1">
         <f t="array" ref="AH6">INDEX(Page2!$O$9:$O$38, COLUMN(AH7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI6" s="88" t="e" cm="1">
+      <c r="AI6" s="87" t="e" cm="1">
         <f t="array" ref="AI6">INDEX(Page2!$O$9:$O$38, COLUMN(AI7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ6" s="88" t="e" cm="1">
+      <c r="AJ6" s="87" t="e" cm="1">
         <f t="array" ref="AJ6">INDEX(Page2!$O$9:$O$38, COLUMN(AJ7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK6" s="88" t="e" cm="1">
+      <c r="AK6" s="87" t="e" cm="1">
         <f t="array" ref="AK6">INDEX(Page2!$O$9:$O$38, COLUMN(AK7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL6" s="88" t="e" cm="1">
+      <c r="AL6" s="87" t="e" cm="1">
         <f t="array" ref="AL6">INDEX(Page2!$O$9:$O$38, COLUMN(AL7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM6" s="88" t="e" cm="1">
+      <c r="AM6" s="87" t="e" cm="1">
         <f t="array" ref="AM6">INDEX(Page2!$O$9:$O$38, COLUMN(AM7)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN6" s="88" t="e" cm="1">
+      <c r="AN6" s="87" t="e" cm="1">
         <f t="array" ref="AN6">INDEX(Page2!$O$9:$O$38, COLUMN(AN7)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -10964,15 +10964,15 @@
         <f>STDEV(K6:AN6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ6" s="96" t="e">
+      <c r="AQ6" s="95" t="e">
         <f>MIN((AO6-H6)/(3*AP6), (I6-AO6)/(3*AP6))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR6" s="95" t="e">
+      <c r="AR6" s="94" t="e">
         <f>MIN(K6:AN6)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS6" s="95" t="e">
+      <c r="AS6" s="94" t="e">
         <f>MAX(K6:AN6)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11012,127 +11012,127 @@
       <c r="J7" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K7" s="89" t="e" cm="1">
+      <c r="K7" s="88" t="e" cm="1">
         <f t="array" ref="K7">INDEX(Page2!$G$9:$G$38, COLUMN(K8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L7" s="89" t="e" cm="1">
+      <c r="L7" s="88" t="e" cm="1">
         <f t="array" ref="L7">INDEX(Page2!$G$9:$G$38, COLUMN(L8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M7" s="89" t="e" cm="1">
+      <c r="M7" s="88" t="e" cm="1">
         <f t="array" ref="M7">INDEX(Page2!$G$9:$G$38, COLUMN(M8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N7" s="89" t="e" cm="1">
+      <c r="N7" s="88" t="e" cm="1">
         <f t="array" ref="N7">INDEX(Page2!$G$9:$G$38, COLUMN(N8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O7" s="89" t="e" cm="1">
+      <c r="O7" s="88" t="e" cm="1">
         <f t="array" ref="O7">INDEX(Page2!$G$9:$G$38, COLUMN(O8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P7" s="89" t="e" cm="1">
+      <c r="P7" s="88" t="e" cm="1">
         <f t="array" ref="P7">INDEX(Page2!$G$9:$G$38, COLUMN(P8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q7" s="89" t="e" cm="1">
+      <c r="Q7" s="88" t="e" cm="1">
         <f t="array" ref="Q7">INDEX(Page2!$G$9:$G$38, COLUMN(Q8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R7" s="89" t="e" cm="1">
+      <c r="R7" s="88" t="e" cm="1">
         <f t="array" ref="R7">INDEX(Page2!$G$9:$G$38, COLUMN(R8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S7" s="89" t="e" cm="1">
+      <c r="S7" s="88" t="e" cm="1">
         <f t="array" ref="S7">INDEX(Page2!$G$9:$G$38, COLUMN(S8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T7" s="89" t="e" cm="1">
+      <c r="T7" s="88" t="e" cm="1">
         <f t="array" ref="T7">INDEX(Page2!$G$9:$G$38, COLUMN(T8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U7" s="89" t="e" cm="1">
+      <c r="U7" s="88" t="e" cm="1">
         <f t="array" ref="U7">INDEX(Page2!$G$9:$G$38, COLUMN(U8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V7" s="89" t="e" cm="1">
+      <c r="V7" s="88" t="e" cm="1">
         <f t="array" ref="V7">INDEX(Page2!$G$9:$G$38, COLUMN(V8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W7" s="89" t="e" cm="1">
+      <c r="W7" s="88" t="e" cm="1">
         <f t="array" ref="W7">INDEX(Page2!$G$9:$G$38, COLUMN(W8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X7" s="89" t="e" cm="1">
+      <c r="X7" s="88" t="e" cm="1">
         <f t="array" ref="X7">INDEX(Page2!$G$9:$G$38, COLUMN(X8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y7" s="89" t="e" cm="1">
+      <c r="Y7" s="88" t="e" cm="1">
         <f t="array" ref="Y7">INDEX(Page2!$G$9:$G$38, COLUMN(Y8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z7" s="89" t="e" cm="1">
+      <c r="Z7" s="88" t="e" cm="1">
         <f t="array" ref="Z7">INDEX(Page2!$G$9:$G$38, COLUMN(Z8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA7" s="89" t="e" cm="1">
+      <c r="AA7" s="88" t="e" cm="1">
         <f t="array" ref="AA7">INDEX(Page2!$G$9:$G$38, COLUMN(AA8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB7" s="89" t="e" cm="1">
+      <c r="AB7" s="88" t="e" cm="1">
         <f t="array" ref="AB7">INDEX(Page2!$G$9:$G$38, COLUMN(AB8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC7" s="89" t="e" cm="1">
+      <c r="AC7" s="88" t="e" cm="1">
         <f t="array" ref="AC7">INDEX(Page2!$G$9:$G$38, COLUMN(AC8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD7" s="89" t="e" cm="1">
+      <c r="AD7" s="88" t="e" cm="1">
         <f t="array" ref="AD7">INDEX(Page2!$G$9:$G$38, COLUMN(AD8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE7" s="89" t="e" cm="1">
+      <c r="AE7" s="88" t="e" cm="1">
         <f t="array" ref="AE7">INDEX(Page2!$G$9:$G$38, COLUMN(AE8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF7" s="89" t="e" cm="1">
+      <c r="AF7" s="88" t="e" cm="1">
         <f t="array" ref="AF7">INDEX(Page2!$G$9:$G$38, COLUMN(AF8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG7" s="89" t="e" cm="1">
+      <c r="AG7" s="88" t="e" cm="1">
         <f t="array" ref="AG7">INDEX(Page2!$G$9:$G$38, COLUMN(AG8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH7" s="89" t="e" cm="1">
+      <c r="AH7" s="88" t="e" cm="1">
         <f t="array" ref="AH7">INDEX(Page2!$G$9:$G$38, COLUMN(AH8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI7" s="89" t="e" cm="1">
+      <c r="AI7" s="88" t="e" cm="1">
         <f t="array" ref="AI7">INDEX(Page2!$G$9:$G$38, COLUMN(AI8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ7" s="89" t="e" cm="1">
+      <c r="AJ7" s="88" t="e" cm="1">
         <f t="array" ref="AJ7">INDEX(Page2!$G$9:$G$38, COLUMN(AJ8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK7" s="89" t="e" cm="1">
+      <c r="AK7" s="88" t="e" cm="1">
         <f t="array" ref="AK7">INDEX(Page2!$G$9:$G$38, COLUMN(AK8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL7" s="89" t="e" cm="1">
+      <c r="AL7" s="88" t="e" cm="1">
         <f t="array" ref="AL7">INDEX(Page2!$G$9:$G$38, COLUMN(AL8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM7" s="89" t="e" cm="1">
+      <c r="AM7" s="88" t="e" cm="1">
         <f t="array" ref="AM7">INDEX(Page2!$G$9:$G$38, COLUMN(AM8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN7" s="89" t="e" cm="1">
+      <c r="AN7" s="88" t="e" cm="1">
         <f t="array" ref="AN7">INDEX(Page2!$G$9:$G$38, COLUMN(AN8)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO7" s="94" t="e">
+      <c r="AO7" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11140,7 +11140,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ7" s="96" t="e">
+      <c r="AQ7" s="95" t="e">
         <f>(AO7-H7)/(3*AP7)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11188,127 +11188,127 @@
       <c r="J8" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K8" s="89" t="e" cm="1">
+      <c r="K8" s="88" t="e" cm="1">
         <f t="array" ref="K8">INDEX(Page3!$G$9:$G$38, COLUMN(K9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L8" s="89" t="e" cm="1">
+      <c r="L8" s="88" t="e" cm="1">
         <f t="array" ref="L8">INDEX(Page3!$G$9:$G$38, COLUMN(L9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M8" s="89" t="e" cm="1">
+      <c r="M8" s="88" t="e" cm="1">
         <f t="array" ref="M8">INDEX(Page3!$G$9:$G$38, COLUMN(M9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N8" s="89" t="e" cm="1">
+      <c r="N8" s="88" t="e" cm="1">
         <f t="array" ref="N8">INDEX(Page3!$G$9:$G$38, COLUMN(N9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O8" s="89" t="e" cm="1">
+      <c r="O8" s="88" t="e" cm="1">
         <f t="array" ref="O8">INDEX(Page3!$G$9:$G$38, COLUMN(O9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P8" s="89" t="e" cm="1">
+      <c r="P8" s="88" t="e" cm="1">
         <f t="array" ref="P8">INDEX(Page3!$G$9:$G$38, COLUMN(P9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q8" s="89" t="e" cm="1">
+      <c r="Q8" s="88" t="e" cm="1">
         <f t="array" ref="Q8">INDEX(Page3!$G$9:$G$38, COLUMN(Q9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R8" s="89" t="e" cm="1">
+      <c r="R8" s="88" t="e" cm="1">
         <f t="array" ref="R8">INDEX(Page3!$G$9:$G$38, COLUMN(R9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S8" s="89" t="e" cm="1">
+      <c r="S8" s="88" t="e" cm="1">
         <f t="array" ref="S8">INDEX(Page3!$G$9:$G$38, COLUMN(S9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T8" s="89" t="e" cm="1">
+      <c r="T8" s="88" t="e" cm="1">
         <f t="array" ref="T8">INDEX(Page3!$G$9:$G$38, COLUMN(T9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U8" s="89" t="e" cm="1">
+      <c r="U8" s="88" t="e" cm="1">
         <f t="array" ref="U8">INDEX(Page3!$G$9:$G$38, COLUMN(U9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V8" s="89" t="e" cm="1">
+      <c r="V8" s="88" t="e" cm="1">
         <f t="array" ref="V8">INDEX(Page3!$G$9:$G$38, COLUMN(V9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W8" s="89" t="e" cm="1">
+      <c r="W8" s="88" t="e" cm="1">
         <f t="array" ref="W8">INDEX(Page3!$G$9:$G$38, COLUMN(W9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X8" s="89" t="e" cm="1">
+      <c r="X8" s="88" t="e" cm="1">
         <f t="array" ref="X8">INDEX(Page3!$G$9:$G$38, COLUMN(X9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y8" s="89" t="e" cm="1">
+      <c r="Y8" s="88" t="e" cm="1">
         <f t="array" ref="Y8">INDEX(Page3!$G$9:$G$38, COLUMN(Y9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z8" s="89" t="e" cm="1">
+      <c r="Z8" s="88" t="e" cm="1">
         <f t="array" ref="Z8">INDEX(Page3!$G$9:$G$38, COLUMN(Z9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA8" s="89" t="e" cm="1">
+      <c r="AA8" s="88" t="e" cm="1">
         <f t="array" ref="AA8">INDEX(Page3!$G$9:$G$38, COLUMN(AA9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB8" s="89" t="e" cm="1">
+      <c r="AB8" s="88" t="e" cm="1">
         <f t="array" ref="AB8">INDEX(Page3!$G$9:$G$38, COLUMN(AB9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC8" s="89" t="e" cm="1">
+      <c r="AC8" s="88" t="e" cm="1">
         <f t="array" ref="AC8">INDEX(Page3!$G$9:$G$38, COLUMN(AC9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD8" s="89" t="e" cm="1">
+      <c r="AD8" s="88" t="e" cm="1">
         <f t="array" ref="AD8">INDEX(Page3!$G$9:$G$38, COLUMN(AD9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE8" s="89" t="e" cm="1">
+      <c r="AE8" s="88" t="e" cm="1">
         <f t="array" ref="AE8">INDEX(Page3!$G$9:$G$38, COLUMN(AE9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF8" s="89" t="e" cm="1">
+      <c r="AF8" s="88" t="e" cm="1">
         <f t="array" ref="AF8">INDEX(Page3!$G$9:$G$38, COLUMN(AF9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG8" s="89" t="e" cm="1">
+      <c r="AG8" s="88" t="e" cm="1">
         <f t="array" ref="AG8">INDEX(Page3!$G$9:$G$38, COLUMN(AG9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH8" s="89" t="e" cm="1">
+      <c r="AH8" s="88" t="e" cm="1">
         <f t="array" ref="AH8">INDEX(Page3!$G$9:$G$38, COLUMN(AH9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI8" s="89" t="e" cm="1">
+      <c r="AI8" s="88" t="e" cm="1">
         <f t="array" ref="AI8">INDEX(Page3!$G$9:$G$38, COLUMN(AI9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ8" s="89" t="e" cm="1">
+      <c r="AJ8" s="88" t="e" cm="1">
         <f t="array" ref="AJ8">INDEX(Page3!$G$9:$G$38, COLUMN(AJ9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK8" s="89" t="e" cm="1">
+      <c r="AK8" s="88" t="e" cm="1">
         <f t="array" ref="AK8">INDEX(Page3!$G$9:$G$38, COLUMN(AK9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL8" s="89" t="e" cm="1">
+      <c r="AL8" s="88" t="e" cm="1">
         <f t="array" ref="AL8">INDEX(Page3!$G$9:$G$38, COLUMN(AL9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM8" s="89" t="e" cm="1">
+      <c r="AM8" s="88" t="e" cm="1">
         <f t="array" ref="AM8">INDEX(Page3!$G$9:$G$38, COLUMN(AM9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN8" s="89" t="e" cm="1">
+      <c r="AN8" s="88" t="e" cm="1">
         <f t="array" ref="AN8">INDEX(Page3!$G$9:$G$38, COLUMN(AN9)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AO8" s="94" t="e">
+      <c r="AO8" s="93" t="e">
         <f t="shared" si="0"/>
         <v>#DIV/0!</v>
       </c>
@@ -11316,7 +11316,7 @@
         <f t="shared" si="1"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ8" s="96" t="e">
+      <c r="AQ8" s="95" t="e">
         <f>(AO8-H8)/(3*AP8)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11364,123 +11364,123 @@
       <c r="J9" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K9" s="90" cm="1">
+      <c r="K9" s="89" cm="1">
         <f t="array" ref="K9">INDEX(Page1!$G$8:$G$37, COLUMN(K10)-10)</f>
         <v>0</v>
       </c>
-      <c r="L9" s="90" cm="1">
+      <c r="L9" s="89" cm="1">
         <f t="array" ref="L9">INDEX(Page1!$G$8:$G$37, COLUMN(L10)-10)</f>
         <v>0</v>
       </c>
-      <c r="M9" s="90" cm="1">
+      <c r="M9" s="89" cm="1">
         <f t="array" ref="M9">INDEX(Page1!$G$8:$G$37, COLUMN(M10)-10)</f>
         <v>0</v>
       </c>
-      <c r="N9" s="90" cm="1">
+      <c r="N9" s="89" cm="1">
         <f t="array" ref="N9">INDEX(Page1!$G$8:$G$37, COLUMN(N10)-10)</f>
         <v>0</v>
       </c>
-      <c r="O9" s="90" cm="1">
+      <c r="O9" s="89" cm="1">
         <f t="array" ref="O9">INDEX(Page1!$G$8:$G$37, COLUMN(O10)-10)</f>
         <v>0</v>
       </c>
-      <c r="P9" s="90" cm="1">
+      <c r="P9" s="89" cm="1">
         <f t="array" ref="P9">INDEX(Page1!$G$8:$G$37, COLUMN(P10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q9" s="90" cm="1">
+      <c r="Q9" s="89" cm="1">
         <f t="array" ref="Q9">INDEX(Page1!$G$8:$G$37, COLUMN(Q10)-10)</f>
         <v>0</v>
       </c>
-      <c r="R9" s="90" cm="1">
+      <c r="R9" s="89" cm="1">
         <f t="array" ref="R9">INDEX(Page1!$G$8:$G$37, COLUMN(R10)-10)</f>
         <v>0</v>
       </c>
-      <c r="S9" s="90" cm="1">
+      <c r="S9" s="89" cm="1">
         <f t="array" ref="S9">INDEX(Page1!$G$8:$G$37, COLUMN(S10)-10)</f>
         <v>0</v>
       </c>
-      <c r="T9" s="90" cm="1">
+      <c r="T9" s="89" cm="1">
         <f t="array" ref="T9">INDEX(Page1!$G$8:$G$37, COLUMN(T10)-10)</f>
         <v>0</v>
       </c>
-      <c r="U9" s="90" cm="1">
+      <c r="U9" s="89" cm="1">
         <f t="array" ref="U9">INDEX(Page1!$G$8:$G$37, COLUMN(U10)-10)</f>
         <v>0</v>
       </c>
-      <c r="V9" s="90" cm="1">
+      <c r="V9" s="89" cm="1">
         <f t="array" ref="V9">INDEX(Page1!$G$8:$G$37, COLUMN(V10)-10)</f>
         <v>0</v>
       </c>
-      <c r="W9" s="90" cm="1">
+      <c r="W9" s="89" cm="1">
         <f t="array" ref="W9">INDEX(Page1!$G$8:$G$37, COLUMN(W10)-10)</f>
         <v>0</v>
       </c>
-      <c r="X9" s="90" cm="1">
+      <c r="X9" s="89" cm="1">
         <f t="array" ref="X9">INDEX(Page1!$G$8:$G$37, COLUMN(X10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y9" s="90" cm="1">
+      <c r="Y9" s="89" cm="1">
         <f t="array" ref="Y9">INDEX(Page1!$G$8:$G$37, COLUMN(Y10)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z9" s="90" cm="1">
+      <c r="Z9" s="89" cm="1">
         <f t="array" ref="Z9">INDEX(Page1!$G$8:$G$37, COLUMN(Z10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA9" s="90" cm="1">
+      <c r="AA9" s="89" cm="1">
         <f t="array" ref="AA9">INDEX(Page1!$G$8:$G$37, COLUMN(AA10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB9" s="90" cm="1">
+      <c r="AB9" s="89" cm="1">
         <f t="array" ref="AB9">INDEX(Page1!$G$8:$G$37, COLUMN(AB10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC9" s="90" cm="1">
+      <c r="AC9" s="89" cm="1">
         <f t="array" ref="AC9">INDEX(Page1!$G$8:$G$37, COLUMN(AC10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD9" s="90" cm="1">
+      <c r="AD9" s="89" cm="1">
         <f t="array" ref="AD9">INDEX(Page1!$G$8:$G$37, COLUMN(AD10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE9" s="90" cm="1">
+      <c r="AE9" s="89" cm="1">
         <f t="array" ref="AE9">INDEX(Page1!$G$8:$G$37, COLUMN(AE10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF9" s="90" cm="1">
+      <c r="AF9" s="89" cm="1">
         <f t="array" ref="AF9">INDEX(Page1!$G$8:$G$37, COLUMN(AF10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG9" s="90" cm="1">
+      <c r="AG9" s="89" cm="1">
         <f t="array" ref="AG9">INDEX(Page1!$G$8:$G$37, COLUMN(AG10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH9" s="90" cm="1">
+      <c r="AH9" s="89" cm="1">
         <f t="array" ref="AH9">INDEX(Page1!$G$8:$G$37, COLUMN(AH10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI9" s="90" cm="1">
+      <c r="AI9" s="89" cm="1">
         <f t="array" ref="AI9">INDEX(Page1!$G$8:$G$37, COLUMN(AI10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ9" s="90" cm="1">
+      <c r="AJ9" s="89" cm="1">
         <f t="array" ref="AJ9">INDEX(Page1!$G$8:$G$37, COLUMN(AJ10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK9" s="90" cm="1">
+      <c r="AK9" s="89" cm="1">
         <f t="array" ref="AK9">INDEX(Page1!$G$8:$G$37, COLUMN(AK10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL9" s="90" cm="1">
+      <c r="AL9" s="89" cm="1">
         <f t="array" ref="AL9">INDEX(Page1!$G$8:$G$37, COLUMN(AL10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM9" s="90" cm="1">
+      <c r="AM9" s="89" cm="1">
         <f t="array" ref="AM9">INDEX(Page1!$G$8:$G$37, COLUMN(AM10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN9" s="90" cm="1">
+      <c r="AN9" s="89" cm="1">
         <f t="array" ref="AN9">INDEX(Page1!$G$8:$G$37, COLUMN(AN10)-10)</f>
         <v>0</v>
       </c>
@@ -11492,15 +11492,15 @@
         <f>STDEV(K9:AN9)</f>
         <v>0</v>
       </c>
-      <c r="AQ9" s="96" t="e">
+      <c r="AQ9" s="95" t="e">
         <f>MIN((AO9-H9)/(3*AP9), (I9-AO9)/(3*AP9))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR9" s="273">
+      <c r="AR9" s="96">
         <f>MIN(K9:AN9)</f>
         <v>0</v>
       </c>
-      <c r="AS9" s="273">
+      <c r="AS9" s="96">
         <f>MAX(K9:AN9)</f>
         <v>0</v>
       </c>
@@ -11540,123 +11540,123 @@
       <c r="J10" s="78" t="s">
         <v>120</v>
       </c>
-      <c r="K10" s="88" t="e" cm="1">
+      <c r="K10" s="87" t="e" cm="1">
         <f t="array" ref="K10">INDEX(Page3!$O$9:$O$38, COLUMN(K11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L10" s="88" t="e" cm="1">
+      <c r="L10" s="87" t="e" cm="1">
         <f t="array" ref="L10">INDEX(Page3!$O$9:$O$38, COLUMN(L11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M10" s="88" t="e" cm="1">
+      <c r="M10" s="87" t="e" cm="1">
         <f t="array" ref="M10">INDEX(Page3!$O$9:$O$38, COLUMN(M11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N10" s="88" t="e" cm="1">
+      <c r="N10" s="87" t="e" cm="1">
         <f t="array" ref="N10">INDEX(Page3!$O$9:$O$38, COLUMN(N11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O10" s="88" t="e" cm="1">
+      <c r="O10" s="87" t="e" cm="1">
         <f t="array" ref="O10">INDEX(Page3!$O$9:$O$38, COLUMN(O11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P10" s="88" t="e" cm="1">
+      <c r="P10" s="87" t="e" cm="1">
         <f t="array" ref="P10">INDEX(Page3!$O$9:$O$38, COLUMN(P11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q10" s="88" t="e" cm="1">
+      <c r="Q10" s="87" t="e" cm="1">
         <f t="array" ref="Q10">INDEX(Page3!$O$9:$O$38, COLUMN(Q11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R10" s="88" t="e" cm="1">
+      <c r="R10" s="87" t="e" cm="1">
         <f t="array" ref="R10">INDEX(Page3!$O$9:$O$38, COLUMN(R11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S10" s="88" t="e" cm="1">
+      <c r="S10" s="87" t="e" cm="1">
         <f t="array" ref="S10">INDEX(Page3!$O$9:$O$38, COLUMN(S11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T10" s="88" t="e" cm="1">
+      <c r="T10" s="87" t="e" cm="1">
         <f t="array" ref="T10">INDEX(Page3!$O$9:$O$38, COLUMN(T11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U10" s="88" t="e" cm="1">
+      <c r="U10" s="87" t="e" cm="1">
         <f t="array" ref="U10">INDEX(Page3!$O$9:$O$38, COLUMN(U11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V10" s="88" t="e" cm="1">
+      <c r="V10" s="87" t="e" cm="1">
         <f t="array" ref="V10">INDEX(Page3!$O$9:$O$38, COLUMN(V11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W10" s="88" t="e" cm="1">
+      <c r="W10" s="87" t="e" cm="1">
         <f t="array" ref="W10">INDEX(Page3!$O$9:$O$38, COLUMN(W11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X10" s="88" t="e" cm="1">
+      <c r="X10" s="87" t="e" cm="1">
         <f t="array" ref="X10">INDEX(Page3!$O$9:$O$38, COLUMN(X11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y10" s="88" t="e" cm="1">
+      <c r="Y10" s="87" t="e" cm="1">
         <f t="array" ref="Y10">INDEX(Page3!$O$9:$O$38, COLUMN(Y11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z10" s="88" t="e" cm="1">
+      <c r="Z10" s="87" t="e" cm="1">
         <f t="array" ref="Z10">INDEX(Page3!$O$9:$O$38, COLUMN(Z11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA10" s="88" t="e" cm="1">
+      <c r="AA10" s="87" t="e" cm="1">
         <f t="array" ref="AA10">INDEX(Page3!$O$9:$O$38, COLUMN(AA11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB10" s="88" t="e" cm="1">
+      <c r="AB10" s="87" t="e" cm="1">
         <f t="array" ref="AB10">INDEX(Page3!$O$9:$O$38, COLUMN(AB11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC10" s="88" t="e" cm="1">
+      <c r="AC10" s="87" t="e" cm="1">
         <f t="array" ref="AC10">INDEX(Page3!$O$9:$O$38, COLUMN(AC11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD10" s="88" t="e" cm="1">
+      <c r="AD10" s="87" t="e" cm="1">
         <f t="array" ref="AD10">INDEX(Page3!$O$9:$O$38, COLUMN(AD11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE10" s="88" t="e" cm="1">
+      <c r="AE10" s="87" t="e" cm="1">
         <f t="array" ref="AE10">INDEX(Page3!$O$9:$O$38, COLUMN(AE11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF10" s="88" t="e" cm="1">
+      <c r="AF10" s="87" t="e" cm="1">
         <f t="array" ref="AF10">INDEX(Page3!$O$9:$O$38, COLUMN(AF11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG10" s="88" t="e" cm="1">
+      <c r="AG10" s="87" t="e" cm="1">
         <f t="array" ref="AG10">INDEX(Page3!$O$9:$O$38, COLUMN(AG11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH10" s="88" t="e" cm="1">
+      <c r="AH10" s="87" t="e" cm="1">
         <f t="array" ref="AH10">INDEX(Page3!$O$9:$O$38, COLUMN(AH11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI10" s="88" t="e" cm="1">
+      <c r="AI10" s="87" t="e" cm="1">
         <f t="array" ref="AI10">INDEX(Page3!$O$9:$O$38, COLUMN(AI11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ10" s="88" t="e" cm="1">
+      <c r="AJ10" s="87" t="e" cm="1">
         <f t="array" ref="AJ10">INDEX(Page3!$O$9:$O$38, COLUMN(AJ11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK10" s="88" t="e" cm="1">
+      <c r="AK10" s="87" t="e" cm="1">
         <f t="array" ref="AK10">INDEX(Page3!$O$9:$O$38, COLUMN(AK11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL10" s="88" t="e" cm="1">
+      <c r="AL10" s="87" t="e" cm="1">
         <f t="array" ref="AL10">INDEX(Page3!$O$9:$O$38, COLUMN(AL11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM10" s="88" t="e" cm="1">
+      <c r="AM10" s="87" t="e" cm="1">
         <f t="array" ref="AM10">INDEX(Page3!$O$9:$O$38, COLUMN(AM11)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN10" s="88" t="e" cm="1">
+      <c r="AN10" s="87" t="e" cm="1">
         <f t="array" ref="AN10">INDEX(Page3!$O$9:$O$38, COLUMN(AN11)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11668,15 +11668,15 @@
         <f>STDEV(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ10" s="96" t="e">
+      <c r="AQ10" s="95" t="e">
         <f>MIN((AO10-H10)/(3*AP10), (I10-AO10)/(3*AP10))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR10" s="95" t="e">
+      <c r="AR10" s="94" t="e">
         <f>MIN(K10:AN10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS10" s="95" t="e">
+      <c r="AS10" s="94" t="e">
         <f t="shared" si="3"/>
         <v>#DIV/0!</v>
       </c>
@@ -11714,123 +11714,123 @@
       <c r="J11" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K11" s="87" cm="1">
+      <c r="K11" s="86" cm="1">
         <f t="array" ref="K11">INDEX(Page4!$J$9:$J$38, COLUMN(K12)-10)</f>
         <v>0</v>
       </c>
-      <c r="L11" s="87" cm="1">
+      <c r="L11" s="86" cm="1">
         <f t="array" ref="L11">INDEX(Page4!$J$9:$J$38, COLUMN(L12)-10)</f>
         <v>0</v>
       </c>
-      <c r="M11" s="87" cm="1">
+      <c r="M11" s="86" cm="1">
         <f t="array" ref="M11">INDEX(Page4!$J$9:$J$38, COLUMN(M12)-10)</f>
         <v>0</v>
       </c>
-      <c r="N11" s="87" cm="1">
+      <c r="N11" s="86" cm="1">
         <f t="array" ref="N11">INDEX(Page4!$J$9:$J$38, COLUMN(N12)-10)</f>
         <v>0</v>
       </c>
-      <c r="O11" s="87" cm="1">
+      <c r="O11" s="86" cm="1">
         <f t="array" ref="O11">INDEX(Page4!$J$9:$J$38, COLUMN(O12)-10)</f>
         <v>0</v>
       </c>
-      <c r="P11" s="87" cm="1">
+      <c r="P11" s="86" cm="1">
         <f t="array" ref="P11">INDEX(Page4!$J$9:$J$38, COLUMN(P12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q11" s="87" cm="1">
+      <c r="Q11" s="86" cm="1">
         <f t="array" ref="Q11">INDEX(Page4!$J$9:$J$38, COLUMN(Q12)-10)</f>
         <v>0</v>
       </c>
-      <c r="R11" s="87" cm="1">
+      <c r="R11" s="86" cm="1">
         <f t="array" ref="R11">INDEX(Page4!$J$9:$J$38, COLUMN(R12)-10)</f>
         <v>0</v>
       </c>
-      <c r="S11" s="87" cm="1">
+      <c r="S11" s="86" cm="1">
         <f t="array" ref="S11">INDEX(Page4!$J$9:$J$38, COLUMN(S12)-10)</f>
         <v>0</v>
       </c>
-      <c r="T11" s="87" cm="1">
+      <c r="T11" s="86" cm="1">
         <f t="array" ref="T11">INDEX(Page4!$J$9:$J$38, COLUMN(T12)-10)</f>
         <v>0</v>
       </c>
-      <c r="U11" s="87" cm="1">
+      <c r="U11" s="86" cm="1">
         <f t="array" ref="U11">INDEX(Page4!$J$9:$J$38, COLUMN(U12)-10)</f>
         <v>0</v>
       </c>
-      <c r="V11" s="87" cm="1">
+      <c r="V11" s="86" cm="1">
         <f t="array" ref="V11">INDEX(Page4!$J$9:$J$38, COLUMN(V12)-10)</f>
         <v>0</v>
       </c>
-      <c r="W11" s="87" cm="1">
+      <c r="W11" s="86" cm="1">
         <f t="array" ref="W11">INDEX(Page4!$J$9:$J$38, COLUMN(W12)-10)</f>
         <v>0</v>
       </c>
-      <c r="X11" s="87" cm="1">
+      <c r="X11" s="86" cm="1">
         <f t="array" ref="X11">INDEX(Page4!$J$9:$J$38, COLUMN(X12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y11" s="87" cm="1">
+      <c r="Y11" s="86" cm="1">
         <f t="array" ref="Y11">INDEX(Page4!$J$9:$J$38, COLUMN(Y12)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z11" s="87" cm="1">
+      <c r="Z11" s="86" cm="1">
         <f t="array" ref="Z11">INDEX(Page4!$J$9:$J$38, COLUMN(Z12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA11" s="87" cm="1">
+      <c r="AA11" s="86" cm="1">
         <f t="array" ref="AA11">INDEX(Page4!$J$9:$J$38, COLUMN(AA12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB11" s="87" cm="1">
+      <c r="AB11" s="86" cm="1">
         <f t="array" ref="AB11">INDEX(Page4!$J$9:$J$38, COLUMN(AB12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC11" s="87" cm="1">
+      <c r="AC11" s="86" cm="1">
         <f t="array" ref="AC11">INDEX(Page4!$J$9:$J$38, COLUMN(AC12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD11" s="87" cm="1">
+      <c r="AD11" s="86" cm="1">
         <f t="array" ref="AD11">INDEX(Page4!$J$9:$J$38, COLUMN(AD12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE11" s="87" cm="1">
+      <c r="AE11" s="86" cm="1">
         <f t="array" ref="AE11">INDEX(Page4!$J$9:$J$38, COLUMN(AE12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF11" s="87" cm="1">
+      <c r="AF11" s="86" cm="1">
         <f t="array" ref="AF11">INDEX(Page4!$J$9:$J$38, COLUMN(AF12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG11" s="87" cm="1">
+      <c r="AG11" s="86" cm="1">
         <f t="array" ref="AG11">INDEX(Page4!$J$9:$J$38, COLUMN(AG12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH11" s="87" cm="1">
+      <c r="AH11" s="86" cm="1">
         <f t="array" ref="AH11">INDEX(Page4!$J$9:$J$38, COLUMN(AH12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI11" s="87" cm="1">
+      <c r="AI11" s="86" cm="1">
         <f t="array" ref="AI11">INDEX(Page4!$J$9:$J$38, COLUMN(AI12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ11" s="87" cm="1">
+      <c r="AJ11" s="86" cm="1">
         <f t="array" ref="AJ11">INDEX(Page4!$J$9:$J$38, COLUMN(AJ12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK11" s="87" cm="1">
+      <c r="AK11" s="86" cm="1">
         <f t="array" ref="AK11">INDEX(Page4!$J$9:$J$38, COLUMN(AK12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL11" s="87" cm="1">
+      <c r="AL11" s="86" cm="1">
         <f t="array" ref="AL11">INDEX(Page4!$J$9:$J$38, COLUMN(AL12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM11" s="87" cm="1">
+      <c r="AM11" s="86" cm="1">
         <f t="array" ref="AM11">INDEX(Page4!$J$9:$J$38, COLUMN(AM12)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN11" s="87" cm="1">
+      <c r="AN11" s="86" cm="1">
         <f t="array" ref="AN11">INDEX(Page4!$J$9:$J$38, COLUMN(AN12)-10)</f>
         <v>0</v>
       </c>
@@ -11842,7 +11842,7 @@
         <f>STDEV(K11:AN11)</f>
         <v>0</v>
       </c>
-      <c r="AQ11" s="96" t="e">
+      <c r="AQ11" s="95" t="e">
         <f>(I11-AO11)/(3*AP11)</f>
         <v>#DIV/0!</v>
       </c>
@@ -11890,123 +11890,123 @@
       <c r="J12" s="74" t="s">
         <v>94</v>
       </c>
-      <c r="K12" s="87" cm="1">
+      <c r="K12" s="86" cm="1">
         <f t="array" ref="K12">INDEX(Page1!$M$8:$M$37, COLUMN(K13)-10)</f>
         <v>0</v>
       </c>
-      <c r="L12" s="87" cm="1">
+      <c r="L12" s="86" cm="1">
         <f t="array" ref="L12">INDEX(Page1!$M$8:$M$37, COLUMN(L13)-10)</f>
         <v>0</v>
       </c>
-      <c r="M12" s="87" cm="1">
+      <c r="M12" s="86" cm="1">
         <f t="array" ref="M12">INDEX(Page1!$M$8:$M$37, COLUMN(M13)-10)</f>
         <v>0</v>
       </c>
-      <c r="N12" s="87" cm="1">
+      <c r="N12" s="86" cm="1">
         <f t="array" ref="N12">INDEX(Page1!$M$8:$M$37, COLUMN(N13)-10)</f>
         <v>0</v>
       </c>
-      <c r="O12" s="87" cm="1">
+      <c r="O12" s="86" cm="1">
         <f t="array" ref="O12">INDEX(Page1!$M$8:$M$37, COLUMN(O13)-10)</f>
         <v>0</v>
       </c>
-      <c r="P12" s="87" cm="1">
+      <c r="P12" s="86" cm="1">
         <f t="array" ref="P12">INDEX(Page1!$M$8:$M$37, COLUMN(P13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q12" s="87" cm="1">
+      <c r="Q12" s="86" cm="1">
         <f t="array" ref="Q12">INDEX(Page1!$M$8:$M$37, COLUMN(Q13)-10)</f>
         <v>0</v>
       </c>
-      <c r="R12" s="87" cm="1">
+      <c r="R12" s="86" cm="1">
         <f t="array" ref="R12">INDEX(Page1!$M$8:$M$37, COLUMN(R13)-10)</f>
         <v>0</v>
       </c>
-      <c r="S12" s="87" cm="1">
+      <c r="S12" s="86" cm="1">
         <f t="array" ref="S12">INDEX(Page1!$M$8:$M$37, COLUMN(S13)-10)</f>
         <v>0</v>
       </c>
-      <c r="T12" s="87" cm="1">
+      <c r="T12" s="86" cm="1">
         <f t="array" ref="T12">INDEX(Page1!$M$8:$M$37, COLUMN(T13)-10)</f>
         <v>0</v>
       </c>
-      <c r="U12" s="87" cm="1">
+      <c r="U12" s="86" cm="1">
         <f t="array" ref="U12">INDEX(Page1!$M$8:$M$37, COLUMN(U13)-10)</f>
         <v>0</v>
       </c>
-      <c r="V12" s="87" cm="1">
+      <c r="V12" s="86" cm="1">
         <f t="array" ref="V12">INDEX(Page1!$M$8:$M$37, COLUMN(V13)-10)</f>
         <v>0</v>
       </c>
-      <c r="W12" s="87" cm="1">
+      <c r="W12" s="86" cm="1">
         <f t="array" ref="W12">INDEX(Page1!$M$8:$M$37, COLUMN(W13)-10)</f>
         <v>0</v>
       </c>
-      <c r="X12" s="87" cm="1">
+      <c r="X12" s="86" cm="1">
         <f t="array" ref="X12">INDEX(Page1!$M$8:$M$37, COLUMN(X13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y12" s="87" cm="1">
+      <c r="Y12" s="86" cm="1">
         <f t="array" ref="Y12">INDEX(Page1!$M$8:$M$37, COLUMN(Y13)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z12" s="87" cm="1">
+      <c r="Z12" s="86" cm="1">
         <f t="array" ref="Z12">INDEX(Page1!$M$8:$M$37, COLUMN(Z13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA12" s="87" cm="1">
+      <c r="AA12" s="86" cm="1">
         <f t="array" ref="AA12">INDEX(Page1!$M$8:$M$37, COLUMN(AA13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB12" s="87" cm="1">
+      <c r="AB12" s="86" cm="1">
         <f t="array" ref="AB12">INDEX(Page1!$M$8:$M$37, COLUMN(AB13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC12" s="87" cm="1">
+      <c r="AC12" s="86" cm="1">
         <f t="array" ref="AC12">INDEX(Page1!$M$8:$M$37, COLUMN(AC13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD12" s="87" cm="1">
+      <c r="AD12" s="86" cm="1">
         <f t="array" ref="AD12">INDEX(Page1!$M$8:$M$37, COLUMN(AD13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE12" s="87" cm="1">
+      <c r="AE12" s="86" cm="1">
         <f t="array" ref="AE12">INDEX(Page1!$M$8:$M$37, COLUMN(AE13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF12" s="87" cm="1">
+      <c r="AF12" s="86" cm="1">
         <f t="array" ref="AF12">INDEX(Page1!$M$8:$M$37, COLUMN(AF13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG12" s="87" cm="1">
+      <c r="AG12" s="86" cm="1">
         <f t="array" ref="AG12">INDEX(Page1!$M$8:$M$37, COLUMN(AG13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH12" s="87" cm="1">
+      <c r="AH12" s="86" cm="1">
         <f t="array" ref="AH12">INDEX(Page1!$M$8:$M$37, COLUMN(AH13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI12" s="87" cm="1">
+      <c r="AI12" s="86" cm="1">
         <f t="array" ref="AI12">INDEX(Page1!$M$8:$M$37, COLUMN(AI13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ12" s="87" cm="1">
+      <c r="AJ12" s="86" cm="1">
         <f t="array" ref="AJ12">INDEX(Page1!$M$8:$M$37, COLUMN(AJ13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK12" s="87" cm="1">
+      <c r="AK12" s="86" cm="1">
         <f t="array" ref="AK12">INDEX(Page1!$M$8:$M$37, COLUMN(AK13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL12" s="87" cm="1">
+      <c r="AL12" s="86" cm="1">
         <f t="array" ref="AL12">INDEX(Page1!$M$8:$M$37, COLUMN(AL13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM12" s="87" cm="1">
+      <c r="AM12" s="86" cm="1">
         <f t="array" ref="AM12">INDEX(Page1!$M$8:$M$37, COLUMN(AM13)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN12" s="87" cm="1">
+      <c r="AN12" s="86" cm="1">
         <f t="array" ref="AN12">INDEX(Page1!$M$8:$M$37, COLUMN(AN13)-10)</f>
         <v>0</v>
       </c>
@@ -12018,7 +12018,7 @@
         <f>STDEV(K12:AN12)</f>
         <v>0</v>
       </c>
-      <c r="AQ12" s="96" t="e">
+      <c r="AQ12" s="95" t="e">
         <f>MIN((AO12-H12)/(3*AP12), (I12-AO12)/(3*AP12))</f>
         <v>#DIV/0!</v>
       </c>
@@ -12066,123 +12066,123 @@
       <c r="J13" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K13" s="88" cm="1">
+      <c r="K13" s="87" cm="1">
         <f t="array" ref="K13">INDEX(Page1!$J$8:$J$37, COLUMN(K14)-10)</f>
         <v>0</v>
       </c>
-      <c r="L13" s="88" cm="1">
+      <c r="L13" s="87" cm="1">
         <f t="array" ref="L13">INDEX(Page1!$J$8:$J$37, COLUMN(L14)-10)</f>
         <v>0</v>
       </c>
-      <c r="M13" s="88" cm="1">
+      <c r="M13" s="87" cm="1">
         <f t="array" ref="M13">INDEX(Page1!$J$8:$J$37, COLUMN(M14)-10)</f>
         <v>0</v>
       </c>
-      <c r="N13" s="88" cm="1">
+      <c r="N13" s="87" cm="1">
         <f t="array" ref="N13">INDEX(Page1!$J$8:$J$37, COLUMN(N14)-10)</f>
         <v>0</v>
       </c>
-      <c r="O13" s="88" cm="1">
+      <c r="O13" s="87" cm="1">
         <f t="array" ref="O13">INDEX(Page1!$J$8:$J$37, COLUMN(O14)-10)</f>
         <v>0</v>
       </c>
-      <c r="P13" s="88" cm="1">
+      <c r="P13" s="87" cm="1">
         <f t="array" ref="P13">INDEX(Page1!$J$8:$J$37, COLUMN(P14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q13" s="88" cm="1">
+      <c r="Q13" s="87" cm="1">
         <f t="array" ref="Q13">INDEX(Page1!$J$8:$J$37, COLUMN(Q14)-10)</f>
         <v>0</v>
       </c>
-      <c r="R13" s="88" cm="1">
+      <c r="R13" s="87" cm="1">
         <f t="array" ref="R13">INDEX(Page1!$J$8:$J$37, COLUMN(R14)-10)</f>
         <v>0</v>
       </c>
-      <c r="S13" s="88" cm="1">
+      <c r="S13" s="87" cm="1">
         <f t="array" ref="S13">INDEX(Page1!$J$8:$J$37, COLUMN(S14)-10)</f>
         <v>0</v>
       </c>
-      <c r="T13" s="88" cm="1">
+      <c r="T13" s="87" cm="1">
         <f t="array" ref="T13">INDEX(Page1!$J$8:$J$37, COLUMN(T14)-10)</f>
         <v>0</v>
       </c>
-      <c r="U13" s="88" cm="1">
+      <c r="U13" s="87" cm="1">
         <f t="array" ref="U13">INDEX(Page1!$J$8:$J$37, COLUMN(U14)-10)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="88" cm="1">
+      <c r="V13" s="87" cm="1">
         <f t="array" ref="V13">INDEX(Page1!$J$8:$J$37, COLUMN(V14)-10)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="88" cm="1">
+      <c r="W13" s="87" cm="1">
         <f t="array" ref="W13">INDEX(Page1!$J$8:$J$37, COLUMN(W14)-10)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="88" cm="1">
+      <c r="X13" s="87" cm="1">
         <f t="array" ref="X13">INDEX(Page1!$J$8:$J$37, COLUMN(X14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y13" s="88" cm="1">
+      <c r="Y13" s="87" cm="1">
         <f t="array" ref="Y13">INDEX(Page1!$J$8:$J$37, COLUMN(Y14)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z13" s="88" cm="1">
+      <c r="Z13" s="87" cm="1">
         <f t="array" ref="Z13">INDEX(Page1!$J$8:$J$37, COLUMN(Z14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA13" s="88" cm="1">
+      <c r="AA13" s="87" cm="1">
         <f t="array" ref="AA13">INDEX(Page1!$J$8:$J$37, COLUMN(AA14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB13" s="88" cm="1">
+      <c r="AB13" s="87" cm="1">
         <f t="array" ref="AB13">INDEX(Page1!$J$8:$J$37, COLUMN(AB14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC13" s="88" cm="1">
+      <c r="AC13" s="87" cm="1">
         <f t="array" ref="AC13">INDEX(Page1!$J$8:$J$37, COLUMN(AC14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD13" s="88" cm="1">
+      <c r="AD13" s="87" cm="1">
         <f t="array" ref="AD13">INDEX(Page1!$J$8:$J$37, COLUMN(AD14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE13" s="88" cm="1">
+      <c r="AE13" s="87" cm="1">
         <f t="array" ref="AE13">INDEX(Page1!$J$8:$J$37, COLUMN(AE14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF13" s="88" cm="1">
+      <c r="AF13" s="87" cm="1">
         <f t="array" ref="AF13">INDEX(Page1!$J$8:$J$37, COLUMN(AF14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG13" s="88" cm="1">
+      <c r="AG13" s="87" cm="1">
         <f t="array" ref="AG13">INDEX(Page1!$J$8:$J$37, COLUMN(AG14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH13" s="88" cm="1">
+      <c r="AH13" s="87" cm="1">
         <f t="array" ref="AH13">INDEX(Page1!$J$8:$J$37, COLUMN(AH14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI13" s="88" cm="1">
+      <c r="AI13" s="87" cm="1">
         <f t="array" ref="AI13">INDEX(Page1!$J$8:$J$37, COLUMN(AI14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ13" s="88" cm="1">
+      <c r="AJ13" s="87" cm="1">
         <f t="array" ref="AJ13">INDEX(Page1!$J$8:$J$37, COLUMN(AJ14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK13" s="88" cm="1">
+      <c r="AK13" s="87" cm="1">
         <f t="array" ref="AK13">INDEX(Page1!$J$8:$J$37, COLUMN(AK14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL13" s="88" cm="1">
+      <c r="AL13" s="87" cm="1">
         <f t="array" ref="AL13">INDEX(Page1!$J$8:$J$37, COLUMN(AL14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM13" s="88" cm="1">
+      <c r="AM13" s="87" cm="1">
         <f t="array" ref="AM13">INDEX(Page1!$J$8:$J$37, COLUMN(AM14)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN13" s="88" cm="1">
+      <c r="AN13" s="87" cm="1">
         <f t="array" ref="AN13">INDEX(Page1!$J$8:$J$37, COLUMN(AN14)-10)</f>
         <v>0</v>
       </c>
@@ -12194,15 +12194,15 @@
         <f>STDEV(K13:AN13)</f>
         <v>0</v>
       </c>
-      <c r="AQ13" s="96" t="e">
+      <c r="AQ13" s="95" t="e">
         <f>MIN((AO13-H13)/(3*AP13), (I13-AO13)/(3*AP13))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR13" s="95">
+      <c r="AR13" s="94">
         <f>MIN(K13:AN13)</f>
         <v>0</v>
       </c>
-      <c r="AS13" s="95">
+      <c r="AS13" s="94">
         <f>MAX(K13:AN13)</f>
         <v>0</v>
       </c>
@@ -12242,123 +12242,123 @@
       <c r="J14" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K14" s="88" cm="1">
+      <c r="K14" s="87" cm="1">
         <f t="array" ref="K14">INDEX(Page4!$D$9:$D$38, COLUMN(K15)-10)</f>
         <v>0</v>
       </c>
-      <c r="L14" s="88" cm="1">
+      <c r="L14" s="87" cm="1">
         <f t="array" ref="L14">INDEX(Page4!$D$9:$D$38, COLUMN(L15)-10)</f>
         <v>0</v>
       </c>
-      <c r="M14" s="88" cm="1">
+      <c r="M14" s="87" cm="1">
         <f t="array" ref="M14">INDEX(Page4!$D$9:$D$38, COLUMN(M15)-10)</f>
         <v>0</v>
       </c>
-      <c r="N14" s="88" cm="1">
+      <c r="N14" s="87" cm="1">
         <f t="array" ref="N14">INDEX(Page4!$D$9:$D$38, COLUMN(N15)-10)</f>
         <v>0</v>
       </c>
-      <c r="O14" s="88" cm="1">
+      <c r="O14" s="87" cm="1">
         <f t="array" ref="O14">INDEX(Page4!$D$9:$D$38, COLUMN(O15)-10)</f>
         <v>0</v>
       </c>
-      <c r="P14" s="88" cm="1">
+      <c r="P14" s="87" cm="1">
         <f t="array" ref="P14">INDEX(Page4!$D$9:$D$38, COLUMN(P15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q14" s="88" cm="1">
+      <c r="Q14" s="87" cm="1">
         <f t="array" ref="Q14">INDEX(Page4!$D$9:$D$38, COLUMN(Q15)-10)</f>
         <v>0</v>
       </c>
-      <c r="R14" s="88" cm="1">
+      <c r="R14" s="87" cm="1">
         <f t="array" ref="R14">INDEX(Page4!$D$9:$D$38, COLUMN(R15)-10)</f>
         <v>0</v>
       </c>
-      <c r="S14" s="88" cm="1">
+      <c r="S14" s="87" cm="1">
         <f t="array" ref="S14">INDEX(Page4!$D$9:$D$38, COLUMN(S15)-10)</f>
         <v>0</v>
       </c>
-      <c r="T14" s="88" cm="1">
+      <c r="T14" s="87" cm="1">
         <f t="array" ref="T14">INDEX(Page4!$D$9:$D$38, COLUMN(T15)-10)</f>
         <v>0</v>
       </c>
-      <c r="U14" s="88" cm="1">
+      <c r="U14" s="87" cm="1">
         <f t="array" ref="U14">INDEX(Page4!$D$9:$D$38, COLUMN(U15)-10)</f>
         <v>0</v>
       </c>
-      <c r="V14" s="88" cm="1">
+      <c r="V14" s="87" cm="1">
         <f t="array" ref="V14">INDEX(Page4!$D$9:$D$38, COLUMN(V15)-10)</f>
         <v>0</v>
       </c>
-      <c r="W14" s="88" cm="1">
+      <c r="W14" s="87" cm="1">
         <f t="array" ref="W14">INDEX(Page4!$D$9:$D$38, COLUMN(W15)-10)</f>
         <v>0</v>
       </c>
-      <c r="X14" s="88" cm="1">
+      <c r="X14" s="87" cm="1">
         <f t="array" ref="X14">INDEX(Page4!$D$9:$D$38, COLUMN(X15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y14" s="88" cm="1">
+      <c r="Y14" s="87" cm="1">
         <f t="array" ref="Y14">INDEX(Page4!$D$9:$D$38, COLUMN(Y15)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z14" s="88" cm="1">
+      <c r="Z14" s="87" cm="1">
         <f t="array" ref="Z14">INDEX(Page4!$D$9:$D$38, COLUMN(Z15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA14" s="88" cm="1">
+      <c r="AA14" s="87" cm="1">
         <f t="array" ref="AA14">INDEX(Page4!$D$9:$D$38, COLUMN(AA15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB14" s="88" cm="1">
+      <c r="AB14" s="87" cm="1">
         <f t="array" ref="AB14">INDEX(Page4!$D$9:$D$38, COLUMN(AB15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC14" s="88" cm="1">
+      <c r="AC14" s="87" cm="1">
         <f t="array" ref="AC14">INDEX(Page4!$D$9:$D$38, COLUMN(AC15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD14" s="88" cm="1">
+      <c r="AD14" s="87" cm="1">
         <f t="array" ref="AD14">INDEX(Page4!$D$9:$D$38, COLUMN(AD15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE14" s="88" cm="1">
+      <c r="AE14" s="87" cm="1">
         <f t="array" ref="AE14">INDEX(Page4!$D$9:$D$38, COLUMN(AE15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF14" s="88" cm="1">
+      <c r="AF14" s="87" cm="1">
         <f t="array" ref="AF14">INDEX(Page4!$D$9:$D$38, COLUMN(AF15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG14" s="88" cm="1">
+      <c r="AG14" s="87" cm="1">
         <f t="array" ref="AG14">INDEX(Page4!$D$9:$D$38, COLUMN(AG15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH14" s="88" cm="1">
+      <c r="AH14" s="87" cm="1">
         <f t="array" ref="AH14">INDEX(Page4!$D$9:$D$38, COLUMN(AH15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI14" s="88" cm="1">
+      <c r="AI14" s="87" cm="1">
         <f t="array" ref="AI14">INDEX(Page4!$D$9:$D$38, COLUMN(AI15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ14" s="88" cm="1">
+      <c r="AJ14" s="87" cm="1">
         <f t="array" ref="AJ14">INDEX(Page4!$D$9:$D$38, COLUMN(AJ15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK14" s="88" cm="1">
+      <c r="AK14" s="87" cm="1">
         <f t="array" ref="AK14">INDEX(Page4!$D$9:$D$38, COLUMN(AK15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL14" s="88" cm="1">
+      <c r="AL14" s="87" cm="1">
         <f t="array" ref="AL14">INDEX(Page4!$D$9:$D$38, COLUMN(AL15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM14" s="88" cm="1">
+      <c r="AM14" s="87" cm="1">
         <f t="array" ref="AM14">INDEX(Page4!$D$9:$D$38, COLUMN(AM15)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN14" s="88" cm="1">
+      <c r="AN14" s="87" cm="1">
         <f t="array" ref="AN14">INDEX(Page4!$D$9:$D$38, COLUMN(AN15)-10)</f>
         <v>0</v>
       </c>
@@ -12370,15 +12370,15 @@
         <f t="shared" ref="AP14:AP17" si="6">STDEV(K14:AN14)</f>
         <v>0</v>
       </c>
-      <c r="AQ14" s="96" t="e">
+      <c r="AQ14" s="95" t="e">
         <f>MIN((AO14-H14)/(3*AP14),(I14-AO14)/(3*AP14))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR14" s="95">
+      <c r="AR14" s="94">
         <f t="shared" ref="AR14:AR17" si="7">MIN(K14:AN14)</f>
         <v>0</v>
       </c>
-      <c r="AS14" s="95">
+      <c r="AS14" s="94">
         <f t="shared" ref="AS14:AS17" si="8">MAX(K14:AN14)</f>
         <v>0</v>
       </c>
@@ -12418,123 +12418,123 @@
       <c r="J15" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K15" s="88" cm="1">
+      <c r="K15" s="87" cm="1">
         <f t="array" ref="K15">INDEX(Page4!$F$9:$F$38, COLUMN(K16)-10)</f>
         <v>0</v>
       </c>
-      <c r="L15" s="88" cm="1">
+      <c r="L15" s="87" cm="1">
         <f t="array" ref="L15">INDEX(Page4!$F$9:$F$38, COLUMN(L16)-10)</f>
         <v>0</v>
       </c>
-      <c r="M15" s="88" cm="1">
+      <c r="M15" s="87" cm="1">
         <f t="array" ref="M15">INDEX(Page4!$F$9:$F$38, COLUMN(M16)-10)</f>
         <v>0</v>
       </c>
-      <c r="N15" s="88" cm="1">
+      <c r="N15" s="87" cm="1">
         <f t="array" ref="N15">INDEX(Page4!$F$9:$F$38, COLUMN(N16)-10)</f>
         <v>0</v>
       </c>
-      <c r="O15" s="88" cm="1">
+      <c r="O15" s="87" cm="1">
         <f t="array" ref="O15">INDEX(Page4!$F$9:$F$38, COLUMN(O16)-10)</f>
         <v>0</v>
       </c>
-      <c r="P15" s="88" cm="1">
+      <c r="P15" s="87" cm="1">
         <f t="array" ref="P15">INDEX(Page4!$F$9:$F$38, COLUMN(P16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q15" s="88" cm="1">
+      <c r="Q15" s="87" cm="1">
         <f t="array" ref="Q15">INDEX(Page4!$F$9:$F$38, COLUMN(Q16)-10)</f>
         <v>0</v>
       </c>
-      <c r="R15" s="88" cm="1">
+      <c r="R15" s="87" cm="1">
         <f t="array" ref="R15">INDEX(Page4!$F$9:$F$38, COLUMN(R16)-10)</f>
         <v>0</v>
       </c>
-      <c r="S15" s="88" cm="1">
+      <c r="S15" s="87" cm="1">
         <f t="array" ref="S15">INDEX(Page4!$F$9:$F$38, COLUMN(S16)-10)</f>
         <v>0</v>
       </c>
-      <c r="T15" s="88" cm="1">
+      <c r="T15" s="87" cm="1">
         <f t="array" ref="T15">INDEX(Page4!$F$9:$F$38, COLUMN(T16)-10)</f>
         <v>0</v>
       </c>
-      <c r="U15" s="88" cm="1">
+      <c r="U15" s="87" cm="1">
         <f t="array" ref="U15">INDEX(Page4!$F$9:$F$38, COLUMN(U16)-10)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="88" cm="1">
+      <c r="V15" s="87" cm="1">
         <f t="array" ref="V15">INDEX(Page4!$F$9:$F$38, COLUMN(V16)-10)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="88" cm="1">
+      <c r="W15" s="87" cm="1">
         <f t="array" ref="W15">INDEX(Page4!$F$9:$F$38, COLUMN(W16)-10)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="88" cm="1">
+      <c r="X15" s="87" cm="1">
         <f t="array" ref="X15">INDEX(Page4!$F$9:$F$38, COLUMN(X16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y15" s="88" cm="1">
+      <c r="Y15" s="87" cm="1">
         <f t="array" ref="Y15">INDEX(Page4!$F$9:$F$38, COLUMN(Y16)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z15" s="88" cm="1">
+      <c r="Z15" s="87" cm="1">
         <f t="array" ref="Z15">INDEX(Page4!$F$9:$F$38, COLUMN(Z16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA15" s="88" cm="1">
+      <c r="AA15" s="87" cm="1">
         <f t="array" ref="AA15">INDEX(Page4!$F$9:$F$38, COLUMN(AA16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB15" s="88" cm="1">
+      <c r="AB15" s="87" cm="1">
         <f t="array" ref="AB15">INDEX(Page4!$F$9:$F$38, COLUMN(AB16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC15" s="88" cm="1">
+      <c r="AC15" s="87" cm="1">
         <f t="array" ref="AC15">INDEX(Page4!$F$9:$F$38, COLUMN(AC16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD15" s="88" cm="1">
+      <c r="AD15" s="87" cm="1">
         <f t="array" ref="AD15">INDEX(Page4!$F$9:$F$38, COLUMN(AD16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE15" s="88" cm="1">
+      <c r="AE15" s="87" cm="1">
         <f t="array" ref="AE15">INDEX(Page4!$F$9:$F$38, COLUMN(AE16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF15" s="88" cm="1">
+      <c r="AF15" s="87" cm="1">
         <f t="array" ref="AF15">INDEX(Page4!$F$9:$F$38, COLUMN(AF16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG15" s="88" cm="1">
+      <c r="AG15" s="87" cm="1">
         <f t="array" ref="AG15">INDEX(Page4!$F$9:$F$38, COLUMN(AG16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH15" s="88" cm="1">
+      <c r="AH15" s="87" cm="1">
         <f t="array" ref="AH15">INDEX(Page4!$F$9:$F$38, COLUMN(AH16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI15" s="88" cm="1">
+      <c r="AI15" s="87" cm="1">
         <f t="array" ref="AI15">INDEX(Page4!$F$9:$F$38, COLUMN(AI16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ15" s="88" cm="1">
+      <c r="AJ15" s="87" cm="1">
         <f t="array" ref="AJ15">INDEX(Page4!$F$9:$F$38, COLUMN(AJ16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK15" s="88" cm="1">
+      <c r="AK15" s="87" cm="1">
         <f t="array" ref="AK15">INDEX(Page4!$F$9:$F$38, COLUMN(AK16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL15" s="88" cm="1">
+      <c r="AL15" s="87" cm="1">
         <f t="array" ref="AL15">INDEX(Page4!$F$9:$F$38, COLUMN(AL16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM15" s="88" cm="1">
+      <c r="AM15" s="87" cm="1">
         <f t="array" ref="AM15">INDEX(Page4!$F$9:$F$38, COLUMN(AM16)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN15" s="88" cm="1">
+      <c r="AN15" s="87" cm="1">
         <f t="array" ref="AN15">INDEX(Page4!$F$9:$F$38, COLUMN(AN16)-10)</f>
         <v>0</v>
       </c>
@@ -12546,15 +12546,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ15" s="96" t="e">
+      <c r="AQ15" s="95" t="e">
         <f t="shared" ref="AQ15:AQ16" si="9">MIN((AO15-H15)/(3*AP15),(I15-AO15)/(3*AP15))</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR15" s="95">
+      <c r="AR15" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS15" s="95">
+      <c r="AS15" s="94">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -12594,123 +12594,123 @@
       <c r="J16" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K16" s="88" cm="1">
+      <c r="K16" s="87" cm="1">
         <f t="array" ref="K16">INDEX(Page4!$H$9:$H$387, COLUMN(K17)-10)</f>
         <v>0</v>
       </c>
-      <c r="L16" s="88" cm="1">
+      <c r="L16" s="87" cm="1">
         <f t="array" ref="L16">INDEX(Page4!$H$9:$H$387, COLUMN(L17)-10)</f>
         <v>0</v>
       </c>
-      <c r="M16" s="88" cm="1">
+      <c r="M16" s="87" cm="1">
         <f t="array" ref="M16">INDEX(Page4!$H$9:$H$387, COLUMN(M17)-10)</f>
         <v>0</v>
       </c>
-      <c r="N16" s="88" cm="1">
+      <c r="N16" s="87" cm="1">
         <f t="array" ref="N16">INDEX(Page4!$H$9:$H$387, COLUMN(N17)-10)</f>
         <v>0</v>
       </c>
-      <c r="O16" s="88" cm="1">
+      <c r="O16" s="87" cm="1">
         <f t="array" ref="O16">INDEX(Page4!$H$9:$H$387, COLUMN(O17)-10)</f>
         <v>0</v>
       </c>
-      <c r="P16" s="88" cm="1">
+      <c r="P16" s="87" cm="1">
         <f t="array" ref="P16">INDEX(Page4!$H$9:$H$387, COLUMN(P17)-10)</f>
         <v>0</v>
       </c>
-      <c r="Q16" s="88" cm="1">
+      <c r="Q16" s="87" cm="1">
         <f t="array" ref="Q16">INDEX(Page4!$H$9:$H$387, COLUMN(Q17)-10)</f>
         <v>0</v>
       </c>
-      <c r="R16" s="88" cm="1">
+      <c r="R16" s="87" cm="1">
         <f t="array" ref="R16">INDEX(Page4!$H$9:$H$387, COLUMN(R17)-10)</f>
         <v>0</v>
       </c>
-      <c r="S16" s="88" cm="1">
+      <c r="S16" s="87" cm="1">
         <f t="array" ref="S16">INDEX(Page4!$H$9:$H$387, COLUMN(S17)-10)</f>
         <v>0</v>
       </c>
-      <c r="T16" s="88" cm="1">
+      <c r="T16" s="87" cm="1">
         <f t="array" ref="T16">INDEX(Page4!$H$9:$H$387, COLUMN(T17)-10)</f>
         <v>0</v>
       </c>
-      <c r="U16" s="88" cm="1">
+      <c r="U16" s="87" cm="1">
         <f t="array" ref="U16">INDEX(Page4!$H$9:$H$387, COLUMN(U17)-10)</f>
         <v>0</v>
       </c>
-      <c r="V16" s="88" cm="1">
+      <c r="V16" s="87" cm="1">
         <f t="array" ref="V16">INDEX(Page4!$H$9:$H$387, COLUMN(V17)-10)</f>
         <v>0</v>
       </c>
-      <c r="W16" s="88" cm="1">
+      <c r="W16" s="87" cm="1">
         <f t="array" ref="W16">INDEX(Page4!$H$9:$H$387, COLUMN(W17)-10)</f>
         <v>0</v>
       </c>
-      <c r="X16" s="88" cm="1">
+      <c r="X16" s="87" cm="1">
         <f t="array" ref="X16">INDEX(Page4!$H$9:$H$387, COLUMN(X17)-10)</f>
         <v>0</v>
       </c>
-      <c r="Y16" s="88" cm="1">
+      <c r="Y16" s="87" cm="1">
         <f t="array" ref="Y16">INDEX(Page4!$H$9:$H$387, COLUMN(Y17)-10)</f>
         <v>0</v>
       </c>
-      <c r="Z16" s="88" cm="1">
+      <c r="Z16" s="87" cm="1">
         <f t="array" ref="Z16">INDEX(Page4!$H$9:$H$387, COLUMN(Z17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AA16" s="88" cm="1">
+      <c r="AA16" s="87" cm="1">
         <f t="array" ref="AA16">INDEX(Page4!$H$9:$H$387, COLUMN(AA17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AB16" s="88" cm="1">
+      <c r="AB16" s="87" cm="1">
         <f t="array" ref="AB16">INDEX(Page4!$H$9:$H$387, COLUMN(AB17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AC16" s="88" cm="1">
+      <c r="AC16" s="87" cm="1">
         <f t="array" ref="AC16">INDEX(Page4!$H$9:$H$387, COLUMN(AC17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AD16" s="88" cm="1">
+      <c r="AD16" s="87" cm="1">
         <f t="array" ref="AD16">INDEX(Page4!$H$9:$H$387, COLUMN(AD17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AE16" s="88" cm="1">
+      <c r="AE16" s="87" cm="1">
         <f t="array" ref="AE16">INDEX(Page4!$H$9:$H$387, COLUMN(AE17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AF16" s="88" cm="1">
+      <c r="AF16" s="87" cm="1">
         <f t="array" ref="AF16">INDEX(Page4!$H$9:$H$387, COLUMN(AF17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AG16" s="88" cm="1">
+      <c r="AG16" s="87" cm="1">
         <f t="array" ref="AG16">INDEX(Page4!$H$9:$H$387, COLUMN(AG17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AH16" s="88" cm="1">
+      <c r="AH16" s="87" cm="1">
         <f t="array" ref="AH16">INDEX(Page4!$H$9:$H$387, COLUMN(AH17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AI16" s="88" cm="1">
+      <c r="AI16" s="87" cm="1">
         <f t="array" ref="AI16">INDEX(Page4!$H$9:$H$387, COLUMN(AI17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AJ16" s="88" cm="1">
+      <c r="AJ16" s="87" cm="1">
         <f t="array" ref="AJ16">INDEX(Page4!$H$9:$H$387, COLUMN(AJ17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AK16" s="88" cm="1">
+      <c r="AK16" s="87" cm="1">
         <f t="array" ref="AK16">INDEX(Page4!$H$9:$H$387, COLUMN(AK17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AL16" s="88" cm="1">
+      <c r="AL16" s="87" cm="1">
         <f t="array" ref="AL16">INDEX(Page4!$H$9:$H$387, COLUMN(AL17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AM16" s="88" cm="1">
+      <c r="AM16" s="87" cm="1">
         <f t="array" ref="AM16">INDEX(Page4!$H$9:$H$387, COLUMN(AM17)-10)</f>
         <v>0</v>
       </c>
-      <c r="AN16" s="88" cm="1">
+      <c r="AN16" s="87" cm="1">
         <f t="array" ref="AN16">INDEX(Page4!$H$9:$H$387, COLUMN(AN17)-10)</f>
         <v>0</v>
       </c>
@@ -12722,15 +12722,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="AQ16" s="96" t="e">
+      <c r="AQ16" s="95" t="e">
         <f t="shared" si="9"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR16" s="95">
+      <c r="AR16" s="94">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AS16" s="95">
+      <c r="AS16" s="94">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
@@ -12768,123 +12768,123 @@
       <c r="J17" s="74" t="s">
         <v>120</v>
       </c>
-      <c r="K17" s="88" t="e" cm="1">
+      <c r="K17" s="87" t="e" cm="1">
         <f t="array" ref="K17">INDEX(Page4!$O$9:$O$38, COLUMN(K18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="L17" s="88" t="e" cm="1">
+      <c r="L17" s="87" t="e" cm="1">
         <f t="array" ref="L17">INDEX(Page4!$O$9:$O$38, COLUMN(L18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M17" s="88" t="e" cm="1">
+      <c r="M17" s="87" t="e" cm="1">
         <f t="array" ref="M17">INDEX(Page4!$O$9:$O$38, COLUMN(M18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N17" s="88" t="e" cm="1">
+      <c r="N17" s="87" t="e" cm="1">
         <f t="array" ref="N17">INDEX(Page4!$O$9:$O$38, COLUMN(N18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="O17" s="88" t="e" cm="1">
+      <c r="O17" s="87" t="e" cm="1">
         <f t="array" ref="O17">INDEX(Page4!$O$9:$O$38, COLUMN(O18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="P17" s="88" t="e" cm="1">
+      <c r="P17" s="87" t="e" cm="1">
         <f t="array" ref="P17">INDEX(Page4!$O$9:$O$38, COLUMN(P18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Q17" s="88" t="e" cm="1">
+      <c r="Q17" s="87" t="e" cm="1">
         <f t="array" ref="Q17">INDEX(Page4!$O$9:$O$38, COLUMN(Q18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="R17" s="88" t="e" cm="1">
+      <c r="R17" s="87" t="e" cm="1">
         <f t="array" ref="R17">INDEX(Page4!$O$9:$O$38, COLUMN(R18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="S17" s="88" t="e" cm="1">
+      <c r="S17" s="87" t="e" cm="1">
         <f t="array" ref="S17">INDEX(Page4!$O$9:$O$38, COLUMN(S18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="T17" s="88" t="e" cm="1">
+      <c r="T17" s="87" t="e" cm="1">
         <f t="array" ref="T17">INDEX(Page4!$O$9:$O$38, COLUMN(T18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="U17" s="88" t="e" cm="1">
+      <c r="U17" s="87" t="e" cm="1">
         <f t="array" ref="U17">INDEX(Page4!$O$9:$O$38, COLUMN(U18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="V17" s="88" t="e" cm="1">
+      <c r="V17" s="87" t="e" cm="1">
         <f t="array" ref="V17">INDEX(Page4!$O$9:$O$38, COLUMN(V18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="W17" s="88" t="e" cm="1">
+      <c r="W17" s="87" t="e" cm="1">
         <f t="array" ref="W17">INDEX(Page4!$O$9:$O$38, COLUMN(W18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="X17" s="88" t="e" cm="1">
+      <c r="X17" s="87" t="e" cm="1">
         <f t="array" ref="X17">INDEX(Page4!$O$9:$O$38, COLUMN(X18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Y17" s="88" t="e" cm="1">
+      <c r="Y17" s="87" t="e" cm="1">
         <f t="array" ref="Y17">INDEX(Page4!$O$9:$O$38, COLUMN(Y18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="Z17" s="88" t="e" cm="1">
+      <c r="Z17" s="87" t="e" cm="1">
         <f t="array" ref="Z17">INDEX(Page4!$O$9:$O$38, COLUMN(Z18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AA17" s="88" t="e" cm="1">
+      <c r="AA17" s="87" t="e" cm="1">
         <f t="array" ref="AA17">INDEX(Page4!$O$9:$O$38, COLUMN(AA18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AB17" s="88" t="e" cm="1">
+      <c r="AB17" s="87" t="e" cm="1">
         <f t="array" ref="AB17">INDEX(Page4!$O$9:$O$38, COLUMN(AB18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AC17" s="88" t="e" cm="1">
+      <c r="AC17" s="87" t="e" cm="1">
         <f t="array" ref="AC17">INDEX(Page4!$O$9:$O$38, COLUMN(AC18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AD17" s="88" t="e" cm="1">
+      <c r="AD17" s="87" t="e" cm="1">
         <f t="array" ref="AD17">INDEX(Page4!$O$9:$O$38, COLUMN(AD18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AE17" s="88" t="e" cm="1">
+      <c r="AE17" s="87" t="e" cm="1">
         <f t="array" ref="AE17">INDEX(Page4!$O$9:$O$38, COLUMN(AE18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AF17" s="88" t="e" cm="1">
+      <c r="AF17" s="87" t="e" cm="1">
         <f t="array" ref="AF17">INDEX(Page4!$O$9:$O$38, COLUMN(AF18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AG17" s="88" t="e" cm="1">
+      <c r="AG17" s="87" t="e" cm="1">
         <f t="array" ref="AG17">INDEX(Page4!$O$9:$O$38, COLUMN(AG18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AH17" s="88" t="e" cm="1">
+      <c r="AH17" s="87" t="e" cm="1">
         <f t="array" ref="AH17">INDEX(Page4!$O$9:$O$38, COLUMN(AH18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AI17" s="88" t="e" cm="1">
+      <c r="AI17" s="87" t="e" cm="1">
         <f t="array" ref="AI17">INDEX(Page4!$O$9:$O$38, COLUMN(AI18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AJ17" s="88" t="e" cm="1">
+      <c r="AJ17" s="87" t="e" cm="1">
         <f t="array" ref="AJ17">INDEX(Page4!$O$9:$O$38, COLUMN(AJ18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AK17" s="88" t="e" cm="1">
+      <c r="AK17" s="87" t="e" cm="1">
         <f t="array" ref="AK17">INDEX(Page4!$O$9:$O$38, COLUMN(AK18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AL17" s="88" t="e" cm="1">
+      <c r="AL17" s="87" t="e" cm="1">
         <f t="array" ref="AL17">INDEX(Page4!$O$9:$O$38, COLUMN(AL18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AM17" s="88" t="e" cm="1">
+      <c r="AM17" s="87" t="e" cm="1">
         <f t="array" ref="AM17">INDEX(Page4!$O$9:$O$38, COLUMN(AM18)-10)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AN17" s="88" t="e" cm="1">
+      <c r="AN17" s="87" t="e" cm="1">
         <f t="array" ref="AN17">INDEX(Page4!$O$9:$O$38, COLUMN(AN18)-10)</f>
         <v>#DIV/0!</v>
       </c>
@@ -12896,15 +12896,15 @@
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AQ17" s="96" t="e">
+      <c r="AQ17" s="95" t="e">
         <f>(I17-AO17)/(3*AP17)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="AR17" s="95" t="e">
+      <c r="AR17" s="94" t="e">
         <f t="shared" si="7"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="AS17" s="95" t="e">
+      <c r="AS17" s="94" t="e">
         <f t="shared" si="8"/>
         <v>#DIV/0!</v>
       </c>

--- a/backend/templates/168-18c-white.xlsx
+++ b/backend/templates/168-18c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B8662-5C69-4C7D-B5F7-48CA1F104CF7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF1CC6-77FE-41D8-AB02-670436979A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -553,10 +553,11 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="3">
+  <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
+    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -2233,7 +2234,7 @@
     <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
@@ -8420,12 +8421,12 @@
   <dimension ref="A1:N50"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="15.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" customWidth="1"/>
     <col min="4" max="4" width="15.5703125" customWidth="1"/>
     <col min="5" max="5" width="20.85546875" customWidth="1"/>
     <col min="6" max="6" width="22" customWidth="1"/>

--- a/backend/templates/168-18c-white.xlsx
+++ b/backend/templates/168-18c-white.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cursor AI Projects\SwansonIndiaPortal\backend\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EEAF1CC6-77FE-41D8-AB02-670436979A81}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92E999C6-F6C4-4FA0-9E7D-8F0729CA7318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -557,7 +557,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000"/>
     <numFmt numFmtId="166" formatCode="0.00_);[Red]\(0.00\)"/>
-    <numFmt numFmtId="168" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
+    <numFmt numFmtId="167" formatCode="[$-14009]dd\-mm\-yyyy;@"/>
   </numFmts>
   <fonts count="18">
     <font>
@@ -1337,7 +1337,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="274">
+  <cellXfs count="275">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment wrapText="1"/>
@@ -1649,6 +1649,122 @@
     <xf numFmtId="165" fontId="15" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
     <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -1661,88 +1777,17 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1753,185 +1798,47 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1944,57 +1851,234 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="47" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="48" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="40" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="41" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="38" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="39" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="45" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="43" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="8" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="2" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -2068,101 +2152,76 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="2" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="33" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="12" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
@@ -2179,64 +2238,8 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="50" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="46" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="49" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="37" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="2" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-      <protection locked="0"/>
+    <xf numFmtId="165" fontId="15" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -2710,61 +2713,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A1" s="117" t="s">
+      <c r="A1" s="166" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="117"/>
-      <c r="C1" s="117"/>
-      <c r="D1" s="117"/>
-      <c r="E1" s="117"/>
-      <c r="F1" s="117"/>
-      <c r="G1" s="117"/>
-      <c r="H1" s="117"/>
-      <c r="I1" s="117"/>
-      <c r="J1" s="117"/>
-      <c r="K1" s="117"/>
-      <c r="L1" s="117"/>
-      <c r="M1" s="117"/>
-      <c r="N1" s="118" t="s">
+      <c r="B1" s="166"/>
+      <c r="C1" s="166"/>
+      <c r="D1" s="166"/>
+      <c r="E1" s="166"/>
+      <c r="F1" s="166"/>
+      <c r="G1" s="166"/>
+      <c r="H1" s="166"/>
+      <c r="I1" s="166"/>
+      <c r="J1" s="166"/>
+      <c r="K1" s="166"/>
+      <c r="L1" s="166"/>
+      <c r="M1" s="166"/>
+      <c r="N1" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="118"/>
+      <c r="O1" s="167"/>
     </row>
     <row r="2" spans="1:15" ht="15.75" customHeight="1">
-      <c r="A2" s="119" t="s">
+      <c r="A2" s="168" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="119"/>
-      <c r="C2" s="119"/>
-      <c r="D2" s="119"/>
-      <c r="E2" s="119"/>
-      <c r="F2" s="119"/>
-      <c r="G2" s="119"/>
-      <c r="H2" s="119"/>
-      <c r="I2" s="119"/>
-      <c r="J2" s="119"/>
-      <c r="K2" s="119"/>
-      <c r="L2" s="119"/>
-      <c r="M2" s="119"/>
-      <c r="N2" s="121" t="s">
+      <c r="B2" s="168"/>
+      <c r="C2" s="168"/>
+      <c r="D2" s="168"/>
+      <c r="E2" s="168"/>
+      <c r="F2" s="168"/>
+      <c r="G2" s="168"/>
+      <c r="H2" s="168"/>
+      <c r="I2" s="168"/>
+      <c r="J2" s="168"/>
+      <c r="K2" s="168"/>
+      <c r="L2" s="168"/>
+      <c r="M2" s="168"/>
+      <c r="N2" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="121"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A3" s="120"/>
-      <c r="B3" s="120"/>
-      <c r="C3" s="120"/>
-      <c r="D3" s="120"/>
-      <c r="E3" s="120"/>
-      <c r="F3" s="120"/>
-      <c r="G3" s="120"/>
-      <c r="H3" s="120"/>
-      <c r="I3" s="120"/>
-      <c r="J3" s="120"/>
-      <c r="K3" s="120"/>
-      <c r="L3" s="120"/>
-      <c r="M3" s="120"/>
+      <c r="A3" s="169"/>
+      <c r="B3" s="169"/>
+      <c r="C3" s="169"/>
+      <c r="D3" s="169"/>
+      <c r="E3" s="169"/>
+      <c r="F3" s="169"/>
+      <c r="G3" s="169"/>
+      <c r="H3" s="169"/>
+      <c r="I3" s="169"/>
+      <c r="J3" s="169"/>
+      <c r="K3" s="169"/>
+      <c r="L3" s="169"/>
+      <c r="M3" s="169"/>
       <c r="N3" s="2" t="s">
         <v>20</v>
       </c>
@@ -2774,607 +2777,607 @@
       <c r="A4" s="4" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="122"/>
-      <c r="C4" s="123"/>
-      <c r="D4" s="124" t="s">
+      <c r="B4" s="134"/>
+      <c r="C4" s="135"/>
+      <c r="D4" s="136" t="s">
         <v>3</v>
       </c>
-      <c r="E4" s="125"/>
-      <c r="F4" s="122"/>
-      <c r="G4" s="182"/>
-      <c r="H4" s="124" t="s">
+      <c r="E4" s="149"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="148"/>
+      <c r="H4" s="136" t="s">
         <v>5</v>
       </c>
-      <c r="I4" s="125"/>
-      <c r="J4" s="122"/>
-      <c r="K4" s="123"/>
-      <c r="L4" s="124" t="s">
+      <c r="I4" s="149"/>
+      <c r="J4" s="134"/>
+      <c r="K4" s="135"/>
+      <c r="L4" s="136" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="172"/>
-      <c r="N4" s="122"/>
-      <c r="O4" s="173"/>
+      <c r="M4" s="137"/>
+      <c r="N4" s="134"/>
+      <c r="O4" s="138"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="174"/>
-      <c r="C5" s="175"/>
-      <c r="D5" s="176" t="s">
+      <c r="B5" s="139"/>
+      <c r="C5" s="140"/>
+      <c r="D5" s="141" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="177"/>
-      <c r="F5" s="174"/>
-      <c r="G5" s="183"/>
-      <c r="H5" s="184" t="s">
+      <c r="E5" s="142"/>
+      <c r="F5" s="139"/>
+      <c r="G5" s="150"/>
+      <c r="H5" s="151" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="185"/>
-      <c r="J5" s="178"/>
-      <c r="K5" s="179"/>
-      <c r="L5" s="176" t="s">
+      <c r="I5" s="152"/>
+      <c r="J5" s="143"/>
+      <c r="K5" s="144"/>
+      <c r="L5" s="141" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="180"/>
-      <c r="N5" s="174"/>
-      <c r="O5" s="181"/>
+      <c r="M5" s="145"/>
+      <c r="N5" s="139"/>
+      <c r="O5" s="146"/>
     </row>
     <row r="6" spans="1:15" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="160" t="s">
+      <c r="A6" s="153" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="161"/>
-      <c r="C6" s="161"/>
-      <c r="D6" s="161"/>
-      <c r="E6" s="161"/>
-      <c r="F6" s="161"/>
-      <c r="G6" s="167"/>
-      <c r="H6" s="168"/>
-      <c r="I6" s="169"/>
-      <c r="J6" s="161"/>
-      <c r="K6" s="161"/>
-      <c r="L6" s="161"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="168"/>
-      <c r="O6" s="170"/>
+      <c r="B6" s="154"/>
+      <c r="C6" s="154"/>
+      <c r="D6" s="154"/>
+      <c r="E6" s="154"/>
+      <c r="F6" s="154"/>
+      <c r="G6" s="160"/>
+      <c r="H6" s="161"/>
+      <c r="I6" s="162"/>
+      <c r="J6" s="154"/>
+      <c r="K6" s="154"/>
+      <c r="L6" s="154"/>
+      <c r="M6" s="160"/>
+      <c r="N6" s="161"/>
+      <c r="O6" s="163"/>
     </row>
     <row r="7" spans="1:15" s="7" customFormat="1" ht="56.25" customHeight="1" thickBot="1">
-      <c r="A7" s="165" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="166"/>
-      <c r="C7" s="166"/>
-      <c r="D7" s="162" t="s">
+      <c r="A7" s="158" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="159"/>
+      <c r="C7" s="159"/>
+      <c r="D7" s="155" t="s">
         <v>152</v>
       </c>
-      <c r="E7" s="163"/>
-      <c r="F7" s="164"/>
-      <c r="G7" s="162" t="s">
+      <c r="E7" s="156"/>
+      <c r="F7" s="157"/>
+      <c r="G7" s="155" t="s">
         <v>37</v>
       </c>
-      <c r="H7" s="163"/>
-      <c r="I7" s="164"/>
-      <c r="J7" s="166" t="s">
+      <c r="H7" s="156"/>
+      <c r="I7" s="157"/>
+      <c r="J7" s="159" t="s">
         <v>30</v>
       </c>
-      <c r="K7" s="166"/>
-      <c r="L7" s="166"/>
-      <c r="M7" s="162" t="s">
+      <c r="K7" s="159"/>
+      <c r="L7" s="159"/>
+      <c r="M7" s="155" t="s">
         <v>9</v>
       </c>
-      <c r="N7" s="163"/>
-      <c r="O7" s="171"/>
+      <c r="N7" s="156"/>
+      <c r="O7" s="164"/>
     </row>
     <row r="8" spans="1:15" ht="19.5" customHeight="1">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
-      <c r="D8" s="97"/>
-      <c r="E8" s="98"/>
-      <c r="F8" s="106"/>
-      <c r="G8" s="100"/>
-      <c r="H8" s="101"/>
-      <c r="I8" s="102"/>
-      <c r="J8" s="103"/>
-      <c r="K8" s="104"/>
-      <c r="L8" s="105"/>
-      <c r="M8" s="97"/>
-      <c r="N8" s="98"/>
-      <c r="O8" s="99"/>
+      <c r="D8" s="128"/>
+      <c r="E8" s="129"/>
+      <c r="F8" s="147"/>
+      <c r="G8" s="122"/>
+      <c r="H8" s="123"/>
+      <c r="I8" s="124"/>
+      <c r="J8" s="125"/>
+      <c r="K8" s="126"/>
+      <c r="L8" s="127"/>
+      <c r="M8" s="128"/>
+      <c r="N8" s="129"/>
+      <c r="O8" s="130"/>
     </row>
     <row r="9" spans="1:15" ht="19.5" customHeight="1">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
-      <c r="D9" s="107"/>
-      <c r="E9" s="108"/>
-      <c r="F9" s="109"/>
-      <c r="G9" s="114"/>
-      <c r="H9" s="115"/>
-      <c r="I9" s="116"/>
-      <c r="J9" s="110"/>
-      <c r="K9" s="111"/>
-      <c r="L9" s="112"/>
-      <c r="M9" s="107"/>
-      <c r="N9" s="108"/>
-      <c r="O9" s="113"/>
+      <c r="D9" s="119"/>
+      <c r="E9" s="120"/>
+      <c r="F9" s="165"/>
+      <c r="G9" s="131"/>
+      <c r="H9" s="132"/>
+      <c r="I9" s="133"/>
+      <c r="J9" s="116"/>
+      <c r="K9" s="117"/>
+      <c r="L9" s="118"/>
+      <c r="M9" s="119"/>
+      <c r="N9" s="120"/>
+      <c r="O9" s="121"/>
     </row>
     <row r="10" spans="1:15" ht="19.5" customHeight="1">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
-      <c r="D10" s="97"/>
-      <c r="E10" s="98"/>
-      <c r="F10" s="106"/>
-      <c r="G10" s="100"/>
-      <c r="H10" s="101"/>
-      <c r="I10" s="102"/>
-      <c r="J10" s="103"/>
-      <c r="K10" s="104"/>
-      <c r="L10" s="105"/>
-      <c r="M10" s="97"/>
-      <c r="N10" s="98"/>
-      <c r="O10" s="99"/>
+      <c r="D10" s="128"/>
+      <c r="E10" s="129"/>
+      <c r="F10" s="147"/>
+      <c r="G10" s="122"/>
+      <c r="H10" s="123"/>
+      <c r="I10" s="124"/>
+      <c r="J10" s="125"/>
+      <c r="K10" s="126"/>
+      <c r="L10" s="127"/>
+      <c r="M10" s="128"/>
+      <c r="N10" s="129"/>
+      <c r="O10" s="130"/>
     </row>
     <row r="11" spans="1:15" ht="19.5" customHeight="1">
       <c r="A11" s="10"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
-      <c r="D11" s="97"/>
-      <c r="E11" s="98"/>
-      <c r="F11" s="106"/>
-      <c r="G11" s="100"/>
-      <c r="H11" s="101"/>
-      <c r="I11" s="102"/>
-      <c r="J11" s="103"/>
-      <c r="K11" s="104"/>
-      <c r="L11" s="105"/>
-      <c r="M11" s="97"/>
-      <c r="N11" s="98"/>
-      <c r="O11" s="99"/>
+      <c r="D11" s="128"/>
+      <c r="E11" s="129"/>
+      <c r="F11" s="147"/>
+      <c r="G11" s="122"/>
+      <c r="H11" s="123"/>
+      <c r="I11" s="124"/>
+      <c r="J11" s="125"/>
+      <c r="K11" s="126"/>
+      <c r="L11" s="127"/>
+      <c r="M11" s="128"/>
+      <c r="N11" s="129"/>
+      <c r="O11" s="130"/>
     </row>
     <row r="12" spans="1:15" ht="19.5" customHeight="1">
       <c r="A12" s="11"/>
       <c r="B12" s="12"/>
       <c r="C12" s="12"/>
-      <c r="D12" s="107"/>
-      <c r="E12" s="108"/>
-      <c r="F12" s="109"/>
-      <c r="G12" s="114"/>
-      <c r="H12" s="115"/>
-      <c r="I12" s="116"/>
-      <c r="J12" s="110"/>
-      <c r="K12" s="111"/>
-      <c r="L12" s="112"/>
-      <c r="M12" s="107"/>
-      <c r="N12" s="108"/>
-      <c r="O12" s="113"/>
+      <c r="D12" s="119"/>
+      <c r="E12" s="120"/>
+      <c r="F12" s="165"/>
+      <c r="G12" s="131"/>
+      <c r="H12" s="132"/>
+      <c r="I12" s="133"/>
+      <c r="J12" s="116"/>
+      <c r="K12" s="117"/>
+      <c r="L12" s="118"/>
+      <c r="M12" s="119"/>
+      <c r="N12" s="120"/>
+      <c r="O12" s="121"/>
     </row>
     <row r="13" spans="1:15" ht="19.5" customHeight="1">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
-      <c r="D13" s="97"/>
-      <c r="E13" s="98"/>
-      <c r="F13" s="106"/>
-      <c r="G13" s="100"/>
-      <c r="H13" s="101"/>
-      <c r="I13" s="102"/>
-      <c r="J13" s="103"/>
-      <c r="K13" s="104"/>
-      <c r="L13" s="105"/>
-      <c r="M13" s="97"/>
-      <c r="N13" s="98"/>
-      <c r="O13" s="99"/>
+      <c r="D13" s="128"/>
+      <c r="E13" s="129"/>
+      <c r="F13" s="147"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="123"/>
+      <c r="I13" s="124"/>
+      <c r="J13" s="125"/>
+      <c r="K13" s="126"/>
+      <c r="L13" s="127"/>
+      <c r="M13" s="128"/>
+      <c r="N13" s="129"/>
+      <c r="O13" s="130"/>
     </row>
     <row r="14" spans="1:15" ht="19.5" customHeight="1">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
-      <c r="D14" s="97"/>
-      <c r="E14" s="98"/>
-      <c r="F14" s="106"/>
-      <c r="G14" s="100"/>
-      <c r="H14" s="101"/>
-      <c r="I14" s="102"/>
-      <c r="J14" s="103"/>
-      <c r="K14" s="104"/>
-      <c r="L14" s="105"/>
-      <c r="M14" s="97"/>
-      <c r="N14" s="98"/>
-      <c r="O14" s="99"/>
+      <c r="D14" s="128"/>
+      <c r="E14" s="129"/>
+      <c r="F14" s="147"/>
+      <c r="G14" s="122"/>
+      <c r="H14" s="123"/>
+      <c r="I14" s="124"/>
+      <c r="J14" s="125"/>
+      <c r="K14" s="126"/>
+      <c r="L14" s="127"/>
+      <c r="M14" s="128"/>
+      <c r="N14" s="129"/>
+      <c r="O14" s="130"/>
     </row>
     <row r="15" spans="1:15" ht="19.5" customHeight="1">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
-      <c r="D15" s="97"/>
-      <c r="E15" s="98"/>
-      <c r="F15" s="106"/>
-      <c r="G15" s="100"/>
-      <c r="H15" s="101"/>
-      <c r="I15" s="102"/>
-      <c r="J15" s="103"/>
-      <c r="K15" s="104"/>
-      <c r="L15" s="105"/>
-      <c r="M15" s="97"/>
-      <c r="N15" s="98"/>
-      <c r="O15" s="99"/>
+      <c r="D15" s="128"/>
+      <c r="E15" s="129"/>
+      <c r="F15" s="147"/>
+      <c r="G15" s="122"/>
+      <c r="H15" s="123"/>
+      <c r="I15" s="124"/>
+      <c r="J15" s="125"/>
+      <c r="K15" s="126"/>
+      <c r="L15" s="127"/>
+      <c r="M15" s="128"/>
+      <c r="N15" s="129"/>
+      <c r="O15" s="130"/>
     </row>
     <row r="16" spans="1:15" ht="19.5" customHeight="1">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
-      <c r="D16" s="107"/>
-      <c r="E16" s="108"/>
-      <c r="F16" s="109"/>
-      <c r="G16" s="114"/>
-      <c r="H16" s="115"/>
-      <c r="I16" s="116"/>
-      <c r="J16" s="110"/>
-      <c r="K16" s="111"/>
-      <c r="L16" s="112"/>
-      <c r="M16" s="107"/>
-      <c r="N16" s="108"/>
-      <c r="O16" s="113"/>
+      <c r="D16" s="119"/>
+      <c r="E16" s="120"/>
+      <c r="F16" s="165"/>
+      <c r="G16" s="131"/>
+      <c r="H16" s="132"/>
+      <c r="I16" s="133"/>
+      <c r="J16" s="116"/>
+      <c r="K16" s="117"/>
+      <c r="L16" s="118"/>
+      <c r="M16" s="119"/>
+      <c r="N16" s="120"/>
+      <c r="O16" s="121"/>
     </row>
     <row r="17" spans="1:15" ht="19.5" customHeight="1">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
-      <c r="D17" s="97"/>
-      <c r="E17" s="98"/>
-      <c r="F17" s="106"/>
-      <c r="G17" s="100"/>
-      <c r="H17" s="101"/>
-      <c r="I17" s="102"/>
-      <c r="J17" s="103"/>
-      <c r="K17" s="104"/>
-      <c r="L17" s="105"/>
-      <c r="M17" s="97"/>
-      <c r="N17" s="98"/>
-      <c r="O17" s="99"/>
+      <c r="D17" s="128"/>
+      <c r="E17" s="129"/>
+      <c r="F17" s="147"/>
+      <c r="G17" s="122"/>
+      <c r="H17" s="123"/>
+      <c r="I17" s="124"/>
+      <c r="J17" s="125"/>
+      <c r="K17" s="126"/>
+      <c r="L17" s="127"/>
+      <c r="M17" s="128"/>
+      <c r="N17" s="129"/>
+      <c r="O17" s="130"/>
     </row>
     <row r="18" spans="1:15" ht="19.5" customHeight="1">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
-      <c r="D18" s="97"/>
-      <c r="E18" s="98"/>
-      <c r="F18" s="106"/>
-      <c r="G18" s="100"/>
-      <c r="H18" s="101"/>
-      <c r="I18" s="102"/>
-      <c r="J18" s="103"/>
-      <c r="K18" s="104"/>
-      <c r="L18" s="105"/>
-      <c r="M18" s="97"/>
-      <c r="N18" s="98"/>
-      <c r="O18" s="99"/>
+      <c r="D18" s="128"/>
+      <c r="E18" s="129"/>
+      <c r="F18" s="147"/>
+      <c r="G18" s="122"/>
+      <c r="H18" s="123"/>
+      <c r="I18" s="124"/>
+      <c r="J18" s="125"/>
+      <c r="K18" s="126"/>
+      <c r="L18" s="127"/>
+      <c r="M18" s="128"/>
+      <c r="N18" s="129"/>
+      <c r="O18" s="130"/>
     </row>
     <row r="19" spans="1:15" ht="19.5" customHeight="1">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
-      <c r="D19" s="107"/>
-      <c r="E19" s="108"/>
-      <c r="F19" s="109"/>
-      <c r="G19" s="114"/>
-      <c r="H19" s="115"/>
-      <c r="I19" s="116"/>
-      <c r="J19" s="110"/>
-      <c r="K19" s="111"/>
-      <c r="L19" s="112"/>
-      <c r="M19" s="107"/>
-      <c r="N19" s="108"/>
-      <c r="O19" s="113"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120"/>
+      <c r="F19" s="165"/>
+      <c r="G19" s="131"/>
+      <c r="H19" s="132"/>
+      <c r="I19" s="133"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="117"/>
+      <c r="L19" s="118"/>
+      <c r="M19" s="119"/>
+      <c r="N19" s="120"/>
+      <c r="O19" s="121"/>
     </row>
     <row r="20" spans="1:15" ht="19.5" customHeight="1">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
-      <c r="D20" s="97"/>
-      <c r="E20" s="98"/>
-      <c r="F20" s="106"/>
-      <c r="G20" s="100"/>
-      <c r="H20" s="101"/>
-      <c r="I20" s="102"/>
-      <c r="J20" s="103"/>
-      <c r="K20" s="104"/>
-      <c r="L20" s="105"/>
-      <c r="M20" s="97"/>
-      <c r="N20" s="98"/>
-      <c r="O20" s="99"/>
+      <c r="D20" s="128"/>
+      <c r="E20" s="129"/>
+      <c r="F20" s="147"/>
+      <c r="G20" s="122"/>
+      <c r="H20" s="123"/>
+      <c r="I20" s="124"/>
+      <c r="J20" s="125"/>
+      <c r="K20" s="126"/>
+      <c r="L20" s="127"/>
+      <c r="M20" s="128"/>
+      <c r="N20" s="129"/>
+      <c r="O20" s="130"/>
     </row>
     <row r="21" spans="1:15" ht="19.5" customHeight="1">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
-      <c r="D21" s="97"/>
-      <c r="E21" s="98"/>
-      <c r="F21" s="106"/>
-      <c r="G21" s="100"/>
-      <c r="H21" s="101"/>
-      <c r="I21" s="102"/>
-      <c r="J21" s="103"/>
-      <c r="K21" s="104"/>
-      <c r="L21" s="105"/>
-      <c r="M21" s="97"/>
-      <c r="N21" s="98"/>
-      <c r="O21" s="99"/>
+      <c r="D21" s="128"/>
+      <c r="E21" s="129"/>
+      <c r="F21" s="147"/>
+      <c r="G21" s="122"/>
+      <c r="H21" s="123"/>
+      <c r="I21" s="124"/>
+      <c r="J21" s="125"/>
+      <c r="K21" s="126"/>
+      <c r="L21" s="127"/>
+      <c r="M21" s="128"/>
+      <c r="N21" s="129"/>
+      <c r="O21" s="130"/>
     </row>
     <row r="22" spans="1:15" ht="19.5" customHeight="1">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
-      <c r="D22" s="107"/>
-      <c r="E22" s="108"/>
-      <c r="F22" s="109"/>
-      <c r="G22" s="114"/>
-      <c r="H22" s="115"/>
-      <c r="I22" s="116"/>
-      <c r="J22" s="110"/>
-      <c r="K22" s="111"/>
-      <c r="L22" s="112"/>
-      <c r="M22" s="107"/>
-      <c r="N22" s="108"/>
-      <c r="O22" s="113"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120"/>
+      <c r="F22" s="165"/>
+      <c r="G22" s="131"/>
+      <c r="H22" s="132"/>
+      <c r="I22" s="133"/>
+      <c r="J22" s="116"/>
+      <c r="K22" s="117"/>
+      <c r="L22" s="118"/>
+      <c r="M22" s="119"/>
+      <c r="N22" s="120"/>
+      <c r="O22" s="121"/>
     </row>
     <row r="23" spans="1:15" ht="19.5" customHeight="1">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
-      <c r="D23" s="97"/>
-      <c r="E23" s="98"/>
-      <c r="F23" s="106"/>
-      <c r="G23" s="100"/>
-      <c r="H23" s="101"/>
-      <c r="I23" s="102"/>
-      <c r="J23" s="103"/>
-      <c r="K23" s="104"/>
-      <c r="L23" s="105"/>
-      <c r="M23" s="97"/>
-      <c r="N23" s="98"/>
-      <c r="O23" s="99"/>
+      <c r="D23" s="128"/>
+      <c r="E23" s="129"/>
+      <c r="F23" s="147"/>
+      <c r="G23" s="122"/>
+      <c r="H23" s="123"/>
+      <c r="I23" s="124"/>
+      <c r="J23" s="125"/>
+      <c r="K23" s="126"/>
+      <c r="L23" s="127"/>
+      <c r="M23" s="128"/>
+      <c r="N23" s="129"/>
+      <c r="O23" s="130"/>
     </row>
     <row r="24" spans="1:15" ht="19.5" customHeight="1">
       <c r="A24" s="10"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
-      <c r="D24" s="97"/>
-      <c r="E24" s="98"/>
-      <c r="F24" s="106"/>
-      <c r="G24" s="100"/>
-      <c r="H24" s="101"/>
-      <c r="I24" s="102"/>
-      <c r="J24" s="103"/>
-      <c r="K24" s="104"/>
-      <c r="L24" s="105"/>
-      <c r="M24" s="97"/>
-      <c r="N24" s="98"/>
-      <c r="O24" s="99"/>
+      <c r="D24" s="128"/>
+      <c r="E24" s="129"/>
+      <c r="F24" s="147"/>
+      <c r="G24" s="122"/>
+      <c r="H24" s="123"/>
+      <c r="I24" s="124"/>
+      <c r="J24" s="125"/>
+      <c r="K24" s="126"/>
+      <c r="L24" s="127"/>
+      <c r="M24" s="128"/>
+      <c r="N24" s="129"/>
+      <c r="O24" s="130"/>
     </row>
     <row r="25" spans="1:15" ht="19.5" customHeight="1">
       <c r="A25" s="11"/>
       <c r="B25" s="12"/>
       <c r="C25" s="12"/>
-      <c r="D25" s="107"/>
-      <c r="E25" s="108"/>
-      <c r="F25" s="109"/>
-      <c r="G25" s="114"/>
-      <c r="H25" s="115"/>
-      <c r="I25" s="116"/>
-      <c r="J25" s="110"/>
-      <c r="K25" s="111"/>
-      <c r="L25" s="112"/>
-      <c r="M25" s="107"/>
-      <c r="N25" s="108"/>
-      <c r="O25" s="113"/>
+      <c r="D25" s="119"/>
+      <c r="E25" s="120"/>
+      <c r="F25" s="165"/>
+      <c r="G25" s="131"/>
+      <c r="H25" s="132"/>
+      <c r="I25" s="133"/>
+      <c r="J25" s="116"/>
+      <c r="K25" s="117"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="119"/>
+      <c r="N25" s="120"/>
+      <c r="O25" s="121"/>
     </row>
     <row r="26" spans="1:15" ht="19.5" customHeight="1">
       <c r="A26" s="8"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
-      <c r="D26" s="97"/>
-      <c r="E26" s="98"/>
-      <c r="F26" s="106"/>
-      <c r="G26" s="100"/>
-      <c r="H26" s="101"/>
-      <c r="I26" s="102"/>
-      <c r="J26" s="103"/>
-      <c r="K26" s="104"/>
-      <c r="L26" s="105"/>
-      <c r="M26" s="97"/>
-      <c r="N26" s="98"/>
-      <c r="O26" s="99"/>
+      <c r="D26" s="128"/>
+      <c r="E26" s="129"/>
+      <c r="F26" s="147"/>
+      <c r="G26" s="122"/>
+      <c r="H26" s="123"/>
+      <c r="I26" s="124"/>
+      <c r="J26" s="125"/>
+      <c r="K26" s="126"/>
+      <c r="L26" s="127"/>
+      <c r="M26" s="128"/>
+      <c r="N26" s="129"/>
+      <c r="O26" s="130"/>
     </row>
     <row r="27" spans="1:15" ht="19.5" customHeight="1">
       <c r="A27" s="8"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
-      <c r="D27" s="97"/>
-      <c r="E27" s="98"/>
-      <c r="F27" s="106"/>
-      <c r="G27" s="100"/>
-      <c r="H27" s="101"/>
-      <c r="I27" s="102"/>
-      <c r="J27" s="103"/>
-      <c r="K27" s="104"/>
-      <c r="L27" s="105"/>
-      <c r="M27" s="97"/>
-      <c r="N27" s="98"/>
-      <c r="O27" s="99"/>
+      <c r="D27" s="128"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="147"/>
+      <c r="G27" s="122"/>
+      <c r="H27" s="123"/>
+      <c r="I27" s="124"/>
+      <c r="J27" s="125"/>
+      <c r="K27" s="126"/>
+      <c r="L27" s="127"/>
+      <c r="M27" s="128"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="130"/>
     </row>
     <row r="28" spans="1:15" ht="19.5" customHeight="1">
       <c r="A28" s="8"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
-      <c r="D28" s="97"/>
-      <c r="E28" s="98"/>
-      <c r="F28" s="106"/>
-      <c r="G28" s="100"/>
-      <c r="H28" s="101"/>
-      <c r="I28" s="102"/>
-      <c r="J28" s="103"/>
-      <c r="K28" s="104"/>
-      <c r="L28" s="105"/>
-      <c r="M28" s="97"/>
-      <c r="N28" s="98"/>
-      <c r="O28" s="99"/>
+      <c r="D28" s="128"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="147"/>
+      <c r="G28" s="122"/>
+      <c r="H28" s="123"/>
+      <c r="I28" s="124"/>
+      <c r="J28" s="125"/>
+      <c r="K28" s="126"/>
+      <c r="L28" s="127"/>
+      <c r="M28" s="128"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="130"/>
     </row>
     <row r="29" spans="1:15" ht="19.5" customHeight="1">
       <c r="A29" s="8"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
-      <c r="D29" s="107"/>
-      <c r="E29" s="108"/>
-      <c r="F29" s="109"/>
-      <c r="G29" s="114"/>
-      <c r="H29" s="115"/>
-      <c r="I29" s="116"/>
-      <c r="J29" s="110"/>
-      <c r="K29" s="111"/>
-      <c r="L29" s="112"/>
-      <c r="M29" s="107"/>
-      <c r="N29" s="108"/>
-      <c r="O29" s="113"/>
+      <c r="D29" s="119"/>
+      <c r="E29" s="120"/>
+      <c r="F29" s="165"/>
+      <c r="G29" s="131"/>
+      <c r="H29" s="132"/>
+      <c r="I29" s="133"/>
+      <c r="J29" s="116"/>
+      <c r="K29" s="117"/>
+      <c r="L29" s="118"/>
+      <c r="M29" s="119"/>
+      <c r="N29" s="120"/>
+      <c r="O29" s="121"/>
     </row>
     <row r="30" spans="1:15" ht="19.5" customHeight="1">
       <c r="A30" s="8"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
-      <c r="D30" s="97"/>
-      <c r="E30" s="98"/>
-      <c r="F30" s="106"/>
-      <c r="G30" s="100"/>
-      <c r="H30" s="101"/>
-      <c r="I30" s="102"/>
-      <c r="J30" s="103"/>
-      <c r="K30" s="104"/>
-      <c r="L30" s="105"/>
-      <c r="M30" s="97"/>
-      <c r="N30" s="98"/>
-      <c r="O30" s="99"/>
+      <c r="D30" s="128"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="147"/>
+      <c r="G30" s="122"/>
+      <c r="H30" s="123"/>
+      <c r="I30" s="124"/>
+      <c r="J30" s="125"/>
+      <c r="K30" s="126"/>
+      <c r="L30" s="127"/>
+      <c r="M30" s="128"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="130"/>
     </row>
     <row r="31" spans="1:15" ht="19.5" customHeight="1">
       <c r="A31" s="8"/>
       <c r="B31" s="9"/>
       <c r="C31" s="9"/>
-      <c r="D31" s="97"/>
-      <c r="E31" s="98"/>
-      <c r="F31" s="106"/>
-      <c r="G31" s="100"/>
-      <c r="H31" s="101"/>
-      <c r="I31" s="102"/>
-      <c r="J31" s="103"/>
-      <c r="K31" s="104"/>
-      <c r="L31" s="105"/>
-      <c r="M31" s="97"/>
-      <c r="N31" s="98"/>
-      <c r="O31" s="99"/>
+      <c r="D31" s="128"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="147"/>
+      <c r="G31" s="122"/>
+      <c r="H31" s="123"/>
+      <c r="I31" s="124"/>
+      <c r="J31" s="125"/>
+      <c r="K31" s="126"/>
+      <c r="L31" s="127"/>
+      <c r="M31" s="128"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="130"/>
     </row>
     <row r="32" spans="1:15" ht="19.5" customHeight="1">
       <c r="A32" s="8"/>
       <c r="B32" s="9"/>
       <c r="C32" s="9"/>
-      <c r="D32" s="107"/>
-      <c r="E32" s="108"/>
-      <c r="F32" s="109"/>
-      <c r="G32" s="114"/>
-      <c r="H32" s="115"/>
-      <c r="I32" s="116"/>
-      <c r="J32" s="110"/>
-      <c r="K32" s="111"/>
-      <c r="L32" s="112"/>
-      <c r="M32" s="107"/>
-      <c r="N32" s="108"/>
-      <c r="O32" s="113"/>
+      <c r="D32" s="119"/>
+      <c r="E32" s="120"/>
+      <c r="F32" s="165"/>
+      <c r="G32" s="131"/>
+      <c r="H32" s="132"/>
+      <c r="I32" s="133"/>
+      <c r="J32" s="116"/>
+      <c r="K32" s="117"/>
+      <c r="L32" s="118"/>
+      <c r="M32" s="119"/>
+      <c r="N32" s="120"/>
+      <c r="O32" s="121"/>
     </row>
     <row r="33" spans="1:15" ht="19.5" customHeight="1">
       <c r="A33" s="8"/>
       <c r="B33" s="9"/>
       <c r="C33" s="9"/>
-      <c r="D33" s="97"/>
-      <c r="E33" s="98"/>
-      <c r="F33" s="106"/>
-      <c r="G33" s="100"/>
-      <c r="H33" s="101"/>
-      <c r="I33" s="102"/>
-      <c r="J33" s="103"/>
-      <c r="K33" s="104"/>
-      <c r="L33" s="105"/>
-      <c r="M33" s="97"/>
-      <c r="N33" s="98"/>
-      <c r="O33" s="99"/>
+      <c r="D33" s="128"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="147"/>
+      <c r="G33" s="122"/>
+      <c r="H33" s="123"/>
+      <c r="I33" s="124"/>
+      <c r="J33" s="125"/>
+      <c r="K33" s="126"/>
+      <c r="L33" s="127"/>
+      <c r="M33" s="128"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="130"/>
     </row>
     <row r="34" spans="1:15" ht="19.5" customHeight="1">
       <c r="A34" s="8"/>
       <c r="B34" s="9"/>
       <c r="C34" s="9"/>
-      <c r="D34" s="97"/>
-      <c r="E34" s="98"/>
-      <c r="F34" s="106"/>
-      <c r="G34" s="100"/>
-      <c r="H34" s="101"/>
-      <c r="I34" s="102"/>
-      <c r="J34" s="103"/>
-      <c r="K34" s="104"/>
-      <c r="L34" s="105"/>
-      <c r="M34" s="97"/>
-      <c r="N34" s="98"/>
-      <c r="O34" s="99"/>
+      <c r="D34" s="128"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="147"/>
+      <c r="G34" s="122"/>
+      <c r="H34" s="123"/>
+      <c r="I34" s="124"/>
+      <c r="J34" s="125"/>
+      <c r="K34" s="126"/>
+      <c r="L34" s="127"/>
+      <c r="M34" s="128"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="130"/>
     </row>
     <row r="35" spans="1:15" ht="19.5" customHeight="1">
       <c r="A35" s="8"/>
       <c r="B35" s="9"/>
       <c r="C35" s="9"/>
-      <c r="D35" s="107"/>
-      <c r="E35" s="108"/>
-      <c r="F35" s="109"/>
-      <c r="G35" s="114"/>
-      <c r="H35" s="115"/>
-      <c r="I35" s="116"/>
-      <c r="J35" s="110"/>
-      <c r="K35" s="111"/>
-      <c r="L35" s="112"/>
-      <c r="M35" s="107"/>
-      <c r="N35" s="108"/>
-      <c r="O35" s="113"/>
+      <c r="D35" s="119"/>
+      <c r="E35" s="120"/>
+      <c r="F35" s="165"/>
+      <c r="G35" s="131"/>
+      <c r="H35" s="132"/>
+      <c r="I35" s="133"/>
+      <c r="J35" s="116"/>
+      <c r="K35" s="117"/>
+      <c r="L35" s="118"/>
+      <c r="M35" s="119"/>
+      <c r="N35" s="120"/>
+      <c r="O35" s="121"/>
     </row>
     <row r="36" spans="1:15" ht="19.5" customHeight="1">
       <c r="A36" s="8"/>
       <c r="B36" s="9"/>
       <c r="C36" s="9"/>
-      <c r="D36" s="97"/>
-      <c r="E36" s="98"/>
-      <c r="F36" s="106"/>
-      <c r="G36" s="100"/>
-      <c r="H36" s="101"/>
-      <c r="I36" s="102"/>
-      <c r="J36" s="103"/>
-      <c r="K36" s="104"/>
-      <c r="L36" s="105"/>
-      <c r="M36" s="97"/>
-      <c r="N36" s="98"/>
-      <c r="O36" s="99"/>
+      <c r="D36" s="128"/>
+      <c r="E36" s="129"/>
+      <c r="F36" s="147"/>
+      <c r="G36" s="122"/>
+      <c r="H36" s="123"/>
+      <c r="I36" s="124"/>
+      <c r="J36" s="125"/>
+      <c r="K36" s="126"/>
+      <c r="L36" s="127"/>
+      <c r="M36" s="128"/>
+      <c r="N36" s="129"/>
+      <c r="O36" s="130"/>
     </row>
     <row r="37" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A37" s="8"/>
       <c r="B37" s="9"/>
       <c r="C37" s="9"/>
-      <c r="D37" s="157"/>
-      <c r="E37" s="158"/>
-      <c r="F37" s="159"/>
-      <c r="G37" s="186"/>
-      <c r="H37" s="187"/>
-      <c r="I37" s="188"/>
-      <c r="J37" s="189"/>
-      <c r="K37" s="190"/>
-      <c r="L37" s="191"/>
-      <c r="M37" s="157"/>
-      <c r="N37" s="158"/>
-      <c r="O37" s="192"/>
+      <c r="D37" s="107"/>
+      <c r="E37" s="108"/>
+      <c r="F37" s="201"/>
+      <c r="G37" s="101"/>
+      <c r="H37" s="102"/>
+      <c r="I37" s="103"/>
+      <c r="J37" s="104"/>
+      <c r="K37" s="105"/>
+      <c r="L37" s="106"/>
+      <c r="M37" s="107"/>
+      <c r="N37" s="108"/>
+      <c r="O37" s="109"/>
     </row>
     <row r="38" spans="1:15" ht="19.5" customHeight="1">
       <c r="A38" s="13"/>
@@ -3382,30 +3385,30 @@
       <c r="C38" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D38" s="127" t="e">
+      <c r="D38" s="171" t="e">
         <f>AVERAGE(D8:F37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E38" s="128"/>
-      <c r="F38" s="129"/>
-      <c r="G38" s="136" t="e">
+      <c r="E38" s="172"/>
+      <c r="F38" s="173"/>
+      <c r="G38" s="180" t="e">
         <f t="shared" ref="G38" si="0">AVERAGE(G8:I37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="H38" s="137"/>
-      <c r="I38" s="138"/>
-      <c r="J38" s="139" t="e">
+      <c r="H38" s="181"/>
+      <c r="I38" s="182"/>
+      <c r="J38" s="183" t="e">
         <f t="shared" ref="J38" si="1">AVERAGE(J8:L37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K38" s="140"/>
-      <c r="L38" s="141"/>
-      <c r="M38" s="127" t="e">
+      <c r="K38" s="184"/>
+      <c r="L38" s="185"/>
+      <c r="M38" s="171" t="e">
         <f t="shared" ref="M38" si="2">AVERAGE(M8:O37)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="N38" s="128"/>
-      <c r="O38" s="142"/>
+      <c r="N38" s="172"/>
+      <c r="O38" s="186"/>
     </row>
     <row r="39" spans="1:15" ht="19.5" customHeight="1">
       <c r="A39" s="15"/>
@@ -3413,30 +3416,30 @@
       <c r="C39" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D39" s="130">
+      <c r="D39" s="174">
         <f>MIN(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E39" s="131"/>
-      <c r="F39" s="132"/>
-      <c r="G39" s="143">
+      <c r="E39" s="175"/>
+      <c r="F39" s="176"/>
+      <c r="G39" s="187">
         <f t="shared" ref="G39" si="3">MIN(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H39" s="144"/>
-      <c r="I39" s="145"/>
-      <c r="J39" s="146">
+      <c r="H39" s="188"/>
+      <c r="I39" s="189"/>
+      <c r="J39" s="190">
         <f t="shared" ref="J39" si="4">MIN(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K39" s="147"/>
-      <c r="L39" s="148"/>
-      <c r="M39" s="130">
+      <c r="K39" s="191"/>
+      <c r="L39" s="192"/>
+      <c r="M39" s="174">
         <f t="shared" ref="M39" si="5">MIN(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N39" s="131"/>
-      <c r="O39" s="149"/>
+      <c r="N39" s="175"/>
+      <c r="O39" s="193"/>
     </row>
     <row r="40" spans="1:15" ht="19.5" customHeight="1" thickBot="1">
       <c r="A40" s="18"/>
@@ -3444,60 +3447,60 @@
       <c r="C40" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D40" s="133">
+      <c r="D40" s="177">
         <f>MAX(D8:F37)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="134"/>
-      <c r="F40" s="135"/>
-      <c r="G40" s="150">
+      <c r="E40" s="178"/>
+      <c r="F40" s="179"/>
+      <c r="G40" s="194">
         <f t="shared" ref="G40" si="6">MAX(G8:I37)</f>
         <v>0</v>
       </c>
-      <c r="H40" s="151"/>
-      <c r="I40" s="152"/>
-      <c r="J40" s="153">
+      <c r="H40" s="195"/>
+      <c r="I40" s="196"/>
+      <c r="J40" s="197">
         <f t="shared" ref="J40" si="7">MAX(J8:L37)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="154"/>
-      <c r="L40" s="155"/>
-      <c r="M40" s="133">
+      <c r="K40" s="198"/>
+      <c r="L40" s="199"/>
+      <c r="M40" s="177">
         <f t="shared" ref="M40" si="8">MAX(M8:O37)</f>
         <v>0</v>
       </c>
-      <c r="N40" s="134"/>
-      <c r="O40" s="156"/>
+      <c r="N40" s="178"/>
+      <c r="O40" s="200"/>
     </row>
     <row r="41" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A41" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B41" s="193"/>
-      <c r="C41" s="193"/>
-      <c r="D41" s="194" t="s">
+      <c r="B41" s="110"/>
+      <c r="C41" s="110"/>
+      <c r="D41" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E41" s="194"/>
+      <c r="E41" s="111"/>
       <c r="F41" s="22"/>
       <c r="G41" s="23"/>
       <c r="H41" s="23"/>
       <c r="I41" s="23"/>
-      <c r="J41" s="195" t="s">
+      <c r="J41" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="K41" s="195"/>
-      <c r="L41" s="196"/>
-      <c r="M41" s="196"/>
-      <c r="N41" s="196"/>
+      <c r="K41" s="112"/>
+      <c r="L41" s="113"/>
+      <c r="M41" s="113"/>
+      <c r="N41" s="113"/>
       <c r="O41" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21"/>
-      <c r="B42" s="197"/>
-      <c r="C42" s="197"/>
+      <c r="B42" s="114"/>
+      <c r="C42" s="114"/>
       <c r="D42" s="24"/>
       <c r="E42" s="24"/>
       <c r="F42" s="21"/>
@@ -3506,38 +3509,38 @@
       <c r="I42" s="23"/>
       <c r="J42" s="23"/>
       <c r="K42" s="24"/>
-      <c r="L42" s="198"/>
-      <c r="M42" s="198"/>
-      <c r="N42" s="198"/>
+      <c r="L42" s="115"/>
+      <c r="M42" s="115"/>
+      <c r="N42" s="115"/>
       <c r="O42" s="24"/>
     </row>
     <row r="43" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A43" s="199" t="s">
+      <c r="A43" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B43" s="199"/>
-      <c r="C43" s="199"/>
+      <c r="B43" s="99"/>
+      <c r="C43" s="99"/>
       <c r="D43" s="23"/>
       <c r="E43" s="23"/>
       <c r="F43" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G43" s="199" t="s">
+      <c r="G43" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="H43" s="199"/>
-      <c r="I43" s="199"/>
-      <c r="J43" s="199"/>
+      <c r="H43" s="99"/>
+      <c r="I43" s="99"/>
+      <c r="J43" s="99"/>
       <c r="L43" s="23"/>
       <c r="M43" s="23"/>
       <c r="N43" s="23"/>
       <c r="O43" s="23"/>
     </row>
     <row r="44" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="199" t="s">
+      <c r="A44" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B44" s="199"/>
+      <c r="B44" s="99"/>
       <c r="C44" s="21"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
@@ -3548,10 +3551,10 @@
       <c r="J44" s="23"/>
       <c r="K44" s="23"/>
       <c r="L44" s="23"/>
-      <c r="M44" s="200" t="s">
+      <c r="M44" s="100" t="s">
         <v>41</v>
       </c>
-      <c r="N44" s="200"/>
+      <c r="N44" s="100"/>
       <c r="O44" s="23"/>
     </row>
     <row r="47" spans="1:15" ht="15.75" customHeight="1">
@@ -3567,72 +3570,184 @@
       <c r="N51" s="28"/>
     </row>
     <row r="75" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C75" s="126"/>
-      <c r="D75" s="126"/>
+      <c r="C75" s="98"/>
+      <c r="D75" s="98"/>
       <c r="E75" s="7"/>
-      <c r="I75" s="126"/>
-      <c r="J75" s="126"/>
+      <c r="I75" s="98"/>
+      <c r="J75" s="98"/>
       <c r="K75" s="7"/>
-      <c r="L75" s="126"/>
-      <c r="M75" s="126"/>
-      <c r="N75" s="126"/>
-      <c r="O75" s="126"/>
+      <c r="L75" s="98"/>
+      <c r="M75" s="98"/>
+      <c r="N75" s="98"/>
+      <c r="O75" s="98"/>
     </row>
     <row r="76" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C76" s="126"/>
-      <c r="D76" s="126"/>
-      <c r="E76" s="126"/>
-      <c r="F76" s="126"/>
-      <c r="I76" s="126"/>
-      <c r="J76" s="126"/>
+      <c r="C76" s="98"/>
+      <c r="D76" s="98"/>
+      <c r="E76" s="98"/>
+      <c r="F76" s="98"/>
+      <c r="I76" s="98"/>
+      <c r="J76" s="98"/>
       <c r="K76" s="7"/>
-      <c r="L76" s="126"/>
-      <c r="M76" s="126"/>
-      <c r="N76" s="126"/>
-      <c r="O76" s="126"/>
+      <c r="L76" s="98"/>
+      <c r="M76" s="98"/>
+      <c r="N76" s="98"/>
+      <c r="O76" s="98"/>
     </row>
     <row r="77" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C77" s="126"/>
-      <c r="D77" s="126"/>
+      <c r="C77" s="98"/>
+      <c r="D77" s="98"/>
       <c r="E77" s="7"/>
-      <c r="I77" s="126"/>
-      <c r="J77" s="126"/>
+      <c r="I77" s="98"/>
+      <c r="J77" s="98"/>
       <c r="K77" s="7"/>
-      <c r="L77" s="126"/>
-      <c r="M77" s="126"/>
-      <c r="N77" s="126"/>
-      <c r="O77" s="126"/>
+      <c r="L77" s="98"/>
+      <c r="M77" s="98"/>
+      <c r="N77" s="98"/>
+      <c r="O77" s="98"/>
     </row>
     <row r="78" spans="3:15" ht="15.75" customHeight="1">
-      <c r="C78" s="126"/>
-      <c r="D78" s="126"/>
+      <c r="C78" s="98"/>
+      <c r="D78" s="98"/>
       <c r="E78" s="7"/>
     </row>
   </sheetData>
   <sheetProtection formatColumns="0" formatRows="0"/>
   <mergeCells count="180">
-    <mergeCell ref="C77:D77"/>
-    <mergeCell ref="I77:J77"/>
-    <mergeCell ref="L77:O77"/>
-    <mergeCell ref="A43:C43"/>
-    <mergeCell ref="G43:J43"/>
-    <mergeCell ref="A44:B44"/>
-    <mergeCell ref="M44:N44"/>
-    <mergeCell ref="C75:D75"/>
-    <mergeCell ref="I75:J75"/>
-    <mergeCell ref="L75:O75"/>
-    <mergeCell ref="C76:F76"/>
-    <mergeCell ref="I76:J76"/>
-    <mergeCell ref="L76:O76"/>
-    <mergeCell ref="G37:I37"/>
-    <mergeCell ref="J37:L37"/>
-    <mergeCell ref="M37:O37"/>
-    <mergeCell ref="B41:C41"/>
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:N41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="M34:O34"/>
+    <mergeCell ref="G30:I30"/>
+    <mergeCell ref="J30:L30"/>
+    <mergeCell ref="M30:O30"/>
+    <mergeCell ref="G31:I31"/>
+    <mergeCell ref="D26:F26"/>
+    <mergeCell ref="D27:F27"/>
+    <mergeCell ref="D18:F18"/>
+    <mergeCell ref="D17:F17"/>
+    <mergeCell ref="D29:F29"/>
+    <mergeCell ref="D25:F25"/>
+    <mergeCell ref="D34:F34"/>
+    <mergeCell ref="D33:F33"/>
+    <mergeCell ref="G33:I33"/>
+    <mergeCell ref="G34:I34"/>
+    <mergeCell ref="J17:L17"/>
+    <mergeCell ref="M17:O17"/>
+    <mergeCell ref="J18:L18"/>
+    <mergeCell ref="M18:O18"/>
+    <mergeCell ref="J19:L19"/>
+    <mergeCell ref="M19:O19"/>
+    <mergeCell ref="J20:L20"/>
+    <mergeCell ref="M20:O20"/>
+    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G12:I12"/>
+    <mergeCell ref="G21:I21"/>
+    <mergeCell ref="G25:I25"/>
+    <mergeCell ref="D31:F31"/>
+    <mergeCell ref="D30:F30"/>
+    <mergeCell ref="D32:F32"/>
+    <mergeCell ref="G32:I32"/>
+    <mergeCell ref="G27:I27"/>
+    <mergeCell ref="G28:I28"/>
+    <mergeCell ref="G29:I29"/>
+    <mergeCell ref="D28:F28"/>
+    <mergeCell ref="G18:I18"/>
+    <mergeCell ref="G19:I19"/>
+    <mergeCell ref="G20:I20"/>
+    <mergeCell ref="J12:L12"/>
+    <mergeCell ref="M12:O12"/>
+    <mergeCell ref="G13:I13"/>
+    <mergeCell ref="J13:L13"/>
+    <mergeCell ref="M13:O13"/>
+    <mergeCell ref="G14:I14"/>
+    <mergeCell ref="J14:L14"/>
+    <mergeCell ref="M14:O14"/>
+    <mergeCell ref="D24:F24"/>
+    <mergeCell ref="D23:F23"/>
+    <mergeCell ref="D12:F12"/>
+    <mergeCell ref="D21:F21"/>
+    <mergeCell ref="D20:F20"/>
+    <mergeCell ref="D22:F22"/>
+    <mergeCell ref="D13:F13"/>
+    <mergeCell ref="D14:F14"/>
+    <mergeCell ref="D15:F15"/>
+    <mergeCell ref="G15:I15"/>
+    <mergeCell ref="J15:L15"/>
+    <mergeCell ref="M15:O15"/>
+    <mergeCell ref="G16:I16"/>
+    <mergeCell ref="J16:L16"/>
+    <mergeCell ref="M16:O16"/>
+    <mergeCell ref="G17:I17"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:C4"/>
+    <mergeCell ref="D4:E4"/>
+    <mergeCell ref="C78:D78"/>
+    <mergeCell ref="D38:F38"/>
+    <mergeCell ref="D39:F39"/>
+    <mergeCell ref="D40:F40"/>
+    <mergeCell ref="G38:I38"/>
+    <mergeCell ref="J38:L38"/>
+    <mergeCell ref="M38:O38"/>
+    <mergeCell ref="G39:I39"/>
+    <mergeCell ref="J39:L39"/>
+    <mergeCell ref="M39:O39"/>
+    <mergeCell ref="G40:I40"/>
+    <mergeCell ref="J40:L40"/>
+    <mergeCell ref="M40:O40"/>
+    <mergeCell ref="D36:F36"/>
+    <mergeCell ref="D19:F19"/>
+    <mergeCell ref="D16:F16"/>
+    <mergeCell ref="D35:F35"/>
+    <mergeCell ref="D37:F37"/>
+    <mergeCell ref="G11:I11"/>
+    <mergeCell ref="J11:L11"/>
+    <mergeCell ref="M11:O11"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:F6"/>
+    <mergeCell ref="D7:F7"/>
+    <mergeCell ref="A7:C7"/>
+    <mergeCell ref="G6:I6"/>
+    <mergeCell ref="J6:L6"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="G7:I7"/>
+    <mergeCell ref="J7:L7"/>
+    <mergeCell ref="M7:O7"/>
+    <mergeCell ref="D11:F11"/>
+    <mergeCell ref="D10:F10"/>
+    <mergeCell ref="D9:F9"/>
+    <mergeCell ref="G8:I8"/>
+    <mergeCell ref="J8:L8"/>
+    <mergeCell ref="M8:O8"/>
+    <mergeCell ref="G9:I9"/>
+    <mergeCell ref="J9:L9"/>
+    <mergeCell ref="M9:O9"/>
+    <mergeCell ref="G10:I10"/>
+    <mergeCell ref="J10:L10"/>
+    <mergeCell ref="M10:O10"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="B5:C5"/>
+    <mergeCell ref="D5:E5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="D8:F8"/>
+    <mergeCell ref="F4:G4"/>
+    <mergeCell ref="H4:I4"/>
+    <mergeCell ref="F5:G5"/>
+    <mergeCell ref="H5:I5"/>
+    <mergeCell ref="M21:O21"/>
+    <mergeCell ref="G22:I22"/>
+    <mergeCell ref="J22:L22"/>
+    <mergeCell ref="M22:O22"/>
+    <mergeCell ref="G23:I23"/>
+    <mergeCell ref="J23:L23"/>
+    <mergeCell ref="M23:O23"/>
+    <mergeCell ref="G24:I24"/>
+    <mergeCell ref="J24:L24"/>
+    <mergeCell ref="M24:O24"/>
     <mergeCell ref="J25:L25"/>
     <mergeCell ref="M25:O25"/>
     <mergeCell ref="G26:I26"/>
@@ -3657,140 +3772,28 @@
     <mergeCell ref="J33:L33"/>
     <mergeCell ref="M33:O33"/>
     <mergeCell ref="J34:L34"/>
-    <mergeCell ref="M21:O21"/>
-    <mergeCell ref="G22:I22"/>
-    <mergeCell ref="J22:L22"/>
-    <mergeCell ref="M22:O22"/>
-    <mergeCell ref="G23:I23"/>
-    <mergeCell ref="J23:L23"/>
-    <mergeCell ref="M23:O23"/>
-    <mergeCell ref="G24:I24"/>
-    <mergeCell ref="J24:L24"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="M10:O10"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="B5:C5"/>
-    <mergeCell ref="D5:E5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="D8:F8"/>
-    <mergeCell ref="F4:G4"/>
-    <mergeCell ref="H4:I4"/>
-    <mergeCell ref="F5:G5"/>
-    <mergeCell ref="H5:I5"/>
-    <mergeCell ref="G11:I11"/>
-    <mergeCell ref="J11:L11"/>
-    <mergeCell ref="M11:O11"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:F6"/>
-    <mergeCell ref="D7:F7"/>
-    <mergeCell ref="A7:C7"/>
-    <mergeCell ref="G6:I6"/>
-    <mergeCell ref="J6:L6"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="G7:I7"/>
-    <mergeCell ref="J7:L7"/>
-    <mergeCell ref="M7:O7"/>
-    <mergeCell ref="D11:F11"/>
-    <mergeCell ref="D10:F10"/>
-    <mergeCell ref="D9:F9"/>
-    <mergeCell ref="G8:I8"/>
-    <mergeCell ref="J8:L8"/>
-    <mergeCell ref="M8:O8"/>
-    <mergeCell ref="G9:I9"/>
-    <mergeCell ref="J9:L9"/>
-    <mergeCell ref="M9:O9"/>
-    <mergeCell ref="G10:I10"/>
-    <mergeCell ref="J10:L10"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:C4"/>
-    <mergeCell ref="D4:E4"/>
-    <mergeCell ref="C78:D78"/>
-    <mergeCell ref="D38:F38"/>
-    <mergeCell ref="D39:F39"/>
-    <mergeCell ref="D40:F40"/>
-    <mergeCell ref="G38:I38"/>
-    <mergeCell ref="J38:L38"/>
-    <mergeCell ref="M38:O38"/>
-    <mergeCell ref="G39:I39"/>
-    <mergeCell ref="J39:L39"/>
-    <mergeCell ref="M39:O39"/>
-    <mergeCell ref="G40:I40"/>
-    <mergeCell ref="J40:L40"/>
-    <mergeCell ref="M40:O40"/>
-    <mergeCell ref="D36:F36"/>
-    <mergeCell ref="D19:F19"/>
-    <mergeCell ref="D16:F16"/>
-    <mergeCell ref="D35:F35"/>
-    <mergeCell ref="D37:F37"/>
-    <mergeCell ref="J12:L12"/>
-    <mergeCell ref="M12:O12"/>
-    <mergeCell ref="G13:I13"/>
-    <mergeCell ref="J13:L13"/>
-    <mergeCell ref="M13:O13"/>
-    <mergeCell ref="G14:I14"/>
-    <mergeCell ref="J14:L14"/>
-    <mergeCell ref="M14:O14"/>
-    <mergeCell ref="D24:F24"/>
-    <mergeCell ref="D23:F23"/>
-    <mergeCell ref="D12:F12"/>
-    <mergeCell ref="D21:F21"/>
-    <mergeCell ref="D20:F20"/>
-    <mergeCell ref="D22:F22"/>
-    <mergeCell ref="D13:F13"/>
-    <mergeCell ref="D14:F14"/>
-    <mergeCell ref="D15:F15"/>
-    <mergeCell ref="G15:I15"/>
-    <mergeCell ref="J15:L15"/>
-    <mergeCell ref="M15:O15"/>
-    <mergeCell ref="G16:I16"/>
-    <mergeCell ref="J16:L16"/>
-    <mergeCell ref="M16:O16"/>
-    <mergeCell ref="G17:I17"/>
-    <mergeCell ref="G12:I12"/>
-    <mergeCell ref="G21:I21"/>
-    <mergeCell ref="G25:I25"/>
-    <mergeCell ref="D31:F31"/>
-    <mergeCell ref="D30:F30"/>
-    <mergeCell ref="D32:F32"/>
-    <mergeCell ref="G32:I32"/>
-    <mergeCell ref="G27:I27"/>
-    <mergeCell ref="G28:I28"/>
-    <mergeCell ref="G29:I29"/>
-    <mergeCell ref="D28:F28"/>
-    <mergeCell ref="G18:I18"/>
-    <mergeCell ref="G19:I19"/>
-    <mergeCell ref="G20:I20"/>
-    <mergeCell ref="M34:O34"/>
-    <mergeCell ref="G30:I30"/>
-    <mergeCell ref="J30:L30"/>
-    <mergeCell ref="M30:O30"/>
-    <mergeCell ref="G31:I31"/>
-    <mergeCell ref="D26:F26"/>
-    <mergeCell ref="D27:F27"/>
-    <mergeCell ref="D18:F18"/>
-    <mergeCell ref="D17:F17"/>
-    <mergeCell ref="D29:F29"/>
-    <mergeCell ref="D25:F25"/>
-    <mergeCell ref="D34:F34"/>
-    <mergeCell ref="D33:F33"/>
-    <mergeCell ref="G33:I33"/>
-    <mergeCell ref="G34:I34"/>
-    <mergeCell ref="J17:L17"/>
-    <mergeCell ref="M17:O17"/>
-    <mergeCell ref="J18:L18"/>
-    <mergeCell ref="M18:O18"/>
-    <mergeCell ref="J19:L19"/>
-    <mergeCell ref="M19:O19"/>
-    <mergeCell ref="J20:L20"/>
-    <mergeCell ref="M20:O20"/>
-    <mergeCell ref="J21:L21"/>
+    <mergeCell ref="G37:I37"/>
+    <mergeCell ref="J37:L37"/>
+    <mergeCell ref="M37:O37"/>
+    <mergeCell ref="B41:C41"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:N41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="C77:D77"/>
+    <mergeCell ref="I77:J77"/>
+    <mergeCell ref="L77:O77"/>
+    <mergeCell ref="A43:C43"/>
+    <mergeCell ref="G43:J43"/>
+    <mergeCell ref="A44:B44"/>
+    <mergeCell ref="M44:N44"/>
+    <mergeCell ref="C75:D75"/>
+    <mergeCell ref="I75:J75"/>
+    <mergeCell ref="L75:O75"/>
+    <mergeCell ref="C76:F76"/>
+    <mergeCell ref="I76:J76"/>
+    <mergeCell ref="L76:O76"/>
   </mergeCells>
   <phoneticPr fontId="10" type="noConversion"/>
   <conditionalFormatting sqref="D8:F40">
@@ -3841,61 +3844,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="118" t="s">
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="118"/>
+      <c r="O1" s="167"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="121" t="s">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="121"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -3905,130 +3908,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="236">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="212"/>
-      <c r="G4" s="213">
+      <c r="F4" s="239"/>
+      <c r="G4" s="240">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="213"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="213">
+      <c r="J4" s="240">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="213"/>
-      <c r="L4" s="214" t="s">
+      <c r="K4" s="240"/>
+      <c r="L4" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="215">
+      <c r="M4" s="242">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="209">
+      <c r="N4" s="236">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="216"/>
+      <c r="O4" s="243"/>
     </row>
     <row r="5" spans="1:15" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="241">
+      <c r="B5" s="202">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="201" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="241">
+      <c r="F5" s="228"/>
+      <c r="G5" s="202">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="241"/>
+      <c r="H5" s="202"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="241">
+      <c r="J5" s="202">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="241"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="202"/>
+      <c r="L5" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="217">
+      <c r="M5" s="244">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="178">
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="242"/>
+      <c r="O5" s="203"/>
     </row>
     <row r="6" spans="1:15" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="226"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="213"/>
     </row>
     <row r="7" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1">
-      <c r="A7" s="218" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="202" t="s">
+      <c r="A7" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="229" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="203" t="s">
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230" t="s">
         <v>153</v>
       </c>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="203" t="s">
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="230" t="s">
         <v>35</v>
       </c>
-      <c r="M7" s="204"/>
-      <c r="N7" s="204"/>
-      <c r="O7" s="206"/>
+      <c r="M7" s="231"/>
+      <c r="N7" s="231"/>
+      <c r="O7" s="233"/>
     </row>
     <row r="8" spans="1:15" s="35" customFormat="1" ht="15" customHeight="1" thickBot="1">
-      <c r="A8" s="220"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
+      <c r="A8" s="247"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -5122,27 +5125,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="233" t="e">
+      <c r="D39" s="220" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="234"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="235"/>
-      <c r="H39" s="236" t="e">
+      <c r="E39" s="221"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="223" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="237"/>
-      <c r="J39" s="237"/>
-      <c r="K39" s="238"/>
-      <c r="L39" s="236" t="e">
+      <c r="I39" s="224"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="225"/>
+      <c r="L39" s="223" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="237"/>
-      <c r="N39" s="237"/>
-      <c r="O39" s="239"/>
+      <c r="M39" s="224"/>
+      <c r="N39" s="224"/>
+      <c r="O39" s="226"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -5150,27 +5153,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="230" t="e">
+      <c r="D40" s="217" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="231"/>
-      <c r="F40" s="231"/>
-      <c r="G40" s="232"/>
-      <c r="H40" s="227" t="e">
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="214" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="228"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="229"/>
-      <c r="L40" s="227" t="e">
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="214" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="228"/>
-      <c r="N40" s="228"/>
-      <c r="O40" s="240"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="227"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -5178,57 +5181,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="221" t="e">
+      <c r="D41" s="208" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="243" t="e">
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="204" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="244"/>
-      <c r="J41" s="244"/>
-      <c r="K41" s="245"/>
-      <c r="L41" s="243" t="e">
+      <c r="I41" s="205"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="204" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="244"/>
-      <c r="N41" s="244"/>
-      <c r="O41" s="246"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="205"/>
+      <c r="O41" s="207"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="193"/>
-      <c r="C42" s="193"/>
-      <c r="D42" s="194" t="s">
+      <c r="B42" s="110"/>
+      <c r="C42" s="110"/>
+      <c r="D42" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="194"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="195" t="s">
+      <c r="J42" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="195"/>
-      <c r="L42" s="196"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="197"/>
-      <c r="C43" s="197"/>
+      <c r="B43" s="114"/>
+      <c r="C43" s="114"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -5237,39 +5240,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="199" t="s">
+      <c r="A44" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="199"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="199" t="str">
+      <c r="G44" s="99" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="199"/>
-      <c r="I44" s="199"/>
-      <c r="J44" s="199"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="199" t="s">
+      <c r="A45" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="199"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -5280,10 +5283,10 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="200" t="s">
+      <c r="M45" s="100" t="s">
         <v>42</v>
       </c>
-      <c r="N45" s="200"/>
+      <c r="N45" s="100"/>
       <c r="O45" s="23"/>
     </row>
     <row r="55" s="46" customFormat="1"/>
@@ -5304,6 +5307,31 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="D7:G7"/>
+    <mergeCell ref="H7:K7"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="L5:M5"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D41:G41"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:O6"/>
+    <mergeCell ref="H40:K40"/>
+    <mergeCell ref="D40:G40"/>
+    <mergeCell ref="D39:G39"/>
+    <mergeCell ref="H39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="L40:O40"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="L43:N43"/>
@@ -5320,31 +5348,6 @@
     <mergeCell ref="D42:E42"/>
     <mergeCell ref="J42:K42"/>
     <mergeCell ref="L42:N42"/>
-    <mergeCell ref="D41:G41"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:O6"/>
-    <mergeCell ref="H40:K40"/>
-    <mergeCell ref="D40:G40"/>
-    <mergeCell ref="D39:G39"/>
-    <mergeCell ref="H39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="D7:G7"/>
-    <mergeCell ref="H7:K7"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A7:C8"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="12" priority="3" operator="lessThan">
@@ -5386,61 +5389,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="118" t="s">
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="118"/>
+      <c r="O1" s="167"/>
     </row>
     <row r="2" spans="1:17" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="121" t="s">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="121"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:17" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -5450,130 +5453,130 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="236">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="212"/>
-      <c r="G4" s="213">
+      <c r="F4" s="239"/>
+      <c r="G4" s="240">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="213"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="213">
+      <c r="J4" s="240">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="213"/>
-      <c r="L4" s="214" t="s">
+      <c r="K4" s="240"/>
+      <c r="L4" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="215">
+      <c r="M4" s="242">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="209">
+      <c r="N4" s="236">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="216"/>
+      <c r="O4" s="243"/>
     </row>
     <row r="5" spans="1:17" s="5" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="241">
+      <c r="B5" s="202">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="201" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="241">
+      <c r="F5" s="228"/>
+      <c r="G5" s="202">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="241"/>
+      <c r="H5" s="202"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="241">
+      <c r="J5" s="202">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="241"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="202"/>
+      <c r="L5" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="217">
+      <c r="M5" s="244">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="178">
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="242"/>
+      <c r="O5" s="203"/>
     </row>
     <row r="6" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="224" t="s">
+      <c r="A6" s="211" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="225"/>
-      <c r="C6" s="225"/>
-      <c r="D6" s="225"/>
-      <c r="E6" s="225"/>
-      <c r="F6" s="225"/>
-      <c r="G6" s="225"/>
-      <c r="H6" s="225"/>
-      <c r="I6" s="225"/>
-      <c r="J6" s="225"/>
-      <c r="K6" s="225"/>
-      <c r="L6" s="225"/>
-      <c r="M6" s="225"/>
-      <c r="N6" s="225"/>
-      <c r="O6" s="226"/>
+      <c r="B6" s="212"/>
+      <c r="C6" s="212"/>
+      <c r="D6" s="212"/>
+      <c r="E6" s="212"/>
+      <c r="F6" s="212"/>
+      <c r="G6" s="212"/>
+      <c r="H6" s="212"/>
+      <c r="I6" s="212"/>
+      <c r="J6" s="212"/>
+      <c r="K6" s="212"/>
+      <c r="L6" s="212"/>
+      <c r="M6" s="212"/>
+      <c r="N6" s="212"/>
+      <c r="O6" s="213"/>
     </row>
     <row r="7" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A7" s="218" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="200"/>
-      <c r="C7" s="219"/>
-      <c r="D7" s="202" t="s">
+      <c r="A7" s="245" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="100"/>
+      <c r="C7" s="246"/>
+      <c r="D7" s="229" t="s">
         <v>18</v>
       </c>
-      <c r="E7" s="202"/>
-      <c r="F7" s="202"/>
-      <c r="G7" s="202"/>
-      <c r="H7" s="203" t="s">
+      <c r="E7" s="229"/>
+      <c r="F7" s="229"/>
+      <c r="G7" s="229"/>
+      <c r="H7" s="230" t="s">
         <v>154</v>
       </c>
-      <c r="I7" s="204"/>
-      <c r="J7" s="204"/>
-      <c r="K7" s="205"/>
-      <c r="L7" s="247" t="s">
+      <c r="I7" s="231"/>
+      <c r="J7" s="231"/>
+      <c r="K7" s="232"/>
+      <c r="L7" s="250" t="s">
         <v>34</v>
       </c>
-      <c r="M7" s="248"/>
-      <c r="N7" s="248"/>
-      <c r="O7" s="249"/>
+      <c r="M7" s="251"/>
+      <c r="N7" s="251"/>
+      <c r="O7" s="252"/>
     </row>
     <row r="8" spans="1:17" s="35" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A8" s="220"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
+      <c r="A8" s="247"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
       <c r="D8" s="36">
         <v>1</v>
       </c>
@@ -6670,27 +6673,27 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="233" t="e">
+      <c r="D39" s="220" t="e">
         <f>AVERAGE(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="234"/>
-      <c r="F39" s="234"/>
-      <c r="G39" s="235"/>
-      <c r="H39" s="236" t="e">
+      <c r="E39" s="221"/>
+      <c r="F39" s="221"/>
+      <c r="G39" s="222"/>
+      <c r="H39" s="223" t="e">
         <f>AVERAGE(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="237"/>
-      <c r="J39" s="237"/>
-      <c r="K39" s="238"/>
-      <c r="L39" s="236" t="e">
+      <c r="I39" s="224"/>
+      <c r="J39" s="224"/>
+      <c r="K39" s="225"/>
+      <c r="L39" s="223" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="237"/>
-      <c r="N39" s="237"/>
-      <c r="O39" s="239"/>
+      <c r="M39" s="224"/>
+      <c r="N39" s="224"/>
+      <c r="O39" s="226"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -6698,27 +6701,27 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="230" t="e">
+      <c r="D40" s="217" t="e">
         <f>MIN(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E40" s="231"/>
-      <c r="F40" s="231"/>
-      <c r="G40" s="232"/>
-      <c r="H40" s="227" t="e">
+      <c r="E40" s="218"/>
+      <c r="F40" s="218"/>
+      <c r="G40" s="219"/>
+      <c r="H40" s="214" t="e">
         <f>MIN(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I40" s="228"/>
-      <c r="J40" s="228"/>
-      <c r="K40" s="229"/>
-      <c r="L40" s="227" t="e">
+      <c r="I40" s="215"/>
+      <c r="J40" s="215"/>
+      <c r="K40" s="216"/>
+      <c r="L40" s="214" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="228"/>
-      <c r="N40" s="228"/>
-      <c r="O40" s="240"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="227"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -6726,57 +6729,57 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="221" t="e">
+      <c r="D41" s="208" t="e">
         <f>MAX(G9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E41" s="222"/>
-      <c r="F41" s="222"/>
-      <c r="G41" s="223"/>
-      <c r="H41" s="243" t="e">
+      <c r="E41" s="209"/>
+      <c r="F41" s="209"/>
+      <c r="G41" s="210"/>
+      <c r="H41" s="204" t="e">
         <f>MAX(K9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I41" s="244"/>
-      <c r="J41" s="244"/>
-      <c r="K41" s="245"/>
-      <c r="L41" s="243" t="e">
+      <c r="I41" s="205"/>
+      <c r="J41" s="205"/>
+      <c r="K41" s="206"/>
+      <c r="L41" s="204" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="244"/>
-      <c r="N41" s="244"/>
-      <c r="O41" s="246"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="205"/>
+      <c r="O41" s="207"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="250"/>
-      <c r="C42" s="250"/>
-      <c r="D42" s="194" t="s">
+      <c r="B42" s="248"/>
+      <c r="C42" s="248"/>
+      <c r="D42" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="194"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="195" t="s">
+      <c r="J42" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="195"/>
-      <c r="L42" s="196"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="251"/>
-      <c r="C43" s="251"/>
+      <c r="B43" s="249"/>
+      <c r="C43" s="249"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -6785,39 +6788,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="199" t="s">
+      <c r="A44" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="199"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="199" t="str">
+      <c r="G44" s="99" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="199"/>
-      <c r="I44" s="199"/>
-      <c r="J44" s="199"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="199" t="s">
+      <c r="A45" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="199"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -6828,25 +6831,31 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="200" t="s">
+      <c r="M45" s="100" t="s">
         <v>43</v>
       </c>
-      <c r="N45" s="200"/>
+      <c r="N45" s="100"/>
       <c r="O45" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="41">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:B45"/>
-    <mergeCell ref="M45:N45"/>
-    <mergeCell ref="G44:J44"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="D42:E42"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="J42:K42"/>
-    <mergeCell ref="L42:N42"/>
-    <mergeCell ref="L43:N43"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="N5:O5"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L5:M5"/>
     <mergeCell ref="D41:G41"/>
     <mergeCell ref="H41:K41"/>
     <mergeCell ref="L41:O41"/>
@@ -6862,22 +6871,16 @@
     <mergeCell ref="D40:G40"/>
     <mergeCell ref="H40:K40"/>
     <mergeCell ref="L40:O40"/>
-    <mergeCell ref="N5:O5"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L5:M5"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:B45"/>
+    <mergeCell ref="M45:N45"/>
+    <mergeCell ref="G44:J44"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="D42:E42"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="J42:K42"/>
+    <mergeCell ref="L42:N42"/>
+    <mergeCell ref="L43:N43"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:G41">
     <cfRule type="cellIs" dxfId="9" priority="3" operator="lessThan">
@@ -6919,61 +6922,61 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A1" s="207" t="s">
+      <c r="A1" s="234" t="s">
         <v>10</v>
       </c>
-      <c r="B1" s="207"/>
-      <c r="C1" s="207"/>
-      <c r="D1" s="207"/>
-      <c r="E1" s="207"/>
-      <c r="F1" s="207"/>
-      <c r="G1" s="207"/>
-      <c r="H1" s="207"/>
-      <c r="I1" s="207"/>
-      <c r="J1" s="207"/>
-      <c r="K1" s="207"/>
-      <c r="L1" s="207"/>
-      <c r="M1" s="207"/>
-      <c r="N1" s="118" t="s">
+      <c r="B1" s="234"/>
+      <c r="C1" s="234"/>
+      <c r="D1" s="234"/>
+      <c r="E1" s="234"/>
+      <c r="F1" s="234"/>
+      <c r="G1" s="234"/>
+      <c r="H1" s="234"/>
+      <c r="I1" s="234"/>
+      <c r="J1" s="234"/>
+      <c r="K1" s="234"/>
+      <c r="L1" s="234"/>
+      <c r="M1" s="234"/>
+      <c r="N1" s="167" t="s">
         <v>27</v>
       </c>
-      <c r="O1" s="118"/>
+      <c r="O1" s="167"/>
     </row>
     <row r="2" spans="1:15" s="29" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A2" s="208" t="s">
+      <c r="A2" s="235" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="208"/>
-      <c r="C2" s="208"/>
-      <c r="D2" s="208"/>
-      <c r="E2" s="208"/>
-      <c r="F2" s="208"/>
-      <c r="G2" s="208"/>
-      <c r="H2" s="208"/>
-      <c r="I2" s="208"/>
-      <c r="J2" s="208"/>
-      <c r="K2" s="208"/>
-      <c r="L2" s="208"/>
-      <c r="M2" s="208"/>
-      <c r="N2" s="121" t="s">
+      <c r="B2" s="235"/>
+      <c r="C2" s="235"/>
+      <c r="D2" s="235"/>
+      <c r="E2" s="235"/>
+      <c r="F2" s="235"/>
+      <c r="G2" s="235"/>
+      <c r="H2" s="235"/>
+      <c r="I2" s="235"/>
+      <c r="J2" s="235"/>
+      <c r="K2" s="235"/>
+      <c r="L2" s="235"/>
+      <c r="M2" s="235"/>
+      <c r="N2" s="170" t="s">
         <v>28</v>
       </c>
-      <c r="O2" s="121"/>
+      <c r="O2" s="170"/>
     </row>
     <row r="3" spans="1:15" s="29" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="208"/>
-      <c r="B3" s="208"/>
-      <c r="C3" s="208"/>
-      <c r="D3" s="208"/>
-      <c r="E3" s="208"/>
-      <c r="F3" s="208"/>
-      <c r="G3" s="208"/>
-      <c r="H3" s="208"/>
-      <c r="I3" s="208"/>
-      <c r="J3" s="208"/>
-      <c r="K3" s="208"/>
-      <c r="L3" s="208"/>
-      <c r="M3" s="208"/>
+      <c r="A3" s="235"/>
+      <c r="B3" s="235"/>
+      <c r="C3" s="235"/>
+      <c r="D3" s="235"/>
+      <c r="E3" s="235"/>
+      <c r="F3" s="235"/>
+      <c r="G3" s="235"/>
+      <c r="H3" s="235"/>
+      <c r="I3" s="235"/>
+      <c r="J3" s="235"/>
+      <c r="K3" s="235"/>
+      <c r="L3" s="235"/>
+      <c r="M3" s="235"/>
       <c r="N3" s="30" t="s">
         <v>19</v>
       </c>
@@ -6983,142 +6986,142 @@
       <c r="A4" s="31" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="209">
+      <c r="B4" s="236">
         <f>Page1!B4</f>
         <v>0</v>
       </c>
-      <c r="C4" s="210"/>
-      <c r="D4" s="211"/>
-      <c r="E4" s="212" t="s">
+      <c r="C4" s="237"/>
+      <c r="D4" s="238"/>
+      <c r="E4" s="239" t="s">
         <v>3</v>
       </c>
-      <c r="F4" s="212"/>
-      <c r="G4" s="213">
+      <c r="F4" s="239"/>
+      <c r="G4" s="240">
         <f>Page1!F4</f>
         <v>0</v>
       </c>
-      <c r="H4" s="213"/>
+      <c r="H4" s="240"/>
       <c r="I4" s="32" t="s">
         <v>5</v>
       </c>
-      <c r="J4" s="213">
+      <c r="J4" s="240">
         <f>Page1!J4</f>
         <v>0</v>
       </c>
-      <c r="K4" s="213"/>
-      <c r="L4" s="214" t="s">
+      <c r="K4" s="240"/>
+      <c r="L4" s="241" t="s">
         <v>7</v>
       </c>
-      <c r="M4" s="215">
+      <c r="M4" s="242">
         <f>Page1!O4</f>
         <v>0</v>
       </c>
-      <c r="N4" s="209">
+      <c r="N4" s="236">
         <f>Page1!N4</f>
         <v>0</v>
       </c>
-      <c r="O4" s="216"/>
+      <c r="O4" s="243"/>
     </row>
     <row r="5" spans="1:15" s="7" customFormat="1" ht="23.25" customHeight="1">
       <c r="A5" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="B5" s="241">
+      <c r="B5" s="202">
         <f>Page1!B5</f>
         <v>0</v>
       </c>
-      <c r="C5" s="241"/>
-      <c r="D5" s="241"/>
-      <c r="E5" s="201" t="s">
+      <c r="C5" s="202"/>
+      <c r="D5" s="202"/>
+      <c r="E5" s="228" t="s">
         <v>4</v>
       </c>
-      <c r="F5" s="201"/>
-      <c r="G5" s="241">
+      <c r="F5" s="228"/>
+      <c r="G5" s="202">
         <f>Page1!F5</f>
         <v>0</v>
       </c>
-      <c r="H5" s="241"/>
+      <c r="H5" s="202"/>
       <c r="I5" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="241">
+      <c r="J5" s="202">
         <f>Page1!J5</f>
         <v>0</v>
       </c>
-      <c r="K5" s="241"/>
-      <c r="L5" s="184" t="s">
+      <c r="K5" s="202"/>
+      <c r="L5" s="151" t="s">
         <v>8</v>
       </c>
-      <c r="M5" s="217">
+      <c r="M5" s="244">
         <f>Page1!O5</f>
         <v>0</v>
       </c>
-      <c r="N5" s="178">
+      <c r="N5" s="143">
         <f>Page1!N5</f>
         <v>0</v>
       </c>
-      <c r="O5" s="242"/>
+      <c r="O5" s="203"/>
     </row>
     <row r="6" spans="1:15" s="26" customFormat="1" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="267" t="s">
+      <c r="A6" s="268" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="257"/>
-      <c r="C6" s="268"/>
-      <c r="D6" s="256"/>
-      <c r="E6" s="257"/>
-      <c r="F6" s="257"/>
-      <c r="G6" s="257"/>
-      <c r="H6" s="257"/>
-      <c r="I6" s="257"/>
-      <c r="J6" s="257"/>
-      <c r="K6" s="268"/>
-      <c r="L6" s="256"/>
-      <c r="M6" s="257"/>
-      <c r="N6" s="257"/>
-      <c r="O6" s="258"/>
+      <c r="B6" s="258"/>
+      <c r="C6" s="269"/>
+      <c r="D6" s="257"/>
+      <c r="E6" s="258"/>
+      <c r="F6" s="258"/>
+      <c r="G6" s="258"/>
+      <c r="H6" s="258"/>
+      <c r="I6" s="258"/>
+      <c r="J6" s="258"/>
+      <c r="K6" s="269"/>
+      <c r="L6" s="257"/>
+      <c r="M6" s="258"/>
+      <c r="N6" s="258"/>
+      <c r="O6" s="259"/>
     </row>
     <row r="7" spans="1:15" s="26" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A7" s="259" t="s">
-        <v>0</v>
-      </c>
-      <c r="B7" s="260"/>
-      <c r="C7" s="261"/>
-      <c r="D7" s="262" t="s">
+      <c r="A7" s="260" t="s">
+        <v>0</v>
+      </c>
+      <c r="B7" s="261"/>
+      <c r="C7" s="262"/>
+      <c r="D7" s="263" t="s">
         <v>33</v>
       </c>
-      <c r="E7" s="261"/>
-      <c r="F7" s="262" t="s">
+      <c r="E7" s="262"/>
+      <c r="F7" s="263" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="261"/>
-      <c r="H7" s="262" t="s">
+      <c r="G7" s="262"/>
+      <c r="H7" s="263" t="s">
         <v>32</v>
       </c>
-      <c r="I7" s="261"/>
-      <c r="J7" s="263" t="s">
+      <c r="I7" s="262"/>
+      <c r="J7" s="264" t="s">
         <v>39</v>
       </c>
-      <c r="K7" s="264"/>
-      <c r="L7" s="209" t="s">
+      <c r="K7" s="265"/>
+      <c r="L7" s="236" t="s">
         <v>31</v>
       </c>
-      <c r="M7" s="210"/>
-      <c r="N7" s="210"/>
-      <c r="O7" s="216"/>
+      <c r="M7" s="237"/>
+      <c r="N7" s="237"/>
+      <c r="O7" s="243"/>
     </row>
     <row r="8" spans="1:15" ht="17.25" customHeight="1" thickBot="1">
-      <c r="A8" s="220"/>
-      <c r="B8" s="168"/>
-      <c r="C8" s="169"/>
-      <c r="D8" s="167"/>
-      <c r="E8" s="169"/>
-      <c r="F8" s="167"/>
-      <c r="G8" s="169"/>
-      <c r="H8" s="167"/>
-      <c r="I8" s="169"/>
-      <c r="J8" s="265"/>
-      <c r="K8" s="266"/>
+      <c r="A8" s="247"/>
+      <c r="B8" s="161"/>
+      <c r="C8" s="162"/>
+      <c r="D8" s="160"/>
+      <c r="E8" s="162"/>
+      <c r="F8" s="160"/>
+      <c r="G8" s="162"/>
+      <c r="H8" s="160"/>
+      <c r="I8" s="162"/>
+      <c r="J8" s="266"/>
+      <c r="K8" s="267"/>
       <c r="L8" s="49">
         <v>1</v>
       </c>
@@ -7145,14 +7148,14 @@
         <f>Page1!C8</f>
         <v>0</v>
       </c>
-      <c r="D9" s="252"/>
-      <c r="E9" s="253"/>
-      <c r="F9" s="252"/>
-      <c r="G9" s="253"/>
-      <c r="H9" s="252"/>
-      <c r="I9" s="253"/>
-      <c r="J9" s="254"/>
-      <c r="K9" s="255"/>
+      <c r="D9" s="270"/>
+      <c r="E9" s="271"/>
+      <c r="F9" s="270"/>
+      <c r="G9" s="271"/>
+      <c r="H9" s="270"/>
+      <c r="I9" s="271"/>
+      <c r="J9" s="272"/>
+      <c r="K9" s="273"/>
       <c r="L9" s="51"/>
       <c r="M9" s="43"/>
       <c r="N9" s="43"/>
@@ -7174,14 +7177,14 @@
         <f>Page1!C9</f>
         <v>0</v>
       </c>
-      <c r="D10" s="103"/>
-      <c r="E10" s="105"/>
-      <c r="F10" s="103"/>
-      <c r="G10" s="105"/>
-      <c r="H10" s="103"/>
-      <c r="I10" s="105"/>
-      <c r="J10" s="97"/>
-      <c r="K10" s="106"/>
+      <c r="D10" s="125"/>
+      <c r="E10" s="127"/>
+      <c r="F10" s="125"/>
+      <c r="G10" s="127"/>
+      <c r="H10" s="125"/>
+      <c r="I10" s="127"/>
+      <c r="J10" s="128"/>
+      <c r="K10" s="147"/>
       <c r="L10" s="51"/>
       <c r="M10" s="43"/>
       <c r="N10" s="43"/>
@@ -7203,14 +7206,14 @@
         <f>Page1!C10</f>
         <v>0</v>
       </c>
-      <c r="D11" s="103"/>
-      <c r="E11" s="105"/>
-      <c r="F11" s="103"/>
-      <c r="G11" s="105"/>
-      <c r="H11" s="103"/>
-      <c r="I11" s="105"/>
-      <c r="J11" s="97"/>
-      <c r="K11" s="106"/>
+      <c r="D11" s="125"/>
+      <c r="E11" s="127"/>
+      <c r="F11" s="125"/>
+      <c r="G11" s="127"/>
+      <c r="H11" s="125"/>
+      <c r="I11" s="127"/>
+      <c r="J11" s="128"/>
+      <c r="K11" s="147"/>
       <c r="L11" s="51"/>
       <c r="M11" s="43"/>
       <c r="N11" s="43"/>
@@ -7232,14 +7235,14 @@
         <f>Page1!C11</f>
         <v>0</v>
       </c>
-      <c r="D12" s="103"/>
-      <c r="E12" s="105"/>
-      <c r="F12" s="103"/>
-      <c r="G12" s="105"/>
-      <c r="H12" s="103"/>
-      <c r="I12" s="105"/>
-      <c r="J12" s="97"/>
-      <c r="K12" s="106"/>
+      <c r="D12" s="125"/>
+      <c r="E12" s="127"/>
+      <c r="F12" s="125"/>
+      <c r="G12" s="127"/>
+      <c r="H12" s="125"/>
+      <c r="I12" s="127"/>
+      <c r="J12" s="128"/>
+      <c r="K12" s="147"/>
       <c r="L12" s="53"/>
       <c r="M12" s="54"/>
       <c r="N12" s="54"/>
@@ -7261,14 +7264,14 @@
         <f>Page1!C12</f>
         <v>0</v>
       </c>
-      <c r="D13" s="103"/>
-      <c r="E13" s="105"/>
-      <c r="F13" s="103"/>
-      <c r="G13" s="105"/>
-      <c r="H13" s="103"/>
-      <c r="I13" s="105"/>
-      <c r="J13" s="97"/>
-      <c r="K13" s="106"/>
+      <c r="D13" s="125"/>
+      <c r="E13" s="127"/>
+      <c r="F13" s="125"/>
+      <c r="G13" s="127"/>
+      <c r="H13" s="125"/>
+      <c r="I13" s="127"/>
+      <c r="J13" s="128"/>
+      <c r="K13" s="147"/>
       <c r="L13" s="51"/>
       <c r="M13" s="43"/>
       <c r="N13" s="43"/>
@@ -7290,14 +7293,14 @@
         <f>Page1!C13</f>
         <v>0</v>
       </c>
-      <c r="D14" s="103"/>
-      <c r="E14" s="105"/>
-      <c r="F14" s="103"/>
-      <c r="G14" s="105"/>
-      <c r="H14" s="103"/>
-      <c r="I14" s="105"/>
-      <c r="J14" s="97"/>
-      <c r="K14" s="106"/>
+      <c r="D14" s="125"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="125"/>
+      <c r="G14" s="127"/>
+      <c r="H14" s="125"/>
+      <c r="I14" s="127"/>
+      <c r="J14" s="128"/>
+      <c r="K14" s="147"/>
       <c r="L14" s="51"/>
       <c r="M14" s="43"/>
       <c r="N14" s="43"/>
@@ -7319,14 +7322,14 @@
         <f>Page1!C14</f>
         <v>0</v>
       </c>
-      <c r="D15" s="103"/>
-      <c r="E15" s="105"/>
-      <c r="F15" s="103"/>
-      <c r="G15" s="105"/>
-      <c r="H15" s="103"/>
-      <c r="I15" s="105"/>
-      <c r="J15" s="97"/>
-      <c r="K15" s="106"/>
+      <c r="D15" s="125"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="125"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="125"/>
+      <c r="I15" s="127"/>
+      <c r="J15" s="128"/>
+      <c r="K15" s="147"/>
       <c r="L15" s="51"/>
       <c r="M15" s="43"/>
       <c r="N15" s="43"/>
@@ -7348,14 +7351,14 @@
         <f>Page1!C15</f>
         <v>0</v>
       </c>
-      <c r="D16" s="103"/>
-      <c r="E16" s="105"/>
-      <c r="F16" s="103"/>
-      <c r="G16" s="105"/>
-      <c r="H16" s="103"/>
-      <c r="I16" s="105"/>
-      <c r="J16" s="97"/>
-      <c r="K16" s="106"/>
+      <c r="D16" s="125"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="125"/>
+      <c r="G16" s="127"/>
+      <c r="H16" s="125"/>
+      <c r="I16" s="127"/>
+      <c r="J16" s="128"/>
+      <c r="K16" s="147"/>
       <c r="L16" s="51"/>
       <c r="M16" s="43"/>
       <c r="N16" s="43"/>
@@ -7377,14 +7380,14 @@
         <f>Page1!C16</f>
         <v>0</v>
       </c>
-      <c r="D17" s="103"/>
-      <c r="E17" s="105"/>
-      <c r="F17" s="103"/>
-      <c r="G17" s="105"/>
-      <c r="H17" s="103"/>
-      <c r="I17" s="105"/>
-      <c r="J17" s="97"/>
-      <c r="K17" s="106"/>
+      <c r="D17" s="125"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="125"/>
+      <c r="G17" s="127"/>
+      <c r="H17" s="125"/>
+      <c r="I17" s="127"/>
+      <c r="J17" s="128"/>
+      <c r="K17" s="147"/>
       <c r="L17" s="51"/>
       <c r="M17" s="43"/>
       <c r="N17" s="43"/>
@@ -7406,14 +7409,14 @@
         <f>Page1!C17</f>
         <v>0</v>
       </c>
-      <c r="D18" s="103"/>
-      <c r="E18" s="105"/>
-      <c r="F18" s="103"/>
-      <c r="G18" s="105"/>
-      <c r="H18" s="103"/>
-      <c r="I18" s="105"/>
-      <c r="J18" s="97"/>
-      <c r="K18" s="106"/>
+      <c r="D18" s="125"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="125"/>
+      <c r="G18" s="127"/>
+      <c r="H18" s="125"/>
+      <c r="I18" s="127"/>
+      <c r="J18" s="128"/>
+      <c r="K18" s="147"/>
       <c r="L18" s="51"/>
       <c r="M18" s="43"/>
       <c r="N18" s="43"/>
@@ -7435,14 +7438,14 @@
         <f>Page1!C18</f>
         <v>0</v>
       </c>
-      <c r="D19" s="103"/>
-      <c r="E19" s="105"/>
-      <c r="F19" s="103"/>
-      <c r="G19" s="105"/>
-      <c r="H19" s="103"/>
-      <c r="I19" s="105"/>
-      <c r="J19" s="97"/>
-      <c r="K19" s="106"/>
+      <c r="D19" s="125"/>
+      <c r="E19" s="127"/>
+      <c r="F19" s="125"/>
+      <c r="G19" s="127"/>
+      <c r="H19" s="125"/>
+      <c r="I19" s="127"/>
+      <c r="J19" s="128"/>
+      <c r="K19" s="147"/>
       <c r="L19" s="51"/>
       <c r="M19" s="43"/>
       <c r="N19" s="43"/>
@@ -7464,14 +7467,14 @@
         <f>Page1!C19</f>
         <v>0</v>
       </c>
-      <c r="D20" s="103"/>
-      <c r="E20" s="105"/>
-      <c r="F20" s="103"/>
-      <c r="G20" s="105"/>
-      <c r="H20" s="103"/>
-      <c r="I20" s="105"/>
-      <c r="J20" s="97"/>
-      <c r="K20" s="106"/>
+      <c r="D20" s="125"/>
+      <c r="E20" s="127"/>
+      <c r="F20" s="125"/>
+      <c r="G20" s="127"/>
+      <c r="H20" s="125"/>
+      <c r="I20" s="127"/>
+      <c r="J20" s="128"/>
+      <c r="K20" s="147"/>
       <c r="L20" s="51"/>
       <c r="M20" s="43"/>
       <c r="N20" s="43"/>
@@ -7493,14 +7496,14 @@
         <f>Page1!C20</f>
         <v>0</v>
       </c>
-      <c r="D21" s="103"/>
-      <c r="E21" s="105"/>
-      <c r="F21" s="103"/>
-      <c r="G21" s="105"/>
-      <c r="H21" s="103"/>
-      <c r="I21" s="105"/>
-      <c r="J21" s="97"/>
-      <c r="K21" s="106"/>
+      <c r="D21" s="125"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="125"/>
+      <c r="G21" s="127"/>
+      <c r="H21" s="125"/>
+      <c r="I21" s="127"/>
+      <c r="J21" s="128"/>
+      <c r="K21" s="147"/>
       <c r="L21" s="51"/>
       <c r="M21" s="43"/>
       <c r="N21" s="43"/>
@@ -7522,14 +7525,14 @@
         <f>Page1!C21</f>
         <v>0</v>
       </c>
-      <c r="D22" s="103"/>
-      <c r="E22" s="105"/>
-      <c r="F22" s="103"/>
-      <c r="G22" s="105"/>
-      <c r="H22" s="103"/>
-      <c r="I22" s="105"/>
-      <c r="J22" s="97"/>
-      <c r="K22" s="106"/>
+      <c r="D22" s="125"/>
+      <c r="E22" s="127"/>
+      <c r="F22" s="125"/>
+      <c r="G22" s="127"/>
+      <c r="H22" s="125"/>
+      <c r="I22" s="127"/>
+      <c r="J22" s="128"/>
+      <c r="K22" s="147"/>
       <c r="L22" s="51"/>
       <c r="M22" s="43"/>
       <c r="N22" s="43"/>
@@ -7551,14 +7554,14 @@
         <f>Page1!C22</f>
         <v>0</v>
       </c>
-      <c r="D23" s="103"/>
-      <c r="E23" s="105"/>
-      <c r="F23" s="103"/>
-      <c r="G23" s="105"/>
-      <c r="H23" s="103"/>
-      <c r="I23" s="105"/>
-      <c r="J23" s="97"/>
-      <c r="K23" s="106"/>
+      <c r="D23" s="125"/>
+      <c r="E23" s="127"/>
+      <c r="F23" s="125"/>
+      <c r="G23" s="127"/>
+      <c r="H23" s="125"/>
+      <c r="I23" s="127"/>
+      <c r="J23" s="128"/>
+      <c r="K23" s="147"/>
       <c r="L23" s="51"/>
       <c r="M23" s="43"/>
       <c r="N23" s="43"/>
@@ -7580,14 +7583,14 @@
         <f>Page1!C23</f>
         <v>0</v>
       </c>
-      <c r="D24" s="103"/>
-      <c r="E24" s="105"/>
-      <c r="F24" s="103"/>
-      <c r="G24" s="105"/>
-      <c r="H24" s="103"/>
-      <c r="I24" s="105"/>
-      <c r="J24" s="97"/>
-      <c r="K24" s="106"/>
+      <c r="D24" s="125"/>
+      <c r="E24" s="127"/>
+      <c r="F24" s="125"/>
+      <c r="G24" s="127"/>
+      <c r="H24" s="125"/>
+      <c r="I24" s="127"/>
+      <c r="J24" s="128"/>
+      <c r="K24" s="147"/>
       <c r="L24" s="51"/>
       <c r="M24" s="43"/>
       <c r="N24" s="43"/>
@@ -7609,14 +7612,14 @@
         <f>Page1!C24</f>
         <v>0</v>
       </c>
-      <c r="D25" s="103"/>
-      <c r="E25" s="105"/>
-      <c r="F25" s="103"/>
-      <c r="G25" s="105"/>
-      <c r="H25" s="103"/>
-      <c r="I25" s="105"/>
-      <c r="J25" s="97"/>
-      <c r="K25" s="106"/>
+      <c r="D25" s="125"/>
+      <c r="E25" s="127"/>
+      <c r="F25" s="125"/>
+      <c r="G25" s="127"/>
+      <c r="H25" s="125"/>
+      <c r="I25" s="127"/>
+      <c r="J25" s="128"/>
+      <c r="K25" s="147"/>
       <c r="L25" s="53"/>
       <c r="M25" s="54"/>
       <c r="N25" s="54"/>
@@ -7638,14 +7641,14 @@
         <f>Page1!C25</f>
         <v>0</v>
       </c>
-      <c r="D26" s="103"/>
-      <c r="E26" s="105"/>
-      <c r="F26" s="103"/>
-      <c r="G26" s="105"/>
-      <c r="H26" s="103"/>
-      <c r="I26" s="105"/>
-      <c r="J26" s="97"/>
-      <c r="K26" s="106"/>
+      <c r="D26" s="125"/>
+      <c r="E26" s="127"/>
+      <c r="F26" s="125"/>
+      <c r="G26" s="127"/>
+      <c r="H26" s="125"/>
+      <c r="I26" s="127"/>
+      <c r="J26" s="128"/>
+      <c r="K26" s="147"/>
       <c r="L26" s="51"/>
       <c r="M26" s="43"/>
       <c r="N26" s="43"/>
@@ -7667,14 +7670,14 @@
         <f>Page1!C26</f>
         <v>0</v>
       </c>
-      <c r="D27" s="103"/>
-      <c r="E27" s="105"/>
-      <c r="F27" s="103"/>
-      <c r="G27" s="105"/>
-      <c r="H27" s="103"/>
-      <c r="I27" s="105"/>
-      <c r="J27" s="97"/>
-      <c r="K27" s="106"/>
+      <c r="D27" s="125"/>
+      <c r="E27" s="127"/>
+      <c r="F27" s="125"/>
+      <c r="G27" s="127"/>
+      <c r="H27" s="125"/>
+      <c r="I27" s="127"/>
+      <c r="J27" s="128"/>
+      <c r="K27" s="147"/>
       <c r="L27" s="51"/>
       <c r="M27" s="43"/>
       <c r="N27" s="43"/>
@@ -7696,14 +7699,14 @@
         <f>Page1!C27</f>
         <v>0</v>
       </c>
-      <c r="D28" s="103"/>
-      <c r="E28" s="105"/>
-      <c r="F28" s="103"/>
-      <c r="G28" s="105"/>
-      <c r="H28" s="103"/>
-      <c r="I28" s="105"/>
-      <c r="J28" s="97"/>
-      <c r="K28" s="106"/>
+      <c r="D28" s="125"/>
+      <c r="E28" s="127"/>
+      <c r="F28" s="125"/>
+      <c r="G28" s="127"/>
+      <c r="H28" s="125"/>
+      <c r="I28" s="127"/>
+      <c r="J28" s="128"/>
+      <c r="K28" s="147"/>
       <c r="L28" s="51"/>
       <c r="M28" s="43"/>
       <c r="N28" s="43"/>
@@ -7725,14 +7728,14 @@
         <f>Page1!C28</f>
         <v>0</v>
       </c>
-      <c r="D29" s="103"/>
-      <c r="E29" s="105"/>
-      <c r="F29" s="103"/>
-      <c r="G29" s="105"/>
-      <c r="H29" s="103"/>
-      <c r="I29" s="105"/>
-      <c r="J29" s="97"/>
-      <c r="K29" s="106"/>
+      <c r="D29" s="125"/>
+      <c r="E29" s="127"/>
+      <c r="F29" s="125"/>
+      <c r="G29" s="127"/>
+      <c r="H29" s="125"/>
+      <c r="I29" s="127"/>
+      <c r="J29" s="128"/>
+      <c r="K29" s="147"/>
       <c r="L29" s="51"/>
       <c r="M29" s="43"/>
       <c r="N29" s="43"/>
@@ -7754,14 +7757,14 @@
         <f>Page1!C29</f>
         <v>0</v>
       </c>
-      <c r="D30" s="103"/>
-      <c r="E30" s="105"/>
-      <c r="F30" s="103"/>
-      <c r="G30" s="105"/>
-      <c r="H30" s="103"/>
-      <c r="I30" s="105"/>
-      <c r="J30" s="97"/>
-      <c r="K30" s="106"/>
+      <c r="D30" s="125"/>
+      <c r="E30" s="127"/>
+      <c r="F30" s="125"/>
+      <c r="G30" s="127"/>
+      <c r="H30" s="125"/>
+      <c r="I30" s="127"/>
+      <c r="J30" s="128"/>
+      <c r="K30" s="147"/>
       <c r="L30" s="51"/>
       <c r="M30" s="43"/>
       <c r="N30" s="43"/>
@@ -7783,14 +7786,14 @@
         <f>Page1!C30</f>
         <v>0</v>
       </c>
-      <c r="D31" s="103"/>
-      <c r="E31" s="105"/>
-      <c r="F31" s="103"/>
-      <c r="G31" s="105"/>
-      <c r="H31" s="103"/>
-      <c r="I31" s="105"/>
-      <c r="J31" s="97"/>
-      <c r="K31" s="106"/>
+      <c r="D31" s="125"/>
+      <c r="E31" s="127"/>
+      <c r="F31" s="125"/>
+      <c r="G31" s="127"/>
+      <c r="H31" s="125"/>
+      <c r="I31" s="127"/>
+      <c r="J31" s="128"/>
+      <c r="K31" s="147"/>
       <c r="L31" s="51"/>
       <c r="M31" s="43"/>
       <c r="N31" s="43"/>
@@ -7812,14 +7815,14 @@
         <f>Page1!C31</f>
         <v>0</v>
       </c>
-      <c r="D32" s="103"/>
-      <c r="E32" s="105"/>
-      <c r="F32" s="103"/>
-      <c r="G32" s="105"/>
-      <c r="H32" s="103"/>
-      <c r="I32" s="105"/>
-      <c r="J32" s="97"/>
-      <c r="K32" s="106"/>
+      <c r="D32" s="125"/>
+      <c r="E32" s="127"/>
+      <c r="F32" s="125"/>
+      <c r="G32" s="127"/>
+      <c r="H32" s="125"/>
+      <c r="I32" s="127"/>
+      <c r="J32" s="128"/>
+      <c r="K32" s="147"/>
       <c r="L32" s="51"/>
       <c r="M32" s="43"/>
       <c r="N32" s="43"/>
@@ -7841,14 +7844,14 @@
         <f>Page1!C32</f>
         <v>0</v>
       </c>
-      <c r="D33" s="103"/>
-      <c r="E33" s="105"/>
-      <c r="F33" s="103"/>
-      <c r="G33" s="105"/>
-      <c r="H33" s="103"/>
-      <c r="I33" s="105"/>
-      <c r="J33" s="97"/>
-      <c r="K33" s="106"/>
+      <c r="D33" s="125"/>
+      <c r="E33" s="127"/>
+      <c r="F33" s="125"/>
+      <c r="G33" s="127"/>
+      <c r="H33" s="125"/>
+      <c r="I33" s="127"/>
+      <c r="J33" s="128"/>
+      <c r="K33" s="147"/>
       <c r="L33" s="51"/>
       <c r="M33" s="43"/>
       <c r="N33" s="43"/>
@@ -7870,14 +7873,14 @@
         <f>Page1!C33</f>
         <v>0</v>
       </c>
-      <c r="D34" s="103"/>
-      <c r="E34" s="105"/>
-      <c r="F34" s="103"/>
-      <c r="G34" s="105"/>
-      <c r="H34" s="103"/>
-      <c r="I34" s="105"/>
-      <c r="J34" s="97"/>
-      <c r="K34" s="106"/>
+      <c r="D34" s="125"/>
+      <c r="E34" s="127"/>
+      <c r="F34" s="125"/>
+      <c r="G34" s="127"/>
+      <c r="H34" s="125"/>
+      <c r="I34" s="127"/>
+      <c r="J34" s="128"/>
+      <c r="K34" s="147"/>
       <c r="L34" s="51"/>
       <c r="M34" s="43"/>
       <c r="N34" s="43"/>
@@ -7899,14 +7902,14 @@
         <f>Page1!C34</f>
         <v>0</v>
       </c>
-      <c r="D35" s="103"/>
-      <c r="E35" s="105"/>
-      <c r="F35" s="103"/>
-      <c r="G35" s="105"/>
-      <c r="H35" s="103"/>
-      <c r="I35" s="105"/>
-      <c r="J35" s="97"/>
-      <c r="K35" s="106"/>
+      <c r="D35" s="125"/>
+      <c r="E35" s="127"/>
+      <c r="F35" s="125"/>
+      <c r="G35" s="127"/>
+      <c r="H35" s="125"/>
+      <c r="I35" s="127"/>
+      <c r="J35" s="128"/>
+      <c r="K35" s="147"/>
       <c r="L35" s="51"/>
       <c r="M35" s="43"/>
       <c r="N35" s="43"/>
@@ -7928,14 +7931,14 @@
         <f>Page1!C35</f>
         <v>0</v>
       </c>
-      <c r="D36" s="103"/>
-      <c r="E36" s="105"/>
-      <c r="F36" s="103"/>
-      <c r="G36" s="105"/>
-      <c r="H36" s="103"/>
-      <c r="I36" s="105"/>
-      <c r="J36" s="97"/>
-      <c r="K36" s="106"/>
+      <c r="D36" s="125"/>
+      <c r="E36" s="127"/>
+      <c r="F36" s="125"/>
+      <c r="G36" s="127"/>
+      <c r="H36" s="125"/>
+      <c r="I36" s="127"/>
+      <c r="J36" s="128"/>
+      <c r="K36" s="147"/>
       <c r="L36" s="51"/>
       <c r="M36" s="43"/>
       <c r="N36" s="43"/>
@@ -7957,14 +7960,14 @@
         <f>Page1!C36</f>
         <v>0</v>
       </c>
-      <c r="D37" s="103"/>
-      <c r="E37" s="105"/>
-      <c r="F37" s="103"/>
-      <c r="G37" s="105"/>
-      <c r="H37" s="103"/>
-      <c r="I37" s="105"/>
-      <c r="J37" s="97"/>
-      <c r="K37" s="106"/>
+      <c r="D37" s="125"/>
+      <c r="E37" s="127"/>
+      <c r="F37" s="125"/>
+      <c r="G37" s="127"/>
+      <c r="H37" s="125"/>
+      <c r="I37" s="127"/>
+      <c r="J37" s="128"/>
+      <c r="K37" s="147"/>
       <c r="L37" s="51"/>
       <c r="M37" s="43"/>
       <c r="N37" s="43"/>
@@ -7986,14 +7989,14 @@
         <f>Page1!C37</f>
         <v>0</v>
       </c>
-      <c r="D38" s="189"/>
-      <c r="E38" s="191"/>
-      <c r="F38" s="189"/>
-      <c r="G38" s="191"/>
-      <c r="H38" s="189"/>
-      <c r="I38" s="191"/>
-      <c r="J38" s="157"/>
-      <c r="K38" s="159"/>
+      <c r="D38" s="104"/>
+      <c r="E38" s="106"/>
+      <c r="F38" s="104"/>
+      <c r="G38" s="106"/>
+      <c r="H38" s="104"/>
+      <c r="I38" s="106"/>
+      <c r="J38" s="107"/>
+      <c r="K38" s="201"/>
       <c r="L38" s="53"/>
       <c r="M38" s="54"/>
       <c r="N38" s="54"/>
@@ -8008,33 +8011,33 @@
       <c r="C39" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="D39" s="139" t="e">
+      <c r="D39" s="183" t="e">
         <f>AVERAGE(D9:E38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="E39" s="141"/>
-      <c r="F39" s="139" t="e">
+      <c r="E39" s="185"/>
+      <c r="F39" s="183" t="e">
         <f>AVERAGE(F9:G38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="G39" s="141"/>
-      <c r="H39" s="139" t="e">
+      <c r="G39" s="185"/>
+      <c r="H39" s="183" t="e">
         <f>AVERAGE(H9:I38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="I39" s="141"/>
-      <c r="J39" s="127" t="e">
+      <c r="I39" s="185"/>
+      <c r="J39" s="171" t="e">
         <f>AVERAGE(J9:K38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="K39" s="129"/>
-      <c r="L39" s="236" t="e">
+      <c r="K39" s="173"/>
+      <c r="L39" s="223" t="e">
         <f>AVERAGE(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M39" s="237"/>
-      <c r="N39" s="237"/>
-      <c r="O39" s="239"/>
+      <c r="M39" s="224"/>
+      <c r="N39" s="224"/>
+      <c r="O39" s="226"/>
     </row>
     <row r="40" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1">
       <c r="A40" s="15"/>
@@ -8042,33 +8045,33 @@
       <c r="C40" s="17" t="s">
         <v>25</v>
       </c>
-      <c r="D40" s="271">
+      <c r="D40" s="255">
         <f>MIN(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E40" s="272"/>
-      <c r="F40" s="146">
+      <c r="E40" s="256"/>
+      <c r="F40" s="190">
         <f>MIN(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G40" s="148"/>
-      <c r="H40" s="146">
+      <c r="G40" s="192"/>
+      <c r="H40" s="190">
         <f>MIN(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I40" s="148"/>
-      <c r="J40" s="130">
+      <c r="I40" s="192"/>
+      <c r="J40" s="174">
         <f>MIN(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K40" s="132"/>
-      <c r="L40" s="227" t="e">
+      <c r="K40" s="176"/>
+      <c r="L40" s="214" t="e">
         <f>MIN(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M40" s="228"/>
-      <c r="N40" s="228"/>
-      <c r="O40" s="240"/>
+      <c r="M40" s="215"/>
+      <c r="N40" s="215"/>
+      <c r="O40" s="227"/>
     </row>
     <row r="41" spans="1:15" s="26" customFormat="1" ht="19.5" customHeight="1" thickBot="1">
       <c r="A41" s="18"/>
@@ -8076,63 +8079,63 @@
       <c r="C41" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="D41" s="269">
+      <c r="D41" s="253">
         <f>MAX(D9:E38)</f>
         <v>0</v>
       </c>
-      <c r="E41" s="270"/>
-      <c r="F41" s="153">
+      <c r="E41" s="254"/>
+      <c r="F41" s="197">
         <f>MAX(F9:G38)</f>
         <v>0</v>
       </c>
-      <c r="G41" s="155"/>
-      <c r="H41" s="153">
+      <c r="G41" s="199"/>
+      <c r="H41" s="197">
         <f>MAX(H9:I38)</f>
         <v>0</v>
       </c>
-      <c r="I41" s="155"/>
-      <c r="J41" s="133">
+      <c r="I41" s="199"/>
+      <c r="J41" s="177">
         <f>MAX(J9:K38)</f>
         <v>0</v>
       </c>
-      <c r="K41" s="135"/>
-      <c r="L41" s="243" t="e">
+      <c r="K41" s="179"/>
+      <c r="L41" s="204" t="e">
         <f>MAX(O9:O38)</f>
         <v>#DIV/0!</v>
       </c>
-      <c r="M41" s="244"/>
-      <c r="N41" s="244"/>
-      <c r="O41" s="246"/>
+      <c r="M41" s="205"/>
+      <c r="N41" s="205"/>
+      <c r="O41" s="207"/>
     </row>
     <row r="42" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A42" s="21" t="s">
         <v>12</v>
       </c>
-      <c r="B42" s="250"/>
-      <c r="C42" s="250"/>
-      <c r="D42" s="194" t="s">
+      <c r="B42" s="248"/>
+      <c r="C42" s="248"/>
+      <c r="D42" s="111" t="s">
         <v>14</v>
       </c>
-      <c r="E42" s="194"/>
+      <c r="E42" s="111"/>
       <c r="F42" s="22"/>
       <c r="G42" s="23"/>
       <c r="H42" s="23"/>
       <c r="I42" s="23"/>
-      <c r="J42" s="195" t="s">
+      <c r="J42" s="112" t="s">
         <v>15</v>
       </c>
-      <c r="K42" s="195"/>
-      <c r="L42" s="196"/>
-      <c r="M42" s="196"/>
-      <c r="N42" s="196"/>
+      <c r="K42" s="112"/>
+      <c r="L42" s="113"/>
+      <c r="M42" s="113"/>
+      <c r="N42" s="113"/>
       <c r="O42" s="24" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="43" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
       <c r="A43" s="21"/>
-      <c r="B43" s="251"/>
-      <c r="C43" s="251"/>
+      <c r="B43" s="249"/>
+      <c r="C43" s="249"/>
       <c r="D43" s="24"/>
       <c r="E43" s="24"/>
       <c r="F43" s="21"/>
@@ -8141,39 +8144,39 @@
       <c r="I43" s="23"/>
       <c r="J43" s="23"/>
       <c r="K43" s="24"/>
-      <c r="L43" s="198"/>
-      <c r="M43" s="198"/>
-      <c r="N43" s="198"/>
+      <c r="L43" s="115"/>
+      <c r="M43" s="115"/>
+      <c r="N43" s="115"/>
       <c r="O43" s="24"/>
     </row>
     <row r="44" spans="1:15" s="26" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A44" s="199" t="s">
+      <c r="A44" s="99" t="s">
         <v>13</v>
       </c>
-      <c r="B44" s="199"/>
-      <c r="C44" s="199"/>
+      <c r="B44" s="99"/>
+      <c r="C44" s="99"/>
       <c r="D44" s="23"/>
       <c r="E44" s="23"/>
       <c r="F44" s="30" t="s">
         <v>40</v>
       </c>
-      <c r="G44" s="199" t="str">
+      <c r="G44" s="99" t="str">
         <f>Page1!G43</f>
         <v xml:space="preserve">MRMP : 00001429.003 GCAS:91876235.005	</v>
       </c>
-      <c r="H44" s="199"/>
-      <c r="I44" s="199"/>
-      <c r="J44" s="199"/>
+      <c r="H44" s="99"/>
+      <c r="I44" s="99"/>
+      <c r="J44" s="99"/>
       <c r="L44" s="23"/>
       <c r="M44" s="23"/>
       <c r="N44" s="23"/>
       <c r="O44" s="23"/>
     </row>
     <row r="45" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A45" s="199" t="s">
+      <c r="A45" s="99" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="199"/>
+      <c r="B45" s="99"/>
       <c r="C45" s="21"/>
       <c r="D45" s="23"/>
       <c r="E45" s="23"/>
@@ -8184,15 +8187,15 @@
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
-      <c r="M45" s="200" t="s">
+      <c r="M45" s="100" t="s">
         <v>44</v>
       </c>
-      <c r="N45" s="200"/>
+      <c r="N45" s="100"/>
       <c r="O45" s="23"/>
     </row>
     <row r="46" spans="1:15" s="25" customFormat="1" ht="16.5" customHeight="1">
-      <c r="A46" s="199"/>
-      <c r="B46" s="199"/>
+      <c r="A46" s="99"/>
+      <c r="B46" s="99"/>
       <c r="C46" s="21"/>
       <c r="D46" s="23"/>
       <c r="E46" s="23"/>
@@ -8203,161 +8206,13 @@
       <c r="J46" s="23"/>
       <c r="K46" s="23"/>
       <c r="L46" s="23"/>
-      <c r="M46" s="200"/>
-      <c r="N46" s="200"/>
+      <c r="M46" s="100"/>
+      <c r="N46" s="100"/>
       <c r="O46" s="23"/>
     </row>
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="172">
-    <mergeCell ref="D41:E41"/>
-    <mergeCell ref="F41:G41"/>
-    <mergeCell ref="H41:I41"/>
-    <mergeCell ref="J41:K41"/>
-    <mergeCell ref="L41:O41"/>
-    <mergeCell ref="D39:E39"/>
-    <mergeCell ref="F39:G39"/>
-    <mergeCell ref="H39:I39"/>
-    <mergeCell ref="J39:K39"/>
-    <mergeCell ref="L39:O39"/>
-    <mergeCell ref="D40:E40"/>
-    <mergeCell ref="F40:G40"/>
-    <mergeCell ref="H40:I40"/>
-    <mergeCell ref="J40:K40"/>
-    <mergeCell ref="L40:O40"/>
-    <mergeCell ref="D37:E37"/>
-    <mergeCell ref="F37:G37"/>
-    <mergeCell ref="H37:I37"/>
-    <mergeCell ref="J37:K37"/>
-    <mergeCell ref="D38:E38"/>
-    <mergeCell ref="F38:G38"/>
-    <mergeCell ref="H38:I38"/>
-    <mergeCell ref="J38:K38"/>
-    <mergeCell ref="D35:E35"/>
-    <mergeCell ref="F35:G35"/>
-    <mergeCell ref="H35:I35"/>
-    <mergeCell ref="J35:K35"/>
-    <mergeCell ref="D36:E36"/>
-    <mergeCell ref="F36:G36"/>
-    <mergeCell ref="H36:I36"/>
-    <mergeCell ref="J36:K36"/>
-    <mergeCell ref="D33:E33"/>
-    <mergeCell ref="F33:G33"/>
-    <mergeCell ref="H33:I33"/>
-    <mergeCell ref="J33:K33"/>
-    <mergeCell ref="D34:E34"/>
-    <mergeCell ref="F34:G34"/>
-    <mergeCell ref="H34:I34"/>
-    <mergeCell ref="J34:K34"/>
-    <mergeCell ref="D31:E31"/>
-    <mergeCell ref="F31:G31"/>
-    <mergeCell ref="H31:I31"/>
-    <mergeCell ref="J31:K31"/>
-    <mergeCell ref="D32:E32"/>
-    <mergeCell ref="F32:G32"/>
-    <mergeCell ref="H32:I32"/>
-    <mergeCell ref="J32:K32"/>
-    <mergeCell ref="D29:E29"/>
-    <mergeCell ref="F29:G29"/>
-    <mergeCell ref="H29:I29"/>
-    <mergeCell ref="J29:K29"/>
-    <mergeCell ref="D30:E30"/>
-    <mergeCell ref="F30:G30"/>
-    <mergeCell ref="H30:I30"/>
-    <mergeCell ref="J30:K30"/>
-    <mergeCell ref="D27:E27"/>
-    <mergeCell ref="F27:G27"/>
-    <mergeCell ref="H27:I27"/>
-    <mergeCell ref="J27:K27"/>
-    <mergeCell ref="D28:E28"/>
-    <mergeCell ref="F28:G28"/>
-    <mergeCell ref="H28:I28"/>
-    <mergeCell ref="J28:K28"/>
-    <mergeCell ref="D25:E25"/>
-    <mergeCell ref="F25:G25"/>
-    <mergeCell ref="H25:I25"/>
-    <mergeCell ref="J25:K25"/>
-    <mergeCell ref="D26:E26"/>
-    <mergeCell ref="F26:G26"/>
-    <mergeCell ref="H26:I26"/>
-    <mergeCell ref="J26:K26"/>
-    <mergeCell ref="D23:E23"/>
-    <mergeCell ref="F23:G23"/>
-    <mergeCell ref="H23:I23"/>
-    <mergeCell ref="J23:K23"/>
-    <mergeCell ref="D24:E24"/>
-    <mergeCell ref="F24:G24"/>
-    <mergeCell ref="H24:I24"/>
-    <mergeCell ref="J24:K24"/>
-    <mergeCell ref="D21:E21"/>
-    <mergeCell ref="F21:G21"/>
-    <mergeCell ref="H21:I21"/>
-    <mergeCell ref="J21:K21"/>
-    <mergeCell ref="D22:E22"/>
-    <mergeCell ref="F22:G22"/>
-    <mergeCell ref="H22:I22"/>
-    <mergeCell ref="J22:K22"/>
-    <mergeCell ref="D19:E19"/>
-    <mergeCell ref="F19:G19"/>
-    <mergeCell ref="H19:I19"/>
-    <mergeCell ref="J19:K19"/>
-    <mergeCell ref="D20:E20"/>
-    <mergeCell ref="F20:G20"/>
-    <mergeCell ref="H20:I20"/>
-    <mergeCell ref="J20:K20"/>
-    <mergeCell ref="D17:E17"/>
-    <mergeCell ref="F17:G17"/>
-    <mergeCell ref="H17:I17"/>
-    <mergeCell ref="J17:K17"/>
-    <mergeCell ref="D18:E18"/>
-    <mergeCell ref="F18:G18"/>
-    <mergeCell ref="H18:I18"/>
-    <mergeCell ref="J18:K18"/>
-    <mergeCell ref="D15:E15"/>
-    <mergeCell ref="F15:G15"/>
-    <mergeCell ref="H15:I15"/>
-    <mergeCell ref="J15:K15"/>
-    <mergeCell ref="D16:E16"/>
-    <mergeCell ref="F16:G16"/>
-    <mergeCell ref="H16:I16"/>
-    <mergeCell ref="J16:K16"/>
-    <mergeCell ref="H13:I13"/>
-    <mergeCell ref="J13:K13"/>
-    <mergeCell ref="D14:E14"/>
-    <mergeCell ref="F14:G14"/>
-    <mergeCell ref="H14:I14"/>
-    <mergeCell ref="J14:K14"/>
-    <mergeCell ref="D11:E11"/>
-    <mergeCell ref="F11:G11"/>
-    <mergeCell ref="H11:I11"/>
-    <mergeCell ref="J11:K11"/>
-    <mergeCell ref="D12:E12"/>
-    <mergeCell ref="F12:G12"/>
-    <mergeCell ref="H12:I12"/>
-    <mergeCell ref="J12:K12"/>
-    <mergeCell ref="A1:M1"/>
-    <mergeCell ref="N1:O1"/>
-    <mergeCell ref="A2:M3"/>
-    <mergeCell ref="N2:O2"/>
-    <mergeCell ref="L6:O6"/>
-    <mergeCell ref="A7:C8"/>
-    <mergeCell ref="D7:E8"/>
-    <mergeCell ref="F7:G8"/>
-    <mergeCell ref="H7:I8"/>
-    <mergeCell ref="J7:K8"/>
-    <mergeCell ref="L7:O7"/>
-    <mergeCell ref="B4:D4"/>
-    <mergeCell ref="E4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="J4:K4"/>
-    <mergeCell ref="B5:D5"/>
-    <mergeCell ref="E5:F5"/>
-    <mergeCell ref="G5:H5"/>
-    <mergeCell ref="J5:K5"/>
-    <mergeCell ref="L4:M4"/>
-    <mergeCell ref="N4:O4"/>
-    <mergeCell ref="A6:C6"/>
-    <mergeCell ref="D6:K6"/>
     <mergeCell ref="A45:B45"/>
     <mergeCell ref="M45:N45"/>
     <mergeCell ref="A46:B46"/>
@@ -8382,6 +8237,154 @@
     <mergeCell ref="J10:K10"/>
     <mergeCell ref="D13:E13"/>
     <mergeCell ref="F13:G13"/>
+    <mergeCell ref="A1:M1"/>
+    <mergeCell ref="N1:O1"/>
+    <mergeCell ref="A2:M3"/>
+    <mergeCell ref="N2:O2"/>
+    <mergeCell ref="L6:O6"/>
+    <mergeCell ref="A7:C8"/>
+    <mergeCell ref="D7:E8"/>
+    <mergeCell ref="F7:G8"/>
+    <mergeCell ref="H7:I8"/>
+    <mergeCell ref="J7:K8"/>
+    <mergeCell ref="L7:O7"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="E4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="B5:D5"/>
+    <mergeCell ref="E5:F5"/>
+    <mergeCell ref="G5:H5"/>
+    <mergeCell ref="J5:K5"/>
+    <mergeCell ref="L4:M4"/>
+    <mergeCell ref="N4:O4"/>
+    <mergeCell ref="A6:C6"/>
+    <mergeCell ref="D6:K6"/>
+    <mergeCell ref="H13:I13"/>
+    <mergeCell ref="J13:K13"/>
+    <mergeCell ref="D14:E14"/>
+    <mergeCell ref="F14:G14"/>
+    <mergeCell ref="H14:I14"/>
+    <mergeCell ref="J14:K14"/>
+    <mergeCell ref="D11:E11"/>
+    <mergeCell ref="F11:G11"/>
+    <mergeCell ref="H11:I11"/>
+    <mergeCell ref="J11:K11"/>
+    <mergeCell ref="D12:E12"/>
+    <mergeCell ref="F12:G12"/>
+    <mergeCell ref="H12:I12"/>
+    <mergeCell ref="J12:K12"/>
+    <mergeCell ref="D17:E17"/>
+    <mergeCell ref="F17:G17"/>
+    <mergeCell ref="H17:I17"/>
+    <mergeCell ref="J17:K17"/>
+    <mergeCell ref="D18:E18"/>
+    <mergeCell ref="F18:G18"/>
+    <mergeCell ref="H18:I18"/>
+    <mergeCell ref="J18:K18"/>
+    <mergeCell ref="D15:E15"/>
+    <mergeCell ref="F15:G15"/>
+    <mergeCell ref="H15:I15"/>
+    <mergeCell ref="J15:K15"/>
+    <mergeCell ref="D16:E16"/>
+    <mergeCell ref="F16:G16"/>
+    <mergeCell ref="H16:I16"/>
+    <mergeCell ref="J16:K16"/>
+    <mergeCell ref="D21:E21"/>
+    <mergeCell ref="F21:G21"/>
+    <mergeCell ref="H21:I21"/>
+    <mergeCell ref="J21:K21"/>
+    <mergeCell ref="D22:E22"/>
+    <mergeCell ref="F22:G22"/>
+    <mergeCell ref="H22:I22"/>
+    <mergeCell ref="J22:K22"/>
+    <mergeCell ref="D19:E19"/>
+    <mergeCell ref="F19:G19"/>
+    <mergeCell ref="H19:I19"/>
+    <mergeCell ref="J19:K19"/>
+    <mergeCell ref="D20:E20"/>
+    <mergeCell ref="F20:G20"/>
+    <mergeCell ref="H20:I20"/>
+    <mergeCell ref="J20:K20"/>
+    <mergeCell ref="D25:E25"/>
+    <mergeCell ref="F25:G25"/>
+    <mergeCell ref="H25:I25"/>
+    <mergeCell ref="J25:K25"/>
+    <mergeCell ref="D26:E26"/>
+    <mergeCell ref="F26:G26"/>
+    <mergeCell ref="H26:I26"/>
+    <mergeCell ref="J26:K26"/>
+    <mergeCell ref="D23:E23"/>
+    <mergeCell ref="F23:G23"/>
+    <mergeCell ref="H23:I23"/>
+    <mergeCell ref="J23:K23"/>
+    <mergeCell ref="D24:E24"/>
+    <mergeCell ref="F24:G24"/>
+    <mergeCell ref="H24:I24"/>
+    <mergeCell ref="J24:K24"/>
+    <mergeCell ref="D29:E29"/>
+    <mergeCell ref="F29:G29"/>
+    <mergeCell ref="H29:I29"/>
+    <mergeCell ref="J29:K29"/>
+    <mergeCell ref="D30:E30"/>
+    <mergeCell ref="F30:G30"/>
+    <mergeCell ref="H30:I30"/>
+    <mergeCell ref="J30:K30"/>
+    <mergeCell ref="D27:E27"/>
+    <mergeCell ref="F27:G27"/>
+    <mergeCell ref="H27:I27"/>
+    <mergeCell ref="J27:K27"/>
+    <mergeCell ref="D28:E28"/>
+    <mergeCell ref="F28:G28"/>
+    <mergeCell ref="H28:I28"/>
+    <mergeCell ref="J28:K28"/>
+    <mergeCell ref="D33:E33"/>
+    <mergeCell ref="F33:G33"/>
+    <mergeCell ref="H33:I33"/>
+    <mergeCell ref="J33:K33"/>
+    <mergeCell ref="D34:E34"/>
+    <mergeCell ref="F34:G34"/>
+    <mergeCell ref="H34:I34"/>
+    <mergeCell ref="J34:K34"/>
+    <mergeCell ref="D31:E31"/>
+    <mergeCell ref="F31:G31"/>
+    <mergeCell ref="H31:I31"/>
+    <mergeCell ref="J31:K31"/>
+    <mergeCell ref="D32:E32"/>
+    <mergeCell ref="F32:G32"/>
+    <mergeCell ref="H32:I32"/>
+    <mergeCell ref="J32:K32"/>
+    <mergeCell ref="D37:E37"/>
+    <mergeCell ref="F37:G37"/>
+    <mergeCell ref="H37:I37"/>
+    <mergeCell ref="J37:K37"/>
+    <mergeCell ref="D38:E38"/>
+    <mergeCell ref="F38:G38"/>
+    <mergeCell ref="H38:I38"/>
+    <mergeCell ref="J38:K38"/>
+    <mergeCell ref="D35:E35"/>
+    <mergeCell ref="F35:G35"/>
+    <mergeCell ref="H35:I35"/>
+    <mergeCell ref="J35:K35"/>
+    <mergeCell ref="D36:E36"/>
+    <mergeCell ref="F36:G36"/>
+    <mergeCell ref="H36:I36"/>
+    <mergeCell ref="J36:K36"/>
+    <mergeCell ref="D41:E41"/>
+    <mergeCell ref="F41:G41"/>
+    <mergeCell ref="H41:I41"/>
+    <mergeCell ref="J41:K41"/>
+    <mergeCell ref="L41:O41"/>
+    <mergeCell ref="D39:E39"/>
+    <mergeCell ref="F39:G39"/>
+    <mergeCell ref="H39:I39"/>
+    <mergeCell ref="J39:K39"/>
+    <mergeCell ref="L39:O39"/>
+    <mergeCell ref="D40:E40"/>
+    <mergeCell ref="F40:G40"/>
+    <mergeCell ref="H40:I40"/>
+    <mergeCell ref="J40:K40"/>
+    <mergeCell ref="L40:O40"/>
   </mergeCells>
   <conditionalFormatting sqref="D9:D38 D39:E41">
     <cfRule type="cellIs" dxfId="6" priority="5" operator="notBetween">
@@ -8523,7 +8526,7 @@
       </c>
     </row>
     <row r="3" spans="1:14" s="56" customFormat="1">
-      <c r="A3" s="273"/>
+      <c r="A3" s="97"/>
       <c r="B3" s="84">
         <f>Page1!C8</f>
         <v>0</v>
@@ -8573,7 +8576,7 @@
       </c>
     </row>
     <row r="4" spans="1:14" s="56" customFormat="1">
-      <c r="A4" s="273"/>
+      <c r="A4" s="97"/>
       <c r="B4" s="84">
         <f>Page1!C9</f>
         <v>0</v>
@@ -8623,7 +8626,7 @@
       </c>
     </row>
     <row r="5" spans="1:14" s="56" customFormat="1">
-      <c r="A5" s="273"/>
+      <c r="A5" s="97"/>
       <c r="B5" s="84">
         <f>Page1!C10</f>
         <v>0</v>
@@ -8673,7 +8676,7 @@
       </c>
     </row>
     <row r="6" spans="1:14" s="56" customFormat="1">
-      <c r="A6" s="273"/>
+      <c r="A6" s="97"/>
       <c r="B6" s="84">
         <f>Page1!C11</f>
         <v>0</v>
@@ -8723,7 +8726,7 @@
       </c>
     </row>
     <row r="7" spans="1:14" s="56" customFormat="1">
-      <c r="A7" s="273"/>
+      <c r="A7" s="97"/>
       <c r="B7" s="84">
         <f>Page1!C12</f>
         <v>0</v>
@@ -8773,7 +8776,7 @@
       </c>
     </row>
     <row r="8" spans="1:14" s="56" customFormat="1">
-      <c r="A8" s="273"/>
+      <c r="A8" s="97"/>
       <c r="B8" s="84">
         <f>Page1!C13</f>
         <v>0</v>
@@ -8823,7 +8826,7 @@
       </c>
     </row>
     <row r="9" spans="1:14" s="56" customFormat="1">
-      <c r="A9" s="273"/>
+      <c r="A9" s="97"/>
       <c r="B9" s="84">
         <f>Page1!C14</f>
         <v>0</v>
@@ -8873,7 +8876,7 @@
       </c>
     </row>
     <row r="10" spans="1:14" s="56" customFormat="1">
-      <c r="A10" s="273"/>
+      <c r="A10" s="97"/>
       <c r="B10" s="84">
         <f>Page1!C15</f>
         <v>0</v>
@@ -8923,7 +8926,7 @@
       </c>
     </row>
     <row r="11" spans="1:14" s="56" customFormat="1">
-      <c r="A11" s="273"/>
+      <c r="A11" s="97"/>
       <c r="B11" s="84">
         <f>Page1!C16</f>
         <v>0</v>
@@ -8973,7 +8976,7 @@
       </c>
     </row>
     <row r="12" spans="1:14" s="56" customFormat="1">
-      <c r="A12" s="273"/>
+      <c r="A12" s="97"/>
       <c r="B12" s="84">
         <f>Page1!C17</f>
         <v>0</v>
@@ -9023,7 +9026,7 @@
       </c>
     </row>
     <row r="13" spans="1:14" s="56" customFormat="1">
-      <c r="A13" s="273"/>
+      <c r="A13" s="97"/>
       <c r="B13" s="84">
         <f>Page1!C18</f>
         <v>0</v>
@@ -9073,7 +9076,7 @@
       </c>
     </row>
     <row r="14" spans="1:14" s="56" customFormat="1">
-      <c r="A14" s="273"/>
+      <c r="A14" s="97"/>
       <c r="B14" s="84">
         <f>Page1!C19</f>
         <v>0</v>
@@ -9123,7 +9126,7 @@
       </c>
     </row>
     <row r="15" spans="1:14" s="56" customFormat="1">
-      <c r="A15" s="273"/>
+      <c r="A15" s="97"/>
       <c r="B15" s="84">
         <f>Page1!C20</f>
         <v>0</v>
@@ -9173,7 +9176,7 @@
       </c>
     </row>
     <row r="16" spans="1:14" s="56" customFormat="1">
-      <c r="A16" s="273"/>
+      <c r="A16" s="97"/>
       <c r="B16" s="84">
         <f>Page1!C21</f>
         <v>0</v>
@@ -9223,7 +9226,7 @@
       </c>
     </row>
     <row r="17" spans="1:14" s="56" customFormat="1">
-      <c r="A17" s="273"/>
+      <c r="A17" s="97"/>
       <c r="B17" s="84">
         <f>Page1!C22</f>
         <v>0</v>
@@ -9273,7 +9276,7 @@
       </c>
     </row>
     <row r="18" spans="1:14" s="56" customFormat="1">
-      <c r="A18" s="273"/>
+      <c r="A18" s="97"/>
       <c r="B18" s="84">
         <f>Page1!C23</f>
         <v>0</v>
@@ -9323,7 +9326,7 @@
       </c>
     </row>
     <row r="19" spans="1:14" s="56" customFormat="1">
-      <c r="A19" s="273"/>
+      <c r="A19" s="97"/>
       <c r="B19" s="84">
         <f>Page1!C24</f>
         <v>0</v>
@@ -9373,7 +9376,7 @@
       </c>
     </row>
     <row r="20" spans="1:14" s="56" customFormat="1">
-      <c r="A20" s="273"/>
+      <c r="A20" s="97"/>
       <c r="B20" s="84">
         <f>Page1!C25</f>
         <v>0</v>
@@ -9423,7 +9426,7 @@
       </c>
     </row>
     <row r="21" spans="1:14" s="56" customFormat="1">
-      <c r="A21" s="273"/>
+      <c r="A21" s="97"/>
       <c r="B21" s="84">
         <f>Page1!C26</f>
         <v>0</v>
@@ -9473,7 +9476,7 @@
       </c>
     </row>
     <row r="22" spans="1:14" s="56" customFormat="1">
-      <c r="A22" s="273"/>
+      <c r="A22" s="97"/>
       <c r="B22" s="84">
         <f>Page1!C27</f>
         <v>0</v>
@@ -9523,7 +9526,7 @@
       </c>
     </row>
     <row r="23" spans="1:14" s="56" customFormat="1">
-      <c r="A23" s="273"/>
+      <c r="A23" s="97"/>
       <c r="B23" s="84">
         <f>Page1!C28</f>
         <v>0</v>
@@ -9573,7 +9576,7 @@
       </c>
     </row>
     <row r="24" spans="1:14" s="56" customFormat="1">
-      <c r="A24" s="273"/>
+      <c r="A24" s="97"/>
       <c r="B24" s="84">
         <f>Page1!C29</f>
         <v>0</v>
@@ -9623,7 +9626,7 @@
       </c>
     </row>
     <row r="25" spans="1:14" s="56" customFormat="1">
-      <c r="A25" s="273"/>
+      <c r="A25" s="97"/>
       <c r="B25" s="84">
         <f>Page1!C30</f>
         <v>0</v>
@@ -9673,7 +9676,7 @@
       </c>
     </row>
     <row r="26" spans="1:14" s="56" customFormat="1">
-      <c r="A26" s="273"/>
+      <c r="A26" s="97"/>
       <c r="B26" s="84">
         <f>Page1!C31</f>
         <v>0</v>
@@ -9723,7 +9726,7 @@
       </c>
     </row>
     <row r="27" spans="1:14" s="56" customFormat="1">
-      <c r="A27" s="273"/>
+      <c r="A27" s="97"/>
       <c r="B27" s="84">
         <f>Page1!C32</f>
         <v>0</v>
@@ -9773,7 +9776,7 @@
       </c>
     </row>
     <row r="28" spans="1:14" s="56" customFormat="1">
-      <c r="A28" s="273"/>
+      <c r="A28" s="97"/>
       <c r="B28" s="84">
         <f>Page1!C33</f>
         <v>0</v>
@@ -9823,7 +9826,7 @@
       </c>
     </row>
     <row r="29" spans="1:14" s="56" customFormat="1">
-      <c r="A29" s="273"/>
+      <c r="A29" s="97"/>
       <c r="B29" s="84">
         <f>Page1!C34</f>
         <v>0</v>
@@ -9873,7 +9876,7 @@
       </c>
     </row>
     <row r="30" spans="1:14" s="56" customFormat="1">
-      <c r="A30" s="273"/>
+      <c r="A30" s="97"/>
       <c r="B30" s="84">
         <f>Page1!C35</f>
         <v>0</v>
@@ -9923,7 +9926,7 @@
       </c>
     </row>
     <row r="31" spans="1:14" s="56" customFormat="1">
-      <c r="A31" s="273"/>
+      <c r="A31" s="97"/>
       <c r="B31" s="84">
         <f>Page1!C36</f>
         <v>0</v>
@@ -9973,7 +9976,7 @@
       </c>
     </row>
     <row r="32" spans="1:14" s="56" customFormat="1">
-      <c r="A32" s="273"/>
+      <c r="A32" s="97"/>
       <c r="B32" s="84">
         <f>Page1!C37</f>
         <v>0</v>
@@ -10086,7 +10089,7 @@
   <dimension ref="A1:AT17"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="11.25"/>
@@ -11485,7 +11488,7 @@
         <f t="array" ref="AN9">INDEX(Page1!$G$8:$G$37, COLUMN(AN10)-10)</f>
         <v>0</v>
       </c>
-      <c r="AO9" s="75">
+      <c r="AO9" s="274">
         <f>AVERAGE(K9:AN9)</f>
         <v>0</v>
       </c>
